--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_EVM.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_EVM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D99021-D70C-4A49-A9E9-EE241A3AAFAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49308C3A-95CA-4FA6-A34B-3AEDD96EB1D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11844" yWindow="348" windowWidth="11544" windowHeight="12960" xr2:uid="{1B5A6ABD-0E95-45BD-B30C-68473E7658BC}"/>
+    <workbookView minimized="1" xWindow="3696" yWindow="696" windowWidth="11544" windowHeight="12504" xr2:uid="{1B5A6ABD-0E95-45BD-B30C-68473E7658BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1197,7 +1199,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1377,7 +1379,6 @@
     </xf>
     <xf numFmtId="0" fontId="47" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="25" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="47" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="47" fillId="25" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="50" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1413,6 +1414,12 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1424,12 +1431,6 @@
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -2641,10 +2642,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ81"/>
+  <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK15" sqref="AK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2657,8 +2658,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="107"/>
-      <c r="B1" s="107"/>
+      <c r="A1" s="108"/>
+      <c r="B1" s="108"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
@@ -2666,10 +2667,10 @@
       <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="108"/>
+      <c r="B2" s="109"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
@@ -2703,11 +2704,11 @@
       <c r="B5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="106">
+      <c r="C5" s="107">
         <v>43752</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
@@ -2727,10 +2728,10 @@
       <c r="B7" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="105" t="s">
+      <c r="C7" s="106" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="105"/>
+      <c r="D7" s="106"/>
       <c r="E7" s="37"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
@@ -2816,7 +2817,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
@@ -2825,7 +2826,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
@@ -2840,13 +2841,13 @@
         <f>G79</f>
         <v>1.0354838709677419</v>
       </c>
-      <c r="J18" s="109" t="str">
+      <c r="J18" s="104" t="str">
         <f>IF(I18&gt;1,"Under Budget",IF(I18=1,"","Over Budget"))</f>
         <v>Under Budget</v>
       </c>
-      <c r="K18" s="110"/>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="K18" s="105"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
       <c r="C19" s="38"/>
@@ -2861,13 +2862,13 @@
         <f>G80</f>
         <v>0.9907407407407407</v>
       </c>
-      <c r="J19" s="109" t="str">
+      <c r="J19" s="104" t="str">
         <f>IF(I19&gt;1,"Behind Schedule",IF(I19=1,"On Time","Ahead Schedule"))</f>
         <v>Ahead Schedule</v>
       </c>
-      <c r="K19" s="110"/>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="K19" s="105"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
         <v>23</v>
       </c>
@@ -2877,7 +2878,7 @@
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
     </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>2</v>
       </c>
@@ -2971,16 +2972,13 @@
       <c r="AE21" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="91"/>
-      <c r="AH21" s="91"/>
-    </row>
-    <row r="22" spans="1:43" s="87" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="str">
+    </row>
+    <row r="22" spans="1:31" s="87" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="94" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="85">
@@ -3015,25 +3013,13 @@
       <c r="AC22" s="89"/>
       <c r="AD22" s="89"/>
       <c r="AE22" s="89"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="91"/>
-      <c r="AH22" s="91"/>
-      <c r="AI22" s="91"/>
-      <c r="AJ22" s="91"/>
-      <c r="AK22" s="91"/>
-      <c r="AL22" s="91"/>
-      <c r="AM22" s="91"/>
-      <c r="AN22" s="91"/>
-      <c r="AO22" s="91"/>
-      <c r="AP22" s="91"/>
-      <c r="AQ22" s="91"/>
-    </row>
-    <row r="23" spans="1:43" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="str">
+    </row>
+    <row r="23" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="95" t="str">
         <f t="shared" ref="A23:A46" si="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="96" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="85">
@@ -3068,21 +3054,9 @@
       <c r="AC23" s="86"/>
       <c r="AD23" s="86"/>
       <c r="AE23" s="86"/>
-      <c r="AF23" s="91"/>
-      <c r="AG23" s="91"/>
-      <c r="AH23" s="91"/>
-      <c r="AI23" s="91"/>
-      <c r="AJ23" s="91"/>
-      <c r="AK23" s="91"/>
-      <c r="AL23" s="91"/>
-      <c r="AM23" s="91"/>
-      <c r="AN23" s="91"/>
-      <c r="AO23" s="91"/>
-      <c r="AP23" s="91"/>
-      <c r="AQ23" s="91"/>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A24" s="98" t="str">
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="97" t="str">
         <f t="shared" ref="A24:A31" si="2">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
       </c>
@@ -3124,8 +3098,8 @@
       <c r="AD24" s="71"/>
       <c r="AE24" s="71"/>
     </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A25" s="98" t="str">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="97" t="str">
         <f t="shared" si="2"/>
         <v>1.1.2</v>
       </c>
@@ -3167,8 +3141,8 @@
       <c r="AD25" s="71"/>
       <c r="AE25" s="71"/>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A26" s="98" t="str">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="97" t="str">
         <f t="shared" si="2"/>
         <v>1.1.3</v>
       </c>
@@ -3210,8 +3184,8 @@
       <c r="AD26" s="71"/>
       <c r="AE26" s="71"/>
     </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A27" s="98" t="str">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="97" t="str">
         <f t="shared" si="2"/>
         <v>1.1.4</v>
       </c>
@@ -3253,8 +3227,8 @@
       <c r="AD27" s="71"/>
       <c r="AE27" s="71"/>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A28" s="98" t="str">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="97" t="str">
         <f t="shared" si="2"/>
         <v>1.1.5</v>
       </c>
@@ -3296,8 +3270,8 @@
       <c r="AD28" s="71"/>
       <c r="AE28" s="71"/>
     </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A29" s="98" t="str">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="97" t="str">
         <f t="shared" si="2"/>
         <v>1.1.6</v>
       </c>
@@ -3339,8 +3313,8 @@
       <c r="AD29" s="71"/>
       <c r="AE29" s="71"/>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A30" s="98" t="str">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="97" t="str">
         <f t="shared" si="2"/>
         <v>1.1.7</v>
       </c>
@@ -3382,8 +3356,8 @@
       <c r="AD30" s="71"/>
       <c r="AE30" s="71"/>
     </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A31" s="98" t="str">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="97" t="str">
         <f t="shared" si="2"/>
         <v>1.1.8</v>
       </c>
@@ -3425,12 +3399,12 @@
       <c r="AD31" s="71"/>
       <c r="AE31" s="71"/>
     </row>
-    <row r="32" spans="1:43" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="96" t="str">
+    <row r="32" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="95" t="str">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="96" t="s">
         <v>53</v>
       </c>
       <c r="C32" s="90">
@@ -3465,21 +3439,9 @@
       <c r="AC32" s="86"/>
       <c r="AD32" s="86"/>
       <c r="AE32" s="86"/>
-      <c r="AF32" s="91"/>
-      <c r="AG32" s="91"/>
-      <c r="AH32" s="91"/>
-      <c r="AI32" s="91"/>
-      <c r="AJ32" s="91"/>
-      <c r="AK32" s="91"/>
-      <c r="AL32" s="91"/>
-      <c r="AM32" s="91"/>
-      <c r="AN32" s="91"/>
-      <c r="AO32" s="91"/>
-      <c r="AP32" s="91"/>
-      <c r="AQ32" s="91"/>
-    </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A33" s="98" t="str">
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.1</v>
       </c>
@@ -3520,21 +3482,9 @@
       <c r="AC33" s="71"/>
       <c r="AD33" s="71"/>
       <c r="AE33" s="71"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="91"/>
-      <c r="AH33" s="91"/>
-      <c r="AI33" s="91"/>
-      <c r="AJ33" s="91"/>
-      <c r="AK33" s="91"/>
-      <c r="AL33" s="91"/>
-      <c r="AM33" s="91"/>
-      <c r="AN33" s="91"/>
-      <c r="AO33" s="91"/>
-      <c r="AP33" s="91"/>
-      <c r="AQ33" s="91"/>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A34" s="98" t="str">
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.2</v>
       </c>
@@ -3575,25 +3525,13 @@
       <c r="AC34" s="71"/>
       <c r="AD34" s="71"/>
       <c r="AE34" s="71"/>
-      <c r="AF34" s="91"/>
-      <c r="AG34" s="91"/>
-      <c r="AH34" s="91"/>
-      <c r="AI34" s="91"/>
-      <c r="AJ34" s="91"/>
-      <c r="AK34" s="91"/>
-      <c r="AL34" s="91"/>
-      <c r="AM34" s="91"/>
-      <c r="AN34" s="91"/>
-      <c r="AO34" s="91"/>
-      <c r="AP34" s="91"/>
-      <c r="AQ34" s="91"/>
-    </row>
-    <row r="35" spans="1:43" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="str">
+    </row>
+    <row r="35" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="95" t="str">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="96" t="s">
         <v>56</v>
       </c>
       <c r="C35" s="90">
@@ -3628,21 +3566,9 @@
       <c r="AC35" s="86"/>
       <c r="AD35" s="86"/>
       <c r="AE35" s="86"/>
-      <c r="AF35" s="91"/>
-      <c r="AG35" s="91"/>
-      <c r="AH35" s="91"/>
-      <c r="AI35" s="91"/>
-      <c r="AJ35" s="91"/>
-      <c r="AK35" s="91"/>
-      <c r="AL35" s="91"/>
-      <c r="AM35" s="91"/>
-      <c r="AN35" s="91"/>
-      <c r="AO35" s="91"/>
-      <c r="AP35" s="91"/>
-      <c r="AQ35" s="91"/>
-    </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A36" s="98" t="str">
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.1</v>
       </c>
@@ -3683,21 +3609,9 @@
       <c r="AC36" s="71"/>
       <c r="AD36" s="71"/>
       <c r="AE36" s="71"/>
-      <c r="AF36" s="91"/>
-      <c r="AG36" s="91"/>
-      <c r="AH36" s="91"/>
-      <c r="AI36" s="91"/>
-      <c r="AJ36" s="91"/>
-      <c r="AK36" s="91"/>
-      <c r="AL36" s="91"/>
-      <c r="AM36" s="91"/>
-      <c r="AN36" s="91"/>
-      <c r="AO36" s="91"/>
-      <c r="AP36" s="91"/>
-      <c r="AQ36" s="91"/>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A37" s="98" t="str">
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.2</v>
       </c>
@@ -3738,25 +3652,13 @@
       <c r="AC37" s="71"/>
       <c r="AD37" s="71"/>
       <c r="AE37" s="71"/>
-      <c r="AF37" s="91"/>
-      <c r="AG37" s="91"/>
-      <c r="AH37" s="91"/>
-      <c r="AI37" s="91"/>
-      <c r="AJ37" s="91"/>
-      <c r="AK37" s="91"/>
-      <c r="AL37" s="91"/>
-      <c r="AM37" s="91"/>
-      <c r="AN37" s="91"/>
-      <c r="AO37" s="91"/>
-      <c r="AP37" s="91"/>
-      <c r="AQ37" s="91"/>
-    </row>
-    <row r="38" spans="1:43" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="96" t="str">
+    </row>
+    <row r="38" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="95" t="str">
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
-      <c r="B38" s="97" t="s">
+      <c r="B38" s="96" t="s">
         <v>59</v>
       </c>
       <c r="C38" s="85">
@@ -3791,21 +3693,9 @@
       <c r="AC38" s="86"/>
       <c r="AD38" s="86"/>
       <c r="AE38" s="86"/>
-      <c r="AF38" s="91"/>
-      <c r="AG38" s="91"/>
-      <c r="AH38" s="91"/>
-      <c r="AI38" s="91"/>
-      <c r="AJ38" s="91"/>
-      <c r="AK38" s="91"/>
-      <c r="AL38" s="91"/>
-      <c r="AM38" s="91"/>
-      <c r="AN38" s="91"/>
-      <c r="AO38" s="91"/>
-      <c r="AP38" s="91"/>
-      <c r="AQ38" s="91"/>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A39" s="98" t="str">
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.4.1</v>
       </c>
@@ -3846,25 +3736,13 @@
       <c r="AC39" s="71"/>
       <c r="AD39" s="71"/>
       <c r="AE39" s="71"/>
-      <c r="AF39" s="91"/>
-      <c r="AG39" s="91"/>
-      <c r="AH39" s="91"/>
-      <c r="AI39" s="91"/>
-      <c r="AJ39" s="91"/>
-      <c r="AK39" s="91"/>
-      <c r="AL39" s="91"/>
-      <c r="AM39" s="91"/>
-      <c r="AN39" s="91"/>
-      <c r="AO39" s="91"/>
-      <c r="AP39" s="91"/>
-      <c r="AQ39" s="91"/>
-    </row>
-    <row r="40" spans="1:43" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="96" t="str">
+    </row>
+    <row r="40" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="95" t="str">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="B40" s="97" t="s">
+      <c r="B40" s="96" t="s">
         <v>61</v>
       </c>
       <c r="C40" s="85">
@@ -3899,21 +3777,9 @@
       <c r="AC40" s="86"/>
       <c r="AD40" s="86"/>
       <c r="AE40" s="86"/>
-      <c r="AF40" s="91"/>
-      <c r="AG40" s="91"/>
-      <c r="AH40" s="91"/>
-      <c r="AI40" s="91"/>
-      <c r="AJ40" s="91"/>
-      <c r="AK40" s="91"/>
-      <c r="AL40" s="91"/>
-      <c r="AM40" s="91"/>
-      <c r="AN40" s="91"/>
-      <c r="AO40" s="91"/>
-      <c r="AP40" s="91"/>
-      <c r="AQ40" s="91"/>
-    </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A41" s="98" t="str">
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.5.1</v>
       </c>
@@ -3954,21 +3820,9 @@
       <c r="AC41" s="71"/>
       <c r="AD41" s="71"/>
       <c r="AE41" s="71"/>
-      <c r="AF41" s="91"/>
-      <c r="AG41" s="91"/>
-      <c r="AH41" s="91"/>
-      <c r="AI41" s="91"/>
-      <c r="AJ41" s="91"/>
-      <c r="AK41" s="91"/>
-      <c r="AL41" s="91"/>
-      <c r="AM41" s="91"/>
-      <c r="AN41" s="91"/>
-      <c r="AO41" s="91"/>
-      <c r="AP41" s="91"/>
-      <c r="AQ41" s="91"/>
-    </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A42" s="98" t="str">
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A42" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.5.2</v>
       </c>
@@ -4009,25 +3863,13 @@
       <c r="AC42" s="71"/>
       <c r="AD42" s="71"/>
       <c r="AE42" s="71"/>
-      <c r="AF42" s="91"/>
-      <c r="AG42" s="91"/>
-      <c r="AH42" s="91"/>
-      <c r="AI42" s="91"/>
-      <c r="AJ42" s="91"/>
-      <c r="AK42" s="91"/>
-      <c r="AL42" s="91"/>
-      <c r="AM42" s="91"/>
-      <c r="AN42" s="91"/>
-      <c r="AO42" s="91"/>
-      <c r="AP42" s="91"/>
-      <c r="AQ42" s="91"/>
-    </row>
-    <row r="43" spans="1:43" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="96" t="str">
+    </row>
+    <row r="43" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="95" t="str">
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
-      <c r="B43" s="97" t="s">
+      <c r="B43" s="96" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="85">
@@ -4062,21 +3904,9 @@
       <c r="AC43" s="86"/>
       <c r="AD43" s="86"/>
       <c r="AE43" s="86"/>
-      <c r="AF43" s="91"/>
-      <c r="AG43" s="91"/>
-      <c r="AH43" s="91"/>
-      <c r="AI43" s="91"/>
-      <c r="AJ43" s="91"/>
-      <c r="AK43" s="91"/>
-      <c r="AL43" s="91"/>
-      <c r="AM43" s="91"/>
-      <c r="AN43" s="91"/>
-      <c r="AO43" s="91"/>
-      <c r="AP43" s="91"/>
-      <c r="AQ43" s="91"/>
-    </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A44" s="98" t="str">
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A44" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.1</v>
       </c>
@@ -4117,21 +3947,9 @@
       <c r="AC44" s="71"/>
       <c r="AD44" s="71"/>
       <c r="AE44" s="71"/>
-      <c r="AF44" s="91"/>
-      <c r="AG44" s="91"/>
-      <c r="AH44" s="91"/>
-      <c r="AI44" s="91"/>
-      <c r="AJ44" s="91"/>
-      <c r="AK44" s="91"/>
-      <c r="AL44" s="91"/>
-      <c r="AM44" s="91"/>
-      <c r="AN44" s="91"/>
-      <c r="AO44" s="91"/>
-      <c r="AP44" s="91"/>
-      <c r="AQ44" s="91"/>
-    </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A45" s="98" t="str">
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.2</v>
       </c>
@@ -4172,25 +3990,13 @@
       <c r="AC45" s="71"/>
       <c r="AD45" s="71"/>
       <c r="AE45" s="71"/>
-      <c r="AF45" s="91"/>
-      <c r="AG45" s="91"/>
-      <c r="AH45" s="91"/>
-      <c r="AI45" s="91"/>
-      <c r="AJ45" s="91"/>
-      <c r="AK45" s="91"/>
-      <c r="AL45" s="91"/>
-      <c r="AM45" s="91"/>
-      <c r="AN45" s="91"/>
-      <c r="AO45" s="91"/>
-      <c r="AP45" s="91"/>
-      <c r="AQ45" s="91"/>
-    </row>
-    <row r="46" spans="1:43" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="96" t="str">
+    </row>
+    <row r="46" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="95" t="str">
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
-      <c r="B46" s="97" t="s">
+      <c r="B46" s="96" t="s">
         <v>67</v>
       </c>
       <c r="C46" s="85">
@@ -4225,21 +4031,9 @@
       <c r="AC46" s="86"/>
       <c r="AD46" s="86"/>
       <c r="AE46" s="86"/>
-      <c r="AF46" s="91"/>
-      <c r="AG46" s="91"/>
-      <c r="AH46" s="91"/>
-      <c r="AI46" s="91"/>
-      <c r="AJ46" s="91"/>
-      <c r="AK46" s="91"/>
-      <c r="AL46" s="91"/>
-      <c r="AM46" s="91"/>
-      <c r="AN46" s="91"/>
-      <c r="AO46" s="91"/>
-      <c r="AP46" s="91"/>
-      <c r="AQ46" s="91"/>
-    </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A47" s="98" t="str">
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A47" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.7.1</v>
       </c>
@@ -4280,25 +4074,13 @@
       <c r="AC47" s="71"/>
       <c r="AD47" s="71"/>
       <c r="AE47" s="71"/>
-      <c r="AF47" s="91"/>
-      <c r="AG47" s="91"/>
-      <c r="AH47" s="91"/>
-      <c r="AI47" s="91"/>
-      <c r="AJ47" s="91"/>
-      <c r="AK47" s="91"/>
-      <c r="AL47" s="91"/>
-      <c r="AM47" s="91"/>
-      <c r="AN47" s="91"/>
-      <c r="AO47" s="91"/>
-      <c r="AP47" s="91"/>
-      <c r="AQ47" s="91"/>
-    </row>
-    <row r="48" spans="1:43" s="87" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A48" s="94" t="str">
+    </row>
+    <row r="48" spans="1:31" s="87" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B48" s="95" t="s">
+      <c r="B48" s="94" t="s">
         <v>69</v>
       </c>
       <c r="C48" s="85">
@@ -4333,21 +4115,9 @@
       <c r="AC48" s="86"/>
       <c r="AD48" s="86"/>
       <c r="AE48" s="86"/>
-      <c r="AF48" s="91"/>
-      <c r="AG48" s="91"/>
-      <c r="AH48" s="91"/>
-      <c r="AI48" s="91"/>
-      <c r="AJ48" s="91"/>
-      <c r="AK48" s="91"/>
-      <c r="AL48" s="91"/>
-      <c r="AM48" s="91"/>
-      <c r="AN48" s="91"/>
-      <c r="AO48" s="91"/>
-      <c r="AP48" s="91"/>
-      <c r="AQ48" s="91"/>
-    </row>
-    <row r="49" spans="1:43" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="101" t="str">
+    </row>
+    <row r="49" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="100" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
@@ -4386,21 +4156,9 @@
       <c r="AC49" s="86"/>
       <c r="AD49" s="86"/>
       <c r="AE49" s="86"/>
-      <c r="AF49" s="91"/>
-      <c r="AG49" s="91"/>
-      <c r="AH49" s="91"/>
-      <c r="AI49" s="91"/>
-      <c r="AJ49" s="91"/>
-      <c r="AK49" s="91"/>
-      <c r="AL49" s="91"/>
-      <c r="AM49" s="91"/>
-      <c r="AN49" s="91"/>
-      <c r="AO49" s="91"/>
-      <c r="AP49" s="91"/>
-      <c r="AQ49" s="91"/>
-    </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A50" s="98" t="str">
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.1</v>
       </c>
@@ -4441,21 +4199,9 @@
       <c r="AC50" s="71"/>
       <c r="AD50" s="71"/>
       <c r="AE50" s="71"/>
-      <c r="AF50" s="91"/>
-      <c r="AG50" s="91"/>
-      <c r="AH50" s="91"/>
-      <c r="AI50" s="91"/>
-      <c r="AJ50" s="91"/>
-      <c r="AK50" s="91"/>
-      <c r="AL50" s="91"/>
-      <c r="AM50" s="91"/>
-      <c r="AN50" s="91"/>
-      <c r="AO50" s="91"/>
-      <c r="AP50" s="91"/>
-      <c r="AQ50" s="91"/>
-    </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A51" s="98" t="str">
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.2</v>
       </c>
@@ -4496,21 +4242,9 @@
       <c r="AC51" s="71"/>
       <c r="AD51" s="71"/>
       <c r="AE51" s="71"/>
-      <c r="AF51" s="91"/>
-      <c r="AG51" s="91"/>
-      <c r="AH51" s="91"/>
-      <c r="AI51" s="91"/>
-      <c r="AJ51" s="91"/>
-      <c r="AK51" s="91"/>
-      <c r="AL51" s="91"/>
-      <c r="AM51" s="91"/>
-      <c r="AN51" s="91"/>
-      <c r="AO51" s="91"/>
-      <c r="AP51" s="91"/>
-      <c r="AQ51" s="91"/>
-    </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A52" s="98" t="str">
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.3</v>
       </c>
@@ -4551,21 +4285,9 @@
       <c r="AC52" s="71"/>
       <c r="AD52" s="71"/>
       <c r="AE52" s="71"/>
-      <c r="AF52" s="91"/>
-      <c r="AG52" s="91"/>
-      <c r="AH52" s="91"/>
-      <c r="AI52" s="91"/>
-      <c r="AJ52" s="91"/>
-      <c r="AK52" s="91"/>
-      <c r="AL52" s="91"/>
-      <c r="AM52" s="91"/>
-      <c r="AN52" s="91"/>
-      <c r="AO52" s="91"/>
-      <c r="AP52" s="91"/>
-      <c r="AQ52" s="91"/>
-    </row>
-    <row r="53" spans="1:43" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="101" t="str">
+    </row>
+    <row r="53" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="100" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
@@ -4604,21 +4326,9 @@
       <c r="AC53" s="86"/>
       <c r="AD53" s="86"/>
       <c r="AE53" s="86"/>
-      <c r="AF53" s="91"/>
-      <c r="AG53" s="91"/>
-      <c r="AH53" s="91"/>
-      <c r="AI53" s="91"/>
-      <c r="AJ53" s="91"/>
-      <c r="AK53" s="91"/>
-      <c r="AL53" s="91"/>
-      <c r="AM53" s="91"/>
-      <c r="AN53" s="91"/>
-      <c r="AO53" s="91"/>
-      <c r="AP53" s="91"/>
-      <c r="AQ53" s="91"/>
-    </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A54" s="98" t="str">
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.1</v>
       </c>
@@ -4659,21 +4369,9 @@
       <c r="AC54" s="71"/>
       <c r="AD54" s="71"/>
       <c r="AE54" s="71"/>
-      <c r="AF54" s="91"/>
-      <c r="AG54" s="91"/>
-      <c r="AH54" s="91"/>
-      <c r="AI54" s="91"/>
-      <c r="AJ54" s="91"/>
-      <c r="AK54" s="91"/>
-      <c r="AL54" s="91"/>
-      <c r="AM54" s="91"/>
-      <c r="AN54" s="91"/>
-      <c r="AO54" s="91"/>
-      <c r="AP54" s="91"/>
-      <c r="AQ54" s="91"/>
-    </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A55" s="98" t="str">
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.2</v>
       </c>
@@ -4714,21 +4412,9 @@
       <c r="AC55" s="71"/>
       <c r="AD55" s="71"/>
       <c r="AE55" s="71"/>
-      <c r="AF55" s="91"/>
-      <c r="AG55" s="91"/>
-      <c r="AH55" s="91"/>
-      <c r="AI55" s="91"/>
-      <c r="AJ55" s="91"/>
-      <c r="AK55" s="91"/>
-      <c r="AL55" s="91"/>
-      <c r="AM55" s="91"/>
-      <c r="AN55" s="91"/>
-      <c r="AO55" s="91"/>
-      <c r="AP55" s="91"/>
-      <c r="AQ55" s="91"/>
-    </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A56" s="98" t="str">
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.3</v>
       </c>
@@ -4769,21 +4455,9 @@
       <c r="AC56" s="71"/>
       <c r="AD56" s="71"/>
       <c r="AE56" s="71"/>
-      <c r="AF56" s="91"/>
-      <c r="AG56" s="91"/>
-      <c r="AH56" s="91"/>
-      <c r="AI56" s="91"/>
-      <c r="AJ56" s="91"/>
-      <c r="AK56" s="91"/>
-      <c r="AL56" s="91"/>
-      <c r="AM56" s="91"/>
-      <c r="AN56" s="91"/>
-      <c r="AO56" s="91"/>
-      <c r="AP56" s="91"/>
-      <c r="AQ56" s="91"/>
-    </row>
-    <row r="57" spans="1:43" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="101" t="str">
+    </row>
+    <row r="57" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="100" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
       </c>
@@ -4824,21 +4498,9 @@
       <c r="AC57" s="86"/>
       <c r="AD57" s="86"/>
       <c r="AE57" s="86"/>
-      <c r="AF57" s="91"/>
-      <c r="AG57" s="91"/>
-      <c r="AH57" s="91"/>
-      <c r="AI57" s="91"/>
-      <c r="AJ57" s="91"/>
-      <c r="AK57" s="91"/>
-      <c r="AL57" s="91"/>
-      <c r="AM57" s="91"/>
-      <c r="AN57" s="91"/>
-      <c r="AO57" s="91"/>
-      <c r="AP57" s="91"/>
-      <c r="AQ57" s="91"/>
-    </row>
-    <row r="58" spans="1:43" s="87" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="101" t="str">
+    </row>
+    <row r="58" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="100" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
@@ -4885,25 +4547,13 @@
       <c r="AC58" s="86"/>
       <c r="AD58" s="86"/>
       <c r="AE58" s="86"/>
-      <c r="AF58" s="91"/>
-      <c r="AG58" s="91"/>
-      <c r="AH58" s="91"/>
-      <c r="AI58" s="91"/>
-      <c r="AJ58" s="91"/>
-      <c r="AK58" s="91"/>
-      <c r="AL58" s="91"/>
-      <c r="AM58" s="91"/>
-      <c r="AN58" s="91"/>
-      <c r="AO58" s="91"/>
-      <c r="AP58" s="91"/>
-      <c r="AQ58" s="91"/>
-    </row>
-    <row r="59" spans="1:43" s="87" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A59" s="94" t="str">
+    </row>
+    <row r="59" spans="1:31" s="87" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B59" s="95" t="s">
+      <c r="B59" s="94" t="s">
         <v>80</v>
       </c>
       <c r="C59" s="85">
@@ -4938,25 +4588,13 @@
       <c r="AC59" s="86"/>
       <c r="AD59" s="86"/>
       <c r="AE59" s="86"/>
-      <c r="AF59" s="91"/>
-      <c r="AG59" s="91"/>
-      <c r="AH59" s="91"/>
-      <c r="AI59" s="91"/>
-      <c r="AJ59" s="91"/>
-      <c r="AK59" s="91"/>
-      <c r="AL59" s="91"/>
-      <c r="AM59" s="91"/>
-      <c r="AN59" s="91"/>
-      <c r="AO59" s="91"/>
-      <c r="AP59" s="91"/>
-      <c r="AQ59" s="91"/>
-    </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A60" s="99" t="str">
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A60" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B60" s="100"/>
+      <c r="B60" s="99"/>
       <c r="C60" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4990,12 +4628,12 @@
       <c r="AD60" s="71"/>
       <c r="AE60" s="71"/>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A61" s="99" t="str">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
       </c>
-      <c r="B61" s="100"/>
+      <c r="B61" s="99"/>
       <c r="C61" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5029,12 +4667,12 @@
       <c r="AD61" s="71"/>
       <c r="AE61" s="71"/>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A62" s="99" t="str">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
       </c>
-      <c r="B62" s="100"/>
+      <c r="B62" s="99"/>
       <c r="C62" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5068,12 +4706,12 @@
       <c r="AD62" s="71"/>
       <c r="AE62" s="71"/>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A63" s="99" t="str">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A63" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.4</v>
       </c>
-      <c r="B63" s="100"/>
+      <c r="B63" s="99"/>
       <c r="C63" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5107,12 +4745,12 @@
       <c r="AD63" s="71"/>
       <c r="AE63" s="71"/>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A64" s="99" t="str">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A64" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.5</v>
       </c>
-      <c r="B64" s="100"/>
+      <c r="B64" s="99"/>
       <c r="C64" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5147,8 +4785,8 @@
       <c r="AE64" s="71"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A65" s="99"/>
-      <c r="B65" s="102"/>
+      <c r="A65" s="98"/>
+      <c r="B65" s="101"/>
       <c r="C65" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5183,8 +4821,8 @@
       <c r="AE65" s="71"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A66" s="99"/>
-      <c r="B66" s="102"/>
+      <c r="A66" s="98"/>
+      <c r="B66" s="101"/>
       <c r="C66" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5219,7 +4857,7 @@
       <c r="AE66" s="71"/>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A67" s="99"/>
+      <c r="A67" s="98"/>
       <c r="B67" s="49"/>
       <c r="C67" s="74">
         <f t="shared" si="0"/>
@@ -5255,7 +4893,7 @@
       <c r="AE67" s="71"/>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A68" s="99"/>
+      <c r="A68" s="98"/>
       <c r="B68" s="49"/>
       <c r="C68" s="74">
         <f t="shared" si="0"/>
@@ -6698,89 +6336,89 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="str">
+      <c r="A9" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="92">
+      <c r="C9" s="91">
         <f>Report!C22</f>
         <v>0</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="92"/>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A10" s="96" t="str">
+      <c r="A10" s="95" t="str">
         <f t="shared" ref="A10:A33" si="0">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="92">
+      <c r="C10" s="91">
         <f>Report!C23</f>
         <v>0</v>
       </c>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93"/>
-      <c r="O10" s="93"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="93"/>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93"/>
-      <c r="T10" s="93"/>
-      <c r="U10" s="93"/>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
-      <c r="Z10" s="93"/>
-      <c r="AA10" s="93"/>
-      <c r="AB10" s="93"/>
-      <c r="AC10" s="93"/>
-      <c r="AD10" s="93"/>
-      <c r="AE10" s="93"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="str">
+      <c r="A11" s="97" t="str">
         <f t="shared" ref="A11:A18" si="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
       </c>
@@ -6829,7 +6467,7 @@
       <c r="AE11" s="69"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A12" s="98" t="str">
+      <c r="A12" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.2</v>
       </c>
@@ -6878,7 +6516,7 @@
       <c r="AE12" s="68"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A13" s="98" t="str">
+      <c r="A13" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.3</v>
       </c>
@@ -6927,7 +6565,7 @@
       <c r="AE13" s="68"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A14" s="98" t="str">
+      <c r="A14" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.4</v>
       </c>
@@ -6974,7 +6612,7 @@
       <c r="AE14" s="68"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A15" s="98" t="str">
+      <c r="A15" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.5</v>
       </c>
@@ -7021,7 +6659,7 @@
       <c r="AE15" s="68"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A16" s="98" t="str">
+      <c r="A16" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.6</v>
       </c>
@@ -7068,7 +6706,7 @@
       <c r="AE16" s="68"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A17" s="98" t="str">
+      <c r="A17" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.7</v>
       </c>
@@ -7113,7 +6751,7 @@
       <c r="AE17" s="68"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A18" s="98" t="str">
+      <c r="A18" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.8</v>
       </c>
@@ -7158,48 +6796,48 @@
       <c r="AE18" s="68"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A19" s="96" t="str">
+      <c r="A19" s="95" t="str">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="B19" s="97" t="s">
+      <c r="B19" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="92">
+      <c r="C19" s="91">
         <f>Report!C32</f>
         <v>0</v>
       </c>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="93"/>
-      <c r="L19" s="93"/>
-      <c r="M19" s="93"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="93"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="93"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="93"/>
-      <c r="U19" s="93"/>
-      <c r="V19" s="93"/>
-      <c r="W19" s="93"/>
-      <c r="X19" s="93"/>
-      <c r="Y19" s="93"/>
-      <c r="Z19" s="93"/>
-      <c r="AA19" s="93"/>
-      <c r="AB19" s="93"/>
-      <c r="AC19" s="93"/>
-      <c r="AD19" s="93"/>
-      <c r="AE19" s="93"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="92"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A20" s="98" t="str">
+      <c r="A20" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.1</v>
       </c>
@@ -7246,7 +6884,7 @@
       <c r="AE20" s="68"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="str">
+      <c r="A21" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.2</v>
       </c>
@@ -7293,48 +6931,48 @@
       <c r="AE21" s="68"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A22" s="96" t="str">
+      <c r="A22" s="95" t="str">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="92">
+      <c r="C22" s="91">
         <f>Report!C35</f>
         <v>0</v>
       </c>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="93"/>
-      <c r="L22" s="93"/>
-      <c r="M22" s="93"/>
-      <c r="N22" s="93"/>
-      <c r="O22" s="93"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="93"/>
-      <c r="R22" s="93"/>
-      <c r="S22" s="93"/>
-      <c r="T22" s="93"/>
-      <c r="U22" s="93"/>
-      <c r="V22" s="93"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="93"/>
-      <c r="Y22" s="93"/>
-      <c r="Z22" s="93"/>
-      <c r="AA22" s="93"/>
-      <c r="AB22" s="93"/>
-      <c r="AC22" s="93"/>
-      <c r="AD22" s="93"/>
-      <c r="AE22" s="93"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="92"/>
+      <c r="AC22" s="92"/>
+      <c r="AD22" s="92"/>
+      <c r="AE22" s="92"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A23" s="98" t="str">
+      <c r="A23" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.1</v>
       </c>
@@ -7379,7 +7017,7 @@
       <c r="AE23" s="68"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="98" t="str">
+      <c r="A24" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.2</v>
       </c>
@@ -7424,48 +7062,48 @@
       <c r="AE24" s="68"/>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A25" s="96" t="str">
+      <c r="A25" s="95" t="str">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="B25" s="97" t="s">
+      <c r="B25" s="96" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="92">
+      <c r="C25" s="91">
         <f>Report!C38</f>
         <v>0</v>
       </c>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="93"/>
-      <c r="M25" s="93"/>
-      <c r="N25" s="93"/>
-      <c r="O25" s="93"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="93"/>
-      <c r="R25" s="93"/>
-      <c r="S25" s="93"/>
-      <c r="T25" s="93"/>
-      <c r="U25" s="93"/>
-      <c r="V25" s="93"/>
-      <c r="W25" s="93"/>
-      <c r="X25" s="93"/>
-      <c r="Y25" s="93"/>
-      <c r="Z25" s="93"/>
-      <c r="AA25" s="93"/>
-      <c r="AB25" s="93"/>
-      <c r="AC25" s="93"/>
-      <c r="AD25" s="93"/>
-      <c r="AE25" s="93"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="92"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="92"/>
+      <c r="Y25" s="92"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="92"/>
+      <c r="AB25" s="92"/>
+      <c r="AC25" s="92"/>
+      <c r="AD25" s="92"/>
+      <c r="AE25" s="92"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="98" t="str">
+      <c r="A26" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.4.1</v>
       </c>
@@ -7510,48 +7148,48 @@
       <c r="AE26" s="68"/>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A27" s="96" t="str">
+      <c r="A27" s="95" t="str">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="B27" s="97" t="s">
+      <c r="B27" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="92">
+      <c r="C27" s="91">
         <f>Report!C40</f>
         <v>0</v>
       </c>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="93"/>
-      <c r="M27" s="93"/>
-      <c r="N27" s="93"/>
-      <c r="O27" s="93"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="93"/>
-      <c r="R27" s="93"/>
-      <c r="S27" s="93"/>
-      <c r="T27" s="93"/>
-      <c r="U27" s="93"/>
-      <c r="V27" s="93"/>
-      <c r="W27" s="93"/>
-      <c r="X27" s="93"/>
-      <c r="Y27" s="93"/>
-      <c r="Z27" s="93"/>
-      <c r="AA27" s="93"/>
-      <c r="AB27" s="93"/>
-      <c r="AC27" s="93"/>
-      <c r="AD27" s="93"/>
-      <c r="AE27" s="93"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="92"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="92"/>
+      <c r="AB27" s="92"/>
+      <c r="AC27" s="92"/>
+      <c r="AD27" s="92"/>
+      <c r="AE27" s="92"/>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A28" s="98" t="str">
+      <c r="A28" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.5.1</v>
       </c>
@@ -7594,7 +7232,7 @@
       <c r="AE28" s="68"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="98" t="str">
+      <c r="A29" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.5.2</v>
       </c>
@@ -7637,48 +7275,48 @@
       <c r="AE29" s="68"/>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A30" s="96" t="str">
+      <c r="A30" s="95" t="str">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="92">
+      <c r="C30" s="91">
         <f>Report!C43</f>
         <v>0</v>
       </c>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="93"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="93"/>
-      <c r="R30" s="93"/>
-      <c r="S30" s="93"/>
-      <c r="T30" s="93"/>
-      <c r="U30" s="93"/>
-      <c r="V30" s="93"/>
-      <c r="W30" s="93"/>
-      <c r="X30" s="93"/>
-      <c r="Y30" s="93"/>
-      <c r="Z30" s="93"/>
-      <c r="AA30" s="93"/>
-      <c r="AB30" s="93"/>
-      <c r="AC30" s="93"/>
-      <c r="AD30" s="93"/>
-      <c r="AE30" s="93"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="92"/>
+      <c r="Z30" s="92"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="92"/>
+      <c r="AC30" s="92"/>
+      <c r="AD30" s="92"/>
+      <c r="AE30" s="92"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="98" t="str">
+      <c r="A31" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.1</v>
       </c>
@@ -7721,7 +7359,7 @@
       <c r="AE31" s="68"/>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A32" s="98" t="str">
+      <c r="A32" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.2</v>
       </c>
@@ -7764,48 +7402,48 @@
       <c r="AE32" s="68"/>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" s="96" t="str">
+      <c r="A33" s="95" t="str">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C33" s="92">
+      <c r="C33" s="91">
         <f>Report!C46</f>
         <v>0</v>
       </c>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="93"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="93"/>
-      <c r="AA33" s="93"/>
-      <c r="AB33" s="93"/>
-      <c r="AC33" s="93"/>
-      <c r="AD33" s="93"/>
-      <c r="AE33" s="93"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="92"/>
+      <c r="Y33" s="92"/>
+      <c r="Z33" s="92"/>
+      <c r="AA33" s="92"/>
+      <c r="AB33" s="92"/>
+      <c r="AC33" s="92"/>
+      <c r="AD33" s="92"/>
+      <c r="AE33" s="92"/>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="98" t="str">
+      <c r="A34" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.7.1</v>
       </c>
@@ -7848,89 +7486,89 @@
       <c r="AE34" s="68"/>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="94" t="str">
+      <c r="A35" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="94" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="92">
+      <c r="C35" s="91">
         <f>Report!C48</f>
         <v>0</v>
       </c>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="93"/>
-      <c r="L35" s="93"/>
-      <c r="M35" s="93"/>
-      <c r="N35" s="93"/>
-      <c r="O35" s="93"/>
-      <c r="P35" s="93"/>
-      <c r="Q35" s="93"/>
-      <c r="R35" s="93"/>
-      <c r="S35" s="93"/>
-      <c r="T35" s="93"/>
-      <c r="U35" s="93"/>
-      <c r="V35" s="93"/>
-      <c r="W35" s="93"/>
-      <c r="X35" s="93"/>
-      <c r="Y35" s="93"/>
-      <c r="Z35" s="93"/>
-      <c r="AA35" s="93"/>
-      <c r="AB35" s="93"/>
-      <c r="AC35" s="93"/>
-      <c r="AD35" s="93"/>
-      <c r="AE35" s="93"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="92"/>
+      <c r="AB35" s="92"/>
+      <c r="AC35" s="92"/>
+      <c r="AD35" s="92"/>
+      <c r="AE35" s="92"/>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="96" t="str">
+      <c r="A36" s="95" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
-      <c r="B36" s="97" t="s">
+      <c r="B36" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="92">
+      <c r="C36" s="91">
         <f>Report!C49</f>
         <v>0</v>
       </c>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="93"/>
-      <c r="L36" s="93"/>
-      <c r="M36" s="93"/>
-      <c r="N36" s="93"/>
-      <c r="O36" s="93"/>
-      <c r="P36" s="93"/>
-      <c r="Q36" s="93"/>
-      <c r="R36" s="93"/>
-      <c r="S36" s="93"/>
-      <c r="T36" s="93"/>
-      <c r="U36" s="93"/>
-      <c r="V36" s="93"/>
-      <c r="W36" s="93"/>
-      <c r="X36" s="93"/>
-      <c r="Y36" s="93"/>
-      <c r="Z36" s="93"/>
-      <c r="AA36" s="93"/>
-      <c r="AB36" s="93"/>
-      <c r="AC36" s="93"/>
-      <c r="AD36" s="93"/>
-      <c r="AE36" s="93"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="92"/>
+      <c r="V36" s="92"/>
+      <c r="W36" s="92"/>
+      <c r="X36" s="92"/>
+      <c r="Y36" s="92"/>
+      <c r="Z36" s="92"/>
+      <c r="AA36" s="92"/>
+      <c r="AB36" s="92"/>
+      <c r="AC36" s="92"/>
+      <c r="AD36" s="92"/>
+      <c r="AE36" s="92"/>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" s="98" t="str">
+      <c r="A37" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.1</v>
       </c>
@@ -7971,7 +7609,7 @@
       <c r="AE37" s="68"/>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="98" t="str">
+      <c r="A38" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.2</v>
       </c>
@@ -8012,7 +7650,7 @@
       <c r="AE38" s="68"/>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="98" t="str">
+      <c r="A39" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.3</v>
       </c>
@@ -8053,48 +7691,48 @@
       <c r="AE39" s="68"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="96" t="str">
+      <c r="A40" s="95" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
-      <c r="B40" s="97" t="s">
+      <c r="B40" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="C40" s="92">
+      <c r="C40" s="91">
         <f>Report!C53</f>
         <v>0</v>
       </c>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="93"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="93"/>
-      <c r="I40" s="93"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="93"/>
-      <c r="M40" s="93"/>
-      <c r="N40" s="93"/>
-      <c r="O40" s="93"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="93"/>
-      <c r="R40" s="93"/>
-      <c r="S40" s="93"/>
-      <c r="T40" s="93"/>
-      <c r="U40" s="93"/>
-      <c r="V40" s="93"/>
-      <c r="W40" s="93"/>
-      <c r="X40" s="93"/>
-      <c r="Y40" s="93"/>
-      <c r="Z40" s="93"/>
-      <c r="AA40" s="93"/>
-      <c r="AB40" s="93"/>
-      <c r="AC40" s="93"/>
-      <c r="AD40" s="93"/>
-      <c r="AE40" s="93"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="92"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="92"/>
+      <c r="T40" s="92"/>
+      <c r="U40" s="92"/>
+      <c r="V40" s="92"/>
+      <c r="W40" s="92"/>
+      <c r="X40" s="92"/>
+      <c r="Y40" s="92"/>
+      <c r="Z40" s="92"/>
+      <c r="AA40" s="92"/>
+      <c r="AB40" s="92"/>
+      <c r="AC40" s="92"/>
+      <c r="AD40" s="92"/>
+      <c r="AE40" s="92"/>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="98" t="str">
+      <c r="A41" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.1</v>
       </c>
@@ -8135,7 +7773,7 @@
       <c r="AE41" s="68"/>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A42" s="98" t="str">
+      <c r="A42" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.2</v>
       </c>
@@ -8176,7 +7814,7 @@
       <c r="AE42" s="68"/>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A43" s="98" t="str">
+      <c r="A43" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.3</v>
       </c>
@@ -8217,134 +7855,134 @@
       <c r="AE43" s="68"/>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A44" s="96" t="str">
+      <c r="A44" s="95" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
       </c>
-      <c r="B44" s="97" t="s">
+      <c r="B44" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="92">
+      <c r="C44" s="91">
         <f>Report!C57</f>
         <v>30</v>
       </c>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-      <c r="G44" s="93"/>
-      <c r="H44" s="93"/>
-      <c r="I44" s="93"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="93"/>
-      <c r="M44" s="93"/>
-      <c r="N44" s="93"/>
-      <c r="O44" s="93"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="93"/>
-      <c r="R44" s="93"/>
-      <c r="S44" s="93"/>
-      <c r="T44" s="93"/>
-      <c r="U44" s="93"/>
-      <c r="V44" s="93"/>
-      <c r="W44" s="93"/>
-      <c r="X44" s="93"/>
-      <c r="Y44" s="93"/>
-      <c r="Z44" s="93"/>
-      <c r="AA44" s="93"/>
-      <c r="AB44" s="93"/>
-      <c r="AC44" s="93"/>
-      <c r="AD44" s="93"/>
-      <c r="AE44" s="93"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="92"/>
+      <c r="L44" s="92"/>
+      <c r="M44" s="92"/>
+      <c r="N44" s="92"/>
+      <c r="O44" s="92"/>
+      <c r="P44" s="92"/>
+      <c r="Q44" s="92"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="92"/>
+      <c r="T44" s="92"/>
+      <c r="U44" s="92"/>
+      <c r="V44" s="92"/>
+      <c r="W44" s="92"/>
+      <c r="X44" s="92"/>
+      <c r="Y44" s="92"/>
+      <c r="Z44" s="92"/>
+      <c r="AA44" s="92"/>
+      <c r="AB44" s="92"/>
+      <c r="AC44" s="92"/>
+      <c r="AD44" s="92"/>
+      <c r="AE44" s="92"/>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A45" s="96" t="str">
+      <c r="A45" s="95" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
-      <c r="B45" s="97" t="s">
+      <c r="B45" s="96" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="92">
+      <c r="C45" s="91">
         <f>Report!C58</f>
         <v>30</v>
       </c>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="93"/>
-      <c r="I45" s="93"/>
-      <c r="J45" s="93"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="93"/>
-      <c r="M45" s="93"/>
-      <c r="N45" s="93"/>
-      <c r="O45" s="93"/>
-      <c r="P45" s="93"/>
-      <c r="Q45" s="93"/>
-      <c r="R45" s="93"/>
-      <c r="S45" s="93"/>
-      <c r="T45" s="93"/>
-      <c r="U45" s="93"/>
-      <c r="V45" s="93"/>
-      <c r="W45" s="93"/>
-      <c r="X45" s="93"/>
-      <c r="Y45" s="93"/>
-      <c r="Z45" s="93"/>
-      <c r="AA45" s="93"/>
-      <c r="AB45" s="93"/>
-      <c r="AC45" s="93"/>
-      <c r="AD45" s="93"/>
-      <c r="AE45" s="93"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="92"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="92"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="92"/>
+      <c r="T45" s="92"/>
+      <c r="U45" s="92"/>
+      <c r="V45" s="92"/>
+      <c r="W45" s="92"/>
+      <c r="X45" s="92"/>
+      <c r="Y45" s="92"/>
+      <c r="Z45" s="92"/>
+      <c r="AA45" s="92"/>
+      <c r="AB45" s="92"/>
+      <c r="AC45" s="92"/>
+      <c r="AD45" s="92"/>
+      <c r="AE45" s="92"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A46" s="94" t="str">
+      <c r="A46" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B46" s="95" t="s">
+      <c r="B46" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="92">
+      <c r="C46" s="91">
         <f>Report!C59</f>
         <v>0</v>
       </c>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="93"/>
-      <c r="I46" s="93"/>
-      <c r="J46" s="93"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="93"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="93"/>
-      <c r="P46" s="93"/>
-      <c r="Q46" s="93"/>
-      <c r="R46" s="93"/>
-      <c r="S46" s="93"/>
-      <c r="T46" s="93"/>
-      <c r="U46" s="93"/>
-      <c r="V46" s="93"/>
-      <c r="W46" s="93"/>
-      <c r="X46" s="93"/>
-      <c r="Y46" s="93"/>
-      <c r="Z46" s="93"/>
-      <c r="AA46" s="93"/>
-      <c r="AB46" s="93"/>
-      <c r="AC46" s="93"/>
-      <c r="AD46" s="93"/>
-      <c r="AE46" s="93"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="92"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="92"/>
+      <c r="P46" s="92"/>
+      <c r="Q46" s="92"/>
+      <c r="R46" s="92"/>
+      <c r="S46" s="92"/>
+      <c r="T46" s="92"/>
+      <c r="U46" s="92"/>
+      <c r="V46" s="92"/>
+      <c r="W46" s="92"/>
+      <c r="X46" s="92"/>
+      <c r="Y46" s="92"/>
+      <c r="Z46" s="92"/>
+      <c r="AA46" s="92"/>
+      <c r="AB46" s="92"/>
+      <c r="AC46" s="92"/>
+      <c r="AD46" s="92"/>
+      <c r="AE46" s="92"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A47" s="99" t="str">
+      <c r="A47" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B47" s="100"/>
+      <c r="B47" s="99"/>
       <c r="C47" s="67">
         <f>Report!C60</f>
         <v>0</v>
@@ -8379,11 +8017,11 @@
       <c r="AE47" s="68"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A48" s="99" t="str">
+      <c r="A48" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
       </c>
-      <c r="B48" s="100"/>
+      <c r="B48" s="99"/>
       <c r="C48" s="67">
         <f>Report!C61</f>
         <v>0</v>
@@ -8418,11 +8056,11 @@
       <c r="AE48" s="68"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A49" s="99" t="str">
+      <c r="A49" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
       </c>
-      <c r="B49" s="100"/>
+      <c r="B49" s="99"/>
       <c r="C49" s="67">
         <f>Report!C62</f>
         <v>0</v>
@@ -8457,11 +8095,11 @@
       <c r="AE49" s="68"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A50" s="99" t="str">
+      <c r="A50" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.4</v>
       </c>
-      <c r="B50" s="100"/>
+      <c r="B50" s="99"/>
       <c r="C50" s="67">
         <f>Report!C63</f>
         <v>0</v>
@@ -8496,11 +8134,11 @@
       <c r="AE50" s="68"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A51" s="99" t="str">
+      <c r="A51" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.5</v>
       </c>
-      <c r="B51" s="100"/>
+      <c r="B51" s="99"/>
       <c r="C51" s="67">
         <f>Report!C64</f>
         <v>0</v>
@@ -8885,11 +8523,11 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="94" t="str">
+      <c r="A9" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="94" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="61"/>
@@ -8922,11 +8560,11 @@
       <c r="AD9" s="61"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="103" t="str">
+      <c r="A10" s="102" t="str">
         <f t="shared" ref="A10:A33" si="0">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="103" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="61"/>
@@ -8959,7 +8597,7 @@
       <c r="AD10" s="61"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="str">
+      <c r="A11" s="97" t="str">
         <f t="shared" ref="A11:A18" si="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
       </c>
@@ -8998,7 +8636,7 @@
       <c r="AD11" s="61"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="98" t="str">
+      <c r="A12" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.2</v>
       </c>
@@ -9037,7 +8675,7 @@
       <c r="AD12" s="61"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="98" t="str">
+      <c r="A13" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.3</v>
       </c>
@@ -9076,7 +8714,7 @@
       <c r="AD13" s="61"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="98" t="str">
+      <c r="A14" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.4</v>
       </c>
@@ -9115,7 +8753,7 @@
       <c r="AD14" s="61"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="98" t="str">
+      <c r="A15" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.5</v>
       </c>
@@ -9154,7 +8792,7 @@
       <c r="AD15" s="61"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="98" t="str">
+      <c r="A16" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.6</v>
       </c>
@@ -9193,7 +8831,7 @@
       <c r="AD16" s="61"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="98" t="str">
+      <c r="A17" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.7</v>
       </c>
@@ -9232,7 +8870,7 @@
       <c r="AD17" s="61"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="98" t="str">
+      <c r="A18" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.8</v>
       </c>
@@ -9271,11 +8909,11 @@
       <c r="AD18" s="61"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="103" t="str">
+      <c r="A19" s="102" t="str">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
-      <c r="B19" s="104" t="s">
+      <c r="B19" s="103" t="s">
         <v>53</v>
       </c>
       <c r="C19" s="61"/>
@@ -9308,7 +8946,7 @@
       <c r="AD19" s="61"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="98" t="str">
+      <c r="A20" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.1</v>
       </c>
@@ -9347,7 +8985,7 @@
       <c r="AD20" s="61"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="98" t="str">
+      <c r="A21" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.2</v>
       </c>
@@ -9386,11 +9024,11 @@
       <c r="AD21" s="61"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="103" t="str">
+      <c r="A22" s="102" t="str">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="103" t="s">
         <v>56</v>
       </c>
       <c r="C22" s="61"/>
@@ -9423,7 +9061,7 @@
       <c r="AD22" s="61"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="98" t="str">
+      <c r="A23" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.1</v>
       </c>
@@ -9462,7 +9100,7 @@
       <c r="AD23" s="61"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="98" t="str">
+      <c r="A24" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.2</v>
       </c>
@@ -9501,11 +9139,11 @@
       <c r="AD24" s="61"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="103" t="str">
+      <c r="A25" s="102" t="str">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
-      <c r="B25" s="104" t="s">
+      <c r="B25" s="103" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="61"/>
@@ -9538,7 +9176,7 @@
       <c r="AD25" s="61"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="98" t="str">
+      <c r="A26" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.4.1</v>
       </c>
@@ -9577,11 +9215,11 @@
       <c r="AD26" s="61"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="103" t="str">
+      <c r="A27" s="102" t="str">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="103" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="61"/>
@@ -9614,7 +9252,7 @@
       <c r="AD27" s="61"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="98" t="str">
+      <c r="A28" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.5.1</v>
       </c>
@@ -9653,7 +9291,7 @@
       <c r="AD28" s="61"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="98" t="str">
+      <c r="A29" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.5.2</v>
       </c>
@@ -9692,11 +9330,11 @@
       <c r="AD29" s="61"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="103" t="str">
+      <c r="A30" s="102" t="str">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="103" t="s">
         <v>64</v>
       </c>
       <c r="C30" s="61"/>
@@ -9729,7 +9367,7 @@
       <c r="AD30" s="61"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="98" t="str">
+      <c r="A31" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.1</v>
       </c>
@@ -9768,7 +9406,7 @@
       <c r="AD31" s="61"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="98" t="str">
+      <c r="A32" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.2</v>
       </c>
@@ -9807,11 +9445,11 @@
       <c r="AD32" s="61"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" s="103" t="str">
+      <c r="A33" s="102" t="str">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="103" t="s">
         <v>67</v>
       </c>
       <c r="C33" s="61"/>
@@ -9844,7 +9482,7 @@
       <c r="AD33" s="61"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="98" t="str">
+      <c r="A34" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.7.1</v>
       </c>
@@ -9883,11 +9521,11 @@
       <c r="AD34" s="61"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="94" t="str">
+      <c r="A35" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="94" t="s">
         <v>69</v>
       </c>
       <c r="C35" s="61"/>
@@ -9920,7 +9558,7 @@
       <c r="AD35" s="61"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="99" t="str">
+      <c r="A36" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
@@ -9957,7 +9595,7 @@
       <c r="AD36" s="61"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="98" t="str">
+      <c r="A37" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.1</v>
       </c>
@@ -9994,7 +9632,7 @@
       <c r="AD37" s="61"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="98" t="str">
+      <c r="A38" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.2</v>
       </c>
@@ -10031,7 +9669,7 @@
       <c r="AD38" s="61"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="98" t="str">
+      <c r="A39" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.3</v>
       </c>
@@ -10068,7 +9706,7 @@
       <c r="AD39" s="61"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="99" t="str">
+      <c r="A40" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
@@ -10105,7 +9743,7 @@
       <c r="AD40" s="61"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="98" t="str">
+      <c r="A41" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.1</v>
       </c>
@@ -10142,7 +9780,7 @@
       <c r="AD41" s="61"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="98" t="str">
+      <c r="A42" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.2</v>
       </c>
@@ -10179,7 +9817,7 @@
       <c r="AD42" s="61"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" s="98" t="str">
+      <c r="A43" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.3</v>
       </c>
@@ -10216,7 +9854,7 @@
       <c r="AD43" s="61"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="99" t="str">
+      <c r="A44" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
       </c>
@@ -10253,7 +9891,7 @@
       <c r="AD44" s="61"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" s="99" t="str">
+      <c r="A45" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
@@ -10290,11 +9928,11 @@
       <c r="AD45" s="61"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" s="94" t="str">
+      <c r="A46" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
-      <c r="B46" s="95" t="s">
+      <c r="B46" s="94" t="s">
         <v>80</v>
       </c>
       <c r="C46" s="61"/>
@@ -10327,11 +9965,11 @@
       <c r="AD46" s="61"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A47" s="99" t="str">
+      <c r="A47" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B47" s="100"/>
+      <c r="B47" s="99"/>
       <c r="C47" s="61"/>
       <c r="D47" s="61"/>
       <c r="E47" s="61"/>
@@ -10362,11 +10000,11 @@
       <c r="AD47" s="61"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="99" t="str">
+      <c r="A48" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
       </c>
-      <c r="B48" s="100"/>
+      <c r="B48" s="99"/>
       <c r="C48" s="61"/>
       <c r="D48" s="61"/>
       <c r="E48" s="61"/>
@@ -10397,11 +10035,11 @@
       <c r="AD48" s="61"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="99" t="str">
+      <c r="A49" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
       </c>
-      <c r="B49" s="100"/>
+      <c r="B49" s="99"/>
       <c r="C49" s="61"/>
       <c r="D49" s="61"/>
       <c r="E49" s="61"/>
@@ -10432,11 +10070,11 @@
       <c r="AD49" s="61"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A50" s="99" t="str">
+      <c r="A50" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.4</v>
       </c>
-      <c r="B50" s="100"/>
+      <c r="B50" s="99"/>
       <c r="C50" s="61"/>
       <c r="D50" s="61"/>
       <c r="E50" s="61"/>
@@ -10467,11 +10105,11 @@
       <c r="AD50" s="61"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A51" s="99" t="str">
+      <c r="A51" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.5</v>
       </c>
-      <c r="B51" s="100"/>
+      <c r="B51" s="99"/>
       <c r="C51" s="61"/>
       <c r="D51" s="61"/>
       <c r="E51" s="61"/>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_EVM.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_EVM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo Legion Y7000\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49308C3A-95CA-4FA6-A34B-3AEDD96EB1D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8997188E-185F-444F-AB55-F9584F345897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3696" yWindow="696" windowWidth="11544" windowHeight="12504" xr2:uid="{1B5A6ABD-0E95-45BD-B30C-68473E7658BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1B5A6ABD-0E95-45BD-B30C-68473E7658BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="3" r:id="rId1"/>
@@ -31,14 +31,12 @@
     <definedName name="vertex42_id" hidden="1">"earned-value-management.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Earned Value Management Template"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -82,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="115">
   <si>
     <t>Task Name</t>
   </si>
@@ -210,9 +208,6 @@
     <t>SPI</t>
   </si>
   <si>
-    <t>Week 5</t>
-  </si>
-  <si>
     <t>Planing</t>
   </si>
   <si>
@@ -412,6 +407,24 @@
   </si>
   <si>
     <t>TCB</t>
+  </si>
+  <si>
+    <t>Module 1</t>
+  </si>
+  <si>
+    <t>Implementation</t>
+  </si>
+  <si>
+    <t>Feature "Đăng nhập "</t>
+  </si>
+  <si>
+    <t>Feature "Quản lý thông tin"</t>
+  </si>
+  <si>
+    <t>Feature "Quản lý tài khoản"</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
 </sst>
 </file>
@@ -421,7 +434,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -764,6 +777,29 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="26">
     <fill>
@@ -899,7 +935,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1143,6 +1179,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1199,7 +1274,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1432,6 +1507,21 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1482,7 +1572,35 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1888,14 +2006,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Report!$D$74:$N$74</c15:sqref>
+                    <c15:sqref>Report!$D$74:$O$74</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Report!$D$74:$G$74</c:f>
+              <c:f>(Report!$D$74:$G$74,Report!$O$74)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>40.799999999999997</c:v>
                 </c:pt>
@@ -1907,6 +2025,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2030,14 +2151,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Report!$D$73:$N$73</c15:sqref>
+                    <c15:sqref>Report!$D$73:$O$73</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Report!$D$73:$G$73</c:f>
+              <c:f>(Report!$D$73:$G$73,Report!$O$73)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>30.5</c:v>
                 </c:pt>
@@ -2048,6 +2169,9 @@
                   <c:v>310</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>310</c:v>
                 </c:pt>
               </c:numCache>
@@ -2295,8 +2419,8 @@
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2644,20 +2768,20 @@
   </sheetPr>
   <dimension ref="A1:AE81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK15" sqref="AK15"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N62" sqref="N62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="32" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="32" customWidth="1"/>
     <col min="2" max="2" width="45" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="32" customWidth="1"/>
-    <col min="4" max="31" width="8.77734375" style="32" customWidth="1"/>
-    <col min="32" max="16384" width="8.88671875" style="32"/>
+    <col min="3" max="3" width="11.140625" style="32" customWidth="1"/>
+    <col min="4" max="31" width="8.7109375" style="32" customWidth="1"/>
+    <col min="32" max="16384" width="8.85546875" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="108"/>
       <c r="B1" s="108"/>
       <c r="C1" s="31"/>
@@ -2666,7 +2790,7 @@
       <c r="G1" s="31"/>
       <c r="N1" s="33"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="109" t="s">
         <v>3</v>
       </c>
@@ -2677,7 +2801,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -2686,7 +2810,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="31"/>
       <c r="B4" s="34" t="s">
         <v>4</v>
@@ -2699,7 +2823,7 @@
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
       <c r="B5" s="34" t="s">
         <v>5</v>
@@ -2712,7 +2836,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="31"/>
       <c r="B6" s="34"/>
       <c r="C6" s="36" t="s">
@@ -2723,20 +2847,20 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="34" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="106" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="D7" s="106"/>
       <c r="E7" s="37"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="C8" s="38"/>
@@ -2745,7 +2869,7 @@
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
       <c r="B9" s="39"/>
       <c r="C9" s="38"/>
@@ -2754,7 +2878,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="31"/>
       <c r="B10" s="40"/>
       <c r="C10" s="40"/>
@@ -2763,7 +2887,7 @@
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="31"/>
       <c r="B11" s="40"/>
       <c r="C11" s="40"/>
@@ -2772,7 +2896,7 @@
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="31"/>
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
@@ -2781,7 +2905,7 @@
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="31"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -2790,7 +2914,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="31"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -2799,7 +2923,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="31"/>
       <c r="B15" s="40"/>
       <c r="C15" s="40"/>
@@ -2808,7 +2932,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="31"/>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -2817,7 +2941,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="31"/>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
@@ -2826,7 +2950,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="31"/>
       <c r="B18" s="40"/>
       <c r="C18" s="40"/>
@@ -2847,7 +2971,7 @@
       </c>
       <c r="K18" s="105"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
       <c r="C19" s="38"/>
@@ -2868,7 +2992,7 @@
       </c>
       <c r="K19" s="105"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>23</v>
       </c>
@@ -2878,7 +3002,7 @@
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="51" t="s">
         <v>2</v>
       </c>
@@ -2889,97 +3013,97 @@
         <v>14</v>
       </c>
       <c r="D21" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="F21" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="G21" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="H21" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="I21" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="66" t="s">
+      <c r="J21" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="J21" s="66" t="s">
+      <c r="K21" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="66" t="s">
+      <c r="L21" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="L21" s="66" t="s">
+      <c r="M21" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="M21" s="66" t="s">
+      <c r="N21" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="N21" s="66" t="s">
+      <c r="O21" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="O21" s="66" t="s">
+      <c r="P21" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="P21" s="66" t="s">
+      <c r="Q21" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="Q21" s="66" t="s">
+      <c r="R21" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="R21" s="66" t="s">
+      <c r="S21" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="S21" s="66" t="s">
+      <c r="T21" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="T21" s="66" t="s">
+      <c r="U21" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="U21" s="66" t="s">
+      <c r="V21" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="V21" s="66" t="s">
+      <c r="W21" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="W21" s="66" t="s">
+      <c r="X21" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="X21" s="66" t="s">
+      <c r="Y21" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="Y21" s="66" t="s">
+      <c r="Z21" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="Z21" s="66" t="s">
+      <c r="AA21" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="AA21" s="66" t="s">
+      <c r="AB21" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="AB21" s="66" t="s">
+      <c r="AC21" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="AC21" s="66" t="s">
+      <c r="AD21" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="AD21" s="66" t="s">
+      <c r="AE21" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="AE21" s="66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31" s="87" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:31" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
       <c r="B22" s="94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="85">
         <f t="shared" ref="C22:C68" si="0">SUM(D22:J22)</f>
@@ -3014,13 +3138,13 @@
       <c r="AD22" s="89"/>
       <c r="AE22" s="89"/>
     </row>
-    <row r="23" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="95" t="str">
         <f t="shared" ref="A23:A46" si="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="85">
         <f t="shared" si="0"/>
@@ -3055,13 +3179,13 @@
       <c r="AD23" s="86"/>
       <c r="AE23" s="86"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="97" t="str">
         <f t="shared" ref="A24:A31" si="2">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="74">
         <f t="shared" si="0"/>
@@ -3098,13 +3222,13 @@
       <c r="AD24" s="71"/>
       <c r="AE24" s="71"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="97" t="str">
         <f t="shared" si="2"/>
         <v>1.1.2</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="74">
         <f t="shared" si="0"/>
@@ -3141,13 +3265,13 @@
       <c r="AD25" s="71"/>
       <c r="AE25" s="71"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="97" t="str">
         <f t="shared" si="2"/>
         <v>1.1.3</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="74">
         <f t="shared" si="0"/>
@@ -3184,13 +3308,13 @@
       <c r="AD26" s="71"/>
       <c r="AE26" s="71"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="97" t="str">
         <f t="shared" si="2"/>
         <v>1.1.4</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="74">
         <f t="shared" si="0"/>
@@ -3227,13 +3351,13 @@
       <c r="AD27" s="71"/>
       <c r="AE27" s="71"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="97" t="str">
         <f t="shared" si="2"/>
         <v>1.1.5</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="74">
         <f t="shared" si="0"/>
@@ -3270,13 +3394,13 @@
       <c r="AD28" s="71"/>
       <c r="AE28" s="71"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="97" t="str">
         <f t="shared" si="2"/>
         <v>1.1.6</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="74">
         <f t="shared" si="0"/>
@@ -3313,13 +3437,13 @@
       <c r="AD29" s="71"/>
       <c r="AE29" s="71"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="97" t="str">
         <f t="shared" si="2"/>
         <v>1.1.7</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="74">
         <f t="shared" si="0"/>
@@ -3356,13 +3480,13 @@
       <c r="AD30" s="71"/>
       <c r="AE30" s="71"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="97" t="str">
         <f t="shared" si="2"/>
         <v>1.1.8</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="74">
         <f t="shared" si="0"/>
@@ -3399,13 +3523,13 @@
       <c r="AD31" s="71"/>
       <c r="AE31" s="71"/>
     </row>
-    <row r="32" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="95" t="str">
         <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="B32" s="96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="90">
         <f t="shared" si="0"/>
@@ -3440,13 +3564,13 @@
       <c r="AD32" s="86"/>
       <c r="AE32" s="86"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.1</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="74">
         <f t="shared" si="0"/>
@@ -3483,13 +3607,13 @@
       <c r="AD33" s="71"/>
       <c r="AE33" s="71"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.2</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="74">
         <f t="shared" si="0"/>
@@ -3526,13 +3650,13 @@
       <c r="AD34" s="71"/>
       <c r="AE34" s="71"/>
     </row>
-    <row r="35" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="95" t="str">
         <f t="shared" si="1"/>
         <v>1.3</v>
       </c>
       <c r="B35" s="96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="90">
         <f t="shared" si="0"/>
@@ -3567,13 +3691,13 @@
       <c r="AD35" s="86"/>
       <c r="AE35" s="86"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.1</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="74">
         <f t="shared" si="0"/>
@@ -3610,13 +3734,13 @@
       <c r="AD36" s="71"/>
       <c r="AE36" s="71"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.2</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="74">
         <f t="shared" si="0"/>
@@ -3653,13 +3777,13 @@
       <c r="AD37" s="71"/>
       <c r="AE37" s="71"/>
     </row>
-    <row r="38" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="95" t="str">
         <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="85">
         <f t="shared" si="0"/>
@@ -3694,13 +3818,13 @@
       <c r="AD38" s="86"/>
       <c r="AE38" s="86"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.4.1</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="74">
         <f t="shared" si="0"/>
@@ -3737,13 +3861,13 @@
       <c r="AD39" s="71"/>
       <c r="AE39" s="71"/>
     </row>
-    <row r="40" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="95" t="str">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="B40" s="96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="85">
         <f t="shared" si="0"/>
@@ -3778,13 +3902,13 @@
       <c r="AD40" s="86"/>
       <c r="AE40" s="86"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.5.1</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="74">
         <f t="shared" si="0"/>
@@ -3821,13 +3945,13 @@
       <c r="AD41" s="71"/>
       <c r="AE41" s="71"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.5.2</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="74">
         <f t="shared" si="0"/>
@@ -3864,13 +3988,13 @@
       <c r="AD42" s="71"/>
       <c r="AE42" s="71"/>
     </row>
-    <row r="43" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="95" t="str">
         <f t="shared" si="1"/>
         <v>1.6</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="85">
         <f t="shared" si="0"/>
@@ -3905,13 +4029,13 @@
       <c r="AD43" s="86"/>
       <c r="AE43" s="86"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.1</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="74">
         <f t="shared" si="0"/>
@@ -3948,13 +4072,13 @@
       <c r="AD44" s="71"/>
       <c r="AE44" s="71"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.2</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="74">
         <f t="shared" si="0"/>
@@ -3991,13 +4115,13 @@
       <c r="AD45" s="71"/>
       <c r="AE45" s="71"/>
     </row>
-    <row r="46" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="95" t="str">
         <f t="shared" si="1"/>
         <v>1.7</v>
       </c>
       <c r="B46" s="96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="85">
         <f t="shared" si="0"/>
@@ -4032,13 +4156,13 @@
       <c r="AD46" s="86"/>
       <c r="AE46" s="86"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.7.1</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="74">
         <f t="shared" si="0"/>
@@ -4075,13 +4199,13 @@
       <c r="AD47" s="71"/>
       <c r="AE47" s="71"/>
     </row>
-    <row r="48" spans="1:31" s="87" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
       <c r="B48" s="94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="85">
         <f t="shared" si="0"/>
@@ -4116,13 +4240,13 @@
       <c r="AD48" s="86"/>
       <c r="AE48" s="86"/>
     </row>
-    <row r="49" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="100" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
       <c r="B49" s="88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="85">
         <f t="shared" si="0"/>
@@ -4157,13 +4281,13 @@
       <c r="AD49" s="86"/>
       <c r="AE49" s="86"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.1</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="74">
         <f t="shared" si="0"/>
@@ -4200,13 +4324,13 @@
       <c r="AD50" s="71"/>
       <c r="AE50" s="71"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.2</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="74">
         <f t="shared" si="0"/>
@@ -4243,13 +4367,13 @@
       <c r="AD51" s="71"/>
       <c r="AE51" s="71"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.3</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="74">
         <f t="shared" si="0"/>
@@ -4286,13 +4410,13 @@
       <c r="AD52" s="71"/>
       <c r="AE52" s="71"/>
     </row>
-    <row r="53" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="100" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
       <c r="B53" s="88" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="85">
         <f t="shared" si="0"/>
@@ -4327,13 +4451,13 @@
       <c r="AD53" s="86"/>
       <c r="AE53" s="86"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.1</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="74">
         <f t="shared" si="0"/>
@@ -4370,13 +4494,13 @@
       <c r="AD54" s="71"/>
       <c r="AE54" s="71"/>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.2</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="74">
         <f t="shared" si="0"/>
@@ -4413,13 +4537,13 @@
       <c r="AD55" s="71"/>
       <c r="AE55" s="71"/>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.3</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="74">
         <f t="shared" si="0"/>
@@ -4456,13 +4580,13 @@
       <c r="AD56" s="71"/>
       <c r="AE56" s="71"/>
     </row>
-    <row r="57" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="100" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
       </c>
       <c r="B57" s="88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="85">
         <f t="shared" si="0"/>
@@ -4499,13 +4623,13 @@
       <c r="AD57" s="86"/>
       <c r="AE57" s="86"/>
     </row>
-    <row r="58" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:31" s="87" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="100" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
       <c r="B58" s="88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C58" s="85">
         <f t="shared" si="0"/>
@@ -4548,13 +4672,13 @@
       <c r="AD58" s="86"/>
       <c r="AE58" s="86"/>
     </row>
-    <row r="59" spans="1:31" s="87" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:31" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
       <c r="B59" s="94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" s="85">
         <f t="shared" si="0"/>
@@ -4589,12 +4713,14 @@
       <c r="AD59" s="86"/>
       <c r="AE59" s="86"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="98" t="str">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A60" s="113" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B60" s="99"/>
+      <c r="B60" s="110" t="s">
+        <v>109</v>
+      </c>
       <c r="C60" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4628,12 +4754,14 @@
       <c r="AD60" s="71"/>
       <c r="AE60" s="71"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A61" s="98" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B61" s="99"/>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A61" s="114" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.1</v>
+      </c>
+      <c r="B61" s="111" t="s">
+        <v>110</v>
+      </c>
       <c r="C61" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4667,12 +4795,14 @@
       <c r="AD61" s="71"/>
       <c r="AE61" s="71"/>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62" s="98" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
-      </c>
-      <c r="B62" s="99"/>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A62" s="113" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.1</v>
+      </c>
+      <c r="B62" s="112" t="s">
+        <v>111</v>
+      </c>
       <c r="C62" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4706,12 +4836,14 @@
       <c r="AD62" s="71"/>
       <c r="AE62" s="71"/>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A63" s="98" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
-      </c>
-      <c r="B63" s="99"/>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A63" s="113" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.2</v>
+      </c>
+      <c r="B63" s="112" t="s">
+        <v>112</v>
+      </c>
       <c r="C63" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4745,12 +4877,14 @@
       <c r="AD63" s="71"/>
       <c r="AE63" s="71"/>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A64" s="98" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B64" s="99"/>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A64" s="113" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.3</v>
+      </c>
+      <c r="B64" s="112" t="s">
+        <v>113</v>
+      </c>
       <c r="C64" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4784,7 +4918,7 @@
       <c r="AD64" s="71"/>
       <c r="AE64" s="71"/>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" s="98"/>
       <c r="B65" s="101"/>
       <c r="C65" s="74">
@@ -4820,7 +4954,7 @@
       <c r="AD65" s="71"/>
       <c r="AE65" s="71"/>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" s="98"/>
       <c r="B66" s="101"/>
       <c r="C66" s="74">
@@ -4856,7 +4990,7 @@
       <c r="AD66" s="71"/>
       <c r="AE66" s="71"/>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" s="98"/>
       <c r="B67" s="49"/>
       <c r="C67" s="74">
@@ -4892,7 +5026,7 @@
       <c r="AD67" s="71"/>
       <c r="AE67" s="71"/>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" s="98"/>
       <c r="B68" s="49"/>
       <c r="C68" s="74">
@@ -4928,129 +5062,129 @@
       <c r="AD68" s="71"/>
       <c r="AE68" s="71"/>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" s="44"/>
       <c r="B69" s="45" t="s">
         <v>24</v>
       </c>
       <c r="C69" s="77">
-        <f t="shared" ref="C69:J69" si="3">SUM(C22:C68)</f>
+        <f>SUM(C22:C68)</f>
         <v>516</v>
       </c>
       <c r="D69" s="78">
-        <f t="shared" si="3"/>
+        <f>SUM(D22:D68)</f>
         <v>42</v>
       </c>
       <c r="E69" s="78">
-        <f t="shared" si="3"/>
+        <f>SUM(E22:E68)</f>
         <v>90</v>
       </c>
       <c r="F69" s="78">
-        <f t="shared" si="3"/>
+        <f>SUM(F22:F68)</f>
         <v>102</v>
       </c>
       <c r="G69" s="78">
-        <f t="shared" si="3"/>
+        <f>SUM(G22:G68)</f>
         <v>90</v>
       </c>
       <c r="H69" s="78">
-        <f t="shared" si="3"/>
+        <f>SUM(H22:H68)</f>
         <v>72</v>
       </c>
       <c r="I69" s="78">
-        <f t="shared" si="3"/>
+        <f>SUM(I22:I68)</f>
         <v>60</v>
       </c>
       <c r="J69" s="78">
-        <f t="shared" si="3"/>
+        <f>SUM(J22:J68)</f>
         <v>60</v>
       </c>
       <c r="K69" s="78">
-        <f t="shared" ref="K69:Q69" si="4">SUM(K22:K68)</f>
+        <f>SUM(K22:K68)</f>
         <v>30</v>
       </c>
       <c r="L69" s="78">
-        <f t="shared" si="4"/>
+        <f>SUM(L22:L68)</f>
         <v>30</v>
       </c>
       <c r="M69" s="78">
-        <f t="shared" si="4"/>
+        <f>SUM(M22:M68)</f>
         <v>30</v>
       </c>
       <c r="N69" s="78">
-        <f t="shared" si="4"/>
+        <f>SUM(N22:N68)</f>
         <v>0</v>
       </c>
       <c r="O69" s="78">
-        <f t="shared" si="4"/>
+        <f>SUM(O22:O68)</f>
         <v>0</v>
       </c>
       <c r="P69" s="78">
-        <f t="shared" si="4"/>
+        <f>SUM(P22:P68)</f>
         <v>0</v>
       </c>
       <c r="Q69" s="78">
-        <f t="shared" si="4"/>
+        <f>SUM(Q22:Q68)</f>
         <v>0</v>
       </c>
       <c r="R69" s="78">
-        <f t="shared" ref="R69:AE69" si="5">SUM(R22:R68)</f>
+        <f>SUM(R22:R68)</f>
         <v>0</v>
       </c>
       <c r="S69" s="78">
-        <f t="shared" si="5"/>
+        <f>SUM(S22:S68)</f>
         <v>0</v>
       </c>
       <c r="T69" s="78">
-        <f t="shared" si="5"/>
+        <f>SUM(T22:T68)</f>
         <v>0</v>
       </c>
       <c r="U69" s="78">
-        <f t="shared" si="5"/>
+        <f>SUM(U22:U68)</f>
         <v>0</v>
       </c>
       <c r="V69" s="78">
-        <f t="shared" si="5"/>
+        <f>SUM(V22:V68)</f>
         <v>0</v>
       </c>
       <c r="W69" s="78">
-        <f t="shared" si="5"/>
+        <f>SUM(W22:W68)</f>
         <v>0</v>
       </c>
       <c r="X69" s="78">
-        <f t="shared" si="5"/>
+        <f>SUM(X22:X68)</f>
         <v>0</v>
       </c>
       <c r="Y69" s="78">
-        <f t="shared" si="5"/>
+        <f>SUM(Y22:Y68)</f>
         <v>0</v>
       </c>
       <c r="Z69" s="78">
-        <f t="shared" si="5"/>
+        <f>SUM(Z22:Z68)</f>
         <v>0</v>
       </c>
       <c r="AA69" s="78">
-        <f t="shared" si="5"/>
+        <f>SUM(AA22:AA68)</f>
         <v>0</v>
       </c>
       <c r="AB69" s="78">
-        <f t="shared" si="5"/>
+        <f>SUM(AB22:AB68)</f>
         <v>0</v>
       </c>
       <c r="AC69" s="78">
-        <f t="shared" si="5"/>
+        <f>SUM(AC22:AC68)</f>
         <v>0</v>
       </c>
       <c r="AD69" s="78">
-        <f t="shared" si="5"/>
+        <f>SUM(AD22:AD68)</f>
         <v>0</v>
       </c>
       <c r="AE69" s="78">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+        <f>SUM(AE22:AE68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" s="44"/>
       <c r="B70" s="45"/>
       <c r="C70" s="79" t="s">
@@ -5169,7 +5303,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="81"/>
@@ -5202,7 +5336,7 @@
       <c r="AD71" s="81"/>
       <c r="AE71" s="81"/>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" s="46" t="s">
         <v>29</v>
       </c>
@@ -5236,7 +5370,7 @@
       <c r="AD72" s="64"/>
       <c r="AE72" s="64"/>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="79" t="s">
@@ -5355,7 +5489,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="79" t="s">
@@ -5474,7 +5608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="81"/>
@@ -5507,7 +5641,7 @@
       <c r="AD75" s="81"/>
       <c r="AE75" s="81"/>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" s="46" t="s">
         <v>17</v>
       </c>
@@ -5541,7 +5675,7 @@
       <c r="AD76" s="64"/>
       <c r="AE76" s="64"/>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C77" s="82" t="s">
         <v>11</v>
       </c>
@@ -5554,111 +5688,111 @@
         <v>3</v>
       </c>
       <c r="F77" s="82">
-        <f t="shared" ref="F77:AE77" si="6">IF(AND(ISBLANK(F73),ISBLANK(F74))," - ",F74-F73)</f>
+        <f t="shared" ref="F77:AE77" si="3">IF(AND(ISBLANK(F73),ISBLANK(F74))," - ",F74-F73)</f>
         <v>-79</v>
       </c>
       <c r="G77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="H77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="I77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="J77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="K77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="L77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="M77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="N77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="O77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="P77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="Q77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="R77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="S77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="T77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="U77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="V77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="W77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="X77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="Y77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="Z77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="AA77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="AB77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="AC77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="AD77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
       <c r="AE77" s="82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>-310</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C78" s="82" t="s">
         <v>10</v>
       </c>
@@ -5671,111 +5805,111 @@
         <v>-3</v>
       </c>
       <c r="F78" s="82">
-        <f t="shared" ref="F78:AE78" si="7">IF(AND(ISBLANK(F73),ISBLANK(F74))," - ",F74-F70)</f>
+        <f t="shared" ref="F78:AE78" si="4">IF(AND(ISBLANK(F73),ISBLANK(F74))," - ",F74-F70)</f>
         <v>-3</v>
       </c>
       <c r="G78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-3</v>
       </c>
       <c r="H78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-396</v>
       </c>
       <c r="I78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-456</v>
       </c>
       <c r="J78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-516</v>
       </c>
       <c r="K78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-546</v>
       </c>
       <c r="L78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-576</v>
       </c>
       <c r="M78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="N78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="O78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="P78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="Q78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="R78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="S78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="T78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="U78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="V78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="W78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="X78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="Y78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="Z78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="AA78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="AB78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="AC78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="AD78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
       <c r="AE78" s="82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="4"/>
         <v>-606</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C79" s="82" t="s">
         <v>12</v>
       </c>
@@ -5788,111 +5922,111 @@
         <v>1.0238095238095237</v>
       </c>
       <c r="F79" s="83">
-        <f t="shared" ref="F79:AE79" si="8">IF(AND(ISBLANK(F73),ISBLANK(F74))," - ",F74/F73)</f>
+        <f t="shared" ref="F79:AE79" si="5">IF(AND(ISBLANK(F73),ISBLANK(F74))," - ",F74/F73)</f>
         <v>0.74516129032258061</v>
       </c>
       <c r="G79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>1.0354838709677419</v>
       </c>
       <c r="H79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD79" s="83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE79" s="83">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C80" s="82" t="s">
         <v>13</v>
       </c>
@@ -5905,111 +6039,111 @@
         <v>0.97727272727272729</v>
       </c>
       <c r="F80" s="83">
-        <f t="shared" ref="F80:AE80" si="9">IF(AND(ISBLANK(F73),ISBLANK(F74))," - ",F74/F70)</f>
+        <f t="shared" ref="F80:AE80" si="6">IF(AND(ISBLANK(F73),ISBLANK(F74))," - ",F74/F70)</f>
         <v>0.98717948717948723</v>
       </c>
       <c r="G80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.9907407407407407</v>
       </c>
       <c r="H80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD80" s="83">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE80" s="83">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="82" t="s">
         <v>15</v>
       </c>
@@ -6022,107 +6156,107 @@
         <v>504.00000000000006</v>
       </c>
       <c r="F81" s="84">
-        <f t="shared" ref="F81:AE81" si="10">IF(AND(ISBLANK(F73),ISBLANK(F74))," - ",$C$69/F79)</f>
+        <f t="shared" ref="F81:AE81" si="7">IF(AND(ISBLANK(F73),ISBLANK(F74))," - ",$C$69/F79)</f>
         <v>692.46753246753246</v>
       </c>
       <c r="G81" s="84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>498.31775700934583</v>
       </c>
       <c r="H81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Q81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AB81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AC81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AD81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AE81" s="84" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6137,18 +6271,18 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="D79:AE80">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:AE78">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6173,25 +6307,25 @@
   </sheetPr>
   <dimension ref="A1:AE54"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="27" customWidth="1"/>
     <col min="2" max="2" width="45" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.44140625" style="27" customWidth="1"/>
-    <col min="4" max="31" width="8.77734375" style="27" customWidth="1"/>
-    <col min="32" max="16384" width="8.88671875" style="27"/>
+    <col min="3" max="3" width="6.42578125" style="27" customWidth="1"/>
+    <col min="4" max="31" width="8.7109375" style="27" customWidth="1"/>
+    <col min="32" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -6200,7 +6334,7 @@
       <c r="F2" s="26"/>
       <c r="G2" s="26"/>
     </row>
-    <row r="3" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>25</v>
       </c>
@@ -6212,13 +6346,13 @@
       <c r="G3" s="26"/>
       <c r="Q3" s="52"/>
     </row>
-    <row r="4" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>20</v>
       </c>
       <c r="Q4" s="53"/>
     </row>
-    <row r="5" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
         <v>21</v>
       </c>
@@ -6228,7 +6362,7 @@
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="7" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>8</v>
       </c>
@@ -6240,7 +6374,7 @@
       <c r="G7" s="26"/>
       <c r="O7" s="28"/>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="58" t="s">
         <v>2</v>
       </c>
@@ -6248,100 +6382,100 @@
         <v>0</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="F8" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="G8" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="H8" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="I8" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="J8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="K8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="66" t="s">
+      <c r="L8" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="M8" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="M8" s="66" t="s">
+      <c r="N8" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="66" t="s">
+      <c r="O8" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="O8" s="66" t="s">
+      <c r="P8" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="P8" s="66" t="s">
+      <c r="Q8" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="Q8" s="66" t="s">
+      <c r="R8" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="R8" s="66" t="s">
+      <c r="S8" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="S8" s="66" t="s">
+      <c r="T8" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="T8" s="66" t="s">
+      <c r="U8" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="U8" s="66" t="s">
+      <c r="V8" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="V8" s="66" t="s">
+      <c r="W8" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="W8" s="66" t="s">
+      <c r="X8" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="X8" s="66" t="s">
+      <c r="Y8" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="Y8" s="66" t="s">
+      <c r="Z8" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" s="66" t="s">
+      <c r="AA8" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="AA8" s="66" t="s">
+      <c r="AB8" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="AB8" s="66" t="s">
+      <c r="AC8" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="AC8" s="66" t="s">
+      <c r="AD8" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="AD8" s="66" t="s">
+      <c r="AE8" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="AE8" s="66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
       <c r="B9" s="94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="91">
         <f>Report!C22</f>
@@ -6376,13 +6510,13 @@
       <c r="AD9" s="92"/>
       <c r="AE9" s="92"/>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="95" t="str">
         <f t="shared" ref="A10:A33" si="0">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="91">
         <f>Report!C23</f>
@@ -6417,13 +6551,13 @@
       <c r="AD10" s="92"/>
       <c r="AE10" s="92"/>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="97" t="str">
         <f t="shared" ref="A11:A18" si="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="67">
         <f>Report!C24</f>
@@ -6466,13 +6600,13 @@
       <c r="AD11" s="69"/>
       <c r="AE11" s="69"/>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.2</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="67">
         <f>Report!C25</f>
@@ -6515,13 +6649,13 @@
       <c r="AD12" s="68"/>
       <c r="AE12" s="68"/>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.3</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="67">
         <f>Report!C26</f>
@@ -6564,13 +6698,13 @@
       <c r="AD13" s="68"/>
       <c r="AE13" s="68"/>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.4</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="67">
         <f>Report!C27</f>
@@ -6611,13 +6745,13 @@
       <c r="AD14" s="68"/>
       <c r="AE14" s="68"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.5</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="67">
         <f>Report!C28</f>
@@ -6658,13 +6792,13 @@
       <c r="AD15" s="68"/>
       <c r="AE15" s="68"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.6</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="67">
         <f>Report!C29</f>
@@ -6705,13 +6839,13 @@
       <c r="AD16" s="68"/>
       <c r="AE16" s="68"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.7</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="67">
         <f>Report!C30</f>
@@ -6750,13 +6884,13 @@
       <c r="AD17" s="68"/>
       <c r="AE17" s="68"/>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.8</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="67">
         <f>Report!C31</f>
@@ -6795,13 +6929,13 @@
       <c r="AD18" s="68"/>
       <c r="AE18" s="68"/>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="95" t="str">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="91">
         <f>Report!C32</f>
@@ -6836,13 +6970,13 @@
       <c r="AD19" s="92"/>
       <c r="AE19" s="92"/>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.1</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="67">
         <f>Report!C33</f>
@@ -6883,13 +7017,13 @@
       <c r="AD20" s="68"/>
       <c r="AE20" s="68"/>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.2</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="67">
         <f>Report!C34</f>
@@ -6930,13 +7064,13 @@
       <c r="AD21" s="68"/>
       <c r="AE21" s="68"/>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="95" t="str">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="91">
         <f>Report!C35</f>
@@ -6971,13 +7105,13 @@
       <c r="AD22" s="92"/>
       <c r="AE22" s="92"/>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.1</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="67">
         <f>Report!C36</f>
@@ -7016,13 +7150,13 @@
       <c r="AD23" s="68"/>
       <c r="AE23" s="68"/>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.2</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="67">
         <f>Report!C37</f>
@@ -7061,13 +7195,13 @@
       <c r="AD24" s="68"/>
       <c r="AE24" s="68"/>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="95" t="str">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="91">
         <f>Report!C38</f>
@@ -7102,13 +7236,13 @@
       <c r="AD25" s="92"/>
       <c r="AE25" s="92"/>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.4.1</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="67">
         <f>Report!C39</f>
@@ -7147,13 +7281,13 @@
       <c r="AD26" s="68"/>
       <c r="AE26" s="68"/>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="95" t="str">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="91">
         <f>Report!C40</f>
@@ -7188,13 +7322,13 @@
       <c r="AD27" s="92"/>
       <c r="AE27" s="92"/>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.5.1</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="67">
         <f>Report!C41</f>
@@ -7231,13 +7365,13 @@
       <c r="AD28" s="68"/>
       <c r="AE28" s="68"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.5.2</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="67">
         <f>Report!C42</f>
@@ -7274,13 +7408,13 @@
       <c r="AD29" s="68"/>
       <c r="AE29" s="68"/>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="95" t="str">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="91">
         <f>Report!C43</f>
@@ -7315,13 +7449,13 @@
       <c r="AD30" s="92"/>
       <c r="AE30" s="92"/>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.1</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="67">
         <f>Report!C44</f>
@@ -7358,13 +7492,13 @@
       <c r="AD31" s="68"/>
       <c r="AE31" s="68"/>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.2</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="67">
         <f>Report!C45</f>
@@ -7401,13 +7535,13 @@
       <c r="AD32" s="68"/>
       <c r="AE32" s="68"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="95" t="str">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
       <c r="B33" s="96" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="91">
         <f>Report!C46</f>
@@ -7442,13 +7576,13 @@
       <c r="AD33" s="92"/>
       <c r="AE33" s="92"/>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.7.1</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="67">
         <f>Report!C47</f>
@@ -7485,13 +7619,13 @@
       <c r="AD34" s="68"/>
       <c r="AE34" s="68"/>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
       <c r="B35" s="94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="91">
         <f>Report!C48</f>
@@ -7526,13 +7660,13 @@
       <c r="AD35" s="92"/>
       <c r="AE35" s="92"/>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="95" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
       <c r="B36" s="96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="91">
         <f>Report!C49</f>
@@ -7567,13 +7701,13 @@
       <c r="AD36" s="92"/>
       <c r="AE36" s="92"/>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.1</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="67">
         <f>Report!C50</f>
@@ -7608,13 +7742,13 @@
       <c r="AD37" s="68"/>
       <c r="AE37" s="68"/>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.2</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="67">
         <f>Report!C68</f>
@@ -7649,13 +7783,13 @@
       <c r="AD38" s="68"/>
       <c r="AE38" s="68"/>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.3</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="67">
         <f>Report!C52</f>
@@ -7690,13 +7824,13 @@
       <c r="AD39" s="68"/>
       <c r="AE39" s="68"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="95" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
       <c r="B40" s="96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="91">
         <f>Report!C53</f>
@@ -7731,13 +7865,13 @@
       <c r="AD40" s="92"/>
       <c r="AE40" s="92"/>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.1</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="67">
         <f>Report!C54</f>
@@ -7772,13 +7906,13 @@
       <c r="AD41" s="68"/>
       <c r="AE41" s="68"/>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.2</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="67">
         <f>Report!C55</f>
@@ -7813,13 +7947,13 @@
       <c r="AD42" s="68"/>
       <c r="AE42" s="68"/>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.3</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="67">
         <f>Report!C56</f>
@@ -7854,13 +7988,13 @@
       <c r="AD43" s="68"/>
       <c r="AE43" s="68"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="95" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="91">
         <f>Report!C57</f>
@@ -7895,13 +8029,13 @@
       <c r="AD44" s="92"/>
       <c r="AE44" s="92"/>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="95" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
       <c r="B45" s="96" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="91">
         <f>Report!C58</f>
@@ -7936,13 +8070,13 @@
       <c r="AD45" s="92"/>
       <c r="AE45" s="92"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
       <c r="B46" s="94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="91">
         <f>Report!C59</f>
@@ -7977,7 +8111,7 @@
       <c r="AD46" s="92"/>
       <c r="AE46" s="92"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -8016,7 +8150,7 @@
       <c r="AD47" s="68"/>
       <c r="AE47" s="68"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
@@ -8055,7 +8189,7 @@
       <c r="AD48" s="68"/>
       <c r="AE48" s="68"/>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
@@ -8094,7 +8228,7 @@
       <c r="AD49" s="68"/>
       <c r="AE49" s="68"/>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.4</v>
@@ -8133,7 +8267,7 @@
       <c r="AD50" s="68"/>
       <c r="AE50" s="68"/>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.5</v>
@@ -8172,7 +8306,7 @@
       <c r="AD51" s="68"/>
       <c r="AE51" s="68"/>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="60"/>
       <c r="B52" s="60"/>
       <c r="C52" s="67"/>
@@ -8205,7 +8339,7 @@
       <c r="AD52" s="68"/>
       <c r="AE52" s="68"/>
     </row>
-    <row r="53" spans="1:31" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="55" t="s">
         <v>16</v>
       </c>
@@ -8240,7 +8374,7 @@
       <c r="AD53" s="62"/>
       <c r="AE53" s="62"/>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C54" s="72" t="s">
         <v>6</v>
       </c>
@@ -8372,31 +8506,31 @@
   </sheetPr>
   <dimension ref="A1:AD55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="27" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="27" customWidth="1"/>
     <col min="2" max="2" width="45" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="29" width="8.77734375" style="27" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="27"/>
+    <col min="3" max="29" width="8.7109375" style="27" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
     </row>
-    <row r="3" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
         <v>28</v>
       </c>
@@ -8406,13 +8540,13 @@
       <c r="E3" s="26"/>
       <c r="O3" s="52"/>
     </row>
-    <row r="4" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="53"/>
     </row>
-    <row r="5" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="54" t="s">
         <v>26</v>
       </c>
@@ -8420,7 +8554,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>22</v>
       </c>
@@ -8430,7 +8564,7 @@
       <c r="E7" s="26"/>
       <c r="M7" s="28"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="51" t="s">
         <v>2</v>
       </c>
@@ -8438,97 +8572,97 @@
         <v>0</v>
       </c>
       <c r="C8" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="E8" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="F8" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="G8" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="H8" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="I8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="J8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="K8" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="K8" s="66" t="s">
+      <c r="L8" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="M8" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="66" t="s">
+      <c r="N8" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="N8" s="66" t="s">
+      <c r="O8" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="O8" s="66" t="s">
+      <c r="P8" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="P8" s="66" t="s">
+      <c r="Q8" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="Q8" s="66" t="s">
+      <c r="R8" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="R8" s="66" t="s">
+      <c r="S8" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="S8" s="66" t="s">
+      <c r="T8" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="T8" s="66" t="s">
+      <c r="U8" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="U8" s="66" t="s">
+      <c r="V8" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="V8" s="66" t="s">
+      <c r="W8" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="W8" s="66" t="s">
+      <c r="X8" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="X8" s="66" t="s">
+      <c r="Y8" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" s="66" t="s">
+      <c r="Z8" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="Z8" s="66" t="s">
+      <c r="AA8" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="AA8" s="66" t="s">
+      <c r="AB8" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="AB8" s="66" t="s">
+      <c r="AC8" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="AC8" s="66" t="s">
+      <c r="AD8" s="66" t="s">
         <v>107</v>
       </c>
-      <c r="AD8" s="66" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>1</v>
       </c>
       <c r="B9" s="94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="61"/>
       <c r="D9" s="61"/>
@@ -8559,13 +8693,13 @@
       <c r="AC9" s="61"/>
       <c r="AD9" s="61"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="102" t="str">
         <f t="shared" ref="A10:A33" si="0">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>1.1</v>
       </c>
       <c r="B10" s="103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="61"/>
       <c r="D10" s="61"/>
@@ -8596,13 +8730,13 @@
       <c r="AC10" s="61"/>
       <c r="AD10" s="61"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="97" t="str">
         <f t="shared" ref="A11:A18" si="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.1.1</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="61">
         <v>8</v>
@@ -8635,13 +8769,13 @@
       <c r="AC11" s="61"/>
       <c r="AD11" s="61"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.2</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="61">
         <v>12</v>
@@ -8674,13 +8808,13 @@
       <c r="AC12" s="61"/>
       <c r="AD12" s="61"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.3</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="61">
         <v>10.5</v>
@@ -8713,13 +8847,13 @@
       <c r="AC13" s="61"/>
       <c r="AD13" s="61"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.4</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="61">
@@ -8752,13 +8886,13 @@
       <c r="AC14" s="61"/>
       <c r="AD14" s="61"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.5</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="61">
@@ -8791,13 +8925,13 @@
       <c r="AC15" s="61"/>
       <c r="AD15" s="61"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.6</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16" s="61"/>
       <c r="D16" s="61">
@@ -8830,13 +8964,13 @@
       <c r="AC16" s="61"/>
       <c r="AD16" s="61"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.7</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
@@ -8869,13 +9003,13 @@
       <c r="AC17" s="61"/>
       <c r="AD17" s="61"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="97" t="str">
         <f t="shared" si="1"/>
         <v>1.1.8</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
@@ -8908,13 +9042,13 @@
       <c r="AC18" s="61"/>
       <c r="AD18" s="61"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="102" t="str">
         <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="B19" s="103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C19" s="61"/>
       <c r="D19" s="61"/>
@@ -8945,13 +9079,13 @@
       <c r="AC19" s="61"/>
       <c r="AD19" s="61"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.1</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="61"/>
       <c r="D20" s="61">
@@ -8984,13 +9118,13 @@
       <c r="AC20" s="61"/>
       <c r="AD20" s="61"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.2.2</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21" s="61"/>
       <c r="D21" s="61">
@@ -9023,13 +9157,13 @@
       <c r="AC21" s="61"/>
       <c r="AD21" s="61"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="102" t="str">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
       <c r="B22" s="103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="61"/>
       <c r="D22" s="61"/>
@@ -9060,13 +9194,13 @@
       <c r="AC22" s="61"/>
       <c r="AD22" s="61"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.1</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="61"/>
       <c r="D23" s="61"/>
@@ -9099,13 +9233,13 @@
       <c r="AC23" s="61"/>
       <c r="AD23" s="61"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.3.2</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="61"/>
       <c r="D24" s="61"/>
@@ -9138,13 +9272,13 @@
       <c r="AC24" s="61"/>
       <c r="AD24" s="61"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="102" t="str">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
       <c r="B25" s="103" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="61"/>
       <c r="D25" s="61"/>
@@ -9175,13 +9309,13 @@
       <c r="AC25" s="61"/>
       <c r="AD25" s="61"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.4.1</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="61"/>
       <c r="D26" s="61"/>
@@ -9214,13 +9348,13 @@
       <c r="AC26" s="61"/>
       <c r="AD26" s="61"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="102" t="str">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
       <c r="B27" s="103" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C27" s="61"/>
       <c r="D27" s="61"/>
@@ -9251,13 +9385,13 @@
       <c r="AC27" s="61"/>
       <c r="AD27" s="61"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.5.1</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" s="61"/>
       <c r="D28" s="61"/>
@@ -9290,13 +9424,13 @@
       <c r="AC28" s="61"/>
       <c r="AD28" s="61"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.5.2</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" s="61"/>
       <c r="D29" s="61"/>
@@ -9329,13 +9463,13 @@
       <c r="AC29" s="61"/>
       <c r="AD29" s="61"/>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="102" t="str">
         <f t="shared" si="0"/>
         <v>1.6</v>
       </c>
       <c r="B30" s="103" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" s="61"/>
       <c r="D30" s="61"/>
@@ -9366,13 +9500,13 @@
       <c r="AC30" s="61"/>
       <c r="AD30" s="61"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.1</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" s="61"/>
       <c r="D31" s="61"/>
@@ -9405,13 +9539,13 @@
       <c r="AC31" s="61"/>
       <c r="AD31" s="61"/>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.6.2</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" s="61"/>
       <c r="D32" s="61"/>
@@ -9444,13 +9578,13 @@
       <c r="AC32" s="61"/>
       <c r="AD32" s="61"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="102" t="str">
         <f t="shared" si="0"/>
         <v>1.7</v>
       </c>
       <c r="B33" s="103" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="61"/>
       <c r="D33" s="61"/>
@@ -9481,13 +9615,13 @@
       <c r="AC33" s="61"/>
       <c r="AD33" s="61"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>1.7.1</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" s="61"/>
       <c r="D34" s="61"/>
@@ -9520,13 +9654,13 @@
       <c r="AC34" s="61"/>
       <c r="AD34" s="61"/>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>2</v>
       </c>
       <c r="B35" s="94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" s="61"/>
       <c r="D35" s="61"/>
@@ -9557,13 +9691,13 @@
       <c r="AC35" s="61"/>
       <c r="AD35" s="61"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C36" s="61"/>
       <c r="D36" s="61"/>
@@ -9594,13 +9728,13 @@
       <c r="AC36" s="61"/>
       <c r="AD36" s="61"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.1</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C37" s="61"/>
       <c r="D37" s="61"/>
@@ -9631,13 +9765,13 @@
       <c r="AC37" s="61"/>
       <c r="AD37" s="61"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.2</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="61"/>
@@ -9668,13 +9802,13 @@
       <c r="AC38" s="61"/>
       <c r="AD38" s="61"/>
     </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.1.3</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C39" s="61"/>
       <c r="D39" s="61"/>
@@ -9705,13 +9839,13 @@
       <c r="AC39" s="61"/>
       <c r="AD39" s="61"/>
     </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.2</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
@@ -9742,13 +9876,13 @@
       <c r="AC40" s="61"/>
       <c r="AD40" s="61"/>
     </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.1</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="61"/>
       <c r="D41" s="61"/>
@@ -9779,13 +9913,13 @@
       <c r="AC41" s="61"/>
       <c r="AD41" s="61"/>
     </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.2</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C42" s="61"/>
       <c r="D42" s="61"/>
@@ -9816,13 +9950,13 @@
       <c r="AC42" s="61"/>
       <c r="AD42" s="61"/>
     </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="97" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>2.2.3</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C43" s="61"/>
       <c r="D43" s="61"/>
@@ -9853,13 +9987,13 @@
       <c r="AC43" s="61"/>
       <c r="AD43" s="61"/>
     </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.3</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="61"/>
       <c r="D44" s="61"/>
@@ -9890,13 +10024,13 @@
       <c r="AC44" s="61"/>
       <c r="AD44" s="61"/>
     </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.4</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="61"/>
       <c r="D45" s="61"/>
@@ -9927,13 +10061,13 @@
       <c r="AC45" s="61"/>
       <c r="AD45" s="61"/>
     </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="93" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
         <v>3</v>
       </c>
       <c r="B46" s="94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" s="61"/>
       <c r="D46" s="61"/>
@@ -9964,7 +10098,7 @@
       <c r="AC46" s="61"/>
       <c r="AD46" s="61"/>
     </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
@@ -9999,7 +10133,7 @@
       <c r="AC47" s="61"/>
       <c r="AD47" s="61"/>
     </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.2</v>
@@ -10034,7 +10168,7 @@
       <c r="AC48" s="61"/>
       <c r="AD48" s="61"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.3</v>
@@ -10069,7 +10203,7 @@
       <c r="AC49" s="61"/>
       <c r="AD49" s="61"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.4</v>
@@ -10104,7 +10238,7 @@
       <c r="AC50" s="61"/>
       <c r="AD50" s="61"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="98" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.5</v>
@@ -10139,7 +10273,7 @@
       <c r="AC51" s="61"/>
       <c r="AD51" s="61"/>
     </row>
-    <row r="52" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="55" t="s">
         <v>16</v>
       </c>
@@ -10173,7 +10307,7 @@
       <c r="AC52" s="62"/>
       <c r="AD52" s="62"/>
     </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C53" s="63">
         <f t="shared" ref="C53:M53" si="2">SUM(C9:C52)</f>
         <v>30.5</v>
@@ -10287,7 +10421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C54" s="64"/>
       <c r="D54" s="64"/>
       <c r="E54" s="64"/>
@@ -10316,7 +10450,7 @@
       <c r="AB54" s="64"/>
       <c r="AC54" s="64"/>
     </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B55" s="57" t="s">
         <v>7</v>
       </c>
@@ -10450,15 +10584,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" customWidth="1"/>
-    <col min="2" max="2" width="78.5546875" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="78.5703125" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>34</v>
       </c>
@@ -10466,151 +10600,151 @@
       <c r="C1" s="3"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="6"/>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="6"/>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="10"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="10"/>
       <c r="C7" s="13"/>
     </row>
-    <row r="8" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="10"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
       <c r="B11" s="10"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="10"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="25" t="s">
         <v>36</v>
       </c>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="10"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:4" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="8" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="16"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="16"/>
       <c r="C20" s="13"/>
     </row>
-    <row r="21" spans="1:3" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="17"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="17"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" s="8" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:3" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
     </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:3" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="21"/>
     </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:3" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:3" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="B29" s="22"/>
     </row>
-    <row r="30" spans="1:3" s="8" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B30" s="23"/>
     </row>
-    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_EVM.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_EVM.xlsx
@@ -8,24 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8997188E-185F-444F-AB55-F9584F345897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B4381E-B87C-4C15-9227-EB69FE5E5186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1B5A6ABD-0E95-45BD-B30C-68473E7658BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="3" r:id="rId1"/>
-    <sheet name="EV" sheetId="8" r:id="rId2"/>
-    <sheet name="AC" sheetId="9" r:id="rId3"/>
+    <sheet name="BCWP" sheetId="8" r:id="rId2"/>
+    <sheet name="ACWP" sheetId="9" r:id="rId3"/>
     <sheet name="©" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Report!$D$21:$AE$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Report!$D$72:$AE$72</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Report!$D$75:$AE$75</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Report!$D$76:$AE$76</definedName>
     <definedName name="holidays">OFFSET(#REF!,1,0,COUNTA(#REF!),1)</definedName>
-    <definedName name="prevWBS" localSheetId="2">AC!$A1048576</definedName>
-    <definedName name="prevWBS" localSheetId="1">EV!$A1048576</definedName>
+    <definedName name="prevWBS" localSheetId="2">ACWP!$A1048576</definedName>
+    <definedName name="prevWBS" localSheetId="1">BCWP!$A1048576</definedName>
     <definedName name="prevWBS" localSheetId="0">Report!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">AC!$A$2:$M$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">EV!$A$2:$O$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$1:$N$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">ACWP!$A$2:$M$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">BCWP!$A$2:$O$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$1:$N$83</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2012-2017 Vertex42 LLC"</definedName>
     <definedName name="vertex42_id" hidden="1">"earned-value-management.xlsx"</definedName>
@@ -80,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="112">
   <si>
     <t>Task Name</t>
   </si>
@@ -103,27 +107,6 @@
     <t>Cumulative EV</t>
   </si>
   <si>
-    <t>Cumulative Actual Cost (AC)</t>
-  </si>
-  <si>
-    <t>Cumulative Earned Value (EV)</t>
-  </si>
-  <si>
-    <t>Cumulative Planned Value (PV)</t>
-  </si>
-  <si>
-    <t>Schedule Variance (SV = EV - PV)</t>
-  </si>
-  <si>
-    <t>Cost Variance (CV = EV - AC)</t>
-  </si>
-  <si>
-    <t>Cost Performance Index (CPI = EV/AC)</t>
-  </si>
-  <si>
-    <t>Schedule Performance Index (SPI = EV/PV)</t>
-  </si>
-  <si>
     <t>TBC</t>
   </si>
   <si>
@@ -139,34 +122,10 @@
     <t>For Period:</t>
   </si>
   <si>
-    <t>Earned Value Worksheet</t>
-  </si>
-  <si>
-    <t>Make sure that the WBS, Task Name, and TBC are identical to the table in the Report worksheet.</t>
-  </si>
-  <si>
-    <t>Enter the % Complete for each task to calculate the cumulative earned value.</t>
-  </si>
-  <si>
-    <t>Actual Cost (AC) of Work Performed</t>
-  </si>
-  <si>
     <t>Planned Value (PV) or Budgeted Cost of Work Scheduled (BCWS)</t>
   </si>
   <si>
     <t>Total Budgeted Cost</t>
-  </si>
-  <si>
-    <t>This worksheet is used to help calculate the Earned Value (EV) or Budgeted Cost of Work Performed (BCWP).</t>
-  </si>
-  <si>
-    <t>Transfer the Cumulative Actual Cost to the Report worksheet.</t>
-  </si>
-  <si>
-    <t>Actual Cost Worksheet</t>
-  </si>
-  <si>
-    <t>Use this worksheet to help calculate the Actual Cost (AC) of Work Performed (ACWP) by entering the costs incurred each period.</t>
   </si>
   <si>
     <t>Actual Cost and Earned Value</t>
@@ -426,6 +385,42 @@
   <si>
     <t>Week 12</t>
   </si>
+  <si>
+    <t>Cumulative Actual Cost (ACWP)</t>
+  </si>
+  <si>
+    <t>ACWP</t>
+  </si>
+  <si>
+    <t>Actual Cost For Work Performed</t>
+  </si>
+  <si>
+    <t>Actual Cost For Work Performed (ACWP)</t>
+  </si>
+  <si>
+    <t>Budget Cost For Work Performed</t>
+  </si>
+  <si>
+    <t>Budget Cost For Work Performed (BCWP)</t>
+  </si>
+  <si>
+    <t>Cumulative Planned Value (BCWS)</t>
+  </si>
+  <si>
+    <t>Cumulative Earned Value (BCWP)</t>
+  </si>
+  <si>
+    <t>Cost Variance (CV = BCWP-ACWP)</t>
+  </si>
+  <si>
+    <t>Schedule Variance (SV =  BCWP - BCWS)</t>
+  </si>
+  <si>
+    <t>Cost Performance Index (CPI =  BCWP/ACWP)</t>
+  </si>
+  <si>
+    <t>Schedule Performance Index (SPI = BCWP/BCWS)</t>
+  </si>
 </sst>
 </file>
 
@@ -434,7 +429,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="60" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -799,6 +794,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="26">
@@ -1274,7 +1281,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1489,6 +1496,27 @@
     <xf numFmtId="0" fontId="49" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1507,20 +1535,8 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1572,35 +1588,7 @@
     <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1744,7 +1732,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Planned Value (PV)</c:v>
+            <c:v>Planned Value (BCWS)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -1771,16 +1759,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Report!$D$21:$AE$21</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Report!$D$21:$G$21,Report!$O$21:$AE$21)</c:f>
+              <c:f>Report!$D$21:$AE$21</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>W1</c:v>
                 </c:pt>
@@ -1794,66 +1775,75 @@
                   <c:v>W4</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>W5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>W6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>W7</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>W8</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>W9</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>W10</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
                   <c:v>W11</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>W12</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="12">
                   <c:v>W13</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
                   <c:v>W14</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="14">
                   <c:v>W15</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="15">
                   <c:v>W16</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>W17</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>W18</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="18">
                   <c:v>W19</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="19">
                   <c:v>W20</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="20">
                   <c:v>W21</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="21">
                   <c:v>W22</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="22">
                   <c:v>W23</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="23">
                   <c:v>W24</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="24">
                   <c:v>W25</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="25">
                   <c:v>W26</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="26">
                   <c:v>W27</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="27">
                   <c:v>W28</c:v>
                 </c:pt>
               </c:strCache>
@@ -1861,28 +1851,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Report!$D$70:$J$70</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Report!$D$70:$G$70</c:f>
+              <c:f>Report!$D$72:$N$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>234</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>324</c:v>
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>354.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>407.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>470.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>526.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>582.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>633.29999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1898,7 +1902,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Earned Value (EV)</c:v>
+            <c:v>Earned Value (BCWP)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -1925,16 +1929,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Report!$D$21:$AE$21</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Report!$D$21:$G$21,Report!$O$21:$AE$21)</c:f>
+              <c:f>Report!$D$21:$AE$21</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>W1</c:v>
                 </c:pt>
@@ -1948,54 +1945,75 @@
                   <c:v>W4</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>W5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>W6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>W7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>W8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>W9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>W10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>W11</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>W12</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>W13</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>W14</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>W15</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>W16</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>W17</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>W18</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>W19</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>W20</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>W21</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>W22</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="22">
                   <c:v>W23</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="23">
                   <c:v>W24</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="24">
                   <c:v>W25</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="25">
                   <c:v>W26</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="26">
                   <c:v>W27</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="27">
                   <c:v>W28</c:v>
                 </c:pt>
               </c:strCache>
@@ -2003,31 +2021,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Report!$D$74:$O$74</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Report!$D$74:$G$74,Report!$O$74)</c:f>
+              <c:f>Report!$D$76:$N$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>40.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129</c:v>
+                  <c:v>129.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>231</c:v>
+                  <c:v>103.60000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>321</c:v>
+                  <c:v>137.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>100.34500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>87.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120.90999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>153.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>159.94499999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>173.04999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>131.19499999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2043,7 +2072,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Actual Cost (AC)</c:v>
+            <c:v>Actual Cost (ACWP)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400">
@@ -2070,16 +2099,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Report!$D$21:$AE$21</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Report!$D$21:$G$21,Report!$O$21:$AE$21)</c:f>
+              <c:f>Report!$D$21:$AE$21</c:f>
               <c:strCache>
-                <c:ptCount val="21"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>W1</c:v>
                 </c:pt>
@@ -2093,54 +2115,75 @@
                   <c:v>W4</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>W5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>W6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>W7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>W8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>W9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>W10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>W11</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>W12</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
                   <c:v>W13</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="13">
                   <c:v>W14</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="14">
                   <c:v>W15</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>W16</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>W17</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="17">
                   <c:v>W18</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="18">
                   <c:v>W19</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="19">
                   <c:v>W20</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>W21</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="21">
                   <c:v>W22</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="22">
                   <c:v>W23</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="23">
                   <c:v>W24</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="24">
                   <c:v>W25</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="25">
                   <c:v>W26</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="26">
                   <c:v>W27</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="27">
                   <c:v>W28</c:v>
                 </c:pt>
               </c:strCache>
@@ -2148,31 +2191,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Report!$D$73:$O$73</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Report!$D$73:$G$73,Report!$O$73)</c:f>
+              <c:f>Report!$D$75:$N$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>126</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>310</c:v>
+                  <c:v>327</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>310</c:v>
+                  <c:v>374</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>310</c:v>
+                  <c:v>561</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1198</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1354</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1392</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2231,8 +2285,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.47541068172722017"/>
-              <c:y val="0.76771653543307083"/>
+              <c:x val="0.47793595549086965"/>
+              <c:y val="5.9229644264946611E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2277,8 +2331,6 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -2334,10 +2386,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14389825232356473"/>
-          <c:y val="9.055118110236221E-2"/>
-          <c:w val="0.30418997643082668"/>
-          <c:h val="0.27559055118110237"/>
+          <c:x val="5.0093450907138896E-3"/>
+          <c:y val="2.7360027863815601E-2"/>
+          <c:w val="7.1025009211205942E-2"/>
+          <c:h val="0.5767055184452653"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2414,13 +2466,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>1905</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2451,6 +2503,178 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="9624686" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06764E24-1A1D-4D89-A0F4-A791419F30D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11734800"/>
+          <a:ext cx="9624686" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Số</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> lượng công việc của các thành viên đã hoàn thành bao nhiêu phần trăm và báo lại, dựa trên timelog của thành viên.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4245136" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD317E9-C232-4E1B-A485-16433839BF64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10401300"/>
+          <a:ext cx="4245136" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Sau</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> khi cộng thời gian từ timelog từ các thành viên</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2766,10 +2990,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE81"/>
+  <dimension ref="A1:AE83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N62" sqref="N62"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2782,8 +3006,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="108"/>
-      <c r="B1" s="108"/>
+      <c r="A1" s="117"/>
+      <c r="B1" s="117"/>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
@@ -2791,10 +3015,10 @@
       <c r="N1" s="33"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="109"/>
+      <c r="B2" s="118"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
@@ -2816,7 +3040,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
@@ -2828,11 +3052,11 @@
       <c r="B5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="107">
+      <c r="C5" s="116">
         <v>43752</v>
       </c>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
@@ -2850,12 +3074,12 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="31"/>
       <c r="B7" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="106" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="106"/>
+        <v>11</v>
+      </c>
+      <c r="C7" s="115" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="115"/>
       <c r="E7" s="37"/>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
@@ -2959,17 +3183,17 @@
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="41" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I18" s="42">
-        <f>G79</f>
-        <v>1.0354838709677419</v>
-      </c>
-      <c r="J18" s="104" t="str">
+        <f>G81</f>
+        <v>0.36711229946524065</v>
+      </c>
+      <c r="J18" s="113" t="str">
         <f>IF(I18&gt;1,"Under Budget",IF(I18=1,"","Over Budget"))</f>
-        <v>Under Budget</v>
-      </c>
-      <c r="K18" s="105"/>
+        <v>Over Budget</v>
+      </c>
+      <c r="K18" s="114"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="31"/>
@@ -2980,21 +3204,21 @@
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="41" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I19" s="42">
-        <f>G80</f>
-        <v>0.9907407407407407</v>
-      </c>
-      <c r="J19" s="104" t="str">
+        <f>G82</f>
+        <v>0.65693779904306226</v>
+      </c>
+      <c r="J19" s="113" t="str">
         <f>IF(I19&gt;1,"Behind Schedule",IF(I19=1,"On Time","Ahead Schedule"))</f>
         <v>Ahead Schedule</v>
       </c>
-      <c r="K19" s="105"/>
+      <c r="K19" s="114"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -3010,91 +3234,91 @@
         <v>0</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D21" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="L21" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="P21" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q21" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="R21" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="S21" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="T21" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="66" t="s">
+      <c r="U21" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="V21" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="66" t="s">
+      <c r="W21" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="66" t="s">
+      <c r="X21" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="J21" s="66" t="s">
+      <c r="Y21" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="K21" s="66" t="s">
+      <c r="Z21" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="L21" s="66" t="s">
+      <c r="AA21" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="M21" s="66" t="s">
+      <c r="AB21" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="N21" s="66" t="s">
+      <c r="AC21" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="O21" s="66" t="s">
+      <c r="AD21" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="P21" s="66" t="s">
+      <c r="AE21" s="66" t="s">
         <v>92</v>
-      </c>
-      <c r="Q21" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="R21" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="S21" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="T21" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="U21" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="V21" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="W21" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="X21" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y21" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z21" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA21" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB21" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC21" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD21" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE21" s="66" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:31" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -3103,10 +3327,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="94" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C22" s="85">
-        <f t="shared" ref="C22:C68" si="0">SUM(D22:J22)</f>
+        <f t="shared" ref="C22:C70" si="0">SUM(D22:J22)</f>
         <v>0</v>
       </c>
       <c r="D22" s="89"/>
@@ -3144,7 +3368,7 @@
         <v>1.1</v>
       </c>
       <c r="B23" s="96" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C23" s="85">
         <f t="shared" si="0"/>
@@ -3185,16 +3409,18 @@
         <v>1.1.1</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C24" s="74">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D24" s="75">
-        <v>12</v>
-      </c>
-      <c r="E24" s="71"/>
+        <v>6</v>
+      </c>
+      <c r="E24" s="71">
+        <v>6</v>
+      </c>
       <c r="F24" s="71"/>
       <c r="G24" s="71"/>
       <c r="H24" s="71"/>
@@ -3228,16 +3454,18 @@
         <v>1.1.2</v>
       </c>
       <c r="B25" s="47" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C25" s="74">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D25" s="71">
-        <v>12</v>
-      </c>
-      <c r="E25" s="71"/>
+        <v>6</v>
+      </c>
+      <c r="E25" s="71">
+        <v>6</v>
+      </c>
       <c r="F25" s="71"/>
       <c r="G25" s="71"/>
       <c r="H25" s="71"/>
@@ -3271,17 +3499,21 @@
         <v>1.1.3</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C26" s="74">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="D26" s="75">
-        <v>18</v>
-      </c>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
+        <v>6</v>
+      </c>
+      <c r="E26" s="71">
+        <v>6</v>
+      </c>
+      <c r="F26" s="71">
+        <v>6</v>
+      </c>
       <c r="G26" s="71"/>
       <c r="H26" s="71"/>
       <c r="I26" s="71"/>
@@ -3314,19 +3546,25 @@
         <v>1.1.4</v>
       </c>
       <c r="B27" s="47" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C27" s="74">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D27" s="71"/>
       <c r="E27" s="75">
-        <v>18</v>
-      </c>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
+        <v>6</v>
+      </c>
+      <c r="F27" s="71">
+        <v>6</v>
+      </c>
+      <c r="G27" s="71">
+        <v>6</v>
+      </c>
+      <c r="H27" s="71">
+        <v>6</v>
+      </c>
       <c r="I27" s="71"/>
       <c r="J27" s="71"/>
       <c r="K27" s="71"/>
@@ -3357,19 +3595,25 @@
         <v>1.1.5</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C28" s="74">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="75">
-        <v>18</v>
-      </c>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
+        <v>6</v>
+      </c>
+      <c r="F28" s="71">
+        <v>6</v>
+      </c>
+      <c r="G28" s="71">
+        <v>6</v>
+      </c>
+      <c r="H28" s="71">
+        <v>6</v>
+      </c>
       <c r="I28" s="71"/>
       <c r="J28" s="71"/>
       <c r="K28" s="71"/>
@@ -3400,17 +3644,19 @@
         <v>1.1.6</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C29" s="74">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="75">
-        <v>18</v>
-      </c>
-      <c r="F29" s="71"/>
+        <v>6</v>
+      </c>
+      <c r="F29" s="71">
+        <v>6</v>
+      </c>
       <c r="G29" s="71"/>
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
@@ -3443,20 +3689,26 @@
         <v>1.1.7</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C30" s="74">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D30" s="71"/>
       <c r="E30" s="75"/>
       <c r="F30" s="71">
-        <v>18</v>
-      </c>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
+        <v>6</v>
+      </c>
+      <c r="G30" s="71">
+        <v>6</v>
+      </c>
+      <c r="H30" s="71">
+        <v>6</v>
+      </c>
+      <c r="I30" s="71">
+        <v>6</v>
+      </c>
       <c r="J30" s="71"/>
       <c r="K30" s="71"/>
       <c r="L30" s="71"/>
@@ -3486,20 +3738,26 @@
         <v>1.1.8</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C31" s="74">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D31" s="71"/>
       <c r="E31" s="75"/>
       <c r="F31" s="71">
-        <v>18</v>
-      </c>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
+        <v>6</v>
+      </c>
+      <c r="G31" s="71">
+        <v>6</v>
+      </c>
+      <c r="H31" s="71">
+        <v>6</v>
+      </c>
+      <c r="I31" s="71">
+        <v>6</v>
+      </c>
       <c r="J31" s="71"/>
       <c r="K31" s="71"/>
       <c r="L31" s="71"/>
@@ -3529,7 +3787,7 @@
         <v>1.2</v>
       </c>
       <c r="B32" s="96" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C32" s="90">
         <f t="shared" si="0"/>
@@ -3570,18 +3828,22 @@
         <v>1.2.1</v>
       </c>
       <c r="B33" s="47" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C33" s="74">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D33" s="71"/>
       <c r="E33" s="71">
-        <v>18</v>
-      </c>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
+        <v>3</v>
+      </c>
+      <c r="F33" s="71">
+        <v>6</v>
+      </c>
+      <c r="G33" s="71">
+        <v>6</v>
+      </c>
       <c r="H33" s="71"/>
       <c r="I33" s="71"/>
       <c r="J33" s="71"/>
@@ -3613,19 +3875,25 @@
         <v>1.2.2</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C34" s="74">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D34" s="71"/>
       <c r="E34" s="71">
-        <v>18</v>
-      </c>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
+        <v>6</v>
+      </c>
+      <c r="F34" s="71">
+        <v>6</v>
+      </c>
+      <c r="G34" s="71">
+        <v>6</v>
+      </c>
+      <c r="H34" s="71">
+        <v>4</v>
+      </c>
       <c r="I34" s="71"/>
       <c r="J34" s="71"/>
       <c r="K34" s="71"/>
@@ -3656,7 +3924,7 @@
         <v>1.3</v>
       </c>
       <c r="B35" s="96" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C35" s="90">
         <f t="shared" si="0"/>
@@ -3697,19 +3965,23 @@
         <v>1.3.1</v>
       </c>
       <c r="B36" s="47" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C36" s="74">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="71">
-        <v>24</v>
-      </c>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
+        <v>5</v>
+      </c>
+      <c r="G36" s="71">
+        <v>6</v>
+      </c>
+      <c r="H36" s="71">
+        <v>6</v>
+      </c>
       <c r="I36" s="71"/>
       <c r="J36" s="71"/>
       <c r="K36" s="71"/>
@@ -3740,19 +4012,23 @@
         <v>1.3.2</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C37" s="74">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D37" s="71"/>
       <c r="E37" s="71"/>
       <c r="F37" s="76">
-        <v>24</v>
-      </c>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
+        <v>5</v>
+      </c>
+      <c r="G37" s="71">
+        <v>7</v>
+      </c>
+      <c r="H37" s="71">
+        <v>6</v>
+      </c>
       <c r="I37" s="71"/>
       <c r="J37" s="71"/>
       <c r="K37" s="71"/>
@@ -3783,7 +4059,7 @@
         <v>1.4</v>
       </c>
       <c r="B38" s="96" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C38" s="85">
         <f t="shared" si="0"/>
@@ -3824,19 +4100,23 @@
         <v>1.4.1</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C39" s="74">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="71"/>
       <c r="E39" s="71"/>
       <c r="F39" s="71">
-        <v>18</v>
-      </c>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
+        <v>4</v>
+      </c>
+      <c r="G39" s="71">
+        <v>7</v>
+      </c>
+      <c r="H39" s="71">
+        <v>6</v>
+      </c>
       <c r="I39" s="71"/>
       <c r="J39" s="71"/>
       <c r="K39" s="71"/>
@@ -3867,7 +4147,7 @@
         <v>1.5</v>
       </c>
       <c r="B40" s="96" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C40" s="85">
         <f t="shared" si="0"/>
@@ -3908,20 +4188,24 @@
         <v>1.5.1</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C41" s="74">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D41" s="71"/>
       <c r="E41" s="71"/>
       <c r="F41" s="71"/>
       <c r="G41" s="71">
-        <v>18</v>
-      </c>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
+        <v>5</v>
+      </c>
+      <c r="H41" s="71">
+        <v>5</v>
+      </c>
+      <c r="I41" s="71">
+        <v>6</v>
+      </c>
       <c r="J41" s="71"/>
       <c r="K41" s="71"/>
       <c r="L41" s="71"/>
@@ -3951,7 +4235,7 @@
         <v>1.5.2</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C42" s="74">
         <f t="shared" si="0"/>
@@ -3961,10 +4245,14 @@
       <c r="E42" s="71"/>
       <c r="F42" s="71"/>
       <c r="G42" s="71">
-        <v>18</v>
-      </c>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
+        <v>7</v>
+      </c>
+      <c r="H42" s="71">
+        <v>6</v>
+      </c>
+      <c r="I42" s="71">
+        <v>5</v>
+      </c>
       <c r="J42" s="71"/>
       <c r="K42" s="71"/>
       <c r="L42" s="71"/>
@@ -3994,7 +4282,7 @@
         <v>1.6</v>
       </c>
       <c r="B43" s="96" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C43" s="85">
         <f t="shared" si="0"/>
@@ -4035,20 +4323,24 @@
         <v>1.6.1</v>
       </c>
       <c r="B44" s="47" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C44" s="74">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D44" s="71"/>
       <c r="E44" s="71"/>
       <c r="F44" s="71"/>
       <c r="G44" s="71">
-        <v>18</v>
-      </c>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
+        <v>4</v>
+      </c>
+      <c r="H44" s="71">
+        <v>3</v>
+      </c>
+      <c r="I44" s="71">
+        <v>4</v>
+      </c>
       <c r="J44" s="71"/>
       <c r="K44" s="71"/>
       <c r="L44" s="71"/>
@@ -4078,20 +4370,24 @@
         <v>1.6.2</v>
       </c>
       <c r="B45" s="47" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C45" s="74">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="D45" s="71"/>
       <c r="E45" s="71"/>
       <c r="F45" s="71"/>
       <c r="G45" s="71">
-        <v>18</v>
-      </c>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
+        <v>5</v>
+      </c>
+      <c r="H45" s="71">
+        <v>8</v>
+      </c>
+      <c r="I45" s="71">
+        <v>6.5</v>
+      </c>
       <c r="J45" s="71"/>
       <c r="K45" s="71"/>
       <c r="L45" s="71"/>
@@ -4121,7 +4417,7 @@
         <v>1.7</v>
       </c>
       <c r="B46" s="96" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C46" s="85">
         <f t="shared" si="0"/>
@@ -4162,20 +4458,24 @@
         <v>1.7.1</v>
       </c>
       <c r="B47" s="47" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C47" s="74">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D47" s="71"/>
       <c r="E47" s="71"/>
       <c r="F47" s="71"/>
       <c r="G47" s="71">
-        <v>18</v>
-      </c>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
+        <v>7</v>
+      </c>
+      <c r="H47" s="71">
+        <v>6</v>
+      </c>
+      <c r="I47" s="71">
+        <v>7</v>
+      </c>
       <c r="J47" s="71"/>
       <c r="K47" s="71"/>
       <c r="L47" s="71"/>
@@ -4205,7 +4505,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="94" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C48" s="85">
         <f t="shared" si="0"/>
@@ -4246,7 +4546,7 @@
         <v>2.1</v>
       </c>
       <c r="B49" s="88" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C49" s="85">
         <f t="shared" si="0"/>
@@ -4287,24 +4587,34 @@
         <v>2.1.1</v>
       </c>
       <c r="B50" s="47" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C50" s="74">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D50" s="71"/>
       <c r="E50" s="71"/>
       <c r="F50" s="71"/>
       <c r="G50" s="71"/>
       <c r="H50" s="71">
-        <v>30</v>
-      </c>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
-      <c r="M50" s="71"/>
+        <v>6.5</v>
+      </c>
+      <c r="I50" s="71">
+        <v>7.5</v>
+      </c>
+      <c r="J50" s="71">
+        <v>6</v>
+      </c>
+      <c r="K50" s="71">
+        <v>7</v>
+      </c>
+      <c r="L50" s="71">
+        <v>6</v>
+      </c>
+      <c r="M50" s="71">
+        <v>7</v>
+      </c>
       <c r="N50" s="71"/>
       <c r="O50" s="71"/>
       <c r="P50" s="71"/>
@@ -4330,22 +4640,28 @@
         <v>2.1.2</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C51" s="74">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>17.8</v>
       </c>
       <c r="D51" s="71"/>
       <c r="E51" s="71"/>
       <c r="F51" s="71"/>
       <c r="G51" s="71"/>
       <c r="H51" s="71">
-        <v>24</v>
-      </c>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
+        <v>5</v>
+      </c>
+      <c r="I51" s="71">
+        <v>7</v>
+      </c>
+      <c r="J51" s="71">
+        <v>5.8</v>
+      </c>
+      <c r="K51" s="71">
+        <v>7</v>
+      </c>
       <c r="L51" s="71"/>
       <c r="M51" s="71"/>
       <c r="N51" s="71"/>
@@ -4373,25 +4689,31 @@
         <v>2.1.3</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C52" s="74">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>SUM(D52:N52)</f>
+        <v>22.5</v>
       </c>
       <c r="D52" s="71"/>
       <c r="E52" s="71"/>
       <c r="F52" s="71"/>
       <c r="G52" s="71"/>
-      <c r="H52" s="71">
-        <v>18</v>
-      </c>
+      <c r="H52" s="71"/>
       <c r="I52" s="71"/>
       <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
-      <c r="M52" s="71"/>
-      <c r="N52" s="71"/>
+      <c r="K52" s="71">
+        <v>5</v>
+      </c>
+      <c r="L52" s="71">
+        <v>6</v>
+      </c>
+      <c r="M52" s="71">
+        <v>6</v>
+      </c>
+      <c r="N52" s="71">
+        <v>5.5</v>
+      </c>
       <c r="O52" s="71"/>
       <c r="P52" s="71"/>
       <c r="Q52" s="71"/>
@@ -4416,7 +4738,7 @@
         <v>2.2</v>
       </c>
       <c r="B53" s="88" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C53" s="85">
         <f t="shared" si="0"/>
@@ -4457,11 +4779,11 @@
         <v>2.2.1</v>
       </c>
       <c r="B54" s="47" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C54" s="74">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>SUM(D54:N54)</f>
+        <v>33.5</v>
       </c>
       <c r="D54" s="71"/>
       <c r="E54" s="71"/>
@@ -4469,13 +4791,23 @@
       <c r="G54" s="71"/>
       <c r="H54" s="71"/>
       <c r="I54" s="71">
-        <v>24</v>
-      </c>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
-      <c r="M54" s="71"/>
-      <c r="N54" s="71"/>
+        <v>5</v>
+      </c>
+      <c r="J54" s="71">
+        <v>5</v>
+      </c>
+      <c r="K54" s="71">
+        <v>5</v>
+      </c>
+      <c r="L54" s="71">
+        <v>6.5</v>
+      </c>
+      <c r="M54" s="71">
+        <v>6</v>
+      </c>
+      <c r="N54" s="71">
+        <v>6</v>
+      </c>
       <c r="O54" s="71"/>
       <c r="P54" s="71"/>
       <c r="Q54" s="71"/>
@@ -4500,25 +4832,33 @@
         <v>2.2.2</v>
       </c>
       <c r="B55" s="47" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C55" s="74">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>SUM(D55:N55)</f>
+        <v>35.5</v>
       </c>
       <c r="D55" s="71"/>
       <c r="E55" s="71"/>
       <c r="F55" s="71"/>
       <c r="G55" s="71"/>
       <c r="H55" s="71"/>
-      <c r="I55" s="71">
-        <v>18</v>
-      </c>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="71"/>
-      <c r="M55" s="71"/>
-      <c r="N55" s="71"/>
+      <c r="I55" s="71"/>
+      <c r="J55" s="71">
+        <v>7</v>
+      </c>
+      <c r="K55" s="71">
+        <v>7</v>
+      </c>
+      <c r="L55" s="71">
+        <v>7.5</v>
+      </c>
+      <c r="M55" s="71">
+        <v>6.5</v>
+      </c>
+      <c r="N55" s="71">
+        <v>7.5</v>
+      </c>
       <c r="O55" s="71"/>
       <c r="P55" s="71"/>
       <c r="Q55" s="71"/>
@@ -4543,25 +4883,33 @@
         <v>2.2.3</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C56" s="74">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f>SUM(D56:N56)</f>
+        <v>38</v>
       </c>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
       <c r="F56" s="71"/>
       <c r="G56" s="71"/>
       <c r="H56" s="71"/>
-      <c r="I56" s="71">
-        <v>18</v>
-      </c>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="71"/>
-      <c r="M56" s="71"/>
-      <c r="N56" s="71"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71">
+        <v>8</v>
+      </c>
+      <c r="K56" s="71">
+        <v>8.5</v>
+      </c>
+      <c r="L56" s="71">
+        <v>7</v>
+      </c>
+      <c r="M56" s="71">
+        <v>7</v>
+      </c>
+      <c r="N56" s="71">
+        <v>7.5</v>
+      </c>
       <c r="O56" s="71"/>
       <c r="P56" s="71"/>
       <c r="Q56" s="71"/>
@@ -4586,11 +4934,11 @@
         <v>2.3</v>
       </c>
       <c r="B57" s="88" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C57" s="85">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D57" s="86"/>
       <c r="E57" s="86"/>
@@ -4598,9 +4946,7 @@
       <c r="G57" s="86"/>
       <c r="H57" s="86"/>
       <c r="I57" s="86"/>
-      <c r="J57" s="86">
-        <v>30</v>
-      </c>
+      <c r="J57" s="86"/>
       <c r="K57" s="86"/>
       <c r="L57" s="86"/>
       <c r="M57" s="86"/>
@@ -4629,11 +4975,11 @@
         <v>2.4</v>
       </c>
       <c r="B58" s="88" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C58" s="85">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D58" s="86"/>
       <c r="E58" s="86"/>
@@ -4641,18 +4987,10 @@
       <c r="G58" s="86"/>
       <c r="H58" s="86"/>
       <c r="I58" s="86"/>
-      <c r="J58" s="86">
-        <v>30</v>
-      </c>
-      <c r="K58" s="86">
-        <v>30</v>
-      </c>
-      <c r="L58" s="86">
-        <v>30</v>
-      </c>
-      <c r="M58" s="86">
-        <v>30</v>
-      </c>
+      <c r="J58" s="86"/>
+      <c r="K58" s="86"/>
+      <c r="L58" s="86"/>
+      <c r="M58" s="86"/>
       <c r="N58" s="86"/>
       <c r="O58" s="86"/>
       <c r="P58" s="86"/>
@@ -4678,7 +5016,7 @@
         <v>3</v>
       </c>
       <c r="B59" s="94" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C59" s="85">
         <f t="shared" si="0"/>
@@ -4714,12 +5052,12 @@
       <c r="AE59" s="86"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A60" s="113" t="str">
+      <c r="A60" s="107" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B60" s="110" t="s">
-        <v>109</v>
+      <c r="B60" s="104" t="s">
+        <v>94</v>
       </c>
       <c r="C60" s="74">
         <f t="shared" si="0"/>
@@ -4755,12 +5093,12 @@
       <c r="AE60" s="71"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A61" s="114" t="str">
+      <c r="A61" s="108" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
         <v>3.1.1</v>
       </c>
-      <c r="B61" s="111" t="s">
-        <v>110</v>
+      <c r="B61" s="105" t="s">
+        <v>95</v>
       </c>
       <c r="C61" s="74">
         <f t="shared" si="0"/>
@@ -4796,16 +5134,16 @@
       <c r="AE61" s="71"/>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A62" s="113" t="str">
+      <c r="A62" s="107" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>3.1.1.1</v>
       </c>
-      <c r="B62" s="112" t="s">
-        <v>111</v>
+      <c r="B62" s="106" t="s">
+        <v>96</v>
       </c>
       <c r="C62" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(D62:N62)</f>
+        <v>38.5</v>
       </c>
       <c r="D62" s="71"/>
       <c r="E62" s="71"/>
@@ -4813,11 +5151,21 @@
       <c r="G62" s="71"/>
       <c r="H62" s="71"/>
       <c r="I62" s="71"/>
-      <c r="J62" s="71"/>
-      <c r="K62" s="71"/>
-      <c r="L62" s="71"/>
-      <c r="M62" s="71"/>
-      <c r="N62" s="71"/>
+      <c r="J62" s="71">
+        <v>7</v>
+      </c>
+      <c r="K62" s="71">
+        <v>8</v>
+      </c>
+      <c r="L62" s="71">
+        <v>7.5</v>
+      </c>
+      <c r="M62" s="71">
+        <v>8</v>
+      </c>
+      <c r="N62" s="71">
+        <v>8</v>
+      </c>
       <c r="O62" s="71"/>
       <c r="P62" s="71"/>
       <c r="Q62" s="71"/>
@@ -4837,16 +5185,16 @@
       <c r="AE62" s="71"/>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A63" s="113" t="str">
+      <c r="A63" s="107" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>3.1.1.2</v>
       </c>
-      <c r="B63" s="112" t="s">
-        <v>112</v>
+      <c r="B63" s="106" t="s">
+        <v>97</v>
       </c>
       <c r="C63" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(D63:N63)</f>
+        <v>38.5</v>
       </c>
       <c r="D63" s="71"/>
       <c r="E63" s="71"/>
@@ -4854,11 +5202,21 @@
       <c r="G63" s="71"/>
       <c r="H63" s="71"/>
       <c r="I63" s="71"/>
-      <c r="J63" s="71"/>
-      <c r="K63" s="71"/>
-      <c r="L63" s="71"/>
-      <c r="M63" s="71"/>
-      <c r="N63" s="71"/>
+      <c r="J63" s="71">
+        <v>7</v>
+      </c>
+      <c r="K63" s="71">
+        <v>8</v>
+      </c>
+      <c r="L63" s="71">
+        <v>7.5</v>
+      </c>
+      <c r="M63" s="71">
+        <v>8</v>
+      </c>
+      <c r="N63" s="71">
+        <v>8</v>
+      </c>
       <c r="O63" s="71"/>
       <c r="P63" s="71"/>
       <c r="Q63" s="71"/>
@@ -4878,16 +5236,16 @@
       <c r="AE63" s="71"/>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A64" s="113" t="str">
+      <c r="A64" s="107" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
         <v>3.1.1.3</v>
       </c>
-      <c r="B64" s="112" t="s">
-        <v>113</v>
+      <c r="B64" s="106" t="s">
+        <v>98</v>
       </c>
       <c r="C64" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(D64:N64)</f>
+        <v>38.5</v>
       </c>
       <c r="D64" s="71"/>
       <c r="E64" s="71"/>
@@ -4895,11 +5253,21 @@
       <c r="G64" s="71"/>
       <c r="H64" s="71"/>
       <c r="I64" s="71"/>
-      <c r="J64" s="71"/>
-      <c r="K64" s="71"/>
-      <c r="L64" s="71"/>
-      <c r="M64" s="71"/>
-      <c r="N64" s="71"/>
+      <c r="J64" s="71">
+        <v>7</v>
+      </c>
+      <c r="K64" s="71">
+        <v>8</v>
+      </c>
+      <c r="L64" s="71">
+        <v>7.5</v>
+      </c>
+      <c r="M64" s="71">
+        <v>8</v>
+      </c>
+      <c r="N64" s="71">
+        <v>8</v>
+      </c>
       <c r="O64" s="71"/>
       <c r="P64" s="71"/>
       <c r="Q64" s="71"/>
@@ -4919,12 +5287,9 @@
       <c r="AE64" s="71"/>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A65" s="98"/>
-      <c r="B65" s="101"/>
-      <c r="C65" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A65" s="109"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="74"/>
       <c r="D65" s="71"/>
       <c r="E65" s="71"/>
       <c r="F65" s="71"/>
@@ -4955,12 +5320,9 @@
       <c r="AE65" s="71"/>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A66" s="98"/>
-      <c r="B66" s="101"/>
-      <c r="C66" s="74">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A66" s="109"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="74"/>
       <c r="D66" s="71"/>
       <c r="E66" s="71"/>
       <c r="F66" s="71"/>
@@ -4992,7 +5354,7 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" s="98"/>
-      <c r="B67" s="49"/>
+      <c r="B67" s="101"/>
       <c r="C67" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5028,7 +5390,7 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" s="98"/>
-      <c r="B68" s="49"/>
+      <c r="B68" s="101"/>
       <c r="C68" s="74">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5063,1200 +5425,1272 @@
       <c r="AE68" s="71"/>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A69" s="44"/>
-      <c r="B69" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69" s="77">
-        <f>SUM(C22:C68)</f>
-        <v>516</v>
-      </c>
-      <c r="D69" s="78">
-        <f>SUM(D22:D68)</f>
-        <v>42</v>
-      </c>
-      <c r="E69" s="78">
-        <f>SUM(E22:E68)</f>
-        <v>90</v>
-      </c>
-      <c r="F69" s="78">
-        <f>SUM(F22:F68)</f>
-        <v>102</v>
-      </c>
-      <c r="G69" s="78">
-        <f>SUM(G22:G68)</f>
-        <v>90</v>
-      </c>
-      <c r="H69" s="78">
-        <f>SUM(H22:H68)</f>
-        <v>72</v>
-      </c>
-      <c r="I69" s="78">
-        <f>SUM(I22:I68)</f>
-        <v>60</v>
-      </c>
-      <c r="J69" s="78">
-        <f>SUM(J22:J68)</f>
-        <v>60</v>
-      </c>
-      <c r="K69" s="78">
-        <f>SUM(K22:K68)</f>
-        <v>30</v>
-      </c>
-      <c r="L69" s="78">
-        <f>SUM(L22:L68)</f>
-        <v>30</v>
-      </c>
-      <c r="M69" s="78">
-        <f>SUM(M22:M68)</f>
-        <v>30</v>
-      </c>
-      <c r="N69" s="78">
-        <f>SUM(N22:N68)</f>
-        <v>0</v>
-      </c>
-      <c r="O69" s="78">
-        <f>SUM(O22:O68)</f>
-        <v>0</v>
-      </c>
-      <c r="P69" s="78">
-        <f>SUM(P22:P68)</f>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="78">
-        <f>SUM(Q22:Q68)</f>
-        <v>0</v>
-      </c>
-      <c r="R69" s="78">
-        <f>SUM(R22:R68)</f>
-        <v>0</v>
-      </c>
-      <c r="S69" s="78">
-        <f>SUM(S22:S68)</f>
-        <v>0</v>
-      </c>
-      <c r="T69" s="78">
-        <f>SUM(T22:T68)</f>
-        <v>0</v>
-      </c>
-      <c r="U69" s="78">
-        <f>SUM(U22:U68)</f>
-        <v>0</v>
-      </c>
-      <c r="V69" s="78">
-        <f>SUM(V22:V68)</f>
-        <v>0</v>
-      </c>
-      <c r="W69" s="78">
-        <f>SUM(W22:W68)</f>
-        <v>0</v>
-      </c>
-      <c r="X69" s="78">
-        <f>SUM(X22:X68)</f>
-        <v>0</v>
-      </c>
-      <c r="Y69" s="78">
-        <f>SUM(Y22:Y68)</f>
-        <v>0</v>
-      </c>
-      <c r="Z69" s="78">
-        <f>SUM(Z22:Z68)</f>
-        <v>0</v>
-      </c>
-      <c r="AA69" s="78">
-        <f>SUM(AA22:AA68)</f>
-        <v>0</v>
-      </c>
-      <c r="AB69" s="78">
-        <f>SUM(AB22:AB68)</f>
-        <v>0</v>
-      </c>
-      <c r="AC69" s="78">
-        <f>SUM(AC22:AC68)</f>
-        <v>0</v>
-      </c>
-      <c r="AD69" s="78">
-        <f>SUM(AD22:AD68)</f>
-        <v>0</v>
-      </c>
-      <c r="AE69" s="78">
-        <f>SUM(AE22:AE68)</f>
-        <v>0</v>
-      </c>
+      <c r="A69" s="98"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
+      <c r="F69" s="71"/>
+      <c r="G69" s="71"/>
+      <c r="H69" s="71"/>
+      <c r="I69" s="71"/>
+      <c r="J69" s="71"/>
+      <c r="K69" s="71"/>
+      <c r="L69" s="71"/>
+      <c r="M69" s="71"/>
+      <c r="N69" s="71"/>
+      <c r="O69" s="71"/>
+      <c r="P69" s="71"/>
+      <c r="Q69" s="71"/>
+      <c r="R69" s="71"/>
+      <c r="S69" s="71"/>
+      <c r="T69" s="71"/>
+      <c r="U69" s="71"/>
+      <c r="V69" s="71"/>
+      <c r="W69" s="71"/>
+      <c r="X69" s="71"/>
+      <c r="Y69" s="71"/>
+      <c r="Z69" s="71"/>
+      <c r="AA69" s="71"/>
+      <c r="AB69" s="71"/>
+      <c r="AC69" s="71"/>
+      <c r="AD69" s="71"/>
+      <c r="AE69" s="71"/>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A70" s="44"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="80">
-        <f>IF(ISBLANK(D21),NA(),SUM($D69:D69))</f>
-        <v>42</v>
-      </c>
-      <c r="E70" s="80">
-        <f>IF(ISBLANK(E21),NA(),SUM($D69:E69))</f>
-        <v>132</v>
-      </c>
-      <c r="F70" s="80">
-        <f>IF(ISBLANK(F21),NA(),SUM($D69:F69))</f>
-        <v>234</v>
-      </c>
-      <c r="G70" s="80">
-        <f>IF(ISBLANK(G21),NA(),SUM($D69:G69))</f>
-        <v>324</v>
-      </c>
-      <c r="H70" s="80">
-        <f>IF(ISBLANK(H21),NA(),SUM($D69:H69))</f>
-        <v>396</v>
-      </c>
-      <c r="I70" s="80">
-        <f>IF(ISBLANK(I21),NA(),SUM($D69:I69))</f>
-        <v>456</v>
-      </c>
-      <c r="J70" s="80">
-        <f>IF(ISBLANK(J21),NA(),SUM($D69:J69))</f>
-        <v>516</v>
-      </c>
-      <c r="K70" s="80">
-        <f>IF(ISBLANK(K21),NA(),SUM($D69:K69))</f>
-        <v>546</v>
-      </c>
-      <c r="L70" s="80">
-        <f>IF(ISBLANK(L21),NA(),SUM($D69:L69))</f>
-        <v>576</v>
-      </c>
-      <c r="M70" s="80">
-        <f>IF(ISBLANK(M21),NA(),SUM($D69:M69))</f>
-        <v>606</v>
-      </c>
-      <c r="N70" s="80">
-        <f>IF(ISBLANK(N21),NA(),SUM($D69:N69))</f>
-        <v>606</v>
-      </c>
-      <c r="O70" s="80">
-        <f>IF(ISBLANK(O21),NA(),SUM($D69:O69))</f>
-        <v>606</v>
-      </c>
-      <c r="P70" s="80">
-        <f>IF(ISBLANK(P21),NA(),SUM($D69:P69))</f>
-        <v>606</v>
-      </c>
-      <c r="Q70" s="80">
-        <f>IF(ISBLANK(Q21),NA(),SUM($D69:Q69))</f>
-        <v>606</v>
-      </c>
-      <c r="R70" s="80">
-        <f>IF(ISBLANK(R21),NA(),SUM($D69:R69))</f>
-        <v>606</v>
-      </c>
-      <c r="S70" s="80">
-        <f>IF(ISBLANK(S21),NA(),SUM($D69:S69))</f>
-        <v>606</v>
-      </c>
-      <c r="T70" s="80">
-        <f>IF(ISBLANK(T21),NA(),SUM($D69:T69))</f>
-        <v>606</v>
-      </c>
-      <c r="U70" s="80">
-        <f>IF(ISBLANK(U21),NA(),SUM($D69:U69))</f>
-        <v>606</v>
-      </c>
-      <c r="V70" s="80">
-        <f>IF(ISBLANK(V21),NA(),SUM($D69:V69))</f>
-        <v>606</v>
-      </c>
-      <c r="W70" s="80">
-        <f>IF(ISBLANK(W21),NA(),SUM($D69:W69))</f>
-        <v>606</v>
-      </c>
-      <c r="X70" s="80">
-        <f>IF(ISBLANK(X21),NA(),SUM($D69:X69))</f>
-        <v>606</v>
-      </c>
-      <c r="Y70" s="80">
-        <f>IF(ISBLANK(Y21),NA(),SUM($D69:Y69))</f>
-        <v>606</v>
-      </c>
-      <c r="Z70" s="80">
-        <f>IF(ISBLANK(Z21),NA(),SUM($D69:Z69))</f>
-        <v>606</v>
-      </c>
-      <c r="AA70" s="80">
-        <f>IF(ISBLANK(AA21),NA(),SUM($D69:AA69))</f>
-        <v>606</v>
-      </c>
-      <c r="AB70" s="80">
-        <f>IF(ISBLANK(AB21),NA(),SUM($D69:AB69))</f>
-        <v>606</v>
-      </c>
-      <c r="AC70" s="80">
-        <f>IF(ISBLANK(AC21),NA(),SUM($D69:AC69))</f>
-        <v>606</v>
-      </c>
-      <c r="AD70" s="80">
-        <f>IF(ISBLANK(AD21),NA(),SUM($D69:AD69))</f>
-        <v>606</v>
-      </c>
-      <c r="AE70" s="80">
-        <f>IF(ISBLANK(AE21),NA(),SUM($D69:AE69))</f>
-        <v>606</v>
-      </c>
+      <c r="A70" s="98"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="74">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D70" s="71"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="71"/>
+      <c r="J70" s="71"/>
+      <c r="K70" s="71"/>
+      <c r="L70" s="71"/>
+      <c r="M70" s="71"/>
+      <c r="N70" s="71"/>
+      <c r="O70" s="71"/>
+      <c r="P70" s="71"/>
+      <c r="Q70" s="71"/>
+      <c r="R70" s="71"/>
+      <c r="S70" s="71"/>
+      <c r="T70" s="71"/>
+      <c r="U70" s="71"/>
+      <c r="V70" s="71"/>
+      <c r="W70" s="71"/>
+      <c r="X70" s="71"/>
+      <c r="Y70" s="71"/>
+      <c r="Z70" s="71"/>
+      <c r="AA70" s="71"/>
+      <c r="AB70" s="71"/>
+      <c r="AC70" s="71"/>
+      <c r="AD70" s="71"/>
+      <c r="AE70" s="71"/>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" s="44"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="81"/>
-      <c r="I71" s="81"/>
-      <c r="J71" s="81"/>
-      <c r="K71" s="81"/>
-      <c r="L71" s="81"/>
-      <c r="M71" s="81"/>
-      <c r="N71" s="81"/>
-      <c r="O71" s="81"/>
-      <c r="P71" s="81"/>
-      <c r="Q71" s="81"/>
-      <c r="R71" s="81"/>
-      <c r="S71" s="81"/>
-      <c r="T71" s="81"/>
-      <c r="U71" s="81"/>
-      <c r="V71" s="81"/>
-      <c r="W71" s="81"/>
-      <c r="X71" s="81"/>
-      <c r="Y71" s="81"/>
-      <c r="Z71" s="81"/>
-      <c r="AA71" s="81"/>
-      <c r="AB71" s="81"/>
-      <c r="AC71" s="81"/>
-      <c r="AD71" s="81"/>
-      <c r="AE71" s="81"/>
+      <c r="B71" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="77">
+        <f t="shared" ref="C71:AE71" si="3">SUM(C22:C70)</f>
+        <v>606.29999999999995</v>
+      </c>
+      <c r="D71" s="78">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="E71" s="78">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="F71" s="78">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="G71" s="78">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="H71" s="78">
+        <f t="shared" si="3"/>
+        <v>85.5</v>
+      </c>
+      <c r="I71" s="78">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="J71" s="78">
+        <f t="shared" si="3"/>
+        <v>52.8</v>
+      </c>
+      <c r="K71" s="78">
+        <f t="shared" si="3"/>
+        <v>63.5</v>
+      </c>
+      <c r="L71" s="78">
+        <f t="shared" si="3"/>
+        <v>55.5</v>
+      </c>
+      <c r="M71" s="78">
+        <f t="shared" si="3"/>
+        <v>56.5</v>
+      </c>
+      <c r="N71" s="78">
+        <f t="shared" si="3"/>
+        <v>50.5</v>
+      </c>
+      <c r="O71" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R71" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S71" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T71" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U71" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V71" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W71" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X71" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y71" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z71" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA71" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB71" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC71" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD71" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE71" s="78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A72" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
-      <c r="I72" s="64"/>
-      <c r="J72" s="64"/>
-      <c r="K72" s="64"/>
-      <c r="L72" s="64"/>
-      <c r="M72" s="64"/>
-      <c r="N72" s="64"/>
-      <c r="O72" s="64"/>
-      <c r="P72" s="64"/>
-      <c r="Q72" s="64"/>
-      <c r="R72" s="64"/>
-      <c r="S72" s="64"/>
-      <c r="T72" s="64"/>
-      <c r="U72" s="64"/>
-      <c r="V72" s="64"/>
-      <c r="W72" s="64"/>
-      <c r="X72" s="64"/>
-      <c r="Y72" s="64"/>
-      <c r="Z72" s="64"/>
-      <c r="AA72" s="64"/>
-      <c r="AB72" s="64"/>
-      <c r="AC72" s="64"/>
-      <c r="AD72" s="64"/>
-      <c r="AE72" s="64"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="80">
+        <f>IF(ISBLANK(D21),NA(),SUM($D71:D71))</f>
+        <v>18</v>
+      </c>
+      <c r="E72" s="80">
+        <f>IF(ISBLANK(E21),NA(),SUM($D71:E71))</f>
+        <v>63</v>
+      </c>
+      <c r="F72" s="80">
+        <f>IF(ISBLANK(F21),NA(),SUM($D71:F71))</f>
+        <v>125</v>
+      </c>
+      <c r="G72" s="80">
+        <f>IF(ISBLANK(G21),NA(),SUM($D71:G71))</f>
+        <v>209</v>
+      </c>
+      <c r="H72" s="80">
+        <f>IF(ISBLANK(H21),NA(),SUM($D71:H71))</f>
+        <v>294.5</v>
+      </c>
+      <c r="I72" s="80">
+        <f>IF(ISBLANK(I21),NA(),SUM($D71:I71))</f>
+        <v>354.5</v>
+      </c>
+      <c r="J72" s="80">
+        <f>IF(ISBLANK(J21),NA(),SUM($D71:J71))</f>
+        <v>407.3</v>
+      </c>
+      <c r="K72" s="80">
+        <f>IF(ISBLANK(K21),NA(),SUM($D71:K71))</f>
+        <v>470.8</v>
+      </c>
+      <c r="L72" s="80">
+        <f>IF(ISBLANK(L21),NA(),SUM($D71:L71))</f>
+        <v>526.29999999999995</v>
+      </c>
+      <c r="M72" s="80">
+        <f>IF(ISBLANK(M21),NA(),SUM($D71:M71))</f>
+        <v>582.79999999999995</v>
+      </c>
+      <c r="N72" s="80">
+        <f>IF(ISBLANK(N21),NA(),SUM($D71:N71))</f>
+        <v>633.29999999999995</v>
+      </c>
+      <c r="O72" s="80">
+        <f>IF(ISBLANK(O21),NA(),SUM($D71:O71))</f>
+        <v>633.29999999999995</v>
+      </c>
+      <c r="P72" s="80">
+        <f>IF(ISBLANK(P21),NA(),SUM($D71:P71))</f>
+        <v>633.29999999999995</v>
+      </c>
+      <c r="Q72" s="80">
+        <f>IF(ISBLANK(Q21),NA(),SUM($D71:Q71))</f>
+        <v>633.29999999999995</v>
+      </c>
+      <c r="R72" s="80">
+        <f>IF(ISBLANK(R21),NA(),SUM($D71:R71))</f>
+        <v>633.29999999999995</v>
+      </c>
+      <c r="S72" s="80">
+        <f>IF(ISBLANK(S21),NA(),SUM($D71:S71))</f>
+        <v>633.29999999999995</v>
+      </c>
+      <c r="T72" s="80">
+        <f>IF(ISBLANK(T21),NA(),SUM($D71:T71))</f>
+        <v>633.29999999999995</v>
+      </c>
+      <c r="U72" s="80">
+        <f>IF(ISBLANK(U21),NA(),SUM($D71:U71))</f>
+        <v>633.29999999999995</v>
+      </c>
+      <c r="V72" s="80">
+        <f>IF(ISBLANK(V21),NA(),SUM($D71:V71))</f>
+        <v>633.29999999999995</v>
+      </c>
+      <c r="W72" s="80">
+        <f>IF(ISBLANK(W21),NA(),SUM($D71:W71))</f>
+        <v>633.29999999999995</v>
+      </c>
+      <c r="X72" s="80">
+        <f>IF(ISBLANK(X21),NA(),SUM($D71:X71))</f>
+        <v>633.29999999999995</v>
+      </c>
+      <c r="Y72" s="80">
+        <f>IF(ISBLANK(Y21),NA(),SUM($D71:Y71))</f>
+        <v>633.29999999999995</v>
+      </c>
+      <c r="Z72" s="80">
+        <f>IF(ISBLANK(Z21),NA(),SUM($D71:Z71))</f>
+        <v>633.29999999999995</v>
+      </c>
+      <c r="AA72" s="80">
+        <f>IF(ISBLANK(AA21),NA(),SUM($D71:AA71))</f>
+        <v>633.29999999999995</v>
+      </c>
+      <c r="AB72" s="80">
+        <f>IF(ISBLANK(AB21),NA(),SUM($D71:AB71))</f>
+        <v>633.29999999999995</v>
+      </c>
+      <c r="AC72" s="80">
+        <f>IF(ISBLANK(AC21),NA(),SUM($D71:AC71))</f>
+        <v>633.29999999999995</v>
+      </c>
+      <c r="AD72" s="80">
+        <f>IF(ISBLANK(AD21),NA(),SUM($D71:AD71))</f>
+        <v>633.29999999999995</v>
+      </c>
+      <c r="AE72" s="80">
+        <f>IF(ISBLANK(AE21),NA(),SUM($D71:AE71))</f>
+        <v>633.29999999999995</v>
+      </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
-      <c r="C73" s="79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="71">
-        <f>AC!C55</f>
-        <v>30.5</v>
-      </c>
-      <c r="E73" s="71">
-        <f>AC!D55</f>
-        <v>126</v>
-      </c>
-      <c r="F73" s="71">
-        <f>AC!E55</f>
-        <v>310</v>
-      </c>
-      <c r="G73" s="71">
-        <f>AC!F55</f>
-        <v>310</v>
-      </c>
-      <c r="H73" s="71">
-        <f>AC!G55</f>
-        <v>310</v>
-      </c>
-      <c r="I73" s="71">
-        <f>AC!H55</f>
-        <v>310</v>
-      </c>
-      <c r="J73" s="71">
-        <f>AC!I55</f>
-        <v>310</v>
-      </c>
-      <c r="K73" s="71">
-        <f>AC!J55</f>
-        <v>310</v>
-      </c>
-      <c r="L73" s="71">
-        <f>AC!K55</f>
-        <v>310</v>
-      </c>
-      <c r="M73" s="71">
-        <f>AC!L55</f>
-        <v>310</v>
-      </c>
-      <c r="N73" s="71">
-        <f>AC!M55</f>
-        <v>310</v>
-      </c>
-      <c r="O73" s="71">
-        <f>AC!N55</f>
-        <v>310</v>
-      </c>
-      <c r="P73" s="71">
-        <f>AC!O55</f>
-        <v>310</v>
-      </c>
-      <c r="Q73" s="71">
-        <f>AC!P55</f>
-        <v>310</v>
-      </c>
-      <c r="R73" s="71">
-        <f>AC!Q55</f>
-        <v>310</v>
-      </c>
-      <c r="S73" s="71">
-        <f>AC!R55</f>
-        <v>310</v>
-      </c>
-      <c r="T73" s="71">
-        <f>AC!S55</f>
-        <v>310</v>
-      </c>
-      <c r="U73" s="71">
-        <f>AC!T55</f>
-        <v>310</v>
-      </c>
-      <c r="V73" s="71">
-        <f>AC!U55</f>
-        <v>310</v>
-      </c>
-      <c r="W73" s="71">
-        <f>AC!V55</f>
-        <v>310</v>
-      </c>
-      <c r="X73" s="71">
-        <f>AC!W55</f>
-        <v>310</v>
-      </c>
-      <c r="Y73" s="71">
-        <f>AC!X55</f>
-        <v>310</v>
-      </c>
-      <c r="Z73" s="71">
-        <f>AC!Y55</f>
-        <v>310</v>
-      </c>
-      <c r="AA73" s="71">
-        <f>AC!Z55</f>
-        <v>310</v>
-      </c>
-      <c r="AB73" s="71">
-        <f>AC!AA55</f>
-        <v>310</v>
-      </c>
-      <c r="AC73" s="71">
-        <f>AC!AB55</f>
-        <v>310</v>
-      </c>
-      <c r="AD73" s="71">
-        <f>AC!AC55</f>
-        <v>310</v>
-      </c>
-      <c r="AE73" s="71">
-        <f>AC!AD55</f>
-        <v>310</v>
-      </c>
+      <c r="C73" s="81"/>
+      <c r="D73" s="81"/>
+      <c r="E73" s="81"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="81"/>
+      <c r="I73" s="81"/>
+      <c r="J73" s="81"/>
+      <c r="K73" s="81"/>
+      <c r="L73" s="81"/>
+      <c r="M73" s="81"/>
+      <c r="N73" s="81"/>
+      <c r="O73" s="81"/>
+      <c r="P73" s="81"/>
+      <c r="Q73" s="81"/>
+      <c r="R73" s="81"/>
+      <c r="S73" s="81"/>
+      <c r="T73" s="81"/>
+      <c r="U73" s="81"/>
+      <c r="V73" s="81"/>
+      <c r="W73" s="81"/>
+      <c r="X73" s="81"/>
+      <c r="Y73" s="81"/>
+      <c r="Z73" s="81"/>
+      <c r="AA73" s="81"/>
+      <c r="AB73" s="81"/>
+      <c r="AC73" s="81"/>
+      <c r="AD73" s="81"/>
+      <c r="AE73" s="81"/>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="79" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74" s="71">
-        <f>EV!D54</f>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="E74" s="71">
-        <f>EV!E54</f>
-        <v>129</v>
-      </c>
-      <c r="F74" s="71">
-        <f>EV!F54</f>
-        <v>231</v>
-      </c>
-      <c r="G74" s="71">
-        <f>EV!G54</f>
-        <v>321</v>
-      </c>
-      <c r="H74" s="71">
-        <f>EV!H54</f>
-        <v>0</v>
-      </c>
-      <c r="I74" s="71">
-        <f>EV!I54</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="71">
-        <f>EV!J54</f>
-        <v>0</v>
-      </c>
-      <c r="K74" s="71">
-        <f>EV!K54</f>
-        <v>0</v>
-      </c>
-      <c r="L74" s="71">
-        <f>EV!L54</f>
-        <v>0</v>
-      </c>
-      <c r="M74" s="71">
-        <f>EV!M54</f>
-        <v>0</v>
-      </c>
-      <c r="N74" s="71">
-        <f>EV!N54</f>
-        <v>0</v>
-      </c>
-      <c r="O74" s="71">
-        <f>EV!O54</f>
-        <v>0</v>
-      </c>
-      <c r="P74" s="71">
-        <f>EV!P54</f>
-        <v>0</v>
-      </c>
-      <c r="Q74" s="71">
-        <f>EV!Q54</f>
-        <v>0</v>
-      </c>
-      <c r="R74" s="71">
-        <f>EV!R54</f>
-        <v>0</v>
-      </c>
-      <c r="S74" s="71">
-        <f>EV!S54</f>
-        <v>0</v>
-      </c>
-      <c r="T74" s="71">
-        <f>EV!T54</f>
-        <v>0</v>
-      </c>
-      <c r="U74" s="71">
-        <f>EV!U54</f>
-        <v>0</v>
-      </c>
-      <c r="V74" s="71">
-        <f>EV!V54</f>
-        <v>0</v>
-      </c>
-      <c r="W74" s="71">
-        <f>EV!W54</f>
-        <v>0</v>
-      </c>
-      <c r="X74" s="71">
-        <f>EV!X54</f>
-        <v>0</v>
-      </c>
-      <c r="Y74" s="71">
-        <f>EV!Y54</f>
-        <v>0</v>
-      </c>
-      <c r="Z74" s="71">
-        <f>EV!Z54</f>
-        <v>0</v>
-      </c>
-      <c r="AA74" s="71">
-        <f>EV!AA54</f>
-        <v>0</v>
-      </c>
-      <c r="AB74" s="71">
-        <f>EV!AB54</f>
-        <v>0</v>
-      </c>
-      <c r="AC74" s="71">
-        <f>EV!AC54</f>
-        <v>0</v>
-      </c>
-      <c r="AD74" s="71">
-        <f>EV!AD54</f>
-        <v>0</v>
-      </c>
-      <c r="AE74" s="71">
-        <f>EV!AE54</f>
-        <v>0</v>
-      </c>
+      <c r="A74" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="64"/>
+      <c r="K74" s="64"/>
+      <c r="L74" s="64"/>
+      <c r="M74" s="64"/>
+      <c r="N74" s="64"/>
+      <c r="O74" s="64"/>
+      <c r="P74" s="64"/>
+      <c r="Q74" s="64"/>
+      <c r="R74" s="64"/>
+      <c r="S74" s="64"/>
+      <c r="T74" s="64"/>
+      <c r="U74" s="64"/>
+      <c r="V74" s="64"/>
+      <c r="W74" s="64"/>
+      <c r="X74" s="64"/>
+      <c r="Y74" s="64"/>
+      <c r="Z74" s="64"/>
+      <c r="AA74" s="64"/>
+      <c r="AB74" s="64"/>
+      <c r="AC74" s="64"/>
+      <c r="AD74" s="64"/>
+      <c r="AE74" s="64"/>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="81"/>
-      <c r="E75" s="81"/>
-      <c r="F75" s="81"/>
-      <c r="G75" s="81"/>
-      <c r="H75" s="81"/>
-      <c r="I75" s="81"/>
-      <c r="J75" s="81"/>
-      <c r="K75" s="81"/>
-      <c r="L75" s="81"/>
-      <c r="M75" s="81"/>
-      <c r="N75" s="81"/>
-      <c r="O75" s="81"/>
-      <c r="P75" s="81"/>
-      <c r="Q75" s="81"/>
-      <c r="R75" s="81"/>
-      <c r="S75" s="81"/>
-      <c r="T75" s="81"/>
-      <c r="U75" s="81"/>
-      <c r="V75" s="81"/>
-      <c r="W75" s="81"/>
-      <c r="X75" s="81"/>
-      <c r="Y75" s="81"/>
-      <c r="Z75" s="81"/>
-      <c r="AA75" s="81"/>
-      <c r="AB75" s="81"/>
-      <c r="AC75" s="81"/>
-      <c r="AD75" s="81"/>
-      <c r="AE75" s="81"/>
+      <c r="C75" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="71">
+        <f>ACWP!C61</f>
+        <v>30.5</v>
+      </c>
+      <c r="E75" s="71">
+        <f>ACWP!D61</f>
+        <v>116</v>
+      </c>
+      <c r="F75" s="71">
+        <f>ACWP!E61</f>
+        <v>327</v>
+      </c>
+      <c r="G75" s="71">
+        <f>ACWP!F61</f>
+        <v>374</v>
+      </c>
+      <c r="H75" s="71">
+        <f>ACWP!G61</f>
+        <v>561</v>
+      </c>
+      <c r="I75" s="71">
+        <f>ACWP!H61</f>
+        <v>758</v>
+      </c>
+      <c r="J75" s="71">
+        <f>ACWP!I61</f>
+        <v>1007</v>
+      </c>
+      <c r="K75" s="71">
+        <f>ACWP!J61</f>
+        <v>1198</v>
+      </c>
+      <c r="L75" s="71">
+        <f>ACWP!K61</f>
+        <v>1302</v>
+      </c>
+      <c r="M75" s="71">
+        <f>ACWP!L61</f>
+        <v>1354</v>
+      </c>
+      <c r="N75" s="71">
+        <f>ACWP!M61</f>
+        <v>1392</v>
+      </c>
+      <c r="O75" s="71">
+        <f>ACWP!N61</f>
+        <v>1434</v>
+      </c>
+      <c r="P75" s="71">
+        <f>ACWP!O61</f>
+        <v>1434</v>
+      </c>
+      <c r="Q75" s="71">
+        <f>ACWP!P61</f>
+        <v>1434</v>
+      </c>
+      <c r="R75" s="71">
+        <f>ACWP!Q61</f>
+        <v>1434</v>
+      </c>
+      <c r="S75" s="71">
+        <f>ACWP!R61</f>
+        <v>1434</v>
+      </c>
+      <c r="T75" s="71">
+        <f>ACWP!S61</f>
+        <v>1434</v>
+      </c>
+      <c r="U75" s="71">
+        <f>ACWP!T61</f>
+        <v>1434</v>
+      </c>
+      <c r="V75" s="71">
+        <f>ACWP!U61</f>
+        <v>1434</v>
+      </c>
+      <c r="W75" s="71">
+        <f>ACWP!V61</f>
+        <v>1434</v>
+      </c>
+      <c r="X75" s="71">
+        <f>ACWP!W61</f>
+        <v>1434</v>
+      </c>
+      <c r="Y75" s="71">
+        <f>ACWP!X61</f>
+        <v>1434</v>
+      </c>
+      <c r="Z75" s="71">
+        <f>ACWP!Y61</f>
+        <v>1434</v>
+      </c>
+      <c r="AA75" s="71">
+        <f>ACWP!Z61</f>
+        <v>1434</v>
+      </c>
+      <c r="AB75" s="71">
+        <f>ACWP!AA61</f>
+        <v>1434</v>
+      </c>
+      <c r="AC75" s="71">
+        <f>ACWP!AB61</f>
+        <v>1434</v>
+      </c>
+      <c r="AD75" s="71">
+        <f>ACWP!AC61</f>
+        <v>1434</v>
+      </c>
+      <c r="AE75" s="71">
+        <f>ACWP!AD61</f>
+        <v>1434</v>
+      </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A76" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64"/>
-      <c r="I76" s="64"/>
-      <c r="J76" s="64"/>
-      <c r="K76" s="64"/>
-      <c r="L76" s="64"/>
-      <c r="M76" s="64"/>
-      <c r="N76" s="64"/>
-      <c r="O76" s="64"/>
-      <c r="P76" s="64"/>
-      <c r="Q76" s="64"/>
-      <c r="R76" s="64"/>
-      <c r="S76" s="64"/>
-      <c r="T76" s="64"/>
-      <c r="U76" s="64"/>
-      <c r="V76" s="64"/>
-      <c r="W76" s="64"/>
-      <c r="X76" s="64"/>
-      <c r="Y76" s="64"/>
-      <c r="Z76" s="64"/>
-      <c r="AA76" s="64"/>
-      <c r="AB76" s="64"/>
-      <c r="AC76" s="64"/>
-      <c r="AD76" s="64"/>
-      <c r="AE76" s="64"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="D76" s="71">
+        <f>BCWP!D63</f>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="E76" s="71">
+        <f>BCWP!E63</f>
+        <v>129.4</v>
+      </c>
+      <c r="F76" s="71">
+        <f>BCWP!F63</f>
+        <v>103.60000000000001</v>
+      </c>
+      <c r="G76" s="71">
+        <f>BCWP!G63</f>
+        <v>137.30000000000001</v>
+      </c>
+      <c r="H76" s="71">
+        <f>BCWP!H63</f>
+        <v>100.34500000000001</v>
+      </c>
+      <c r="I76" s="71">
+        <f>BCWP!I63</f>
+        <v>87.2</v>
+      </c>
+      <c r="J76" s="71">
+        <f>BCWP!J63</f>
+        <v>120.90999999999998</v>
+      </c>
+      <c r="K76" s="71">
+        <f>BCWP!K63</f>
+        <v>153.25</v>
+      </c>
+      <c r="L76" s="71">
+        <f>BCWP!L63</f>
+        <v>159.94499999999999</v>
+      </c>
+      <c r="M76" s="71">
+        <f>BCWP!M63</f>
+        <v>173.04999999999998</v>
+      </c>
+      <c r="N76" s="71">
+        <f>BCWP!N63</f>
+        <v>131.19499999999999</v>
+      </c>
+      <c r="O76" s="71">
+        <f>BCWP!O63</f>
+        <v>144.64499999999998</v>
+      </c>
+      <c r="P76" s="71">
+        <f>BCWP!P63</f>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="71">
+        <f>BCWP!Q63</f>
+        <v>0</v>
+      </c>
+      <c r="R76" s="71">
+        <f>BCWP!R63</f>
+        <v>0</v>
+      </c>
+      <c r="S76" s="71">
+        <f>BCWP!S63</f>
+        <v>0</v>
+      </c>
+      <c r="T76" s="71">
+        <f>BCWP!T63</f>
+        <v>0</v>
+      </c>
+      <c r="U76" s="71">
+        <f>BCWP!U63</f>
+        <v>0</v>
+      </c>
+      <c r="V76" s="71">
+        <f>BCWP!V63</f>
+        <v>0</v>
+      </c>
+      <c r="W76" s="71">
+        <f>BCWP!W63</f>
+        <v>0</v>
+      </c>
+      <c r="X76" s="71">
+        <f>BCWP!X63</f>
+        <v>0</v>
+      </c>
+      <c r="Y76" s="71">
+        <f>BCWP!Y63</f>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="71">
+        <f>BCWP!Z63</f>
+        <v>0</v>
+      </c>
+      <c r="AA76" s="71">
+        <f>BCWP!AA63</f>
+        <v>0</v>
+      </c>
+      <c r="AB76" s="71">
+        <f>BCWP!AB63</f>
+        <v>0</v>
+      </c>
+      <c r="AC76" s="71">
+        <f>BCWP!AC63</f>
+        <v>0</v>
+      </c>
+      <c r="AD76" s="71">
+        <f>BCWP!AD63</f>
+        <v>0</v>
+      </c>
+      <c r="AE76" s="71">
+        <f>BCWP!AE63</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C77" s="82" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" s="82">
-        <f>IF(AND(ISBLANK(D73),ISBLANK(D74))," - ",D74-D73)</f>
-        <v>10.299999999999997</v>
-      </c>
-      <c r="E77" s="82">
-        <f>IF(AND(ISBLANK(E73),ISBLANK(E74))," - ",E74-E73)</f>
-        <v>3</v>
-      </c>
-      <c r="F77" s="82">
-        <f t="shared" ref="F77:AE77" si="3">IF(AND(ISBLANK(F73),ISBLANK(F74))," - ",F74-F73)</f>
-        <v>-79</v>
-      </c>
-      <c r="G77" s="82">
-        <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="H77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="I77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="J77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="K77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="L77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="M77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="N77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="O77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="P77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="Q77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="R77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="S77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="T77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="U77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="V77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="W77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="X77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="Y77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="Z77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="AA77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="AB77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="AC77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="AD77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
-      <c r="AE77" s="82">
-        <f t="shared" si="3"/>
-        <v>-310</v>
-      </c>
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="81"/>
+      <c r="D77" s="81"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="81"/>
+      <c r="I77" s="81"/>
+      <c r="J77" s="81"/>
+      <c r="K77" s="81"/>
+      <c r="L77" s="81"/>
+      <c r="M77" s="81"/>
+      <c r="N77" s="81"/>
+      <c r="O77" s="81"/>
+      <c r="P77" s="81"/>
+      <c r="Q77" s="81"/>
+      <c r="R77" s="81"/>
+      <c r="S77" s="81"/>
+      <c r="T77" s="81"/>
+      <c r="U77" s="81"/>
+      <c r="V77" s="81"/>
+      <c r="W77" s="81"/>
+      <c r="X77" s="81"/>
+      <c r="Y77" s="81"/>
+      <c r="Z77" s="81"/>
+      <c r="AA77" s="81"/>
+      <c r="AB77" s="81"/>
+      <c r="AC77" s="81"/>
+      <c r="AD77" s="81"/>
+      <c r="AE77" s="81"/>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C78" s="82" t="s">
+      <c r="A78" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="82">
-        <f>IF(AND(ISBLANK(D73),ISBLANK(D74))," - ",D74-D70)</f>
-        <v>-1.2000000000000028</v>
-      </c>
-      <c r="E78" s="82">
-        <f>IF(AND(ISBLANK(E73),ISBLANK(E74))," - ",E74-E70)</f>
-        <v>-3</v>
-      </c>
-      <c r="F78" s="82">
-        <f t="shared" ref="F78:AE78" si="4">IF(AND(ISBLANK(F73),ISBLANK(F74))," - ",F74-F70)</f>
-        <v>-3</v>
-      </c>
-      <c r="G78" s="82">
-        <f t="shared" si="4"/>
-        <v>-3</v>
-      </c>
-      <c r="H78" s="82">
-        <f t="shared" si="4"/>
-        <v>-396</v>
-      </c>
-      <c r="I78" s="82">
-        <f t="shared" si="4"/>
-        <v>-456</v>
-      </c>
-      <c r="J78" s="82">
-        <f t="shared" si="4"/>
-        <v>-516</v>
-      </c>
-      <c r="K78" s="82">
-        <f t="shared" si="4"/>
-        <v>-546</v>
-      </c>
-      <c r="L78" s="82">
-        <f t="shared" si="4"/>
-        <v>-576</v>
-      </c>
-      <c r="M78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="N78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="O78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="P78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="Q78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="R78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="S78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="T78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="U78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="V78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="W78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="X78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="Y78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="Z78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="AA78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="AB78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="AC78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="AD78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
-      <c r="AE78" s="82">
-        <f t="shared" si="4"/>
-        <v>-606</v>
-      </c>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
+      <c r="I78" s="64"/>
+      <c r="J78" s="64"/>
+      <c r="K78" s="64"/>
+      <c r="L78" s="64"/>
+      <c r="M78" s="64"/>
+      <c r="N78" s="64"/>
+      <c r="O78" s="64"/>
+      <c r="P78" s="64"/>
+      <c r="Q78" s="64"/>
+      <c r="R78" s="64"/>
+      <c r="S78" s="64"/>
+      <c r="T78" s="64"/>
+      <c r="U78" s="64"/>
+      <c r="V78" s="64"/>
+      <c r="W78" s="64"/>
+      <c r="X78" s="64"/>
+      <c r="Y78" s="64"/>
+      <c r="Z78" s="64"/>
+      <c r="AA78" s="64"/>
+      <c r="AB78" s="64"/>
+      <c r="AC78" s="64"/>
+      <c r="AD78" s="64"/>
+      <c r="AE78" s="64"/>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C79" s="82" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="83">
-        <f>IF(AND(ISBLANK(D73),ISBLANK(D74))," - ",D74/D73)</f>
-        <v>1.3377049180327867</v>
-      </c>
-      <c r="E79" s="83">
-        <f>IF(AND(ISBLANK(E73),ISBLANK(E74))," - ",E74/E73)</f>
-        <v>1.0238095238095237</v>
-      </c>
-      <c r="F79" s="83">
-        <f t="shared" ref="F79:AE79" si="5">IF(AND(ISBLANK(F73),ISBLANK(F74))," - ",F74/F73)</f>
-        <v>0.74516129032258061</v>
-      </c>
-      <c r="G79" s="83">
-        <f t="shared" si="5"/>
-        <v>1.0354838709677419</v>
-      </c>
-      <c r="H79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE79" s="83">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>108</v>
+      </c>
+      <c r="D79" s="82">
+        <f>IF(AND(ISBLANK(D75),ISBLANK(D76))," - ",D76-D75)</f>
+        <v>10.299999999999997</v>
+      </c>
+      <c r="E79" s="82">
+        <f>IF(AND(ISBLANK(E75),ISBLANK(E76))," - ",E76-E75)</f>
+        <v>13.400000000000006</v>
+      </c>
+      <c r="F79" s="82">
+        <f t="shared" ref="F79:AE79" si="4">IF(AND(ISBLANK(F75),ISBLANK(F76))," - ",F76-F75)</f>
+        <v>-223.39999999999998</v>
+      </c>
+      <c r="G79" s="82">
+        <f t="shared" si="4"/>
+        <v>-236.7</v>
+      </c>
+      <c r="H79" s="82">
+        <f t="shared" si="4"/>
+        <v>-460.65499999999997</v>
+      </c>
+      <c r="I79" s="82">
+        <f t="shared" si="4"/>
+        <v>-670.8</v>
+      </c>
+      <c r="J79" s="82">
+        <f t="shared" si="4"/>
+        <v>-886.09</v>
+      </c>
+      <c r="K79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1044.75</v>
+      </c>
+      <c r="L79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1142.0550000000001</v>
+      </c>
+      <c r="M79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1180.95</v>
+      </c>
+      <c r="N79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1260.8050000000001</v>
+      </c>
+      <c r="O79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1289.355</v>
+      </c>
+      <c r="P79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1434</v>
+      </c>
+      <c r="Q79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1434</v>
+      </c>
+      <c r="R79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1434</v>
+      </c>
+      <c r="S79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1434</v>
+      </c>
+      <c r="T79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1434</v>
+      </c>
+      <c r="U79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1434</v>
+      </c>
+      <c r="V79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1434</v>
+      </c>
+      <c r="W79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1434</v>
+      </c>
+      <c r="X79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1434</v>
+      </c>
+      <c r="Y79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1434</v>
+      </c>
+      <c r="Z79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1434</v>
+      </c>
+      <c r="AA79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1434</v>
+      </c>
+      <c r="AB79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1434</v>
+      </c>
+      <c r="AC79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1434</v>
+      </c>
+      <c r="AD79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1434</v>
+      </c>
+      <c r="AE79" s="82">
+        <f t="shared" si="4"/>
+        <v>-1434</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C80" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="83">
-        <f>IF(AND(ISBLANK(D73),ISBLANK(D74))," - ",D74/D70)</f>
-        <v>0.97142857142857131</v>
-      </c>
-      <c r="E80" s="83">
-        <f>IF(AND(ISBLANK(E73),ISBLANK(E74))," - ",E74/E70)</f>
-        <v>0.97727272727272729</v>
-      </c>
-      <c r="F80" s="83">
-        <f t="shared" ref="F80:AE80" si="6">IF(AND(ISBLANK(F73),ISBLANK(F74))," - ",F74/F70)</f>
-        <v>0.98717948717948723</v>
-      </c>
-      <c r="G80" s="83">
-        <f t="shared" si="6"/>
-        <v>0.9907407407407407</v>
-      </c>
-      <c r="H80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="V80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="W80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AD80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AE80" s="83">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>109</v>
+      </c>
+      <c r="D80" s="82">
+        <f>IF(AND(ISBLANK(D75),ISBLANK(D76))," - ",D76-D72)</f>
+        <v>22.799999999999997</v>
+      </c>
+      <c r="E80" s="82">
+        <f>IF(AND(ISBLANK(E75),ISBLANK(E76))," - ",E76-E72)</f>
+        <v>66.400000000000006</v>
+      </c>
+      <c r="F80" s="82">
+        <f t="shared" ref="F80:AE80" si="5">IF(AND(ISBLANK(F75),ISBLANK(F76))," - ",F76-F72)</f>
+        <v>-21.399999999999991</v>
+      </c>
+      <c r="G80" s="82">
+        <f t="shared" si="5"/>
+        <v>-71.699999999999989</v>
+      </c>
+      <c r="H80" s="82">
+        <f t="shared" si="5"/>
+        <v>-194.15499999999997</v>
+      </c>
+      <c r="I80" s="82">
+        <f t="shared" si="5"/>
+        <v>-267.3</v>
+      </c>
+      <c r="J80" s="82">
+        <f t="shared" si="5"/>
+        <v>-286.39000000000004</v>
+      </c>
+      <c r="K80" s="82">
+        <f t="shared" si="5"/>
+        <v>-317.55</v>
+      </c>
+      <c r="L80" s="82">
+        <f t="shared" si="5"/>
+        <v>-366.35499999999996</v>
+      </c>
+      <c r="M80" s="82">
+        <f t="shared" si="5"/>
+        <v>-409.75</v>
+      </c>
+      <c r="N80" s="82">
+        <f t="shared" si="5"/>
+        <v>-502.10499999999996</v>
+      </c>
+      <c r="O80" s="82">
+        <f t="shared" si="5"/>
+        <v>-488.65499999999997</v>
+      </c>
+      <c r="P80" s="82">
+        <f t="shared" si="5"/>
+        <v>-633.29999999999995</v>
+      </c>
+      <c r="Q80" s="82">
+        <f t="shared" si="5"/>
+        <v>-633.29999999999995</v>
+      </c>
+      <c r="R80" s="82">
+        <f t="shared" si="5"/>
+        <v>-633.29999999999995</v>
+      </c>
+      <c r="S80" s="82">
+        <f t="shared" si="5"/>
+        <v>-633.29999999999995</v>
+      </c>
+      <c r="T80" s="82">
+        <f t="shared" si="5"/>
+        <v>-633.29999999999995</v>
+      </c>
+      <c r="U80" s="82">
+        <f t="shared" si="5"/>
+        <v>-633.29999999999995</v>
+      </c>
+      <c r="V80" s="82">
+        <f t="shared" si="5"/>
+        <v>-633.29999999999995</v>
+      </c>
+      <c r="W80" s="82">
+        <f t="shared" si="5"/>
+        <v>-633.29999999999995</v>
+      </c>
+      <c r="X80" s="82">
+        <f t="shared" si="5"/>
+        <v>-633.29999999999995</v>
+      </c>
+      <c r="Y80" s="82">
+        <f t="shared" si="5"/>
+        <v>-633.29999999999995</v>
+      </c>
+      <c r="Z80" s="82">
+        <f t="shared" si="5"/>
+        <v>-633.29999999999995</v>
+      </c>
+      <c r="AA80" s="82">
+        <f t="shared" si="5"/>
+        <v>-633.29999999999995</v>
+      </c>
+      <c r="AB80" s="82">
+        <f t="shared" si="5"/>
+        <v>-633.29999999999995</v>
+      </c>
+      <c r="AC80" s="82">
+        <f t="shared" si="5"/>
+        <v>-633.29999999999995</v>
+      </c>
+      <c r="AD80" s="82">
+        <f t="shared" si="5"/>
+        <v>-633.29999999999995</v>
+      </c>
+      <c r="AE80" s="82">
+        <f t="shared" si="5"/>
+        <v>-633.29999999999995</v>
       </c>
     </row>
     <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="84">
-        <f>IF(AND(ISBLANK(D73),ISBLANK(D74))," - ",$C$69/D79)</f>
-        <v>385.73529411764713</v>
-      </c>
-      <c r="E81" s="84">
-        <f>IF(AND(ISBLANK(E73),ISBLANK(E74))," - ",$C$69/E79)</f>
-        <v>504.00000000000006</v>
-      </c>
-      <c r="F81" s="84">
-        <f t="shared" ref="F81:AE81" si="7">IF(AND(ISBLANK(F73),ISBLANK(F74))," - ",$C$69/F79)</f>
-        <v>692.46753246753246</v>
-      </c>
-      <c r="G81" s="84">
+        <v>110</v>
+      </c>
+      <c r="D81" s="83">
+        <f>IF(AND(ISBLANK(D75),ISBLANK(D76))," - ",D76/D75)</f>
+        <v>1.3377049180327867</v>
+      </c>
+      <c r="E81" s="83">
+        <f>IF(AND(ISBLANK(E75),ISBLANK(E76))," - ",E76/E75)</f>
+        <v>1.1155172413793104</v>
+      </c>
+      <c r="F81" s="83">
+        <f t="shared" ref="F81:AE81" si="6">IF(AND(ISBLANK(F75),ISBLANK(F76))," - ",F76/F75)</f>
+        <v>0.31681957186544346</v>
+      </c>
+      <c r="G81" s="83">
+        <f t="shared" si="6"/>
+        <v>0.36711229946524065</v>
+      </c>
+      <c r="H81" s="83">
+        <f t="shared" si="6"/>
+        <v>0.17886809269162213</v>
+      </c>
+      <c r="I81" s="83">
+        <f t="shared" si="6"/>
+        <v>0.11503957783641161</v>
+      </c>
+      <c r="J81" s="83">
+        <f t="shared" si="6"/>
+        <v>0.12006951340615689</v>
+      </c>
+      <c r="K81" s="83">
+        <f t="shared" si="6"/>
+        <v>0.12792153589315525</v>
+      </c>
+      <c r="L81" s="83">
+        <f t="shared" si="6"/>
+        <v>0.12284562211981566</v>
+      </c>
+      <c r="M81" s="83">
+        <f t="shared" si="6"/>
+        <v>0.12780649926144755</v>
+      </c>
+      <c r="N81" s="83">
+        <f t="shared" si="6"/>
+        <v>9.4249281609195393E-2</v>
+      </c>
+      <c r="O81" s="83">
+        <f t="shared" si="6"/>
+        <v>0.10086820083682008</v>
+      </c>
+      <c r="P81" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R81" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S81" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T81" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U81" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V81" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W81" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X81" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y81" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z81" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA81" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB81" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC81" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD81" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE81" s="83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C82" s="82" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" s="83">
+        <f>IF(AND(ISBLANK(D75),ISBLANK(D76))," - ",D76/D72)</f>
+        <v>2.2666666666666666</v>
+      </c>
+      <c r="E82" s="83">
+        <f>IF(AND(ISBLANK(E75),ISBLANK(E76))," - ",E76/E72)</f>
+        <v>2.0539682539682542</v>
+      </c>
+      <c r="F82" s="83">
+        <f t="shared" ref="F82:AE82" si="7">IF(AND(ISBLANK(F75),ISBLANK(F76))," - ",F76/F72)</f>
+        <v>0.82880000000000009</v>
+      </c>
+      <c r="G82" s="83">
         <f t="shared" si="7"/>
-        <v>498.31775700934583</v>
-      </c>
-      <c r="H81" s="84" t="e">
+        <v>0.65693779904306226</v>
+      </c>
+      <c r="H82" s="83">
         <f t="shared" si="7"/>
+        <v>0.34073005093378611</v>
+      </c>
+      <c r="I82" s="83">
+        <f t="shared" si="7"/>
+        <v>0.2459802538787024</v>
+      </c>
+      <c r="J82" s="83">
+        <f t="shared" si="7"/>
+        <v>0.29685735330223417</v>
+      </c>
+      <c r="K82" s="83">
+        <f t="shared" si="7"/>
+        <v>0.32550977060322855</v>
+      </c>
+      <c r="L82" s="83">
+        <f t="shared" si="7"/>
+        <v>0.30390461713851419</v>
+      </c>
+      <c r="M82" s="83">
+        <f t="shared" si="7"/>
+        <v>0.29692862045298557</v>
+      </c>
+      <c r="N82" s="83">
+        <f t="shared" si="7"/>
+        <v>0.20716090320543187</v>
+      </c>
+      <c r="O82" s="83">
+        <f t="shared" si="7"/>
+        <v>0.22839886309805779</v>
+      </c>
+      <c r="P82" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R82" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S82" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T82" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U82" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V82" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W82" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X82" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y82" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z82" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA82" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB82" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC82" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD82" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE82" s="83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="C83" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="84">
+        <f>IF(AND(ISBLANK(D75),ISBLANK(D76))," - ",$C$71/D81)</f>
+        <v>453.2389705882353</v>
+      </c>
+      <c r="E83" s="84">
+        <f>IF(AND(ISBLANK(E75),ISBLANK(E76))," - ",$C$71/E81)</f>
+        <v>543.51468315301383</v>
+      </c>
+      <c r="F83" s="84">
+        <f t="shared" ref="F83:AE83" si="8">IF(AND(ISBLANK(F75),ISBLANK(F76))," - ",$C$71/F81)</f>
+        <v>1913.7075289575287</v>
+      </c>
+      <c r="G83" s="84">
+        <f t="shared" si="8"/>
+        <v>1651.5382374362707</v>
+      </c>
+      <c r="H83" s="84">
+        <f t="shared" si="8"/>
+        <v>3389.6487119437934</v>
+      </c>
+      <c r="I83" s="84">
+        <f t="shared" si="8"/>
+        <v>5270.3600917431186</v>
+      </c>
+      <c r="J83" s="84">
+        <f t="shared" si="8"/>
+        <v>5049.5748904143584</v>
+      </c>
+      <c r="K83" s="84">
+        <f t="shared" si="8"/>
+        <v>4739.6241435562806</v>
+      </c>
+      <c r="L83" s="84">
+        <f t="shared" si="8"/>
+        <v>4935.4628153427739</v>
+      </c>
+      <c r="M83" s="84">
+        <f t="shared" si="8"/>
+        <v>4743.8902051430223</v>
+      </c>
+      <c r="N83" s="84">
+        <f t="shared" si="8"/>
+        <v>6432.9402797362709</v>
+      </c>
+      <c r="O83" s="84">
+        <f t="shared" si="8"/>
+        <v>6010.8140620138956</v>
+      </c>
+      <c r="P83" s="84" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I81" s="84" t="e">
-        <f t="shared" si="7"/>
+      <c r="Q83" s="84" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J81" s="84" t="e">
-        <f t="shared" si="7"/>
+      <c r="R83" s="84" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K81" s="84" t="e">
-        <f t="shared" si="7"/>
+      <c r="S83" s="84" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L81" s="84" t="e">
-        <f t="shared" si="7"/>
+      <c r="T83" s="84" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M81" s="84" t="e">
-        <f t="shared" si="7"/>
+      <c r="U83" s="84" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N81" s="84" t="e">
-        <f t="shared" si="7"/>
+      <c r="V83" s="84" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O81" s="84" t="e">
-        <f t="shared" si="7"/>
+      <c r="W83" s="84" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P81" s="84" t="e">
-        <f t="shared" si="7"/>
+      <c r="X83" s="84" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q81" s="84" t="e">
-        <f t="shared" si="7"/>
+      <c r="Y83" s="84" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R81" s="84" t="e">
-        <f t="shared" si="7"/>
+      <c r="Z83" s="84" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S81" s="84" t="e">
-        <f t="shared" si="7"/>
+      <c r="AA83" s="84" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T81" s="84" t="e">
-        <f t="shared" si="7"/>
+      <c r="AB83" s="84" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U81" s="84" t="e">
-        <f t="shared" si="7"/>
+      <c r="AC83" s="84" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V81" s="84" t="e">
-        <f t="shared" si="7"/>
+      <c r="AD83" s="84" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W81" s="84" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X81" s="84" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y81" s="84" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z81" s="84" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA81" s="84" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB81" s="84" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC81" s="84" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD81" s="84" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE81" s="84" t="e">
-        <f t="shared" si="7"/>
+      <c r="AE83" s="84" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -6270,19 +6704,19 @@
     <mergeCell ref="J18:K18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="D79:AE80">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="D81:AE82">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77:AE78">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="D79:AE80">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6305,10 +6739,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE54"/>
+  <dimension ref="A1:AE63"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6320,9 +6754,9 @@
     <col min="32" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>19</v>
+    <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="15" x14ac:dyDescent="0.25">
@@ -6335,9 +6769,7 @@
       <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>25</v>
-      </c>
+      <c r="A3" s="30"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -6347,15 +6779,11 @@
       <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="A4" s="30"/>
       <c r="Q4" s="53"/>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
-        <v>21</v>
-      </c>
+      <c r="A5" s="54"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="30"/>
@@ -6364,7 +6792,7 @@
     </row>
     <row r="7" spans="1:31" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -6382,91 +6810,91 @@
         <v>0</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D8" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="T8" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="U8" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="V8" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="W8" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="X8" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="Y8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="66" t="s">
+      <c r="Z8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="AA8" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="M8" s="66" t="s">
+      <c r="AB8" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="N8" s="66" t="s">
+      <c r="AC8" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="O8" s="66" t="s">
+      <c r="AD8" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="P8" s="66" t="s">
+      <c r="AE8" s="66" t="s">
         <v>92</v>
-      </c>
-      <c r="Q8" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="R8" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="S8" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="T8" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="U8" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="V8" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="W8" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="X8" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y8" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z8" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA8" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB8" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC8" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD8" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE8" s="66" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="15" x14ac:dyDescent="0.2">
@@ -6475,7 +6903,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="94" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C9" s="91">
         <f>Report!C22</f>
@@ -6516,7 +6944,7 @@
         <v>1.1</v>
       </c>
       <c r="B10" s="96" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C10" s="91">
         <f>Report!C23</f>
@@ -6557,7 +6985,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C11" s="67">
         <f>Report!C24</f>
@@ -6566,23 +6994,17 @@
       <c r="D11" s="68">
         <v>1</v>
       </c>
-      <c r="E11" s="68">
-        <v>1</v>
-      </c>
-      <c r="F11" s="68">
-        <v>1</v>
-      </c>
-      <c r="G11" s="68">
-        <v>1</v>
-      </c>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
       <c r="H11" s="68"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
       <c r="P11" s="68"/>
       <c r="Q11" s="69"/>
       <c r="R11" s="69"/>
@@ -6606,7 +7028,7 @@
         <v>1.1.2</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C12" s="67">
         <f>Report!C25</f>
@@ -6624,7 +7046,9 @@
       <c r="G12" s="68">
         <v>0.9</v>
       </c>
-      <c r="H12" s="68"/>
+      <c r="H12" s="68">
+        <v>1</v>
+      </c>
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
       <c r="K12" s="68"/>
@@ -6655,7 +7079,7 @@
         <v>1.1.3</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C13" s="67">
         <f>Report!C26</f>
@@ -6664,15 +7088,9 @@
       <c r="D13" s="68">
         <v>1</v>
       </c>
-      <c r="E13" s="68">
-        <v>1</v>
-      </c>
-      <c r="F13" s="68">
-        <v>1</v>
-      </c>
-      <c r="G13" s="68">
-        <v>1</v>
-      </c>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
       <c r="H13" s="68"/>
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
@@ -6704,11 +7122,11 @@
         <v>1.1.4</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C14" s="67">
         <f>Report!C27</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="68">
@@ -6718,9 +7136,11 @@
         <v>0.9</v>
       </c>
       <c r="G14" s="68">
-        <v>0.9</v>
-      </c>
-      <c r="H14" s="68"/>
+        <v>0.95</v>
+      </c>
+      <c r="H14" s="68">
+        <v>1</v>
+      </c>
       <c r="I14" s="68"/>
       <c r="J14" s="68"/>
       <c r="K14" s="68"/>
@@ -6751,22 +7171,18 @@
         <v>1.1.5</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C15" s="67">
         <f>Report!C28</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D15" s="68"/>
       <c r="E15" s="68">
         <v>1</v>
       </c>
-      <c r="F15" s="68">
-        <v>1</v>
-      </c>
-      <c r="G15" s="68">
-        <v>1</v>
-      </c>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
       <c r="H15" s="68"/>
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
@@ -6798,22 +7214,18 @@
         <v>1.1.6</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C16" s="67">
         <f>Report!C29</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D16" s="68"/>
       <c r="E16" s="68">
         <v>1</v>
       </c>
-      <c r="F16" s="68">
-        <v>1</v>
-      </c>
-      <c r="G16" s="68">
-        <v>1</v>
-      </c>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="68"/>
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
@@ -6845,20 +7257,18 @@
         <v>1.1.7</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C17" s="67">
         <f>Report!C30</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68">
+      <c r="E17" s="68">
         <v>1</v>
       </c>
-      <c r="G17" s="68">
-        <v>1</v>
-      </c>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
       <c r="H17" s="68"/>
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
@@ -6890,23 +7300,29 @@
         <v>1.1.8</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C18" s="67">
         <f>Report!C31</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D18" s="68"/>
       <c r="E18" s="68"/>
       <c r="F18" s="68">
+        <v>0.8</v>
+      </c>
+      <c r="G18" s="68">
+        <v>0.8</v>
+      </c>
+      <c r="H18" s="68">
+        <v>0.8</v>
+      </c>
+      <c r="I18" s="68">
+        <v>0.9</v>
+      </c>
+      <c r="J18" s="68">
         <v>1</v>
       </c>
-      <c r="G18" s="68">
-        <v>1</v>
-      </c>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
       <c r="K18" s="68"/>
       <c r="L18" s="68"/>
       <c r="M18" s="68"/>
@@ -6935,7 +7351,7 @@
         <v>1.2</v>
       </c>
       <c r="B19" s="96" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C19" s="91">
         <f>Report!C32</f>
@@ -6976,22 +7392,18 @@
         <v>1.2.1</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C20" s="67">
         <f>Report!C33</f>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" s="68"/>
       <c r="E20" s="68">
         <v>1</v>
       </c>
-      <c r="F20" s="68">
-        <v>1</v>
-      </c>
-      <c r="G20" s="68">
-        <v>1</v>
-      </c>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="68"/>
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
@@ -7023,22 +7435,18 @@
         <v>1.2.2</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C21" s="67">
         <f>Report!C34</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D21" s="68"/>
       <c r="E21" s="68">
         <v>1</v>
       </c>
-      <c r="F21" s="68">
-        <v>1</v>
-      </c>
-      <c r="G21" s="68">
-        <v>1</v>
-      </c>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
       <c r="H21" s="68"/>
       <c r="I21" s="68"/>
       <c r="J21" s="68"/>
@@ -7070,7 +7478,7 @@
         <v>1.3</v>
       </c>
       <c r="B22" s="96" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C22" s="91">
         <f>Report!C35</f>
@@ -7111,20 +7519,18 @@
         <v>1.3.1</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C23" s="67">
         <f>Report!C36</f>
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D23" s="68"/>
       <c r="E23" s="68"/>
       <c r="F23" s="68">
         <v>1</v>
       </c>
-      <c r="G23" s="68">
-        <v>1</v>
-      </c>
+      <c r="G23" s="68"/>
       <c r="H23" s="68"/>
       <c r="I23" s="68"/>
       <c r="J23" s="68"/>
@@ -7156,20 +7562,18 @@
         <v>1.3.2</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C24" s="67">
         <f>Report!C37</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D24" s="68"/>
       <c r="E24" s="68"/>
       <c r="F24" s="68">
         <v>1</v>
       </c>
-      <c r="G24" s="68">
-        <v>1</v>
-      </c>
+      <c r="G24" s="68"/>
       <c r="H24" s="68"/>
       <c r="I24" s="68"/>
       <c r="J24" s="68"/>
@@ -7201,7 +7605,7 @@
         <v>1.4</v>
       </c>
       <c r="B25" s="96" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C25" s="91">
         <f>Report!C38</f>
@@ -7242,20 +7646,18 @@
         <v>1.4.1</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C26" s="67">
         <f>Report!C39</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="68"/>
       <c r="E26" s="68"/>
       <c r="F26" s="68">
         <v>1</v>
       </c>
-      <c r="G26" s="68">
-        <v>1</v>
-      </c>
+      <c r="G26" s="68"/>
       <c r="H26" s="68"/>
       <c r="I26" s="68"/>
       <c r="J26" s="68"/>
@@ -7287,7 +7689,7 @@
         <v>1.5</v>
       </c>
       <c r="B27" s="96" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C27" s="91">
         <f>Report!C40</f>
@@ -7328,11 +7730,11 @@
         <v>1.5.1</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C28" s="67">
         <f>Report!C41</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
@@ -7371,7 +7773,7 @@
         <v>1.5.2</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C29" s="67">
         <f>Report!C42</f>
@@ -7414,7 +7816,7 @@
         <v>1.6</v>
       </c>
       <c r="B30" s="96" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C30" s="91">
         <f>Report!C43</f>
@@ -7455,11 +7857,11 @@
         <v>1.6.1</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C31" s="67">
         <f>Report!C44</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D31" s="68"/>
       <c r="E31" s="68"/>
@@ -7498,11 +7900,11 @@
         <v>1.6.2</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C32" s="67">
         <f>Report!C45</f>
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="D32" s="68"/>
       <c r="E32" s="68"/>
@@ -7541,7 +7943,7 @@
         <v>1.7</v>
       </c>
       <c r="B33" s="96" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C33" s="91">
         <f>Report!C46</f>
@@ -7582,11 +7984,11 @@
         <v>1.7.1</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C34" s="67">
         <f>Report!C47</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D34" s="68"/>
       <c r="E34" s="68"/>
@@ -7625,7 +8027,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="94" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C35" s="91">
         <f>Report!C48</f>
@@ -7666,7 +8068,7 @@
         <v>2.1</v>
       </c>
       <c r="B36" s="96" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C36" s="91">
         <f>Report!C49</f>
@@ -7707,21 +8109,31 @@
         <v>2.1.1</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C37" s="67">
         <f>Report!C50</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D37" s="68"/>
       <c r="E37" s="68"/>
       <c r="F37" s="68"/>
       <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
+      <c r="H37" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="68">
+        <v>0.6</v>
+      </c>
+      <c r="J37" s="68">
+        <v>0.8</v>
+      </c>
+      <c r="K37" s="68">
+        <v>0.95</v>
+      </c>
+      <c r="L37" s="68">
+        <v>1</v>
+      </c>
       <c r="M37" s="68"/>
       <c r="N37" s="68"/>
       <c r="O37" s="68"/>
@@ -7748,21 +8160,31 @@
         <v>2.1.2</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C38" s="67">
-        <f>Report!C68</f>
+        <f>Report!C70</f>
         <v>0</v>
       </c>
       <c r="D38" s="68"/>
       <c r="E38" s="68"/>
       <c r="F38" s="68"/>
       <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
+      <c r="H38" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="I38" s="68">
+        <v>0.65</v>
+      </c>
+      <c r="J38" s="68">
+        <v>0.9</v>
+      </c>
+      <c r="K38" s="68">
+        <v>0.92</v>
+      </c>
+      <c r="L38" s="68">
+        <v>1</v>
+      </c>
       <c r="M38" s="68"/>
       <c r="N38" s="68"/>
       <c r="O38" s="68"/>
@@ -7789,22 +8211,34 @@
         <v>2.1.3</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C39" s="67">
         <f>Report!C52</f>
-        <v>18</v>
+        <v>22.5</v>
       </c>
       <c r="D39" s="68"/>
       <c r="E39" s="68"/>
       <c r="F39" s="68"/>
       <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
+      <c r="H39" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="68">
+        <v>0.52</v>
+      </c>
+      <c r="J39" s="68">
+        <v>0.74</v>
+      </c>
+      <c r="K39" s="68">
+        <v>0.84</v>
+      </c>
+      <c r="L39" s="68">
+        <v>0.9</v>
+      </c>
+      <c r="M39" s="68">
+        <v>1</v>
+      </c>
       <c r="N39" s="68"/>
       <c r="O39" s="68"/>
       <c r="P39" s="68"/>
@@ -7830,7 +8264,7 @@
         <v>2.2</v>
       </c>
       <c r="B40" s="96" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C40" s="91">
         <f>Report!C53</f>
@@ -7871,20 +8305,28 @@
         <v>2.2.1</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C41" s="67">
         <f>Report!C54</f>
-        <v>24</v>
+        <v>33.5</v>
       </c>
       <c r="D41" s="68"/>
       <c r="E41" s="68"/>
       <c r="F41" s="68"/>
       <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
+      <c r="H41" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="I41" s="68">
+        <v>0.6</v>
+      </c>
+      <c r="J41" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="K41" s="68">
+        <v>1</v>
+      </c>
       <c r="L41" s="68"/>
       <c r="M41" s="68"/>
       <c r="N41" s="68"/>
@@ -7912,22 +8354,34 @@
         <v>2.2.2</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C42" s="67">
         <f>Report!C55</f>
-        <v>18</v>
+        <v>35.5</v>
       </c>
       <c r="D42" s="68"/>
       <c r="E42" s="68"/>
       <c r="F42" s="68"/>
       <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
+      <c r="H42" s="68">
+        <v>0.21</v>
+      </c>
+      <c r="I42" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="J42" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="K42" s="68">
+        <v>0.85</v>
+      </c>
+      <c r="L42" s="68">
+        <v>0.9</v>
+      </c>
+      <c r="M42" s="68">
+        <v>1</v>
+      </c>
       <c r="N42" s="68"/>
       <c r="O42" s="68"/>
       <c r="P42" s="68"/>
@@ -7953,24 +8407,40 @@
         <v>2.2.3</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C43" s="67">
         <f>Report!C56</f>
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D43" s="68"/>
       <c r="E43" s="68"/>
       <c r="F43" s="68"/>
       <c r="G43" s="68"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="68"/>
+      <c r="H43" s="68">
+        <v>0.08</v>
+      </c>
+      <c r="I43" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="J43" s="68">
+        <v>0.42</v>
+      </c>
+      <c r="K43" s="68">
+        <v>0.6</v>
+      </c>
+      <c r="L43" s="68">
+        <v>0.84</v>
+      </c>
+      <c r="M43" s="68">
+        <v>0.9</v>
+      </c>
+      <c r="N43" s="68">
+        <v>0.95</v>
+      </c>
+      <c r="O43" s="68">
+        <v>1</v>
+      </c>
       <c r="P43" s="68"/>
       <c r="Q43" s="68"/>
       <c r="R43" s="68"/>
@@ -7994,11 +8464,11 @@
         <v>2.3</v>
       </c>
       <c r="B44" s="96" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C44" s="91">
         <f>Report!C57</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D44" s="92"/>
       <c r="E44" s="92"/>
@@ -8035,11 +8505,11 @@
         <v>2.4</v>
       </c>
       <c r="B45" s="96" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C45" s="91">
         <f>Report!C58</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D45" s="92"/>
       <c r="E45" s="92"/>
@@ -8076,7 +8546,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="94" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C46" s="91">
         <f>Report!C59</f>
@@ -8112,92 +8582,98 @@
       <c r="AE46" s="92"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A47" s="98" t="str">
+      <c r="A47" s="107" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B47" s="99"/>
+      <c r="B47" s="104" t="s">
+        <v>94</v>
+      </c>
       <c r="C47" s="67">
         <f>Report!C60</f>
         <v>0</v>
       </c>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
-      <c r="H47" s="68"/>
-      <c r="I47" s="68"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-      <c r="M47" s="68"/>
-      <c r="N47" s="68"/>
-      <c r="O47" s="68"/>
-      <c r="P47" s="68"/>
-      <c r="Q47" s="68"/>
-      <c r="R47" s="68"/>
-      <c r="S47" s="68"/>
-      <c r="T47" s="68"/>
-      <c r="U47" s="68"/>
-      <c r="V47" s="68"/>
-      <c r="W47" s="68"/>
-      <c r="X47" s="68"/>
-      <c r="Y47" s="68"/>
-      <c r="Z47" s="68"/>
-      <c r="AA47" s="68"/>
-      <c r="AB47" s="68"/>
-      <c r="AC47" s="68"/>
-      <c r="AD47" s="68"/>
-      <c r="AE47" s="68"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="92"/>
+      <c r="M47" s="92"/>
+      <c r="N47" s="92"/>
+      <c r="O47" s="92"/>
+      <c r="P47" s="92"/>
+      <c r="Q47" s="92"/>
+      <c r="R47" s="92"/>
+      <c r="S47" s="92"/>
+      <c r="T47" s="92"/>
+      <c r="U47" s="92"/>
+      <c r="V47" s="92"/>
+      <c r="W47" s="92"/>
+      <c r="X47" s="92"/>
+      <c r="Y47" s="92"/>
+      <c r="Z47" s="92"/>
+      <c r="AA47" s="92"/>
+      <c r="AB47" s="92"/>
+      <c r="AC47" s="92"/>
+      <c r="AD47" s="92"/>
+      <c r="AE47" s="92"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A48" s="98" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B48" s="99"/>
+      <c r="A48" s="108" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.1</v>
+      </c>
+      <c r="B48" s="105" t="s">
+        <v>95</v>
+      </c>
       <c r="C48" s="67">
         <f>Report!C61</f>
         <v>0</v>
       </c>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="68"/>
-      <c r="O48" s="68"/>
-      <c r="P48" s="68"/>
-      <c r="Q48" s="68"/>
-      <c r="R48" s="68"/>
-      <c r="S48" s="68"/>
-      <c r="T48" s="68"/>
-      <c r="U48" s="68"/>
-      <c r="V48" s="68"/>
-      <c r="W48" s="68"/>
-      <c r="X48" s="68"/>
-      <c r="Y48" s="68"/>
-      <c r="Z48" s="68"/>
-      <c r="AA48" s="68"/>
-      <c r="AB48" s="68"/>
-      <c r="AC48" s="68"/>
-      <c r="AD48" s="68"/>
-      <c r="AE48" s="68"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="92"/>
+      <c r="M48" s="92"/>
+      <c r="N48" s="92"/>
+      <c r="O48" s="92"/>
+      <c r="P48" s="92"/>
+      <c r="Q48" s="92"/>
+      <c r="R48" s="92"/>
+      <c r="S48" s="92"/>
+      <c r="T48" s="92"/>
+      <c r="U48" s="92"/>
+      <c r="V48" s="92"/>
+      <c r="W48" s="92"/>
+      <c r="X48" s="92"/>
+      <c r="Y48" s="92"/>
+      <c r="Z48" s="92"/>
+      <c r="AA48" s="92"/>
+      <c r="AB48" s="92"/>
+      <c r="AC48" s="92"/>
+      <c r="AD48" s="92"/>
+      <c r="AE48" s="92"/>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A49" s="98" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
-      </c>
-      <c r="B49" s="99"/>
+      <c r="A49" s="107" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.1</v>
+      </c>
+      <c r="B49" s="106" t="s">
+        <v>96</v>
+      </c>
       <c r="C49" s="67">
         <f>Report!C62</f>
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="D49" s="68"/>
       <c r="E49" s="68"/>
@@ -8206,11 +8682,21 @@
       <c r="H49" s="68"/>
       <c r="I49" s="68"/>
       <c r="J49" s="68"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="68"/>
-      <c r="O49" s="68"/>
+      <c r="K49" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="L49" s="68">
+        <v>0.6</v>
+      </c>
+      <c r="M49" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="N49" s="68">
+        <v>0.82</v>
+      </c>
+      <c r="O49" s="68">
+        <v>0.9</v>
+      </c>
       <c r="P49" s="68"/>
       <c r="Q49" s="68"/>
       <c r="R49" s="68"/>
@@ -8229,14 +8715,16 @@
       <c r="AE49" s="68"/>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A50" s="98" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
-      </c>
-      <c r="B50" s="99"/>
+      <c r="A50" s="107" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.2</v>
+      </c>
+      <c r="B50" s="106" t="s">
+        <v>97</v>
+      </c>
       <c r="C50" s="67">
         <f>Report!C63</f>
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="D50" s="68"/>
       <c r="E50" s="68"/>
@@ -8245,11 +8733,21 @@
       <c r="H50" s="68"/>
       <c r="I50" s="68"/>
       <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="68"/>
-      <c r="O50" s="68"/>
+      <c r="K50" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="L50" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="M50" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="N50" s="68">
+        <v>0.8</v>
+      </c>
+      <c r="O50" s="68">
+        <v>0.95</v>
+      </c>
       <c r="P50" s="68"/>
       <c r="Q50" s="68"/>
       <c r="R50" s="68"/>
@@ -8268,14 +8766,16 @@
       <c r="AE50" s="68"/>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A51" s="98" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B51" s="99"/>
+      <c r="A51" s="107" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.3</v>
+      </c>
+      <c r="B51" s="106" t="s">
+        <v>98</v>
+      </c>
       <c r="C51" s="67">
         <f>Report!C64</f>
-        <v>0</v>
+        <v>38.5</v>
       </c>
       <c r="D51" s="68"/>
       <c r="E51" s="68"/>
@@ -8284,11 +8784,21 @@
       <c r="H51" s="68"/>
       <c r="I51" s="68"/>
       <c r="J51" s="68"/>
-      <c r="K51" s="68"/>
-      <c r="L51" s="68"/>
-      <c r="M51" s="68"/>
-      <c r="N51" s="68"/>
-      <c r="O51" s="68"/>
+      <c r="K51" s="68">
+        <v>0.4</v>
+      </c>
+      <c r="L51" s="68">
+        <v>0.45</v>
+      </c>
+      <c r="M51" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="N51" s="68">
+        <v>0.85</v>
+      </c>
+      <c r="O51" s="68">
+        <v>0.92</v>
+      </c>
       <c r="P51" s="68"/>
       <c r="Q51" s="68"/>
       <c r="R51" s="68"/>
@@ -8307,8 +8817,8 @@
       <c r="AE51" s="68"/>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A52" s="60"/>
-      <c r="B52" s="60"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
       <c r="C52" s="67"/>
       <c r="D52" s="68"/>
       <c r="E52" s="68"/>
@@ -8340,154 +8850,451 @@
       <c r="AE52" s="68"/>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A53" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="62"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="62"/>
-      <c r="F53" s="62"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="62"/>
-      <c r="R53" s="62"/>
-      <c r="S53" s="62"/>
-      <c r="T53" s="62"/>
-      <c r="U53" s="62"/>
-      <c r="V53" s="62"/>
-      <c r="W53" s="62"/>
-      <c r="X53" s="62"/>
-      <c r="Y53" s="62"/>
-      <c r="Z53" s="62"/>
-      <c r="AA53" s="62"/>
-      <c r="AB53" s="62"/>
-      <c r="AC53" s="62"/>
-      <c r="AD53" s="62"/>
-      <c r="AE53" s="62"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="68"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="68"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="68"/>
+      <c r="Q53" s="68"/>
+      <c r="R53" s="68"/>
+      <c r="S53" s="68"/>
+      <c r="T53" s="68"/>
+      <c r="U53" s="68"/>
+      <c r="V53" s="68"/>
+      <c r="W53" s="68"/>
+      <c r="X53" s="68"/>
+      <c r="Y53" s="68"/>
+      <c r="Z53" s="68"/>
+      <c r="AA53" s="68"/>
+      <c r="AB53" s="68"/>
+      <c r="AC53" s="68"/>
+      <c r="AD53" s="68"/>
+      <c r="AE53" s="68"/>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C54" s="72" t="s">
+      <c r="A54" s="98"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="68"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="68"/>
+      <c r="Q54" s="68"/>
+      <c r="R54" s="68"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="68"/>
+      <c r="W54" s="68"/>
+      <c r="X54" s="68"/>
+      <c r="Y54" s="68"/>
+      <c r="Z54" s="68"/>
+      <c r="AA54" s="68"/>
+      <c r="AB54" s="68"/>
+      <c r="AC54" s="68"/>
+      <c r="AD54" s="68"/>
+      <c r="AE54" s="68"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A55" s="98"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="68"/>
+      <c r="Q55" s="68"/>
+      <c r="R55" s="68"/>
+      <c r="S55" s="68"/>
+      <c r="T55" s="68"/>
+      <c r="U55" s="68"/>
+      <c r="V55" s="68"/>
+      <c r="W55" s="68"/>
+      <c r="X55" s="68"/>
+      <c r="Y55" s="68"/>
+      <c r="Z55" s="68"/>
+      <c r="AA55" s="68"/>
+      <c r="AB55" s="68"/>
+      <c r="AC55" s="68"/>
+      <c r="AD55" s="68"/>
+      <c r="AE55" s="68"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A56" s="98"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
+      <c r="W56" s="68"/>
+      <c r="X56" s="68"/>
+      <c r="Y56" s="68"/>
+      <c r="Z56" s="68"/>
+      <c r="AA56" s="68"/>
+      <c r="AB56" s="68"/>
+      <c r="AC56" s="68"/>
+      <c r="AD56" s="68"/>
+      <c r="AE56" s="68"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A57" s="98"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
+      <c r="X57" s="68"/>
+      <c r="Y57" s="68"/>
+      <c r="Z57" s="68"/>
+      <c r="AA57" s="68"/>
+      <c r="AB57" s="68"/>
+      <c r="AC57" s="68"/>
+      <c r="AD57" s="68"/>
+      <c r="AE57" s="68"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A58" s="98"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="68"/>
+      <c r="Z58" s="68"/>
+      <c r="AA58" s="68"/>
+      <c r="AB58" s="68"/>
+      <c r="AC58" s="68"/>
+      <c r="AD58" s="68"/>
+      <c r="AE58" s="68"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A59" s="98"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
+      <c r="X59" s="68"/>
+      <c r="Y59" s="68"/>
+      <c r="Z59" s="68"/>
+      <c r="AA59" s="68"/>
+      <c r="AB59" s="68"/>
+      <c r="AC59" s="68"/>
+      <c r="AD59" s="68"/>
+      <c r="AE59" s="68"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A60" s="98"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="68"/>
+      <c r="Z60" s="68"/>
+      <c r="AA60" s="68"/>
+      <c r="AB60" s="68"/>
+      <c r="AC60" s="68"/>
+      <c r="AD60" s="68"/>
+      <c r="AE60" s="68"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
+      <c r="X61" s="68"/>
+      <c r="Y61" s="68"/>
+      <c r="Z61" s="68"/>
+      <c r="AA61" s="68"/>
+      <c r="AB61" s="68"/>
+      <c r="AC61" s="68"/>
+      <c r="AD61" s="68"/>
+      <c r="AE61" s="68"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A62" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="56"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="62"/>
+      <c r="O62" s="62"/>
+      <c r="P62" s="62"/>
+      <c r="Q62" s="62"/>
+      <c r="R62" s="62"/>
+      <c r="S62" s="62"/>
+      <c r="T62" s="62"/>
+      <c r="U62" s="62"/>
+      <c r="V62" s="62"/>
+      <c r="W62" s="62"/>
+      <c r="X62" s="62"/>
+      <c r="Y62" s="62"/>
+      <c r="Z62" s="62"/>
+      <c r="AA62" s="62"/>
+      <c r="AB62" s="62"/>
+      <c r="AC62" s="62"/>
+      <c r="AD62" s="62"/>
+      <c r="AE62" s="62"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C63" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="63">
-        <f t="shared" ref="D54:O54" si="2">SUMPRODUCT(D9:D53,$C$9:$C$53)</f>
+      <c r="D63" s="63">
+        <f t="shared" ref="D63:AE63" si="2">SUMPRODUCT(D9:D62,$C$9:$C$62)</f>
         <v>40.799999999999997</v>
       </c>
-      <c r="E54" s="63">
+      <c r="E63" s="63">
         <f t="shared" si="2"/>
-        <v>129</v>
-      </c>
-      <c r="F54" s="63">
+        <v>129.4</v>
+      </c>
+      <c r="F63" s="63">
         <f t="shared" si="2"/>
-        <v>231</v>
-      </c>
-      <c r="G54" s="63">
+        <v>103.60000000000001</v>
+      </c>
+      <c r="G63" s="63">
         <f t="shared" si="2"/>
-        <v>321</v>
-      </c>
-      <c r="H54" s="63">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="H63" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I54" s="63">
+        <v>100.34500000000001</v>
+      </c>
+      <c r="I63" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="63">
+        <v>87.2</v>
+      </c>
+      <c r="J63" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="63">
+        <v>120.90999999999998</v>
+      </c>
+      <c r="K63" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="63">
+        <v>153.25</v>
+      </c>
+      <c r="L63" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="63">
+        <v>159.94499999999999</v>
+      </c>
+      <c r="M63" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="63">
+        <v>173.04999999999998</v>
+      </c>
+      <c r="N63" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="63">
+        <v>131.19499999999999</v>
+      </c>
+      <c r="O63" s="63">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="63">
-        <f t="shared" ref="P54:AE54" si="3">SUMPRODUCT(P9:P53,$C$9:$C$53)</f>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R54" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S54" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T54" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U54" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V54" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W54" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X54" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y54" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z54" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA54" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB54" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC54" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD54" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AE54" s="63">
-        <f t="shared" si="3"/>
+        <v>144.64499999999998</v>
+      </c>
+      <c r="P63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE63" s="63">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -8496,6 +9303,7 @@
   <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.25" header="0.5" footer="0.25"/>
   <pageSetup scale="93" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8504,10 +9312,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD55"/>
+  <dimension ref="A1:AQ65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8518,10 +9326,11 @@
     <col min="30" max="16384" width="8.85546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>27</v>
-      </c>
+    <row r="1" spans="1:30" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="111" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="111"/>
     </row>
     <row r="2" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="29"/>
@@ -8531,9 +9340,7 @@
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
-        <v>28</v>
-      </c>
+      <c r="A3" s="30"/>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
       <c r="D3" s="26"/>
@@ -8541,22 +9348,18 @@
       <c r="O3" s="52"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
-        <v>20</v>
-      </c>
+      <c r="A4" s="30"/>
       <c r="O4" s="53"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A5" s="54" t="s">
-        <v>26</v>
-      </c>
+      <c r="A5" s="54"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
       <c r="D5" s="26"/>
     </row>
     <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -8572,88 +9375,88 @@
         <v>0</v>
       </c>
       <c r="C8" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="S8" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="T8" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="66" t="s">
+      <c r="U8" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="V8" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="W8" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="X8" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="66" t="s">
+      <c r="Y8" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="K8" s="66" t="s">
+      <c r="Z8" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="L8" s="66" t="s">
+      <c r="AA8" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="M8" s="66" t="s">
+      <c r="AB8" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="66" t="s">
+      <c r="AC8" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="O8" s="66" t="s">
+      <c r="AD8" s="66" t="s">
         <v>92</v>
-      </c>
-      <c r="P8" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q8" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="R8" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="S8" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="T8" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="U8" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="V8" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="W8" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="X8" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y8" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z8" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA8" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB8" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC8" s="66" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD8" s="66" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15" x14ac:dyDescent="0.2">
@@ -8662,7 +9465,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="94" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C9" s="61"/>
       <c r="D9" s="61"/>
@@ -8699,7 +9502,7 @@
         <v>1.1</v>
       </c>
       <c r="B10" s="103" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C10" s="61"/>
       <c r="D10" s="61"/>
@@ -8736,7 +9539,7 @@
         <v>1.1.1</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C11" s="61">
         <v>8</v>
@@ -8775,15 +9578,21 @@
         <v>1.1.2</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C12" s="61">
         <v>12</v>
       </c>
       <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
+      <c r="E12" s="61">
+        <v>10</v>
+      </c>
+      <c r="F12" s="61">
+        <v>12</v>
+      </c>
+      <c r="G12" s="61">
+        <v>9.5</v>
+      </c>
       <c r="H12" s="61"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
@@ -8814,7 +9623,7 @@
         <v>1.1.3</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C13" s="61">
         <v>10.5</v>
@@ -8853,15 +9662,21 @@
         <v>1.1.4</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="61">
-        <v>20.5</v>
-      </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
+        <v>10.5</v>
+      </c>
+      <c r="E14" s="61">
+        <v>17</v>
+      </c>
+      <c r="F14" s="61">
+        <v>15</v>
+      </c>
+      <c r="G14" s="61">
+        <v>15.5</v>
+      </c>
       <c r="H14" s="61"/>
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
@@ -8892,7 +9707,7 @@
         <v>1.1.5</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="61">
@@ -8931,7 +9746,7 @@
         <v>1.1.6</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C16" s="61"/>
       <c r="D16" s="61">
@@ -8970,7 +9785,7 @@
         <v>1.1.7</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
@@ -9009,17 +9824,25 @@
         <v>1.1.8</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
       <c r="E18" s="61">
         <v>15.5</v>
       </c>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
+      <c r="F18" s="61">
+        <v>20</v>
+      </c>
+      <c r="G18" s="61">
+        <v>27</v>
+      </c>
+      <c r="H18" s="61">
+        <v>26</v>
+      </c>
+      <c r="I18" s="61">
+        <v>24</v>
+      </c>
       <c r="J18" s="61"/>
       <c r="K18" s="61"/>
       <c r="L18" s="61"/>
@@ -9048,7 +9871,7 @@
         <v>1.2</v>
       </c>
       <c r="B19" s="103" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C19" s="61"/>
       <c r="D19" s="61"/>
@@ -9085,7 +9908,7 @@
         <v>1.2.1</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C20" s="61"/>
       <c r="D20" s="61">
@@ -9124,7 +9947,7 @@
         <v>1.2.2</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="C21" s="61"/>
       <c r="D21" s="61">
@@ -9163,7 +9986,7 @@
         <v>1.3</v>
       </c>
       <c r="B22" s="103" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C22" s="61"/>
       <c r="D22" s="61"/>
@@ -9200,7 +10023,7 @@
         <v>1.3.1</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="C23" s="61"/>
       <c r="D23" s="61"/>
@@ -9239,7 +10062,7 @@
         <v>1.3.2</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C24" s="61"/>
       <c r="D24" s="61"/>
@@ -9278,7 +10101,7 @@
         <v>1.4</v>
       </c>
       <c r="B25" s="103" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C25" s="61"/>
       <c r="D25" s="61"/>
@@ -9315,7 +10138,7 @@
         <v>1.4.1</v>
       </c>
       <c r="B26" s="47" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C26" s="61"/>
       <c r="D26" s="61"/>
@@ -9354,7 +10177,7 @@
         <v>1.5</v>
       </c>
       <c r="B27" s="103" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C27" s="61"/>
       <c r="D27" s="61"/>
@@ -9391,7 +10214,7 @@
         <v>1.5.1</v>
       </c>
       <c r="B28" s="47" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C28" s="61"/>
       <c r="D28" s="61"/>
@@ -9430,7 +10253,7 @@
         <v>1.5.2</v>
       </c>
       <c r="B29" s="47" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="C29" s="61"/>
       <c r="D29" s="61"/>
@@ -9469,7 +10292,7 @@
         <v>1.6</v>
       </c>
       <c r="B30" s="103" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C30" s="61"/>
       <c r="D30" s="61"/>
@@ -9506,7 +10329,7 @@
         <v>1.6.1</v>
       </c>
       <c r="B31" s="47" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C31" s="61"/>
       <c r="D31" s="61"/>
@@ -9545,7 +10368,7 @@
         <v>1.6.2</v>
       </c>
       <c r="B32" s="47" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C32" s="61"/>
       <c r="D32" s="61"/>
@@ -9584,7 +10407,7 @@
         <v>1.7</v>
       </c>
       <c r="B33" s="103" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C33" s="61"/>
       <c r="D33" s="61"/>
@@ -9621,7 +10444,7 @@
         <v>1.7.1</v>
       </c>
       <c r="B34" s="47" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C34" s="61"/>
       <c r="D34" s="61"/>
@@ -9660,7 +10483,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="94" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C35" s="61"/>
       <c r="D35" s="61"/>
@@ -9697,7 +10520,7 @@
         <v>2.1</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C36" s="61"/>
       <c r="D36" s="61"/>
@@ -9734,16 +10557,24 @@
         <v>2.1.1</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C37" s="61"/>
       <c r="D37" s="61"/>
       <c r="E37" s="61"/>
       <c r="F37" s="61"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
-      <c r="J37" s="61"/>
+      <c r="G37" s="61">
+        <v>30</v>
+      </c>
+      <c r="H37" s="61">
+        <v>31.5</v>
+      </c>
+      <c r="I37" s="61">
+        <v>40</v>
+      </c>
+      <c r="J37" s="61">
+        <v>42</v>
+      </c>
       <c r="K37" s="61"/>
       <c r="L37" s="61"/>
       <c r="M37" s="61"/>
@@ -9771,16 +10602,24 @@
         <v>2.1.2</v>
       </c>
       <c r="B38" s="47" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="61"/>
       <c r="E38" s="61"/>
       <c r="F38" s="61"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
-      <c r="J38" s="61"/>
+      <c r="G38" s="61">
+        <v>30</v>
+      </c>
+      <c r="H38" s="61">
+        <v>20.5</v>
+      </c>
+      <c r="I38" s="61">
+        <v>36</v>
+      </c>
+      <c r="J38" s="61">
+        <v>42</v>
+      </c>
       <c r="K38" s="61"/>
       <c r="L38" s="61"/>
       <c r="M38" s="61"/>
@@ -9808,17 +10647,27 @@
         <v>2.1.3</v>
       </c>
       <c r="B39" s="47" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C39" s="61"/>
       <c r="D39" s="61"/>
       <c r="E39" s="61"/>
       <c r="F39" s="61"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="61"/>
-      <c r="K39" s="61"/>
+      <c r="G39" s="61">
+        <v>10</v>
+      </c>
+      <c r="H39" s="61">
+        <v>25</v>
+      </c>
+      <c r="I39" s="61">
+        <v>41</v>
+      </c>
+      <c r="J39" s="61">
+        <v>25</v>
+      </c>
+      <c r="K39" s="61">
+        <v>30</v>
+      </c>
       <c r="L39" s="61"/>
       <c r="M39" s="61"/>
       <c r="N39" s="61"/>
@@ -9845,7 +10694,7 @@
         <v>2.2</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="C40" s="61"/>
       <c r="D40" s="61"/>
@@ -9882,16 +10731,24 @@
         <v>2.2.1</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C41" s="61"/>
       <c r="D41" s="61"/>
       <c r="E41" s="61"/>
       <c r="F41" s="61"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
-      <c r="J41" s="61"/>
+      <c r="G41" s="61">
+        <v>30</v>
+      </c>
+      <c r="H41" s="61">
+        <v>40</v>
+      </c>
+      <c r="I41" s="61">
+        <v>42</v>
+      </c>
+      <c r="J41" s="61">
+        <v>25</v>
+      </c>
       <c r="K41" s="61"/>
       <c r="L41" s="61"/>
       <c r="M41" s="61"/>
@@ -9919,18 +10776,30 @@
         <v>2.2.2</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C42" s="61"/>
       <c r="D42" s="61"/>
       <c r="E42" s="61"/>
       <c r="F42" s="61"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="61"/>
-      <c r="I42" s="61"/>
-      <c r="J42" s="61"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="61"/>
+      <c r="G42" s="61">
+        <v>20</v>
+      </c>
+      <c r="H42" s="61">
+        <v>30</v>
+      </c>
+      <c r="I42" s="61">
+        <v>36</v>
+      </c>
+      <c r="J42" s="61">
+        <v>30</v>
+      </c>
+      <c r="K42" s="61">
+        <v>24</v>
+      </c>
+      <c r="L42" s="61">
+        <v>28</v>
+      </c>
       <c r="M42" s="61"/>
       <c r="N42" s="61"/>
       <c r="O42" s="61"/>
@@ -9956,20 +10825,36 @@
         <v>2.2.3</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C43" s="61"/>
       <c r="D43" s="61"/>
       <c r="E43" s="61"/>
       <c r="F43" s="61"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="61"/>
-      <c r="I43" s="61"/>
-      <c r="J43" s="61"/>
-      <c r="K43" s="61"/>
-      <c r="L43" s="61"/>
-      <c r="M43" s="61"/>
-      <c r="N43" s="61"/>
+      <c r="G43" s="61">
+        <v>15</v>
+      </c>
+      <c r="H43" s="61">
+        <v>24</v>
+      </c>
+      <c r="I43" s="61">
+        <v>30</v>
+      </c>
+      <c r="J43" s="61">
+        <v>27</v>
+      </c>
+      <c r="K43" s="61">
+        <v>50</v>
+      </c>
+      <c r="L43" s="61">
+        <v>24</v>
+      </c>
+      <c r="M43" s="61">
+        <v>38</v>
+      </c>
+      <c r="N43" s="61">
+        <v>42</v>
+      </c>
       <c r="O43" s="61"/>
       <c r="P43" s="61"/>
       <c r="Q43" s="61"/>
@@ -9993,7 +10878,7 @@
         <v>2.3</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C44" s="61"/>
       <c r="D44" s="61"/>
@@ -10030,7 +10915,7 @@
         <v>2.4</v>
       </c>
       <c r="B45" s="48" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C45" s="61"/>
       <c r="D45" s="61"/>
@@ -10067,7 +10952,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="94" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C46" s="61"/>
       <c r="D46" s="61"/>
@@ -10099,11 +10984,13 @@
       <c r="AD46" s="61"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A47" s="98" t="str">
+      <c r="A47" s="107" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>3.1</v>
       </c>
-      <c r="B47" s="99"/>
+      <c r="B47" s="104" t="s">
+        <v>94</v>
+      </c>
       <c r="C47" s="61"/>
       <c r="D47" s="61"/>
       <c r="E47" s="61"/>
@@ -10134,11 +11021,13 @@
       <c r="AD47" s="61"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A48" s="98" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.2</v>
-      </c>
-      <c r="B48" s="99"/>
+      <c r="A48" s="108" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.1</v>
+      </c>
+      <c r="B48" s="105" t="s">
+        <v>95</v>
+      </c>
       <c r="C48" s="61"/>
       <c r="D48" s="61"/>
       <c r="E48" s="61"/>
@@ -10168,12 +11057,14 @@
       <c r="AC48" s="61"/>
       <c r="AD48" s="61"/>
     </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A49" s="98" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.3</v>
-      </c>
-      <c r="B49" s="99"/>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A49" s="107" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.1</v>
+      </c>
+      <c r="B49" s="106" t="s">
+        <v>96</v>
+      </c>
       <c r="C49" s="61"/>
       <c r="D49" s="61"/>
       <c r="E49" s="61"/>
@@ -10203,12 +11094,14 @@
       <c r="AC49" s="61"/>
       <c r="AD49" s="61"/>
     </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A50" s="98" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.4</v>
-      </c>
-      <c r="B50" s="99"/>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A50" s="107" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.2</v>
+      </c>
+      <c r="B50" s="106" t="s">
+        <v>97</v>
+      </c>
       <c r="C50" s="61"/>
       <c r="D50" s="61"/>
       <c r="E50" s="61"/>
@@ -10238,12 +11131,14 @@
       <c r="AC50" s="61"/>
       <c r="AD50" s="61"/>
     </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A51" s="98" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.5</v>
-      </c>
-      <c r="B51" s="99"/>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A51" s="107" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.3</v>
+      </c>
+      <c r="B51" s="106" t="s">
+        <v>98</v>
+      </c>
       <c r="C51" s="61"/>
       <c r="D51" s="61"/>
       <c r="E51" s="61"/>
@@ -10273,301 +11168,621 @@
       <c r="AC51" s="61"/>
       <c r="AD51" s="61"/>
     </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A52" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="62"/>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="62"/>
-      <c r="T52" s="62"/>
-      <c r="U52" s="62"/>
-      <c r="V52" s="62"/>
-      <c r="W52" s="62"/>
-      <c r="X52" s="62"/>
-      <c r="Y52" s="62"/>
-      <c r="Z52" s="62"/>
-      <c r="AA52" s="62"/>
-      <c r="AB52" s="62"/>
-      <c r="AC52" s="62"/>
-      <c r="AD52" s="62"/>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C53" s="63">
-        <f t="shared" ref="C53:M53" si="2">SUM(C9:C52)</f>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="61"/>
+      <c r="M52" s="61"/>
+      <c r="N52" s="61"/>
+      <c r="O52" s="61"/>
+      <c r="P52" s="61"/>
+      <c r="Q52" s="61"/>
+      <c r="R52" s="61"/>
+      <c r="S52" s="61"/>
+      <c r="T52" s="61"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="61"/>
+      <c r="W52" s="61"/>
+      <c r="X52" s="61"/>
+      <c r="Y52" s="61"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="61"/>
+      <c r="AB52" s="61"/>
+      <c r="AC52" s="61"/>
+      <c r="AD52" s="61"/>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A53" s="98"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="61"/>
+      <c r="N53" s="61"/>
+      <c r="O53" s="61"/>
+      <c r="P53" s="61"/>
+      <c r="Q53" s="61"/>
+      <c r="R53" s="61"/>
+      <c r="S53" s="61"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="61"/>
+      <c r="V53" s="61"/>
+      <c r="W53" s="61"/>
+      <c r="X53" s="61"/>
+      <c r="Y53" s="61"/>
+      <c r="Z53" s="61"/>
+      <c r="AA53" s="61"/>
+      <c r="AB53" s="61"/>
+      <c r="AC53" s="61"/>
+      <c r="AD53" s="61"/>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A54" s="98"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="61"/>
+      <c r="M54" s="61"/>
+      <c r="N54" s="61"/>
+      <c r="O54" s="61"/>
+      <c r="P54" s="61"/>
+      <c r="Q54" s="61"/>
+      <c r="R54" s="61"/>
+      <c r="S54" s="61"/>
+      <c r="T54" s="61"/>
+      <c r="U54" s="61"/>
+      <c r="V54" s="61"/>
+      <c r="W54" s="61"/>
+      <c r="X54" s="61"/>
+      <c r="Y54" s="61"/>
+      <c r="Z54" s="61"/>
+      <c r="AA54" s="61"/>
+      <c r="AB54" s="61"/>
+      <c r="AC54" s="61"/>
+      <c r="AD54" s="61"/>
+    </row>
+    <row r="55" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A55" s="98"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="61"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="61"/>
+      <c r="P55" s="61"/>
+      <c r="Q55" s="61"/>
+      <c r="R55" s="61"/>
+      <c r="S55" s="61"/>
+      <c r="T55" s="61"/>
+      <c r="U55" s="61"/>
+      <c r="V55" s="61"/>
+      <c r="W55" s="61"/>
+      <c r="X55" s="61"/>
+      <c r="Y55" s="61"/>
+      <c r="Z55" s="61"/>
+      <c r="AA55" s="61"/>
+      <c r="AB55" s="61"/>
+      <c r="AC55" s="61"/>
+      <c r="AD55" s="61"/>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A56" s="98"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="61"/>
+      <c r="I56" s="61"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="61"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="61"/>
+      <c r="O56" s="61"/>
+      <c r="P56" s="61"/>
+      <c r="Q56" s="61"/>
+      <c r="R56" s="61"/>
+      <c r="S56" s="61"/>
+      <c r="T56" s="61"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="61"/>
+      <c r="W56" s="61"/>
+      <c r="X56" s="61"/>
+      <c r="Y56" s="61"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="61"/>
+      <c r="AC56" s="61"/>
+      <c r="AD56" s="61"/>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A57" s="98" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>0.1</v>
+      </c>
+      <c r="B57" s="99"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
+      <c r="G57" s="61"/>
+      <c r="H57" s="61"/>
+      <c r="I57" s="61"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="61"/>
+      <c r="L57" s="61"/>
+      <c r="M57" s="61"/>
+      <c r="N57" s="61"/>
+      <c r="O57" s="61"/>
+      <c r="P57" s="61"/>
+      <c r="Q57" s="61"/>
+      <c r="R57" s="61"/>
+      <c r="S57" s="61"/>
+      <c r="T57" s="61"/>
+      <c r="U57" s="61"/>
+      <c r="V57" s="61"/>
+      <c r="W57" s="61"/>
+      <c r="X57" s="61"/>
+      <c r="Y57" s="61"/>
+      <c r="Z57" s="61"/>
+      <c r="AA57" s="61"/>
+      <c r="AB57" s="61"/>
+      <c r="AC57" s="61"/>
+      <c r="AD57" s="61"/>
+    </row>
+    <row r="58" spans="1:43" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="56"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="62"/>
+      <c r="F58" s="62"/>
+      <c r="G58" s="62"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="62"/>
+      <c r="J58" s="62"/>
+      <c r="K58" s="62"/>
+      <c r="L58" s="62"/>
+      <c r="M58" s="62"/>
+      <c r="N58" s="62"/>
+      <c r="O58" s="62"/>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="62"/>
+      <c r="S58" s="62"/>
+      <c r="T58" s="62"/>
+      <c r="U58" s="62"/>
+      <c r="V58" s="62"/>
+      <c r="W58" s="62"/>
+      <c r="X58" s="62"/>
+      <c r="Y58" s="62"/>
+      <c r="Z58" s="62"/>
+      <c r="AA58" s="62"/>
+      <c r="AB58" s="62"/>
+      <c r="AC58" s="62"/>
+      <c r="AD58" s="62"/>
+      <c r="AE58" s="27"/>
+      <c r="AF58" s="27"/>
+      <c r="AG58" s="27"/>
+      <c r="AH58" s="27"/>
+      <c r="AI58" s="27"/>
+      <c r="AJ58" s="27"/>
+      <c r="AK58" s="27"/>
+      <c r="AL58" s="27"/>
+      <c r="AM58" s="27"/>
+      <c r="AN58" s="27"/>
+      <c r="AO58" s="27"/>
+      <c r="AP58" s="27"/>
+      <c r="AQ58" s="27"/>
+    </row>
+    <row r="59" spans="1:43" s="110" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="63">
+        <f>SUM(C9:C58)</f>
         <v>30.5</v>
       </c>
-      <c r="D53" s="63">
-        <f t="shared" si="2"/>
-        <v>95.5</v>
-      </c>
-      <c r="E53" s="63">
-        <f t="shared" si="2"/>
-        <v>184</v>
-      </c>
-      <c r="F53" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I53" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K53" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M53" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="63">
-        <f t="shared" ref="N53:AD53" si="3">SUM(N9:N52)</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="S53" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T53" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U53" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V53" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W53" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X53" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y53" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Z53" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AA53" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB53" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AC53" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AD53" s="63">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="C54" s="64"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="64"/>
-      <c r="H54" s="64"/>
-      <c r="I54" s="64"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="64"/>
-      <c r="L54" s="64"/>
-      <c r="M54" s="64"/>
-      <c r="N54" s="64"/>
-      <c r="O54" s="64"/>
-      <c r="P54" s="64"/>
-      <c r="Q54" s="64"/>
-      <c r="R54" s="64"/>
-      <c r="S54" s="64"/>
-      <c r="T54" s="64"/>
-      <c r="U54" s="64"/>
-      <c r="V54" s="64"/>
-      <c r="W54" s="64"/>
-      <c r="X54" s="64"/>
-      <c r="Y54" s="64"/>
-      <c r="Z54" s="64"/>
-      <c r="AA54" s="64"/>
-      <c r="AB54" s="64"/>
-      <c r="AC54" s="64"/>
-    </row>
-    <row r="55" spans="1:30" ht="15" x14ac:dyDescent="0.25">
-      <c r="B55" s="57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="65">
-        <f>SUM($C53:C53)</f>
+      <c r="D59" s="63">
+        <f>SUM(D9:D58)</f>
+        <v>85.5</v>
+      </c>
+      <c r="E59" s="63">
+        <f>SUM(E9:E58)</f>
+        <v>211</v>
+      </c>
+      <c r="F59" s="63">
+        <f>SUM(F9:F58)</f>
+        <v>47</v>
+      </c>
+      <c r="G59" s="63">
+        <f>SUM(G9:G58)</f>
+        <v>187</v>
+      </c>
+      <c r="H59" s="63">
+        <f>SUM(H9:H58)</f>
+        <v>197</v>
+      </c>
+      <c r="I59" s="63">
+        <f>SUM(I9:I58)</f>
+        <v>249</v>
+      </c>
+      <c r="J59" s="63">
+        <f>SUM(J9:J58)</f>
+        <v>191</v>
+      </c>
+      <c r="K59" s="63">
+        <f>SUM(K9:K58)</f>
+        <v>104</v>
+      </c>
+      <c r="L59" s="63">
+        <f>SUM(L9:L58)</f>
+        <v>52</v>
+      </c>
+      <c r="M59" s="63">
+        <f>SUM(M9:M58)</f>
+        <v>38</v>
+      </c>
+      <c r="N59" s="63">
+        <f>SUM(N9:N58)</f>
+        <v>42</v>
+      </c>
+      <c r="O59" s="63">
+        <f>SUM(O9:O58)</f>
+        <v>0</v>
+      </c>
+      <c r="P59" s="63">
+        <f>SUM(P9:P58)</f>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="63">
+        <f>SUM(Q9:Q58)</f>
+        <v>0</v>
+      </c>
+      <c r="R59" s="63">
+        <f>SUM(R9:R58)</f>
+        <v>0</v>
+      </c>
+      <c r="S59" s="63">
+        <f>SUM(S9:S58)</f>
+        <v>0</v>
+      </c>
+      <c r="T59" s="63">
+        <f>SUM(T9:T58)</f>
+        <v>0</v>
+      </c>
+      <c r="U59" s="63">
+        <f>SUM(U9:U58)</f>
+        <v>0</v>
+      </c>
+      <c r="V59" s="63">
+        <f>SUM(V9:V58)</f>
+        <v>0</v>
+      </c>
+      <c r="W59" s="63">
+        <f>SUM(W9:W58)</f>
+        <v>0</v>
+      </c>
+      <c r="X59" s="63">
+        <f>SUM(X9:X58)</f>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="63">
+        <f>SUM(Y9:Y58)</f>
+        <v>0</v>
+      </c>
+      <c r="Z59" s="63">
+        <f>SUM(Z9:Z58)</f>
+        <v>0</v>
+      </c>
+      <c r="AA59" s="63">
+        <f>SUM(AA9:AA58)</f>
+        <v>0</v>
+      </c>
+      <c r="AB59" s="63">
+        <f>SUM(AB9:AB58)</f>
+        <v>0</v>
+      </c>
+      <c r="AC59" s="63">
+        <f>SUM(AC9:AC58)</f>
+        <v>0</v>
+      </c>
+      <c r="AD59" s="63">
+        <f>SUM(AD9:AD58)</f>
+        <v>0</v>
+      </c>
+      <c r="AE59" s="27"/>
+      <c r="AF59" s="27"/>
+      <c r="AG59" s="27"/>
+      <c r="AH59" s="27"/>
+      <c r="AI59" s="27"/>
+      <c r="AJ59" s="27"/>
+      <c r="AK59" s="27"/>
+      <c r="AL59" s="27"/>
+      <c r="AM59" s="27"/>
+      <c r="AN59" s="27"/>
+      <c r="AO59" s="27"/>
+      <c r="AP59" s="27"/>
+      <c r="AQ59" s="27"/>
+    </row>
+    <row r="60" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="64"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="64"/>
+      <c r="T60" s="64"/>
+      <c r="U60" s="64"/>
+      <c r="V60" s="64"/>
+      <c r="W60" s="64"/>
+      <c r="X60" s="64"/>
+      <c r="Y60" s="64"/>
+      <c r="Z60" s="64"/>
+      <c r="AA60" s="64"/>
+      <c r="AB60" s="64"/>
+      <c r="AC60" s="64"/>
+    </row>
+    <row r="61" spans="1:43" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" s="65">
+        <f>SUM($C59:C59)</f>
         <v>30.5</v>
       </c>
-      <c r="D55" s="65">
-        <f>SUM($C53:D53)</f>
-        <v>126</v>
-      </c>
-      <c r="E55" s="65">
-        <f>SUM($C53:E53)</f>
-        <v>310</v>
-      </c>
-      <c r="F55" s="65">
-        <f>SUM($C53:F53)</f>
-        <v>310</v>
-      </c>
-      <c r="G55" s="65">
-        <f>SUM($C53:G53)</f>
-        <v>310</v>
-      </c>
-      <c r="H55" s="65">
-        <f>SUM($C53:H53)</f>
-        <v>310</v>
-      </c>
-      <c r="I55" s="65">
-        <f>SUM($C53:I53)</f>
-        <v>310</v>
-      </c>
-      <c r="J55" s="65">
-        <f>SUM($C53:J53)</f>
-        <v>310</v>
-      </c>
-      <c r="K55" s="65">
-        <f>SUM($C53:K53)</f>
-        <v>310</v>
-      </c>
-      <c r="L55" s="65">
-        <f>SUM($C53:L53)</f>
-        <v>310</v>
-      </c>
-      <c r="M55" s="65">
-        <f>SUM($C53:M53)</f>
-        <v>310</v>
-      </c>
-      <c r="N55" s="65">
-        <f>SUM($C53:N53)</f>
-        <v>310</v>
-      </c>
-      <c r="O55" s="65">
-        <f>SUM($C53:O53)</f>
-        <v>310</v>
-      </c>
-      <c r="P55" s="65">
-        <f>SUM($C53:P53)</f>
-        <v>310</v>
-      </c>
-      <c r="Q55" s="65">
-        <f>SUM($C53:Q53)</f>
-        <v>310</v>
-      </c>
-      <c r="R55" s="65">
-        <f>SUM($C53:R53)</f>
-        <v>310</v>
-      </c>
-      <c r="S55" s="65">
-        <f>SUM($C53:S53)</f>
-        <v>310</v>
-      </c>
-      <c r="T55" s="65">
-        <f>SUM($C53:T53)</f>
-        <v>310</v>
-      </c>
-      <c r="U55" s="65">
-        <f>SUM($C53:U53)</f>
-        <v>310</v>
-      </c>
-      <c r="V55" s="65">
-        <f>SUM($C53:V53)</f>
-        <v>310</v>
-      </c>
-      <c r="W55" s="65">
-        <f>SUM($C53:W53)</f>
-        <v>310</v>
-      </c>
-      <c r="X55" s="65">
-        <f>SUM($C53:X53)</f>
-        <v>310</v>
-      </c>
-      <c r="Y55" s="65">
-        <f>SUM($C53:Y53)</f>
-        <v>310</v>
-      </c>
-      <c r="Z55" s="65">
-        <f>SUM($C53:Z53)</f>
-        <v>310</v>
-      </c>
-      <c r="AA55" s="65">
-        <f>SUM($C53:AA53)</f>
-        <v>310</v>
-      </c>
-      <c r="AB55" s="65">
-        <f>SUM($C53:AB53)</f>
-        <v>310</v>
-      </c>
-      <c r="AC55" s="65">
-        <f>SUM($C53:AC53)</f>
-        <v>310</v>
-      </c>
-      <c r="AD55" s="65">
-        <f>SUM($C53:AD53)</f>
-        <v>310</v>
-      </c>
+      <c r="D61" s="65">
+        <f>SUM($C59:D59)</f>
+        <v>116</v>
+      </c>
+      <c r="E61" s="65">
+        <f>SUM($C59:E59)</f>
+        <v>327</v>
+      </c>
+      <c r="F61" s="65">
+        <f>SUM($C59:F59)</f>
+        <v>374</v>
+      </c>
+      <c r="G61" s="65">
+        <f>SUM($C59:G59)</f>
+        <v>561</v>
+      </c>
+      <c r="H61" s="65">
+        <f>SUM($C59:H59)</f>
+        <v>758</v>
+      </c>
+      <c r="I61" s="65">
+        <f>SUM($C59:I59)</f>
+        <v>1007</v>
+      </c>
+      <c r="J61" s="65">
+        <f>SUM($C59:J59)</f>
+        <v>1198</v>
+      </c>
+      <c r="K61" s="65">
+        <f>SUM($C59:K59)</f>
+        <v>1302</v>
+      </c>
+      <c r="L61" s="65">
+        <f>SUM($C59:L59)</f>
+        <v>1354</v>
+      </c>
+      <c r="M61" s="65">
+        <f>SUM($C59:M59)</f>
+        <v>1392</v>
+      </c>
+      <c r="N61" s="65">
+        <f>SUM($C59:N59)</f>
+        <v>1434</v>
+      </c>
+      <c r="O61" s="65">
+        <f>SUM($C59:O59)</f>
+        <v>1434</v>
+      </c>
+      <c r="P61" s="65">
+        <f>SUM($C59:P59)</f>
+        <v>1434</v>
+      </c>
+      <c r="Q61" s="65">
+        <f>SUM($C59:Q59)</f>
+        <v>1434</v>
+      </c>
+      <c r="R61" s="65">
+        <f>SUM($C59:R59)</f>
+        <v>1434</v>
+      </c>
+      <c r="S61" s="65">
+        <f>SUM($C59:S59)</f>
+        <v>1434</v>
+      </c>
+      <c r="T61" s="65">
+        <f>SUM($C59:T59)</f>
+        <v>1434</v>
+      </c>
+      <c r="U61" s="65">
+        <f>SUM($C59:U59)</f>
+        <v>1434</v>
+      </c>
+      <c r="V61" s="65">
+        <f>SUM($C59:V59)</f>
+        <v>1434</v>
+      </c>
+      <c r="W61" s="65">
+        <f>SUM($C59:W59)</f>
+        <v>1434</v>
+      </c>
+      <c r="X61" s="65">
+        <f>SUM($C59:X59)</f>
+        <v>1434</v>
+      </c>
+      <c r="Y61" s="65">
+        <f>SUM($C59:Y59)</f>
+        <v>1434</v>
+      </c>
+      <c r="Z61" s="65">
+        <f>SUM($C59:Z59)</f>
+        <v>1434</v>
+      </c>
+      <c r="AA61" s="65">
+        <f>SUM($C59:AA59)</f>
+        <v>1434</v>
+      </c>
+      <c r="AB61" s="65">
+        <f>SUM($C59:AB59)</f>
+        <v>1434</v>
+      </c>
+      <c r="AC61" s="65">
+        <f>SUM($C59:AC59)</f>
+        <v>1434</v>
+      </c>
+      <c r="AD61" s="65">
+        <f>SUM($C59:AD59)</f>
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AF62" s="110"/>
+      <c r="AG62" s="110"/>
+      <c r="AH62" s="110"/>
+      <c r="AI62" s="110"/>
+      <c r="AJ62" s="110"/>
+      <c r="AK62" s="110"/>
+      <c r="AL62" s="110"/>
+      <c r="AM62" s="110"/>
+      <c r="AN62" s="110"/>
+      <c r="AO62" s="110"/>
+      <c r="AP62" s="110"/>
+      <c r="AQ62" s="110"/>
+    </row>
+    <row r="63" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="AF63" s="110"/>
+      <c r="AG63" s="110"/>
+      <c r="AH63" s="110"/>
+      <c r="AI63" s="110"/>
+      <c r="AJ63" s="110"/>
+      <c r="AK63" s="110"/>
+      <c r="AL63" s="110"/>
+      <c r="AM63" s="110"/>
+      <c r="AN63" s="110"/>
+      <c r="AO63" s="110"/>
+      <c r="AP63" s="110"/>
+      <c r="AQ63" s="110"/>
+    </row>
+    <row r="64" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A64" s="119"/>
+      <c r="B64" s="119"/>
+      <c r="C64" s="119"/>
+      <c r="D64" s="119"/>
+      <c r="E64" s="119"/>
+      <c r="F64" s="119"/>
+      <c r="G64" s="119"/>
+      <c r="H64" s="119"/>
+      <c r="I64" s="119"/>
+      <c r="J64" s="119"/>
+      <c r="K64" s="119"/>
+      <c r="L64" s="110"/>
+      <c r="M64" s="110"/>
+      <c r="N64" s="110"/>
+      <c r="O64" s="110"/>
+      <c r="P64" s="110"/>
+      <c r="Q64" s="110"/>
+      <c r="R64" s="110"/>
+      <c r="S64" s="110"/>
+      <c r="T64" s="110"/>
+      <c r="U64" s="110"/>
+      <c r="V64" s="110"/>
+      <c r="W64" s="110"/>
+      <c r="X64" s="110"/>
+      <c r="Y64" s="110"/>
+      <c r="Z64" s="110"/>
+      <c r="AA64" s="110"/>
+      <c r="AB64" s="110"/>
+      <c r="AC64" s="110"/>
+      <c r="AD64" s="110"/>
+      <c r="AE64" s="110"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A65" s="119"/>
+      <c r="B65" s="119"/>
+      <c r="C65" s="119"/>
+      <c r="D65" s="119"/>
+      <c r="E65" s="119"/>
+      <c r="F65" s="119"/>
+      <c r="G65" s="119"/>
+      <c r="H65" s="119"/>
+      <c r="I65" s="119"/>
+      <c r="J65" s="119"/>
+      <c r="K65" s="119"/>
+      <c r="L65" s="110"/>
+      <c r="M65" s="110"/>
+      <c r="N65" s="110"/>
+      <c r="O65" s="110"/>
+      <c r="P65" s="110"/>
+      <c r="Q65" s="110"/>
+      <c r="R65" s="110"/>
+      <c r="S65" s="110"/>
+      <c r="T65" s="110"/>
+      <c r="U65" s="110"/>
+      <c r="V65" s="110"/>
+      <c r="W65" s="110"/>
+      <c r="X65" s="110"/>
+      <c r="Y65" s="110"/>
+      <c r="Z65" s="110"/>
+      <c r="AA65" s="110"/>
+      <c r="AB65" s="110"/>
+      <c r="AC65" s="110"/>
+      <c r="AD65" s="110"/>
+      <c r="AE65" s="110"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A64:K65"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.25" header="0.5" footer="0.25"/>
   <pageSetup scale="93" orientation="landscape" r:id="rId1"/>
@@ -10575,6 +11790,7 @@
   <ignoredErrors>
     <ignoredError sqref="A19 A22 A25 A27 A30 A33 A40 A46" formula="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10582,7 +11798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10594,7 +11810,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -10608,14 +11824,14 @@
     <row r="3" spans="1:4" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C4" s="6"/>
     </row>
@@ -10627,7 +11843,7 @@
     <row r="6" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="11" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C6" s="6"/>
     </row>
@@ -10639,7 +11855,7 @@
     <row r="8" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="10" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C8" s="6"/>
     </row>
@@ -10651,7 +11867,7 @@
     <row r="10" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="10" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C10" s="6"/>
     </row>
@@ -10663,7 +11879,7 @@
     <row r="12" spans="1:4" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="10" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C12" s="6"/>
     </row>
@@ -10675,7 +11891,7 @@
     <row r="14" spans="1:4" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="25" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C14" s="6"/>
     </row>
@@ -10687,7 +11903,7 @@
     <row r="16" spans="1:4" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="24" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C16" s="6"/>
     </row>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_EVM.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_EVM.xlsx
@@ -8,27 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B4381E-B87C-4C15-9227-EB69FE5E5186}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AE68EF-FAFE-49BE-A93A-ED1E27EF1918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1B5A6ABD-0E95-45BD-B30C-68473E7658BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="3" r:id="rId1"/>
-    <sheet name="BCWP" sheetId="8" r:id="rId2"/>
-    <sheet name="ACWP" sheetId="9" r:id="rId3"/>
+    <sheet name="ACWP" sheetId="9" r:id="rId2"/>
+    <sheet name="BCWP" sheetId="8" r:id="rId3"/>
     <sheet name="©" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Report!$D$21:$AE$21</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Report!$D$72:$AE$72</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Report!$D$75:$AE$75</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Report!$D$76:$AE$76</definedName>
     <definedName name="holidays">OFFSET(#REF!,1,0,COUNTA(#REF!),1)</definedName>
-    <definedName name="prevWBS" localSheetId="2">ACWP!$A1048576</definedName>
-    <definedName name="prevWBS" localSheetId="1">BCWP!$A1048576</definedName>
+    <definedName name="prevWBS" localSheetId="1">ACWP!$A1048576</definedName>
+    <definedName name="prevWBS" localSheetId="2">BCWP!$A1048576</definedName>
     <definedName name="prevWBS" localSheetId="0">Report!$A1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">ACWP!$A$2:$M$3</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">BCWP!$A$2:$O$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ACWP!$A$2:$M$3</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">BCWP!$A$2:$O$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Report!$A$1:$N$83</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2012-2017 Vertex42 LLC"</definedName>
@@ -1856,37 +1852,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>209</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>294.5</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>354.5</c:v>
+                  <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>407.3</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>470.8</c:v>
+                  <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>526.29999999999995</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>582.79999999999995</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>633.29999999999995</c:v>
+                  <c:v>506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2026,37 +2022,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>40.799999999999997</c:v>
+                  <c:v>33.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>129.4</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103.60000000000001</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>137.30000000000001</c:v>
+                  <c:v>161</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100.34500000000001</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.2</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120.90999999999998</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>153.25</c:v>
+                  <c:v>373.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>159.94499999999999</c:v>
+                  <c:v>413.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>173.04999999999998</c:v>
+                  <c:v>425</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>131.19499999999999</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2196,37 +2192,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>30.5</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>327</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>374</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>561</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>758</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1007</c:v>
+                  <c:v>451.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1198</c:v>
+                  <c:v>559.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1302</c:v>
+                  <c:v>661</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1354</c:v>
+                  <c:v>735</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1392</c:v>
+                  <c:v>735</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2508,6 +2504,92 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4245136" cy="298800"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD317E9-C232-4E1B-A485-16433839BF64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10401300"/>
+          <a:ext cx="4245136" cy="298800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Sau</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> khi cộng thời gian từ timelog từ các thành viên</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
@@ -2572,92 +2654,6 @@
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t> lượng công việc của các thành viên đã hoàn thành bao nhiêu phần trăm và báo lại, dựa trên timelog của thành viên.</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1400">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4245136" cy="298800"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD317E9-C232-4E1B-A485-16433839BF64}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="10401300"/>
-          <a:ext cx="4245136" cy="298800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Sau</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> khi cộng thời gian từ timelog từ các thành viên</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
@@ -2992,8 +2988,8 @@
   </sheetPr>
   <dimension ref="A1:AE83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3187,7 +3183,7 @@
       </c>
       <c r="I18" s="42">
         <f>G81</f>
-        <v>0.36711229946524065</v>
+        <v>0.79702970297029707</v>
       </c>
       <c r="J18" s="113" t="str">
         <f>IF(I18&gt;1,"Under Budget",IF(I18=1,"","Over Budget"))</f>
@@ -3208,11 +3204,11 @@
       </c>
       <c r="I19" s="42">
         <f>G82</f>
-        <v>0.65693779904306226</v>
+        <v>1</v>
       </c>
       <c r="J19" s="113" t="str">
         <f>IF(I19&gt;1,"Behind Schedule",IF(I19=1,"On Time","Ahead Schedule"))</f>
-        <v>Ahead Schedule</v>
+        <v>On Time</v>
       </c>
       <c r="K19" s="114"/>
     </row>
@@ -3503,17 +3499,15 @@
       </c>
       <c r="C26" s="74">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D26" s="75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E26" s="71">
         <v>6</v>
       </c>
-      <c r="F26" s="71">
-        <v>6</v>
-      </c>
+      <c r="F26" s="71"/>
       <c r="G26" s="71"/>
       <c r="H26" s="71"/>
       <c r="I26" s="71"/>
@@ -3550,21 +3544,17 @@
       </c>
       <c r="C27" s="74">
         <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="D27" s="71"/>
+        <v>11</v>
+      </c>
+      <c r="D27" s="71">
+        <v>5</v>
+      </c>
       <c r="E27" s="75">
         <v>6</v>
       </c>
-      <c r="F27" s="71">
-        <v>6</v>
-      </c>
-      <c r="G27" s="71">
-        <v>6</v>
-      </c>
-      <c r="H27" s="71">
-        <v>6</v>
-      </c>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
       <c r="I27" s="71"/>
       <c r="J27" s="71"/>
       <c r="K27" s="71"/>
@@ -3599,7 +3589,7 @@
       </c>
       <c r="C28" s="74">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D28" s="71"/>
       <c r="E28" s="75">
@@ -3608,12 +3598,8 @@
       <c r="F28" s="71">
         <v>6</v>
       </c>
-      <c r="G28" s="71">
-        <v>6</v>
-      </c>
-      <c r="H28" s="71">
-        <v>6</v>
-      </c>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
       <c r="I28" s="71"/>
       <c r="J28" s="71"/>
       <c r="K28" s="71"/>
@@ -3648,11 +3634,11 @@
       </c>
       <c r="C29" s="74">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" s="71"/>
       <c r="E29" s="75">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F29" s="71">
         <v>6</v>
@@ -3693,22 +3679,16 @@
       </c>
       <c r="C30" s="74">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D30" s="71"/>
       <c r="E30" s="75"/>
       <c r="F30" s="71">
         <v>6</v>
       </c>
-      <c r="G30" s="71">
-        <v>6</v>
-      </c>
-      <c r="H30" s="71">
-        <v>6</v>
-      </c>
-      <c r="I30" s="71">
-        <v>6</v>
-      </c>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
       <c r="J30" s="71"/>
       <c r="K30" s="71"/>
       <c r="L30" s="71"/>
@@ -3742,22 +3722,18 @@
       </c>
       <c r="C31" s="74">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D31" s="71"/>
       <c r="E31" s="75"/>
       <c r="F31" s="71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G31" s="71">
-        <v>6</v>
-      </c>
-      <c r="H31" s="71">
-        <v>6</v>
-      </c>
-      <c r="I31" s="71">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
       <c r="J31" s="71"/>
       <c r="K31" s="71"/>
       <c r="L31" s="71"/>
@@ -3832,18 +3808,16 @@
       </c>
       <c r="C33" s="74">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D33" s="71"/>
       <c r="E33" s="71">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F33" s="71">
-        <v>6</v>
-      </c>
-      <c r="G33" s="71">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G33" s="71"/>
       <c r="H33" s="71"/>
       <c r="I33" s="71"/>
       <c r="J33" s="71"/>
@@ -3879,21 +3853,17 @@
       </c>
       <c r="C34" s="74">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D34" s="71"/>
       <c r="E34" s="71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" s="71">
         <v>6</v>
       </c>
-      <c r="G34" s="71">
-        <v>6</v>
-      </c>
-      <c r="H34" s="71">
-        <v>4</v>
-      </c>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
       <c r="I34" s="71"/>
       <c r="J34" s="71"/>
       <c r="K34" s="71"/>
@@ -3969,19 +3939,15 @@
       </c>
       <c r="C36" s="74">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D36" s="71"/>
       <c r="E36" s="71"/>
       <c r="F36" s="71">
-        <v>5</v>
-      </c>
-      <c r="G36" s="71">
         <v>6</v>
       </c>
-      <c r="H36" s="71">
-        <v>6</v>
-      </c>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
       <c r="I36" s="71"/>
       <c r="J36" s="71"/>
       <c r="K36" s="71"/>
@@ -4016,19 +3982,15 @@
       </c>
       <c r="C37" s="74">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D37" s="71"/>
       <c r="E37" s="71"/>
       <c r="F37" s="76">
-        <v>5</v>
-      </c>
-      <c r="G37" s="71">
-        <v>7</v>
-      </c>
-      <c r="H37" s="71">
         <v>6</v>
       </c>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
       <c r="I37" s="71"/>
       <c r="J37" s="71"/>
       <c r="K37" s="71"/>
@@ -4104,19 +4066,15 @@
       </c>
       <c r="C39" s="74">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D39" s="71"/>
       <c r="E39" s="71"/>
       <c r="F39" s="71">
-        <v>4</v>
-      </c>
-      <c r="G39" s="71">
-        <v>7</v>
-      </c>
-      <c r="H39" s="71">
-        <v>6</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
       <c r="I39" s="71"/>
       <c r="J39" s="71"/>
       <c r="K39" s="71"/>
@@ -4192,20 +4150,16 @@
       </c>
       <c r="C41" s="74">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D41" s="71"/>
       <c r="E41" s="71"/>
       <c r="F41" s="71"/>
       <c r="G41" s="71">
-        <v>5</v>
-      </c>
-      <c r="H41" s="71">
-        <v>5</v>
-      </c>
-      <c r="I41" s="71">
         <v>6</v>
       </c>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
       <c r="J41" s="71"/>
       <c r="K41" s="71"/>
       <c r="L41" s="71"/>
@@ -4239,20 +4193,16 @@
       </c>
       <c r="C42" s="74">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D42" s="71"/>
       <c r="E42" s="71"/>
       <c r="F42" s="71"/>
       <c r="G42" s="71">
-        <v>7</v>
-      </c>
-      <c r="H42" s="71">
         <v>6</v>
       </c>
-      <c r="I42" s="71">
-        <v>5</v>
-      </c>
+      <c r="H42" s="71"/>
+      <c r="I42" s="71"/>
       <c r="J42" s="71"/>
       <c r="K42" s="71"/>
       <c r="L42" s="71"/>
@@ -4327,20 +4277,16 @@
       </c>
       <c r="C44" s="74">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D44" s="71"/>
       <c r="E44" s="71"/>
       <c r="F44" s="71"/>
       <c r="G44" s="71">
-        <v>4</v>
-      </c>
-      <c r="H44" s="71">
-        <v>3</v>
-      </c>
-      <c r="I44" s="71">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H44" s="71"/>
+      <c r="I44" s="71"/>
       <c r="J44" s="71"/>
       <c r="K44" s="71"/>
       <c r="L44" s="71"/>
@@ -4374,20 +4320,16 @@
       </c>
       <c r="C45" s="74">
         <f t="shared" si="0"/>
-        <v>19.5</v>
+        <v>6</v>
       </c>
       <c r="D45" s="71"/>
       <c r="E45" s="71"/>
       <c r="F45" s="71"/>
       <c r="G45" s="71">
-        <v>5</v>
-      </c>
-      <c r="H45" s="71">
-        <v>8</v>
-      </c>
-      <c r="I45" s="71">
-        <v>6.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H45" s="71"/>
+      <c r="I45" s="71"/>
       <c r="J45" s="71"/>
       <c r="K45" s="71"/>
       <c r="L45" s="71"/>
@@ -4462,7 +4404,7 @@
       </c>
       <c r="C47" s="74">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D47" s="71"/>
       <c r="E47" s="71"/>
@@ -4470,12 +4412,8 @@
       <c r="G47" s="71">
         <v>7</v>
       </c>
-      <c r="H47" s="71">
-        <v>6</v>
-      </c>
-      <c r="I47" s="71">
-        <v>7</v>
-      </c>
+      <c r="H47" s="71"/>
+      <c r="I47" s="71"/>
       <c r="J47" s="71"/>
       <c r="K47" s="71"/>
       <c r="L47" s="71"/>
@@ -4591,30 +4529,22 @@
       </c>
       <c r="C50" s="74">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D50" s="71"/>
       <c r="E50" s="71"/>
       <c r="F50" s="71"/>
       <c r="G50" s="71"/>
       <c r="H50" s="71">
-        <v>6.5</v>
+        <v>30</v>
       </c>
       <c r="I50" s="71">
-        <v>7.5</v>
-      </c>
-      <c r="J50" s="71">
-        <v>6</v>
-      </c>
-      <c r="K50" s="71">
-        <v>7</v>
-      </c>
-      <c r="L50" s="71">
-        <v>6</v>
-      </c>
-      <c r="M50" s="71">
-        <v>7</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
       <c r="N50" s="71"/>
       <c r="O50" s="71"/>
       <c r="P50" s="71"/>
@@ -4644,24 +4574,20 @@
       </c>
       <c r="C51" s="74">
         <f t="shared" si="0"/>
-        <v>17.8</v>
+        <v>14</v>
       </c>
       <c r="D51" s="71"/>
       <c r="E51" s="71"/>
       <c r="F51" s="71"/>
       <c r="G51" s="71"/>
       <c r="H51" s="71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I51" s="71">
-        <v>7</v>
-      </c>
-      <c r="J51" s="71">
-        <v>5.8</v>
-      </c>
-      <c r="K51" s="71">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
       <c r="L51" s="71"/>
       <c r="M51" s="71"/>
       <c r="N51" s="71"/>
@@ -4693,27 +4619,23 @@
       </c>
       <c r="C52" s="74">
         <f>SUM(D52:N52)</f>
-        <v>22.5</v>
+        <v>10</v>
       </c>
       <c r="D52" s="71"/>
       <c r="E52" s="71"/>
       <c r="F52" s="71"/>
       <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
+      <c r="H52" s="71">
+        <v>5</v>
+      </c>
+      <c r="I52" s="71">
+        <v>5</v>
+      </c>
       <c r="J52" s="71"/>
-      <c r="K52" s="71">
-        <v>5</v>
-      </c>
-      <c r="L52" s="71">
-        <v>6</v>
-      </c>
-      <c r="M52" s="71">
-        <v>6</v>
-      </c>
-      <c r="N52" s="71">
-        <v>5.5</v>
-      </c>
+      <c r="K52" s="71"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
       <c r="O52" s="71"/>
       <c r="P52" s="71"/>
       <c r="Q52" s="71"/>
@@ -4783,31 +4705,23 @@
       </c>
       <c r="C54" s="74">
         <f>SUM(D54:N54)</f>
-        <v>33.5</v>
+        <v>60</v>
       </c>
       <c r="D54" s="71"/>
       <c r="E54" s="71"/>
       <c r="F54" s="71"/>
       <c r="G54" s="71"/>
       <c r="H54" s="71"/>
-      <c r="I54" s="71">
-        <v>5</v>
-      </c>
+      <c r="I54" s="71"/>
       <c r="J54" s="71">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="K54" s="71">
-        <v>5</v>
-      </c>
-      <c r="L54" s="71">
-        <v>6.5</v>
-      </c>
-      <c r="M54" s="71">
-        <v>6</v>
-      </c>
-      <c r="N54" s="71">
-        <v>6</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="L54" s="71"/>
+      <c r="M54" s="71"/>
+      <c r="N54" s="71"/>
       <c r="O54" s="71"/>
       <c r="P54" s="71"/>
       <c r="Q54" s="71"/>
@@ -4836,7 +4750,7 @@
       </c>
       <c r="C55" s="74">
         <f>SUM(D55:N55)</f>
-        <v>35.5</v>
+        <v>70</v>
       </c>
       <c r="D55" s="71"/>
       <c r="E55" s="71"/>
@@ -4845,20 +4759,16 @@
       <c r="H55" s="71"/>
       <c r="I55" s="71"/>
       <c r="J55" s="71">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="K55" s="71">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="L55" s="71">
-        <v>7.5</v>
-      </c>
-      <c r="M55" s="71">
-        <v>6.5</v>
-      </c>
-      <c r="N55" s="71">
-        <v>7.5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="M55" s="71"/>
+      <c r="N55" s="71"/>
       <c r="O55" s="71"/>
       <c r="P55" s="71"/>
       <c r="Q55" s="71"/>
@@ -4887,7 +4797,7 @@
       </c>
       <c r="C56" s="74">
         <f>SUM(D56:N56)</f>
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
@@ -4895,21 +4805,15 @@
       <c r="G56" s="71"/>
       <c r="H56" s="71"/>
       <c r="I56" s="71"/>
-      <c r="J56" s="71">
-        <v>8</v>
-      </c>
+      <c r="J56" s="71"/>
       <c r="K56" s="71">
-        <v>8.5</v>
+        <v>25</v>
       </c>
       <c r="L56" s="71">
-        <v>7</v>
-      </c>
-      <c r="M56" s="71">
-        <v>7</v>
-      </c>
-      <c r="N56" s="71">
-        <v>7.5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
       <c r="O56" s="71"/>
       <c r="P56" s="71"/>
       <c r="Q56" s="71"/>
@@ -4947,7 +4851,9 @@
       <c r="H57" s="86"/>
       <c r="I57" s="86"/>
       <c r="J57" s="86"/>
-      <c r="K57" s="86"/>
+      <c r="K57" s="86">
+        <v>7</v>
+      </c>
       <c r="L57" s="86"/>
       <c r="M57" s="86"/>
       <c r="N57" s="86"/>
@@ -4979,7 +4885,7 @@
       </c>
       <c r="C58" s="85">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D58" s="86"/>
       <c r="E58" s="86"/>
@@ -4987,10 +4893,18 @@
       <c r="G58" s="86"/>
       <c r="H58" s="86"/>
       <c r="I58" s="86"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="86"/>
-      <c r="L58" s="86"/>
-      <c r="M58" s="86"/>
+      <c r="J58" s="86">
+        <v>20</v>
+      </c>
+      <c r="K58" s="86">
+        <v>20</v>
+      </c>
+      <c r="L58" s="86">
+        <v>20</v>
+      </c>
+      <c r="M58" s="86">
+        <v>20</v>
+      </c>
       <c r="N58" s="86"/>
       <c r="O58" s="86"/>
       <c r="P58" s="86"/>
@@ -5143,7 +5057,7 @@
       </c>
       <c r="C62" s="74">
         <f>SUM(D62:N62)</f>
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="D62" s="71"/>
       <c r="E62" s="71"/>
@@ -5151,21 +5065,11 @@
       <c r="G62" s="71"/>
       <c r="H62" s="71"/>
       <c r="I62" s="71"/>
-      <c r="J62" s="71">
-        <v>7</v>
-      </c>
-      <c r="K62" s="71">
-        <v>8</v>
-      </c>
-      <c r="L62" s="71">
-        <v>7.5</v>
-      </c>
-      <c r="M62" s="71">
-        <v>8</v>
-      </c>
-      <c r="N62" s="71">
-        <v>8</v>
-      </c>
+      <c r="J62" s="71"/>
+      <c r="K62" s="71"/>
+      <c r="L62" s="71"/>
+      <c r="M62" s="71"/>
+      <c r="N62" s="71"/>
       <c r="O62" s="71"/>
       <c r="P62" s="71"/>
       <c r="Q62" s="71"/>
@@ -5194,7 +5098,7 @@
       </c>
       <c r="C63" s="74">
         <f>SUM(D63:N63)</f>
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="D63" s="71"/>
       <c r="E63" s="71"/>
@@ -5202,21 +5106,11 @@
       <c r="G63" s="71"/>
       <c r="H63" s="71"/>
       <c r="I63" s="71"/>
-      <c r="J63" s="71">
-        <v>7</v>
-      </c>
-      <c r="K63" s="71">
-        <v>8</v>
-      </c>
-      <c r="L63" s="71">
-        <v>7.5</v>
-      </c>
-      <c r="M63" s="71">
-        <v>8</v>
-      </c>
-      <c r="N63" s="71">
-        <v>8</v>
-      </c>
+      <c r="J63" s="71"/>
+      <c r="K63" s="71"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
+      <c r="N63" s="71"/>
       <c r="O63" s="71"/>
       <c r="P63" s="71"/>
       <c r="Q63" s="71"/>
@@ -5245,7 +5139,7 @@
       </c>
       <c r="C64" s="74">
         <f>SUM(D64:N64)</f>
-        <v>38.5</v>
+        <v>0</v>
       </c>
       <c r="D64" s="71"/>
       <c r="E64" s="71"/>
@@ -5253,21 +5147,11 @@
       <c r="G64" s="71"/>
       <c r="H64" s="71"/>
       <c r="I64" s="71"/>
-      <c r="J64" s="71">
-        <v>7</v>
-      </c>
-      <c r="K64" s="71">
-        <v>8</v>
-      </c>
-      <c r="L64" s="71">
-        <v>7.5</v>
-      </c>
-      <c r="M64" s="71">
-        <v>8</v>
-      </c>
-      <c r="N64" s="71">
-        <v>8</v>
-      </c>
+      <c r="J64" s="71"/>
+      <c r="K64" s="71"/>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
+      <c r="N64" s="71"/>
       <c r="O64" s="71"/>
       <c r="P64" s="71"/>
       <c r="Q64" s="71"/>
@@ -5503,11 +5387,11 @@
       </c>
       <c r="C71" s="77">
         <f t="shared" ref="C71:AE71" si="3">SUM(C22:C70)</f>
-        <v>606.29999999999995</v>
+        <v>439</v>
       </c>
       <c r="D71" s="78">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E71" s="78">
         <f t="shared" si="3"/>
@@ -5515,39 +5399,39 @@
       </c>
       <c r="F71" s="78">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G71" s="78">
         <f t="shared" si="3"/>
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="H71" s="78">
         <f t="shared" si="3"/>
-        <v>85.5</v>
+        <v>41</v>
       </c>
       <c r="I71" s="78">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="J71" s="78">
         <f t="shared" si="3"/>
-        <v>52.8</v>
+        <v>75</v>
       </c>
       <c r="K71" s="78">
         <f t="shared" si="3"/>
-        <v>63.5</v>
+        <v>107</v>
       </c>
       <c r="L71" s="78">
         <f t="shared" si="3"/>
-        <v>55.5</v>
+        <v>65</v>
       </c>
       <c r="M71" s="78">
         <f t="shared" si="3"/>
-        <v>56.5</v>
+        <v>20</v>
       </c>
       <c r="N71" s="78">
         <f t="shared" si="3"/>
-        <v>50.5</v>
+        <v>0</v>
       </c>
       <c r="O71" s="78">
         <f t="shared" si="3"/>
@@ -5626,11 +5510,11 @@
       </c>
       <c r="D72" s="80">
         <f>IF(ISBLANK(D21),NA(),SUM($D71:D71))</f>
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E72" s="80">
         <f>IF(ISBLANK(E21),NA(),SUM($D71:E71))</f>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F72" s="80">
         <f>IF(ISBLANK(F21),NA(),SUM($D71:F71))</f>
@@ -5638,103 +5522,103 @@
       </c>
       <c r="G72" s="80">
         <f>IF(ISBLANK(G21),NA(),SUM($D71:G71))</f>
-        <v>209</v>
+        <v>161</v>
       </c>
       <c r="H72" s="80">
         <f>IF(ISBLANK(H21),NA(),SUM($D71:H71))</f>
-        <v>294.5</v>
+        <v>202</v>
       </c>
       <c r="I72" s="80">
         <f>IF(ISBLANK(I21),NA(),SUM($D71:I71))</f>
-        <v>354.5</v>
+        <v>239</v>
       </c>
       <c r="J72" s="80">
         <f>IF(ISBLANK(J21),NA(),SUM($D71:J71))</f>
-        <v>407.3</v>
+        <v>314</v>
       </c>
       <c r="K72" s="80">
         <f>IF(ISBLANK(K21),NA(),SUM($D71:K71))</f>
-        <v>470.8</v>
+        <v>421</v>
       </c>
       <c r="L72" s="80">
         <f>IF(ISBLANK(L21),NA(),SUM($D71:L71))</f>
-        <v>526.29999999999995</v>
+        <v>486</v>
       </c>
       <c r="M72" s="80">
         <f>IF(ISBLANK(M21),NA(),SUM($D71:M71))</f>
-        <v>582.79999999999995</v>
+        <v>506</v>
       </c>
       <c r="N72" s="80">
         <f>IF(ISBLANK(N21),NA(),SUM($D71:N71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
       <c r="O72" s="80">
         <f>IF(ISBLANK(O21),NA(),SUM($D71:O71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
       <c r="P72" s="80">
         <f>IF(ISBLANK(P21),NA(),SUM($D71:P71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
       <c r="Q72" s="80">
         <f>IF(ISBLANK(Q21),NA(),SUM($D71:Q71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
       <c r="R72" s="80">
         <f>IF(ISBLANK(R21),NA(),SUM($D71:R71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
       <c r="S72" s="80">
         <f>IF(ISBLANK(S21),NA(),SUM($D71:S71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
       <c r="T72" s="80">
         <f>IF(ISBLANK(T21),NA(),SUM($D71:T71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
       <c r="U72" s="80">
         <f>IF(ISBLANK(U21),NA(),SUM($D71:U71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
       <c r="V72" s="80">
         <f>IF(ISBLANK(V21),NA(),SUM($D71:V71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
       <c r="W72" s="80">
         <f>IF(ISBLANK(W21),NA(),SUM($D71:W71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
       <c r="X72" s="80">
         <f>IF(ISBLANK(X21),NA(),SUM($D71:X71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
       <c r="Y72" s="80">
         <f>IF(ISBLANK(Y21),NA(),SUM($D71:Y71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
       <c r="Z72" s="80">
         <f>IF(ISBLANK(Z21),NA(),SUM($D71:Z71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
       <c r="AA72" s="80">
         <f>IF(ISBLANK(AA21),NA(),SUM($D71:AA71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
       <c r="AB72" s="80">
         <f>IF(ISBLANK(AB21),NA(),SUM($D71:AB71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
       <c r="AC72" s="80">
         <f>IF(ISBLANK(AC21),NA(),SUM($D71:AC71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
       <c r="AD72" s="80">
         <f>IF(ISBLANK(AD21),NA(),SUM($D71:AD71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
       <c r="AE72" s="80">
         <f>IF(ISBLANK(AE21),NA(),SUM($D71:AE71))</f>
-        <v>633.29999999999995</v>
+        <v>506</v>
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.2">
@@ -5812,115 +5696,115 @@
       </c>
       <c r="D75" s="71">
         <f>ACWP!C61</f>
-        <v>30.5</v>
+        <v>20</v>
       </c>
       <c r="E75" s="71">
         <f>ACWP!D61</f>
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="F75" s="71">
         <f>ACWP!E61</f>
-        <v>327</v>
+        <v>155</v>
       </c>
       <c r="G75" s="71">
         <f>ACWP!F61</f>
-        <v>374</v>
+        <v>202</v>
       </c>
       <c r="H75" s="71">
         <f>ACWP!G61</f>
-        <v>561</v>
+        <v>232</v>
       </c>
       <c r="I75" s="71">
         <f>ACWP!H61</f>
-        <v>758</v>
+        <v>320</v>
       </c>
       <c r="J75" s="71">
         <f>ACWP!I61</f>
-        <v>1007</v>
+        <v>451.5</v>
       </c>
       <c r="K75" s="71">
         <f>ACWP!J61</f>
-        <v>1198</v>
+        <v>559.5</v>
       </c>
       <c r="L75" s="71">
         <f>ACWP!K61</f>
-        <v>1302</v>
+        <v>661</v>
       </c>
       <c r="M75" s="71">
         <f>ACWP!L61</f>
-        <v>1354</v>
+        <v>735</v>
       </c>
       <c r="N75" s="71">
         <f>ACWP!M61</f>
-        <v>1392</v>
+        <v>735</v>
       </c>
       <c r="O75" s="71">
         <f>ACWP!N61</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="P75" s="71">
         <f>ACWP!O61</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="Q75" s="71">
         <f>ACWP!P61</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="R75" s="71">
         <f>ACWP!Q61</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="S75" s="71">
         <f>ACWP!R61</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="T75" s="71">
         <f>ACWP!S61</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="U75" s="71">
         <f>ACWP!T61</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="V75" s="71">
         <f>ACWP!U61</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="W75" s="71">
         <f>ACWP!V61</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="X75" s="71">
         <f>ACWP!W61</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="Y75" s="71">
         <f>ACWP!X61</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="Z75" s="71">
         <f>ACWP!Y61</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="AA75" s="71">
         <f>ACWP!Z61</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="AB75" s="71">
         <f>ACWP!AA61</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="AC75" s="71">
         <f>ACWP!AB61</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="AD75" s="71">
         <f>ACWP!AC61</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="AE75" s="71">
         <f>ACWP!AD61</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.2">
@@ -5931,51 +5815,51 @@
       </c>
       <c r="D76" s="71">
         <f>BCWP!D63</f>
-        <v>40.799999999999997</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="E76" s="71">
         <f>BCWP!E63</f>
-        <v>129.4</v>
+        <v>96</v>
       </c>
       <c r="F76" s="71">
         <f>BCWP!F63</f>
-        <v>103.60000000000001</v>
+        <v>130</v>
       </c>
       <c r="G76" s="71">
         <f>BCWP!G63</f>
-        <v>137.30000000000001</v>
+        <v>161</v>
       </c>
       <c r="H76" s="71">
         <f>BCWP!H63</f>
-        <v>100.34500000000001</v>
+        <v>196</v>
       </c>
       <c r="I76" s="71">
         <f>BCWP!I63</f>
-        <v>87.2</v>
+        <v>232</v>
       </c>
       <c r="J76" s="71">
         <f>BCWP!J63</f>
-        <v>120.90999999999998</v>
+        <v>287</v>
       </c>
       <c r="K76" s="71">
         <f>BCWP!K63</f>
-        <v>153.25</v>
+        <v>373.5</v>
       </c>
       <c r="L76" s="71">
         <f>BCWP!L63</f>
-        <v>159.94499999999999</v>
+        <v>413.2</v>
       </c>
       <c r="M76" s="71">
         <f>BCWP!M63</f>
-        <v>173.04999999999998</v>
+        <v>425</v>
       </c>
       <c r="N76" s="71">
         <f>BCWP!N63</f>
-        <v>131.19499999999999</v>
+        <v>405</v>
       </c>
       <c r="O76" s="71">
         <f>BCWP!O63</f>
-        <v>144.64499999999998</v>
+        <v>405</v>
       </c>
       <c r="P76" s="71">
         <f>BCWP!P63</f>
@@ -6115,115 +5999,115 @@
       </c>
       <c r="D79" s="82">
         <f>IF(AND(ISBLANK(D75),ISBLANK(D76))," - ",D76-D75)</f>
-        <v>10.299999999999997</v>
+        <v>13.799999999999997</v>
       </c>
       <c r="E79" s="82">
         <f>IF(AND(ISBLANK(E75),ISBLANK(E76))," - ",E76-E75)</f>
-        <v>13.400000000000006</v>
+        <v>40</v>
       </c>
       <c r="F79" s="82">
         <f t="shared" ref="F79:AE79" si="4">IF(AND(ISBLANK(F75),ISBLANK(F76))," - ",F76-F75)</f>
-        <v>-223.39999999999998</v>
+        <v>-25</v>
       </c>
       <c r="G79" s="82">
         <f t="shared" si="4"/>
-        <v>-236.7</v>
+        <v>-41</v>
       </c>
       <c r="H79" s="82">
         <f t="shared" si="4"/>
-        <v>-460.65499999999997</v>
+        <v>-36</v>
       </c>
       <c r="I79" s="82">
         <f t="shared" si="4"/>
-        <v>-670.8</v>
+        <v>-88</v>
       </c>
       <c r="J79" s="82">
         <f t="shared" si="4"/>
-        <v>-886.09</v>
+        <v>-164.5</v>
       </c>
       <c r="K79" s="82">
         <f t="shared" si="4"/>
-        <v>-1044.75</v>
+        <v>-186</v>
       </c>
       <c r="L79" s="82">
         <f t="shared" si="4"/>
-        <v>-1142.0550000000001</v>
+        <v>-247.8</v>
       </c>
       <c r="M79" s="82">
         <f t="shared" si="4"/>
-        <v>-1180.95</v>
+        <v>-310</v>
       </c>
       <c r="N79" s="82">
         <f t="shared" si="4"/>
-        <v>-1260.8050000000001</v>
+        <v>-330</v>
       </c>
       <c r="O79" s="82">
         <f t="shared" si="4"/>
-        <v>-1289.355</v>
+        <v>-330</v>
       </c>
       <c r="P79" s="82">
         <f t="shared" si="4"/>
-        <v>-1434</v>
+        <v>-735</v>
       </c>
       <c r="Q79" s="82">
         <f t="shared" si="4"/>
-        <v>-1434</v>
+        <v>-735</v>
       </c>
       <c r="R79" s="82">
         <f t="shared" si="4"/>
-        <v>-1434</v>
+        <v>-735</v>
       </c>
       <c r="S79" s="82">
         <f t="shared" si="4"/>
-        <v>-1434</v>
+        <v>-735</v>
       </c>
       <c r="T79" s="82">
         <f t="shared" si="4"/>
-        <v>-1434</v>
+        <v>-735</v>
       </c>
       <c r="U79" s="82">
         <f t="shared" si="4"/>
-        <v>-1434</v>
+        <v>-735</v>
       </c>
       <c r="V79" s="82">
         <f t="shared" si="4"/>
-        <v>-1434</v>
+        <v>-735</v>
       </c>
       <c r="W79" s="82">
         <f t="shared" si="4"/>
-        <v>-1434</v>
+        <v>-735</v>
       </c>
       <c r="X79" s="82">
         <f t="shared" si="4"/>
-        <v>-1434</v>
+        <v>-735</v>
       </c>
       <c r="Y79" s="82">
         <f t="shared" si="4"/>
-        <v>-1434</v>
+        <v>-735</v>
       </c>
       <c r="Z79" s="82">
         <f t="shared" si="4"/>
-        <v>-1434</v>
+        <v>-735</v>
       </c>
       <c r="AA79" s="82">
         <f t="shared" si="4"/>
-        <v>-1434</v>
+        <v>-735</v>
       </c>
       <c r="AB79" s="82">
         <f t="shared" si="4"/>
-        <v>-1434</v>
+        <v>-735</v>
       </c>
       <c r="AC79" s="82">
         <f t="shared" si="4"/>
-        <v>-1434</v>
+        <v>-735</v>
       </c>
       <c r="AD79" s="82">
         <f t="shared" si="4"/>
-        <v>-1434</v>
+        <v>-735</v>
       </c>
       <c r="AE79" s="82">
         <f t="shared" si="4"/>
-        <v>-1434</v>
+        <v>-735</v>
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.2">
@@ -6232,115 +6116,115 @@
       </c>
       <c r="D80" s="82">
         <f>IF(AND(ISBLANK(D75),ISBLANK(D76))," - ",D76-D72)</f>
-        <v>22.799999999999997</v>
+        <v>11.799999999999997</v>
       </c>
       <c r="E80" s="82">
         <f>IF(AND(ISBLANK(E75),ISBLANK(E76))," - ",E76-E72)</f>
-        <v>66.400000000000006</v>
+        <v>29</v>
       </c>
       <c r="F80" s="82">
         <f t="shared" ref="F80:AE80" si="5">IF(AND(ISBLANK(F75),ISBLANK(F76))," - ",F76-F72)</f>
-        <v>-21.399999999999991</v>
+        <v>5</v>
       </c>
       <c r="G80" s="82">
         <f t="shared" si="5"/>
-        <v>-71.699999999999989</v>
+        <v>0</v>
       </c>
       <c r="H80" s="82">
         <f t="shared" si="5"/>
-        <v>-194.15499999999997</v>
+        <v>-6</v>
       </c>
       <c r="I80" s="82">
         <f t="shared" si="5"/>
-        <v>-267.3</v>
+        <v>-7</v>
       </c>
       <c r="J80" s="82">
         <f t="shared" si="5"/>
-        <v>-286.39000000000004</v>
+        <v>-27</v>
       </c>
       <c r="K80" s="82">
         <f t="shared" si="5"/>
-        <v>-317.55</v>
+        <v>-47.5</v>
       </c>
       <c r="L80" s="82">
         <f t="shared" si="5"/>
-        <v>-366.35499999999996</v>
+        <v>-72.800000000000011</v>
       </c>
       <c r="M80" s="82">
         <f t="shared" si="5"/>
-        <v>-409.75</v>
+        <v>-81</v>
       </c>
       <c r="N80" s="82">
         <f t="shared" si="5"/>
-        <v>-502.10499999999996</v>
+        <v>-101</v>
       </c>
       <c r="O80" s="82">
         <f t="shared" si="5"/>
-        <v>-488.65499999999997</v>
+        <v>-101</v>
       </c>
       <c r="P80" s="82">
         <f t="shared" si="5"/>
-        <v>-633.29999999999995</v>
+        <v>-506</v>
       </c>
       <c r="Q80" s="82">
         <f t="shared" si="5"/>
-        <v>-633.29999999999995</v>
+        <v>-506</v>
       </c>
       <c r="R80" s="82">
         <f t="shared" si="5"/>
-        <v>-633.29999999999995</v>
+        <v>-506</v>
       </c>
       <c r="S80" s="82">
         <f t="shared" si="5"/>
-        <v>-633.29999999999995</v>
+        <v>-506</v>
       </c>
       <c r="T80" s="82">
         <f t="shared" si="5"/>
-        <v>-633.29999999999995</v>
+        <v>-506</v>
       </c>
       <c r="U80" s="82">
         <f t="shared" si="5"/>
-        <v>-633.29999999999995</v>
+        <v>-506</v>
       </c>
       <c r="V80" s="82">
         <f t="shared" si="5"/>
-        <v>-633.29999999999995</v>
+        <v>-506</v>
       </c>
       <c r="W80" s="82">
         <f t="shared" si="5"/>
-        <v>-633.29999999999995</v>
+        <v>-506</v>
       </c>
       <c r="X80" s="82">
         <f t="shared" si="5"/>
-        <v>-633.29999999999995</v>
+        <v>-506</v>
       </c>
       <c r="Y80" s="82">
         <f t="shared" si="5"/>
-        <v>-633.29999999999995</v>
+        <v>-506</v>
       </c>
       <c r="Z80" s="82">
         <f t="shared" si="5"/>
-        <v>-633.29999999999995</v>
+        <v>-506</v>
       </c>
       <c r="AA80" s="82">
         <f t="shared" si="5"/>
-        <v>-633.29999999999995</v>
+        <v>-506</v>
       </c>
       <c r="AB80" s="82">
         <f t="shared" si="5"/>
-        <v>-633.29999999999995</v>
+        <v>-506</v>
       </c>
       <c r="AC80" s="82">
         <f t="shared" si="5"/>
-        <v>-633.29999999999995</v>
+        <v>-506</v>
       </c>
       <c r="AD80" s="82">
         <f t="shared" si="5"/>
-        <v>-633.29999999999995</v>
+        <v>-506</v>
       </c>
       <c r="AE80" s="82">
         <f t="shared" si="5"/>
-        <v>-633.29999999999995</v>
+        <v>-506</v>
       </c>
     </row>
     <row r="81" spans="3:31" x14ac:dyDescent="0.2">
@@ -6349,51 +6233,51 @@
       </c>
       <c r="D81" s="83">
         <f>IF(AND(ISBLANK(D75),ISBLANK(D76))," - ",D76/D75)</f>
-        <v>1.3377049180327867</v>
+        <v>1.69</v>
       </c>
       <c r="E81" s="83">
         <f>IF(AND(ISBLANK(E75),ISBLANK(E76))," - ",E76/E75)</f>
-        <v>1.1155172413793104</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="F81" s="83">
         <f t="shared" ref="F81:AE81" si="6">IF(AND(ISBLANK(F75),ISBLANK(F76))," - ",F76/F75)</f>
-        <v>0.31681957186544346</v>
+        <v>0.83870967741935487</v>
       </c>
       <c r="G81" s="83">
         <f t="shared" si="6"/>
-        <v>0.36711229946524065</v>
+        <v>0.79702970297029707</v>
       </c>
       <c r="H81" s="83">
         <f t="shared" si="6"/>
-        <v>0.17886809269162213</v>
+        <v>0.84482758620689657</v>
       </c>
       <c r="I81" s="83">
         <f t="shared" si="6"/>
-        <v>0.11503957783641161</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="J81" s="83">
         <f t="shared" si="6"/>
-        <v>0.12006951340615689</v>
+        <v>0.63565891472868219</v>
       </c>
       <c r="K81" s="83">
         <f t="shared" si="6"/>
-        <v>0.12792153589315525</v>
+        <v>0.66756032171581769</v>
       </c>
       <c r="L81" s="83">
         <f t="shared" si="6"/>
-        <v>0.12284562211981566</v>
+        <v>0.62511346444780636</v>
       </c>
       <c r="M81" s="83">
         <f t="shared" si="6"/>
-        <v>0.12780649926144755</v>
+        <v>0.57823129251700678</v>
       </c>
       <c r="N81" s="83">
         <f t="shared" si="6"/>
-        <v>9.4249281609195393E-2</v>
+        <v>0.55102040816326525</v>
       </c>
       <c r="O81" s="83">
         <f t="shared" si="6"/>
-        <v>0.10086820083682008</v>
+        <v>0.55102040816326525</v>
       </c>
       <c r="P81" s="83">
         <f t="shared" si="6"/>
@@ -6466,51 +6350,51 @@
       </c>
       <c r="D82" s="83">
         <f>IF(AND(ISBLANK(D75),ISBLANK(D76))," - ",D76/D72)</f>
-        <v>2.2666666666666666</v>
+        <v>1.5363636363636362</v>
       </c>
       <c r="E82" s="83">
         <f>IF(AND(ISBLANK(E75),ISBLANK(E76))," - ",E76/E72)</f>
-        <v>2.0539682539682542</v>
+        <v>1.4328358208955223</v>
       </c>
       <c r="F82" s="83">
         <f t="shared" ref="F82:AE82" si="7">IF(AND(ISBLANK(F75),ISBLANK(F76))," - ",F76/F72)</f>
-        <v>0.82880000000000009</v>
+        <v>1.04</v>
       </c>
       <c r="G82" s="83">
         <f t="shared" si="7"/>
-        <v>0.65693779904306226</v>
+        <v>1</v>
       </c>
       <c r="H82" s="83">
         <f t="shared" si="7"/>
-        <v>0.34073005093378611</v>
+        <v>0.97029702970297027</v>
       </c>
       <c r="I82" s="83">
         <f t="shared" si="7"/>
-        <v>0.2459802538787024</v>
+        <v>0.97071129707112969</v>
       </c>
       <c r="J82" s="83">
         <f t="shared" si="7"/>
-        <v>0.29685735330223417</v>
+        <v>0.9140127388535032</v>
       </c>
       <c r="K82" s="83">
         <f t="shared" si="7"/>
-        <v>0.32550977060322855</v>
+        <v>0.88717339667458428</v>
       </c>
       <c r="L82" s="83">
         <f t="shared" si="7"/>
-        <v>0.30390461713851419</v>
+        <v>0.85020576131687242</v>
       </c>
       <c r="M82" s="83">
         <f t="shared" si="7"/>
-        <v>0.29692862045298557</v>
+        <v>0.83992094861660083</v>
       </c>
       <c r="N82" s="83">
         <f t="shared" si="7"/>
-        <v>0.20716090320543187</v>
+        <v>0.80039525691699609</v>
       </c>
       <c r="O82" s="83">
         <f t="shared" si="7"/>
-        <v>0.22839886309805779</v>
+        <v>0.80039525691699609</v>
       </c>
       <c r="P82" s="83">
         <f t="shared" si="7"/>
@@ -6583,51 +6467,51 @@
       </c>
       <c r="D83" s="84">
         <f>IF(AND(ISBLANK(D75),ISBLANK(D76))," - ",$C$71/D81)</f>
-        <v>453.2389705882353</v>
+        <v>259.76331360946745</v>
       </c>
       <c r="E83" s="84">
         <f>IF(AND(ISBLANK(E75),ISBLANK(E76))," - ",$C$71/E81)</f>
-        <v>543.51468315301383</v>
+        <v>256.08333333333337</v>
       </c>
       <c r="F83" s="84">
         <f t="shared" ref="F83:AE83" si="8">IF(AND(ISBLANK(F75),ISBLANK(F76))," - ",$C$71/F81)</f>
-        <v>1913.7075289575287</v>
+        <v>523.42307692307691</v>
       </c>
       <c r="G83" s="84">
         <f t="shared" si="8"/>
-        <v>1651.5382374362707</v>
+        <v>550.79503105590061</v>
       </c>
       <c r="H83" s="84">
         <f t="shared" si="8"/>
-        <v>3389.6487119437934</v>
+        <v>519.63265306122446</v>
       </c>
       <c r="I83" s="84">
         <f t="shared" si="8"/>
-        <v>5270.3600917431186</v>
+        <v>605.51724137931035</v>
       </c>
       <c r="J83" s="84">
         <f t="shared" si="8"/>
-        <v>5049.5748904143584</v>
+        <v>690.6219512195122</v>
       </c>
       <c r="K83" s="84">
         <f t="shared" si="8"/>
-        <v>4739.6241435562806</v>
+        <v>657.61847389558238</v>
       </c>
       <c r="L83" s="84">
         <f t="shared" si="8"/>
-        <v>4935.4628153427739</v>
+        <v>702.27250726040654</v>
       </c>
       <c r="M83" s="84">
         <f t="shared" si="8"/>
-        <v>4743.8902051430223</v>
+        <v>759.21176470588239</v>
       </c>
       <c r="N83" s="84">
         <f t="shared" si="8"/>
-        <v>6432.9402797362709</v>
+        <v>796.70370370370381</v>
       </c>
       <c r="O83" s="84">
         <f t="shared" si="8"/>
-        <v>6010.8140620138956</v>
+        <v>796.70370370370381</v>
       </c>
       <c r="P83" s="84" t="e">
         <f t="shared" si="8"/>
@@ -6735,2587 +6619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AE63"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="6.5703125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="45" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" style="27" customWidth="1"/>
-    <col min="4" max="31" width="8.7109375" style="27" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="27"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="Q3" s="52"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="Q4" s="53"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="7" spans="1:31" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="O7" s="28"/>
-    </row>
-    <row r="8" spans="1:31" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="58" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="66" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="66" t="s">
-        <v>68</v>
-      </c>
-      <c r="H8" s="66" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="J8" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="M8" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="N8" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="O8" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q8" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="R8" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="S8" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="T8" s="66" t="s">
-        <v>81</v>
-      </c>
-      <c r="U8" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="V8" s="66" t="s">
-        <v>83</v>
-      </c>
-      <c r="W8" s="66" t="s">
-        <v>84</v>
-      </c>
-      <c r="X8" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y8" s="66" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z8" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA8" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB8" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC8" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD8" s="66" t="s">
-        <v>91</v>
-      </c>
-      <c r="AE8" s="66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="93" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>1</v>
-      </c>
-      <c r="B9" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="91">
-        <f>Report!C22</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="92"/>
-      <c r="J9" s="92"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="92"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="92"/>
-      <c r="W9" s="92"/>
-      <c r="X9" s="92"/>
-      <c r="Y9" s="92"/>
-      <c r="Z9" s="92"/>
-      <c r="AA9" s="92"/>
-      <c r="AB9" s="92"/>
-      <c r="AC9" s="92"/>
-      <c r="AD9" s="92"/>
-      <c r="AE9" s="92"/>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A10" s="95" t="str">
-        <f t="shared" ref="A10:A33" si="0">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>1.1</v>
-      </c>
-      <c r="B10" s="96" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="91">
-        <f>Report!C23</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
-      <c r="J10" s="92"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="92"/>
-      <c r="Q10" s="92"/>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
-      <c r="V10" s="92"/>
-      <c r="W10" s="92"/>
-      <c r="X10" s="92"/>
-      <c r="Y10" s="92"/>
-      <c r="Z10" s="92"/>
-      <c r="AA10" s="92"/>
-      <c r="AB10" s="92"/>
-      <c r="AC10" s="92"/>
-      <c r="AD10" s="92"/>
-      <c r="AE10" s="92"/>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A11" s="97" t="str">
-        <f t="shared" ref="A11:A18" si="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.1.1</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="67">
-        <f>Report!C24</f>
-        <v>12</v>
-      </c>
-      <c r="D11" s="68">
-        <v>1</v>
-      </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="68"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="69"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="97" t="str">
-        <f t="shared" si="1"/>
-        <v>1.1.2</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="67">
-        <f>Report!C25</f>
-        <v>12</v>
-      </c>
-      <c r="D12" s="68">
-        <v>0.9</v>
-      </c>
-      <c r="E12" s="68">
-        <v>0.9</v>
-      </c>
-      <c r="F12" s="68">
-        <v>0.9</v>
-      </c>
-      <c r="G12" s="68">
-        <v>0.9</v>
-      </c>
-      <c r="H12" s="68">
-        <v>1</v>
-      </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="68"/>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13" s="97" t="str">
-        <f t="shared" si="1"/>
-        <v>1.1.3</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="67">
-        <f>Report!C26</f>
-        <v>18</v>
-      </c>
-      <c r="D13" s="68">
-        <v>1</v>
-      </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14" s="97" t="str">
-        <f t="shared" si="1"/>
-        <v>1.1.4</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="67">
-        <f>Report!C27</f>
-        <v>24</v>
-      </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68">
-        <v>0.9</v>
-      </c>
-      <c r="F14" s="68">
-        <v>0.9</v>
-      </c>
-      <c r="G14" s="68">
-        <v>0.95</v>
-      </c>
-      <c r="H14" s="68">
-        <v>1</v>
-      </c>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="68"/>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="97" t="str">
-        <f t="shared" si="1"/>
-        <v>1.1.5</v>
-      </c>
-      <c r="B15" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="67">
-        <f>Report!C28</f>
-        <v>24</v>
-      </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68">
-        <v>1</v>
-      </c>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A16" s="97" t="str">
-        <f t="shared" si="1"/>
-        <v>1.1.6</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="67">
-        <f>Report!C29</f>
-        <v>12</v>
-      </c>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68">
-        <v>1</v>
-      </c>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="68"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="68"/>
-      <c r="AC16" s="68"/>
-      <c r="AD16" s="68"/>
-      <c r="AE16" s="68"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A17" s="97" t="str">
-        <f t="shared" si="1"/>
-        <v>1.1.7</v>
-      </c>
-      <c r="B17" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="67">
-        <f>Report!C30</f>
-        <v>24</v>
-      </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68">
-        <v>1</v>
-      </c>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="68"/>
-      <c r="AE17" s="68"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A18" s="97" t="str">
-        <f t="shared" si="1"/>
-        <v>1.1.8</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="67">
-        <f>Report!C31</f>
-        <v>24</v>
-      </c>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="G18" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="H18" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="I18" s="68">
-        <v>0.9</v>
-      </c>
-      <c r="J18" s="68">
-        <v>1</v>
-      </c>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
-      <c r="Z18" s="68"/>
-      <c r="AA18" s="68"/>
-      <c r="AB18" s="68"/>
-      <c r="AC18" s="68"/>
-      <c r="AD18" s="68"/>
-      <c r="AE18" s="68"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A19" s="95" t="str">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="B19" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="91">
-        <f>Report!C32</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="92"/>
-      <c r="J19" s="92"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="92"/>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="92"/>
-      <c r="U19" s="92"/>
-      <c r="V19" s="92"/>
-      <c r="W19" s="92"/>
-      <c r="X19" s="92"/>
-      <c r="Y19" s="92"/>
-      <c r="Z19" s="92"/>
-      <c r="AA19" s="92"/>
-      <c r="AB19" s="92"/>
-      <c r="AC19" s="92"/>
-      <c r="AD19" s="92"/>
-      <c r="AE19" s="92"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A20" s="97" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.2.1</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="67">
-        <f>Report!C33</f>
-        <v>15</v>
-      </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68">
-        <v>1</v>
-      </c>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="68"/>
-      <c r="AD20" s="68"/>
-      <c r="AE20" s="68"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A21" s="97" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.2.2</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="67">
-        <f>Report!C34</f>
-        <v>22</v>
-      </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68">
-        <v>1</v>
-      </c>
-      <c r="F21" s="68"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="68"/>
-      <c r="K21" s="68"/>
-      <c r="L21" s="68"/>
-      <c r="M21" s="68"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="68"/>
-      <c r="T21" s="68"/>
-      <c r="U21" s="68"/>
-      <c r="V21" s="68"/>
-      <c r="W21" s="68"/>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="68"/>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="68"/>
-      <c r="AB21" s="68"/>
-      <c r="AC21" s="68"/>
-      <c r="AD21" s="68"/>
-      <c r="AE21" s="68"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A22" s="95" t="str">
-        <f t="shared" si="0"/>
-        <v>1.3</v>
-      </c>
-      <c r="B22" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="91">
-        <f>Report!C35</f>
-        <v>0</v>
-      </c>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="92"/>
-      <c r="J22" s="92"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="92"/>
-      <c r="W22" s="92"/>
-      <c r="X22" s="92"/>
-      <c r="Y22" s="92"/>
-      <c r="Z22" s="92"/>
-      <c r="AA22" s="92"/>
-      <c r="AB22" s="92"/>
-      <c r="AC22" s="92"/>
-      <c r="AD22" s="92"/>
-      <c r="AE22" s="92"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A23" s="97" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.3.1</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="67">
-        <f>Report!C36</f>
-        <v>17</v>
-      </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="68">
-        <v>1</v>
-      </c>
-      <c r="G23" s="68"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="68"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="68"/>
-      <c r="L23" s="68"/>
-      <c r="M23" s="68"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="68"/>
-      <c r="T23" s="68"/>
-      <c r="U23" s="68"/>
-      <c r="V23" s="68"/>
-      <c r="W23" s="68"/>
-      <c r="X23" s="68"/>
-      <c r="Y23" s="68"/>
-      <c r="Z23" s="68"/>
-      <c r="AA23" s="68"/>
-      <c r="AB23" s="68"/>
-      <c r="AC23" s="68"/>
-      <c r="AD23" s="68"/>
-      <c r="AE23" s="68"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24" s="97" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.3.2</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="67">
-        <f>Report!C37</f>
-        <v>18</v>
-      </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68">
-        <v>1</v>
-      </c>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="68"/>
-      <c r="T24" s="68"/>
-      <c r="U24" s="68"/>
-      <c r="V24" s="68"/>
-      <c r="W24" s="68"/>
-      <c r="X24" s="68"/>
-      <c r="Y24" s="68"/>
-      <c r="Z24" s="68"/>
-      <c r="AA24" s="68"/>
-      <c r="AB24" s="68"/>
-      <c r="AC24" s="68"/>
-      <c r="AD24" s="68"/>
-      <c r="AE24" s="68"/>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25" s="95" t="str">
-        <f t="shared" si="0"/>
-        <v>1.4</v>
-      </c>
-      <c r="B25" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="91">
-        <f>Report!C38</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="92"/>
-      <c r="Q25" s="92"/>
-      <c r="R25" s="92"/>
-      <c r="S25" s="92"/>
-      <c r="T25" s="92"/>
-      <c r="U25" s="92"/>
-      <c r="V25" s="92"/>
-      <c r="W25" s="92"/>
-      <c r="X25" s="92"/>
-      <c r="Y25" s="92"/>
-      <c r="Z25" s="92"/>
-      <c r="AA25" s="92"/>
-      <c r="AB25" s="92"/>
-      <c r="AC25" s="92"/>
-      <c r="AD25" s="92"/>
-      <c r="AE25" s="92"/>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26" s="97" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.4.1</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="67">
-        <f>Report!C39</f>
-        <v>17</v>
-      </c>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68">
-        <v>1</v>
-      </c>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="68"/>
-      <c r="W26" s="68"/>
-      <c r="X26" s="68"/>
-      <c r="Y26" s="68"/>
-      <c r="Z26" s="68"/>
-      <c r="AA26" s="68"/>
-      <c r="AB26" s="68"/>
-      <c r="AC26" s="68"/>
-      <c r="AD26" s="68"/>
-      <c r="AE26" s="68"/>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27" s="95" t="str">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="B27" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="91">
-        <f>Report!C40</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="92"/>
-      <c r="W27" s="92"/>
-      <c r="X27" s="92"/>
-      <c r="Y27" s="92"/>
-      <c r="Z27" s="92"/>
-      <c r="AA27" s="92"/>
-      <c r="AB27" s="92"/>
-      <c r="AC27" s="92"/>
-      <c r="AD27" s="92"/>
-      <c r="AE27" s="92"/>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28" s="97" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.5.1</v>
-      </c>
-      <c r="B28" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="67">
-        <f>Report!C41</f>
-        <v>16</v>
-      </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68">
-        <v>1</v>
-      </c>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="68"/>
-      <c r="AD28" s="68"/>
-      <c r="AE28" s="68"/>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A29" s="97" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.5.2</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="67">
-        <f>Report!C42</f>
-        <v>18</v>
-      </c>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68">
-        <v>1</v>
-      </c>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="68"/>
-      <c r="L29" s="68"/>
-      <c r="M29" s="68"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="68"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
-      <c r="W29" s="68"/>
-      <c r="X29" s="68"/>
-      <c r="Y29" s="68"/>
-      <c r="Z29" s="68"/>
-      <c r="AA29" s="68"/>
-      <c r="AB29" s="68"/>
-      <c r="AC29" s="68"/>
-      <c r="AD29" s="68"/>
-      <c r="AE29" s="68"/>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A30" s="95" t="str">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
-      </c>
-      <c r="B30" s="96" t="s">
-        <v>48</v>
-      </c>
-      <c r="C30" s="91">
-        <f>Report!C43</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="92"/>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="92"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="92"/>
-      <c r="Q30" s="92"/>
-      <c r="R30" s="92"/>
-      <c r="S30" s="92"/>
-      <c r="T30" s="92"/>
-      <c r="U30" s="92"/>
-      <c r="V30" s="92"/>
-      <c r="W30" s="92"/>
-      <c r="X30" s="92"/>
-      <c r="Y30" s="92"/>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="92"/>
-      <c r="AB30" s="92"/>
-      <c r="AC30" s="92"/>
-      <c r="AD30" s="92"/>
-      <c r="AE30" s="92"/>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A31" s="97" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.6.1</v>
-      </c>
-      <c r="B31" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="67">
-        <f>Report!C44</f>
-        <v>11</v>
-      </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="68">
-        <v>1</v>
-      </c>
-      <c r="H31" s="68"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="68"/>
-      <c r="AA31" s="68"/>
-      <c r="AB31" s="68"/>
-      <c r="AC31" s="68"/>
-      <c r="AD31" s="68"/>
-      <c r="AE31" s="68"/>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A32" s="97" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.6.2</v>
-      </c>
-      <c r="B32" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="67">
-        <f>Report!C45</f>
-        <v>19.5</v>
-      </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68">
-        <v>1</v>
-      </c>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
-      <c r="R32" s="68"/>
-      <c r="S32" s="68"/>
-      <c r="T32" s="68"/>
-      <c r="U32" s="68"/>
-      <c r="V32" s="68"/>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="68"/>
-      <c r="AB32" s="68"/>
-      <c r="AC32" s="68"/>
-      <c r="AD32" s="68"/>
-      <c r="AE32" s="68"/>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A33" s="95" t="str">
-        <f t="shared" si="0"/>
-        <v>1.7</v>
-      </c>
-      <c r="B33" s="96" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="91">
-        <f>Report!C46</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="92"/>
-      <c r="J33" s="92"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="92"/>
-      <c r="Q33" s="92"/>
-      <c r="R33" s="92"/>
-      <c r="S33" s="92"/>
-      <c r="T33" s="92"/>
-      <c r="U33" s="92"/>
-      <c r="V33" s="92"/>
-      <c r="W33" s="92"/>
-      <c r="X33" s="92"/>
-      <c r="Y33" s="92"/>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="92"/>
-      <c r="AB33" s="92"/>
-      <c r="AC33" s="92"/>
-      <c r="AD33" s="92"/>
-      <c r="AE33" s="92"/>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A34" s="97" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>1.7.1</v>
-      </c>
-      <c r="B34" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C34" s="67">
-        <f>Report!C47</f>
-        <v>20</v>
-      </c>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68">
-        <v>1</v>
-      </c>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="68"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="68"/>
-    </row>
-    <row r="35" spans="1:31" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="93" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>2</v>
-      </c>
-      <c r="B35" s="94" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="91">
-        <f>Report!C48</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="92"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
-      <c r="P35" s="92"/>
-      <c r="Q35" s="92"/>
-      <c r="R35" s="92"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="92"/>
-      <c r="U35" s="92"/>
-      <c r="V35" s="92"/>
-      <c r="W35" s="92"/>
-      <c r="X35" s="92"/>
-      <c r="Y35" s="92"/>
-      <c r="Z35" s="92"/>
-      <c r="AA35" s="92"/>
-      <c r="AB35" s="92"/>
-      <c r="AC35" s="92"/>
-      <c r="AD35" s="92"/>
-      <c r="AE35" s="92"/>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A36" s="95" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.1</v>
-      </c>
-      <c r="B36" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="91">
-        <f>Report!C49</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="92"/>
-      <c r="K36" s="92"/>
-      <c r="L36" s="92"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92"/>
-      <c r="O36" s="92"/>
-      <c r="P36" s="92"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="92"/>
-      <c r="S36" s="92"/>
-      <c r="T36" s="92"/>
-      <c r="U36" s="92"/>
-      <c r="V36" s="92"/>
-      <c r="W36" s="92"/>
-      <c r="X36" s="92"/>
-      <c r="Y36" s="92"/>
-      <c r="Z36" s="92"/>
-      <c r="AA36" s="92"/>
-      <c r="AB36" s="92"/>
-      <c r="AC36" s="92"/>
-      <c r="AD36" s="92"/>
-      <c r="AE36" s="92"/>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A37" s="97" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.1.1</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="67">
-        <f>Report!C50</f>
-        <v>20</v>
-      </c>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="I37" s="68">
-        <v>0.6</v>
-      </c>
-      <c r="J37" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="K37" s="68">
-        <v>0.95</v>
-      </c>
-      <c r="L37" s="68">
-        <v>1</v>
-      </c>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68"/>
-      <c r="AA37" s="68"/>
-      <c r="AB37" s="68"/>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="68"/>
-      <c r="AE37" s="68"/>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A38" s="97" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.1.2</v>
-      </c>
-      <c r="B38" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="67">
-        <f>Report!C70</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="I38" s="68">
-        <v>0.65</v>
-      </c>
-      <c r="J38" s="68">
-        <v>0.9</v>
-      </c>
-      <c r="K38" s="68">
-        <v>0.92</v>
-      </c>
-      <c r="L38" s="68">
-        <v>1</v>
-      </c>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68"/>
-      <c r="R38" s="68"/>
-      <c r="S38" s="68"/>
-      <c r="T38" s="68"/>
-      <c r="U38" s="68"/>
-      <c r="V38" s="68"/>
-      <c r="W38" s="68"/>
-      <c r="X38" s="68"/>
-      <c r="Y38" s="68"/>
-      <c r="Z38" s="68"/>
-      <c r="AA38" s="68"/>
-      <c r="AB38" s="68"/>
-      <c r="AC38" s="68"/>
-      <c r="AD38" s="68"/>
-      <c r="AE38" s="68"/>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A39" s="97" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.1.3</v>
-      </c>
-      <c r="B39" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" s="67">
-        <f>Report!C52</f>
-        <v>22.5</v>
-      </c>
-      <c r="D39" s="68"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="I39" s="68">
-        <v>0.52</v>
-      </c>
-      <c r="J39" s="68">
-        <v>0.74</v>
-      </c>
-      <c r="K39" s="68">
-        <v>0.84</v>
-      </c>
-      <c r="L39" s="68">
-        <v>0.9</v>
-      </c>
-      <c r="M39" s="68">
-        <v>1</v>
-      </c>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
-      <c r="P39" s="68"/>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="68"/>
-      <c r="U39" s="68"/>
-      <c r="V39" s="68"/>
-      <c r="W39" s="68"/>
-      <c r="X39" s="68"/>
-      <c r="Y39" s="68"/>
-      <c r="Z39" s="68"/>
-      <c r="AA39" s="68"/>
-      <c r="AB39" s="68"/>
-      <c r="AC39" s="68"/>
-      <c r="AD39" s="68"/>
-      <c r="AE39" s="68"/>
-    </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A40" s="95" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.2</v>
-      </c>
-      <c r="B40" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="C40" s="91">
-        <f>Report!C53</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
-      <c r="P40" s="92"/>
-      <c r="Q40" s="92"/>
-      <c r="R40" s="92"/>
-      <c r="S40" s="92"/>
-      <c r="T40" s="92"/>
-      <c r="U40" s="92"/>
-      <c r="V40" s="92"/>
-      <c r="W40" s="92"/>
-      <c r="X40" s="92"/>
-      <c r="Y40" s="92"/>
-      <c r="Z40" s="92"/>
-      <c r="AA40" s="92"/>
-      <c r="AB40" s="92"/>
-      <c r="AC40" s="92"/>
-      <c r="AD40" s="92"/>
-      <c r="AE40" s="92"/>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A41" s="97" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.2.1</v>
-      </c>
-      <c r="B41" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="C41" s="67">
-        <f>Report!C54</f>
-        <v>33.5</v>
-      </c>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="I41" s="68">
-        <v>0.6</v>
-      </c>
-      <c r="J41" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="K41" s="68">
-        <v>1</v>
-      </c>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="68"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="68"/>
-      <c r="X41" s="68"/>
-      <c r="Y41" s="68"/>
-      <c r="Z41" s="68"/>
-      <c r="AA41" s="68"/>
-      <c r="AB41" s="68"/>
-      <c r="AC41" s="68"/>
-      <c r="AD41" s="68"/>
-      <c r="AE41" s="68"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A42" s="97" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.2.2</v>
-      </c>
-      <c r="B42" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C42" s="67">
-        <f>Report!C55</f>
-        <v>35.5</v>
-      </c>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68">
-        <v>0.21</v>
-      </c>
-      <c r="I42" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="J42" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="K42" s="68">
-        <v>0.85</v>
-      </c>
-      <c r="L42" s="68">
-        <v>0.9</v>
-      </c>
-      <c r="M42" s="68">
-        <v>1</v>
-      </c>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="68"/>
-      <c r="R42" s="68"/>
-      <c r="S42" s="68"/>
-      <c r="T42" s="68"/>
-      <c r="U42" s="68"/>
-      <c r="V42" s="68"/>
-      <c r="W42" s="68"/>
-      <c r="X42" s="68"/>
-      <c r="Y42" s="68"/>
-      <c r="Z42" s="68"/>
-      <c r="AA42" s="68"/>
-      <c r="AB42" s="68"/>
-      <c r="AC42" s="68"/>
-      <c r="AD42" s="68"/>
-      <c r="AE42" s="68"/>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A43" s="97" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>2.2.3</v>
-      </c>
-      <c r="B43" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="67">
-        <f>Report!C56</f>
-        <v>38</v>
-      </c>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
-      <c r="H43" s="68">
-        <v>0.08</v>
-      </c>
-      <c r="I43" s="68">
-        <v>0.2</v>
-      </c>
-      <c r="J43" s="68">
-        <v>0.42</v>
-      </c>
-      <c r="K43" s="68">
-        <v>0.6</v>
-      </c>
-      <c r="L43" s="68">
-        <v>0.84</v>
-      </c>
-      <c r="M43" s="68">
-        <v>0.9</v>
-      </c>
-      <c r="N43" s="68">
-        <v>0.95</v>
-      </c>
-      <c r="O43" s="68">
-        <v>1</v>
-      </c>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="68"/>
-      <c r="S43" s="68"/>
-      <c r="T43" s="68"/>
-      <c r="U43" s="68"/>
-      <c r="V43" s="68"/>
-      <c r="W43" s="68"/>
-      <c r="X43" s="68"/>
-      <c r="Y43" s="68"/>
-      <c r="Z43" s="68"/>
-      <c r="AA43" s="68"/>
-      <c r="AB43" s="68"/>
-      <c r="AC43" s="68"/>
-      <c r="AD43" s="68"/>
-      <c r="AE43" s="68"/>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A44" s="95" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.3</v>
-      </c>
-      <c r="B44" s="96" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="91">
-        <f>Report!C57</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="92"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="92"/>
-      <c r="P44" s="92"/>
-      <c r="Q44" s="92"/>
-      <c r="R44" s="92"/>
-      <c r="S44" s="92"/>
-      <c r="T44" s="92"/>
-      <c r="U44" s="92"/>
-      <c r="V44" s="92"/>
-      <c r="W44" s="92"/>
-      <c r="X44" s="92"/>
-      <c r="Y44" s="92"/>
-      <c r="Z44" s="92"/>
-      <c r="AA44" s="92"/>
-      <c r="AB44" s="92"/>
-      <c r="AC44" s="92"/>
-      <c r="AD44" s="92"/>
-      <c r="AE44" s="92"/>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A45" s="95" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>2.4</v>
-      </c>
-      <c r="B45" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="91">
-        <f>Report!C58</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="92"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="92"/>
-      <c r="G45" s="92"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="92"/>
-      <c r="K45" s="92"/>
-      <c r="L45" s="92"/>
-      <c r="M45" s="92"/>
-      <c r="N45" s="92"/>
-      <c r="O45" s="92"/>
-      <c r="P45" s="92"/>
-      <c r="Q45" s="92"/>
-      <c r="R45" s="92"/>
-      <c r="S45" s="92"/>
-      <c r="T45" s="92"/>
-      <c r="U45" s="92"/>
-      <c r="V45" s="92"/>
-      <c r="W45" s="92"/>
-      <c r="X45" s="92"/>
-      <c r="Y45" s="92"/>
-      <c r="Z45" s="92"/>
-      <c r="AA45" s="92"/>
-      <c r="AB45" s="92"/>
-      <c r="AC45" s="92"/>
-      <c r="AD45" s="92"/>
-      <c r="AE45" s="92"/>
-    </row>
-    <row r="46" spans="1:31" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="93" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
-        <v>3</v>
-      </c>
-      <c r="B46" s="94" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="91">
-        <f>Report!C59</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="92"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="92"/>
-      <c r="G46" s="92"/>
-      <c r="H46" s="92"/>
-      <c r="I46" s="92"/>
-      <c r="J46" s="92"/>
-      <c r="K46" s="92"/>
-      <c r="L46" s="92"/>
-      <c r="M46" s="92"/>
-      <c r="N46" s="92"/>
-      <c r="O46" s="92"/>
-      <c r="P46" s="92"/>
-      <c r="Q46" s="92"/>
-      <c r="R46" s="92"/>
-      <c r="S46" s="92"/>
-      <c r="T46" s="92"/>
-      <c r="U46" s="92"/>
-      <c r="V46" s="92"/>
-      <c r="W46" s="92"/>
-      <c r="X46" s="92"/>
-      <c r="Y46" s="92"/>
-      <c r="Z46" s="92"/>
-      <c r="AA46" s="92"/>
-      <c r="AB46" s="92"/>
-      <c r="AC46" s="92"/>
-      <c r="AD46" s="92"/>
-      <c r="AE46" s="92"/>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A47" s="107" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
-        <v>3.1</v>
-      </c>
-      <c r="B47" s="104" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="67">
-        <f>Report!C60</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="92"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="92"/>
-      <c r="P47" s="92"/>
-      <c r="Q47" s="92"/>
-      <c r="R47" s="92"/>
-      <c r="S47" s="92"/>
-      <c r="T47" s="92"/>
-      <c r="U47" s="92"/>
-      <c r="V47" s="92"/>
-      <c r="W47" s="92"/>
-      <c r="X47" s="92"/>
-      <c r="Y47" s="92"/>
-      <c r="Z47" s="92"/>
-      <c r="AA47" s="92"/>
-      <c r="AB47" s="92"/>
-      <c r="AC47" s="92"/>
-      <c r="AD47" s="92"/>
-      <c r="AE47" s="92"/>
-    </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A48" s="108" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
-        <v>3.1.1</v>
-      </c>
-      <c r="B48" s="105" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="67">
-        <f>Report!C61</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
-      <c r="K48" s="92"/>
-      <c r="L48" s="92"/>
-      <c r="M48" s="92"/>
-      <c r="N48" s="92"/>
-      <c r="O48" s="92"/>
-      <c r="P48" s="92"/>
-      <c r="Q48" s="92"/>
-      <c r="R48" s="92"/>
-      <c r="S48" s="92"/>
-      <c r="T48" s="92"/>
-      <c r="U48" s="92"/>
-      <c r="V48" s="92"/>
-      <c r="W48" s="92"/>
-      <c r="X48" s="92"/>
-      <c r="Y48" s="92"/>
-      <c r="Z48" s="92"/>
-      <c r="AA48" s="92"/>
-      <c r="AB48" s="92"/>
-      <c r="AC48" s="92"/>
-      <c r="AD48" s="92"/>
-      <c r="AE48" s="92"/>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A49" s="107" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>3.1.1.1</v>
-      </c>
-      <c r="B49" s="106" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="67">
-        <f>Report!C62</f>
-        <v>38.5</v>
-      </c>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="68"/>
-      <c r="I49" s="68"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="68">
-        <v>0.1</v>
-      </c>
-      <c r="L49" s="68">
-        <v>0.6</v>
-      </c>
-      <c r="M49" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="N49" s="68">
-        <v>0.82</v>
-      </c>
-      <c r="O49" s="68">
-        <v>0.9</v>
-      </c>
-      <c r="P49" s="68"/>
-      <c r="Q49" s="68"/>
-      <c r="R49" s="68"/>
-      <c r="S49" s="68"/>
-      <c r="T49" s="68"/>
-      <c r="U49" s="68"/>
-      <c r="V49" s="68"/>
-      <c r="W49" s="68"/>
-      <c r="X49" s="68"/>
-      <c r="Y49" s="68"/>
-      <c r="Z49" s="68"/>
-      <c r="AA49" s="68"/>
-      <c r="AB49" s="68"/>
-      <c r="AC49" s="68"/>
-      <c r="AD49" s="68"/>
-      <c r="AE49" s="68"/>
-    </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A50" s="107" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>3.1.1.2</v>
-      </c>
-      <c r="B50" s="106" t="s">
-        <v>97</v>
-      </c>
-      <c r="C50" s="67">
-        <f>Report!C63</f>
-        <v>38.5</v>
-      </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68">
-        <v>0.25</v>
-      </c>
-      <c r="L50" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="M50" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="N50" s="68">
-        <v>0.8</v>
-      </c>
-      <c r="O50" s="68">
-        <v>0.95</v>
-      </c>
-      <c r="P50" s="68"/>
-      <c r="Q50" s="68"/>
-      <c r="R50" s="68"/>
-      <c r="S50" s="68"/>
-      <c r="T50" s="68"/>
-      <c r="U50" s="68"/>
-      <c r="V50" s="68"/>
-      <c r="W50" s="68"/>
-      <c r="X50" s="68"/>
-      <c r="Y50" s="68"/>
-      <c r="Z50" s="68"/>
-      <c r="AA50" s="68"/>
-      <c r="AB50" s="68"/>
-      <c r="AC50" s="68"/>
-      <c r="AD50" s="68"/>
-      <c r="AE50" s="68"/>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A51" s="107" t="str">
-        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
-        <v>3.1.1.3</v>
-      </c>
-      <c r="B51" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="C51" s="67">
-        <f>Report!C64</f>
-        <v>38.5</v>
-      </c>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="68"/>
-      <c r="I51" s="68"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="68">
-        <v>0.4</v>
-      </c>
-      <c r="L51" s="68">
-        <v>0.45</v>
-      </c>
-      <c r="M51" s="68">
-        <v>0.7</v>
-      </c>
-      <c r="N51" s="68">
-        <v>0.85</v>
-      </c>
-      <c r="O51" s="68">
-        <v>0.92</v>
-      </c>
-      <c r="P51" s="68"/>
-      <c r="Q51" s="68"/>
-      <c r="R51" s="68"/>
-      <c r="S51" s="68"/>
-      <c r="T51" s="68"/>
-      <c r="U51" s="68"/>
-      <c r="V51" s="68"/>
-      <c r="W51" s="68"/>
-      <c r="X51" s="68"/>
-      <c r="Y51" s="68"/>
-      <c r="Z51" s="68"/>
-      <c r="AA51" s="68"/>
-      <c r="AB51" s="68"/>
-      <c r="AC51" s="68"/>
-      <c r="AD51" s="68"/>
-      <c r="AE51" s="68"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A52" s="98"/>
-      <c r="B52" s="99"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="68"/>
-      <c r="N52" s="68"/>
-      <c r="O52" s="68"/>
-      <c r="P52" s="68"/>
-      <c r="Q52" s="68"/>
-      <c r="R52" s="68"/>
-      <c r="S52" s="68"/>
-      <c r="T52" s="68"/>
-      <c r="U52" s="68"/>
-      <c r="V52" s="68"/>
-      <c r="W52" s="68"/>
-      <c r="X52" s="68"/>
-      <c r="Y52" s="68"/>
-      <c r="Z52" s="68"/>
-      <c r="AA52" s="68"/>
-      <c r="AB52" s="68"/>
-      <c r="AC52" s="68"/>
-      <c r="AD52" s="68"/>
-      <c r="AE52" s="68"/>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A53" s="98"/>
-      <c r="B53" s="99"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="68"/>
-      <c r="I53" s="68"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="68"/>
-      <c r="L53" s="68"/>
-      <c r="M53" s="68"/>
-      <c r="N53" s="68"/>
-      <c r="O53" s="68"/>
-      <c r="P53" s="68"/>
-      <c r="Q53" s="68"/>
-      <c r="R53" s="68"/>
-      <c r="S53" s="68"/>
-      <c r="T53" s="68"/>
-      <c r="U53" s="68"/>
-      <c r="V53" s="68"/>
-      <c r="W53" s="68"/>
-      <c r="X53" s="68"/>
-      <c r="Y53" s="68"/>
-      <c r="Z53" s="68"/>
-      <c r="AA53" s="68"/>
-      <c r="AB53" s="68"/>
-      <c r="AC53" s="68"/>
-      <c r="AD53" s="68"/>
-      <c r="AE53" s="68"/>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A54" s="98"/>
-      <c r="B54" s="99"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="68"/>
-      <c r="N54" s="68"/>
-      <c r="O54" s="68"/>
-      <c r="P54" s="68"/>
-      <c r="Q54" s="68"/>
-      <c r="R54" s="68"/>
-      <c r="S54" s="68"/>
-      <c r="T54" s="68"/>
-      <c r="U54" s="68"/>
-      <c r="V54" s="68"/>
-      <c r="W54" s="68"/>
-      <c r="X54" s="68"/>
-      <c r="Y54" s="68"/>
-      <c r="Z54" s="68"/>
-      <c r="AA54" s="68"/>
-      <c r="AB54" s="68"/>
-      <c r="AC54" s="68"/>
-      <c r="AD54" s="68"/>
-      <c r="AE54" s="68"/>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A55" s="98"/>
-      <c r="B55" s="99"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="68"/>
-      <c r="I55" s="68"/>
-      <c r="J55" s="68"/>
-      <c r="K55" s="68"/>
-      <c r="L55" s="68"/>
-      <c r="M55" s="68"/>
-      <c r="N55" s="68"/>
-      <c r="O55" s="68"/>
-      <c r="P55" s="68"/>
-      <c r="Q55" s="68"/>
-      <c r="R55" s="68"/>
-      <c r="S55" s="68"/>
-      <c r="T55" s="68"/>
-      <c r="U55" s="68"/>
-      <c r="V55" s="68"/>
-      <c r="W55" s="68"/>
-      <c r="X55" s="68"/>
-      <c r="Y55" s="68"/>
-      <c r="Z55" s="68"/>
-      <c r="AA55" s="68"/>
-      <c r="AB55" s="68"/>
-      <c r="AC55" s="68"/>
-      <c r="AD55" s="68"/>
-      <c r="AE55" s="68"/>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A56" s="98"/>
-      <c r="B56" s="99"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="68"/>
-      <c r="O56" s="68"/>
-      <c r="P56" s="68"/>
-      <c r="Q56" s="68"/>
-      <c r="R56" s="68"/>
-      <c r="S56" s="68"/>
-      <c r="T56" s="68"/>
-      <c r="U56" s="68"/>
-      <c r="V56" s="68"/>
-      <c r="W56" s="68"/>
-      <c r="X56" s="68"/>
-      <c r="Y56" s="68"/>
-      <c r="Z56" s="68"/>
-      <c r="AA56" s="68"/>
-      <c r="AB56" s="68"/>
-      <c r="AC56" s="68"/>
-      <c r="AD56" s="68"/>
-      <c r="AE56" s="68"/>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A57" s="98"/>
-      <c r="B57" s="99"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="68"/>
-      <c r="G57" s="68"/>
-      <c r="H57" s="68"/>
-      <c r="I57" s="68"/>
-      <c r="J57" s="68"/>
-      <c r="K57" s="68"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="68"/>
-      <c r="N57" s="68"/>
-      <c r="O57" s="68"/>
-      <c r="P57" s="68"/>
-      <c r="Q57" s="68"/>
-      <c r="R57" s="68"/>
-      <c r="S57" s="68"/>
-      <c r="T57" s="68"/>
-      <c r="U57" s="68"/>
-      <c r="V57" s="68"/>
-      <c r="W57" s="68"/>
-      <c r="X57" s="68"/>
-      <c r="Y57" s="68"/>
-      <c r="Z57" s="68"/>
-      <c r="AA57" s="68"/>
-      <c r="AB57" s="68"/>
-      <c r="AC57" s="68"/>
-      <c r="AD57" s="68"/>
-      <c r="AE57" s="68"/>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A58" s="98"/>
-      <c r="B58" s="99"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="68"/>
-      <c r="R58" s="68"/>
-      <c r="S58" s="68"/>
-      <c r="T58" s="68"/>
-      <c r="U58" s="68"/>
-      <c r="V58" s="68"/>
-      <c r="W58" s="68"/>
-      <c r="X58" s="68"/>
-      <c r="Y58" s="68"/>
-      <c r="Z58" s="68"/>
-      <c r="AA58" s="68"/>
-      <c r="AB58" s="68"/>
-      <c r="AC58" s="68"/>
-      <c r="AD58" s="68"/>
-      <c r="AE58" s="68"/>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A59" s="98"/>
-      <c r="B59" s="99"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="68"/>
-      <c r="G59" s="68"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="68"/>
-      <c r="J59" s="68"/>
-      <c r="K59" s="68"/>
-      <c r="L59" s="68"/>
-      <c r="M59" s="68"/>
-      <c r="N59" s="68"/>
-      <c r="O59" s="68"/>
-      <c r="P59" s="68"/>
-      <c r="Q59" s="68"/>
-      <c r="R59" s="68"/>
-      <c r="S59" s="68"/>
-      <c r="T59" s="68"/>
-      <c r="U59" s="68"/>
-      <c r="V59" s="68"/>
-      <c r="W59" s="68"/>
-      <c r="X59" s="68"/>
-      <c r="Y59" s="68"/>
-      <c r="Z59" s="68"/>
-      <c r="AA59" s="68"/>
-      <c r="AB59" s="68"/>
-      <c r="AC59" s="68"/>
-      <c r="AD59" s="68"/>
-      <c r="AE59" s="68"/>
-    </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A60" s="98"/>
-      <c r="B60" s="99"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="68"/>
-      <c r="U60" s="68"/>
-      <c r="V60" s="68"/>
-      <c r="W60" s="68"/>
-      <c r="X60" s="68"/>
-      <c r="Y60" s="68"/>
-      <c r="Z60" s="68"/>
-      <c r="AA60" s="68"/>
-      <c r="AB60" s="68"/>
-      <c r="AC60" s="68"/>
-      <c r="AD60" s="68"/>
-      <c r="AE60" s="68"/>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A61" s="60"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="68"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="68"/>
-      <c r="I61" s="68"/>
-      <c r="J61" s="68"/>
-      <c r="K61" s="68"/>
-      <c r="L61" s="68"/>
-      <c r="M61" s="68"/>
-      <c r="N61" s="68"/>
-      <c r="O61" s="68"/>
-      <c r="P61" s="68"/>
-      <c r="Q61" s="68"/>
-      <c r="R61" s="68"/>
-      <c r="S61" s="68"/>
-      <c r="T61" s="68"/>
-      <c r="U61" s="68"/>
-      <c r="V61" s="68"/>
-      <c r="W61" s="68"/>
-      <c r="X61" s="68"/>
-      <c r="Y61" s="68"/>
-      <c r="Z61" s="68"/>
-      <c r="AA61" s="68"/>
-      <c r="AB61" s="68"/>
-      <c r="AC61" s="68"/>
-      <c r="AD61" s="68"/>
-      <c r="AE61" s="68"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A62" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="56"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="62"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="62"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="62"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="62"/>
-      <c r="O62" s="62"/>
-      <c r="P62" s="62"/>
-      <c r="Q62" s="62"/>
-      <c r="R62" s="62"/>
-      <c r="S62" s="62"/>
-      <c r="T62" s="62"/>
-      <c r="U62" s="62"/>
-      <c r="V62" s="62"/>
-      <c r="W62" s="62"/>
-      <c r="X62" s="62"/>
-      <c r="Y62" s="62"/>
-      <c r="Z62" s="62"/>
-      <c r="AA62" s="62"/>
-      <c r="AB62" s="62"/>
-      <c r="AC62" s="62"/>
-      <c r="AD62" s="62"/>
-      <c r="AE62" s="62"/>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="C63" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="63">
-        <f t="shared" ref="D63:AE63" si="2">SUMPRODUCT(D9:D62,$C$9:$C$62)</f>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="E63" s="63">
-        <f t="shared" si="2"/>
-        <v>129.4</v>
-      </c>
-      <c r="F63" s="63">
-        <f t="shared" si="2"/>
-        <v>103.60000000000001</v>
-      </c>
-      <c r="G63" s="63">
-        <f t="shared" si="2"/>
-        <v>137.30000000000001</v>
-      </c>
-      <c r="H63" s="63">
-        <f t="shared" si="2"/>
-        <v>100.34500000000001</v>
-      </c>
-      <c r="I63" s="63">
-        <f t="shared" si="2"/>
-        <v>87.2</v>
-      </c>
-      <c r="J63" s="63">
-        <f t="shared" si="2"/>
-        <v>120.90999999999998</v>
-      </c>
-      <c r="K63" s="63">
-        <f t="shared" si="2"/>
-        <v>153.25</v>
-      </c>
-      <c r="L63" s="63">
-        <f t="shared" si="2"/>
-        <v>159.94499999999999</v>
-      </c>
-      <c r="M63" s="63">
-        <f t="shared" si="2"/>
-        <v>173.04999999999998</v>
-      </c>
-      <c r="N63" s="63">
-        <f t="shared" si="2"/>
-        <v>131.19499999999999</v>
-      </c>
-      <c r="O63" s="63">
-        <f t="shared" si="2"/>
-        <v>144.64499999999998</v>
-      </c>
-      <c r="P63" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R63" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S63" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T63" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U63" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V63" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W63" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X63" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y63" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z63" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA63" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB63" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AC63" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AD63" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AE63" s="63">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.25" header="0.5" footer="0.25"/>
-  <pageSetup scale="93" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AQ65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9581,18 +6892,14 @@
         <v>30</v>
       </c>
       <c r="C12" s="61">
+        <v>6</v>
+      </c>
+      <c r="D12" s="71">
         <v>12</v>
       </c>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61">
-        <v>10</v>
-      </c>
-      <c r="F12" s="61">
-        <v>12</v>
-      </c>
-      <c r="G12" s="61">
-        <v>9.5</v>
-      </c>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="61"/>
       <c r="I12" s="61"/>
       <c r="J12" s="61"/>
@@ -9626,9 +6933,11 @@
         <v>31</v>
       </c>
       <c r="C13" s="61">
-        <v>10.5</v>
-      </c>
-      <c r="D13" s="61"/>
+        <v>6</v>
+      </c>
+      <c r="D13" s="71">
+        <v>12</v>
+      </c>
       <c r="E13" s="61"/>
       <c r="F13" s="61"/>
       <c r="G13" s="61"/>
@@ -9666,17 +6975,11 @@
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="61">
-        <v>10.5</v>
-      </c>
-      <c r="E14" s="61">
-        <v>17</v>
-      </c>
-      <c r="F14" s="61">
-        <v>15</v>
-      </c>
-      <c r="G14" s="61">
-        <v>15.5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
       <c r="H14" s="61"/>
       <c r="I14" s="61"/>
       <c r="J14" s="61"/>
@@ -9710,10 +7013,10 @@
         <v>33</v>
       </c>
       <c r="C15" s="61"/>
-      <c r="D15" s="61">
-        <v>19</v>
-      </c>
-      <c r="E15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61">
+        <v>6.5</v>
+      </c>
       <c r="F15" s="61"/>
       <c r="G15" s="61"/>
       <c r="H15" s="61"/>
@@ -9749,10 +7052,10 @@
         <v>34</v>
       </c>
       <c r="C16" s="61"/>
-      <c r="D16" s="61">
-        <v>16.5</v>
-      </c>
-      <c r="E16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61">
+        <v>17.5</v>
+      </c>
       <c r="F16" s="61"/>
       <c r="G16" s="61"/>
       <c r="H16" s="61"/>
@@ -9790,7 +7093,7 @@
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
       <c r="E17" s="61">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F17" s="61"/>
       <c r="G17" s="61"/>
@@ -9829,20 +7132,12 @@
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
       <c r="E18" s="61">
-        <v>15.5</v>
-      </c>
-      <c r="F18" s="61">
-        <v>20</v>
-      </c>
-      <c r="G18" s="61">
-        <v>27</v>
-      </c>
-      <c r="H18" s="61">
-        <v>26</v>
-      </c>
-      <c r="I18" s="61">
-        <v>24</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
       <c r="J18" s="61"/>
       <c r="K18" s="61"/>
       <c r="L18" s="61"/>
@@ -9911,11 +7206,13 @@
         <v>38</v>
       </c>
       <c r="C20" s="61"/>
-      <c r="D20" s="61">
-        <v>19</v>
-      </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="61">
+        <v>10.5</v>
+      </c>
+      <c r="F20" s="61">
+        <v>5.5</v>
+      </c>
       <c r="G20" s="61"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
@@ -9950,11 +7247,13 @@
         <v>39</v>
       </c>
       <c r="C21" s="61"/>
-      <c r="D21" s="61">
-        <v>20.5</v>
-      </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61">
+        <v>5</v>
+      </c>
+      <c r="F21" s="61">
+        <v>5</v>
+      </c>
       <c r="G21" s="61"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
@@ -10028,7 +7327,7 @@
       <c r="C23" s="61"/>
       <c r="D23" s="61"/>
       <c r="E23" s="61">
-        <v>20.5</v>
+        <v>5</v>
       </c>
       <c r="F23" s="61"/>
       <c r="G23" s="61"/>
@@ -10067,7 +7366,7 @@
       <c r="C24" s="61"/>
       <c r="D24" s="61"/>
       <c r="E24" s="61">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F24" s="61"/>
       <c r="G24" s="61"/>
@@ -10143,7 +7442,7 @@
       <c r="C26" s="61"/>
       <c r="D26" s="61"/>
       <c r="E26" s="61">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
@@ -10218,10 +7517,10 @@
       </c>
       <c r="C28" s="61"/>
       <c r="D28" s="61"/>
-      <c r="E28" s="61">
-        <v>17.5</v>
-      </c>
-      <c r="F28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61">
+        <v>10</v>
+      </c>
       <c r="G28" s="61"/>
       <c r="H28" s="61"/>
       <c r="I28" s="61"/>
@@ -10257,10 +7556,10 @@
       </c>
       <c r="C29" s="61"/>
       <c r="D29" s="61"/>
-      <c r="E29" s="61">
-        <v>18</v>
-      </c>
-      <c r="F29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61">
+        <v>6.5</v>
+      </c>
       <c r="G29" s="61"/>
       <c r="H29" s="61"/>
       <c r="I29" s="61"/>
@@ -10334,7 +7633,7 @@
       <c r="C31" s="61"/>
       <c r="D31" s="61"/>
       <c r="E31" s="61">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="F31" s="61"/>
       <c r="G31" s="61"/>
@@ -10372,10 +7671,10 @@
       </c>
       <c r="C32" s="61"/>
       <c r="D32" s="61"/>
-      <c r="E32" s="61">
-        <v>29.5</v>
-      </c>
-      <c r="F32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61">
+        <v>5</v>
+      </c>
       <c r="G32" s="61"/>
       <c r="H32" s="61"/>
       <c r="I32" s="61"/>
@@ -10448,10 +7747,10 @@
       </c>
       <c r="C34" s="61"/>
       <c r="D34" s="61"/>
-      <c r="E34" s="61">
-        <v>16.5</v>
-      </c>
-      <c r="F34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61">
+        <v>5</v>
+      </c>
       <c r="G34" s="61"/>
       <c r="H34" s="61"/>
       <c r="I34" s="61"/>
@@ -10562,19 +7861,17 @@
       <c r="C37" s="61"/>
       <c r="D37" s="61"/>
       <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
+      <c r="F37" s="61">
+        <v>10</v>
+      </c>
       <c r="G37" s="61">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H37" s="61">
-        <v>31.5</v>
-      </c>
-      <c r="I37" s="61">
-        <v>40</v>
-      </c>
-      <c r="J37" s="61">
-        <v>42</v>
-      </c>
+        <v>26.5</v>
+      </c>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
       <c r="K37" s="61"/>
       <c r="L37" s="61"/>
       <c r="M37" s="61"/>
@@ -10609,17 +7906,13 @@
       <c r="E38" s="61"/>
       <c r="F38" s="61"/>
       <c r="G38" s="61">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="H38" s="61">
         <v>20.5</v>
       </c>
-      <c r="I38" s="61">
-        <v>36</v>
-      </c>
-      <c r="J38" s="61">
-        <v>42</v>
-      </c>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
       <c r="K38" s="61"/>
       <c r="L38" s="61"/>
       <c r="M38" s="61"/>
@@ -10654,20 +7947,14 @@
       <c r="E39" s="61"/>
       <c r="F39" s="61"/>
       <c r="G39" s="61">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H39" s="61">
-        <v>25</v>
-      </c>
-      <c r="I39" s="61">
-        <v>41</v>
-      </c>
-      <c r="J39" s="61">
-        <v>25</v>
-      </c>
-      <c r="K39" s="61">
-        <v>30</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
       <c r="L39" s="61"/>
       <c r="M39" s="61"/>
       <c r="N39" s="61"/>
@@ -10737,18 +8024,14 @@
       <c r="D41" s="61"/>
       <c r="E41" s="61"/>
       <c r="F41" s="61"/>
-      <c r="G41" s="61">
-        <v>30</v>
-      </c>
+      <c r="G41" s="61"/>
       <c r="H41" s="61">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I41" s="61">
-        <v>42</v>
-      </c>
-      <c r="J41" s="61">
-        <v>25</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="J41" s="61"/>
       <c r="K41" s="61"/>
       <c r="L41" s="61"/>
       <c r="M41" s="61"/>
@@ -10782,24 +8065,20 @@
       <c r="D42" s="61"/>
       <c r="E42" s="61"/>
       <c r="F42" s="61"/>
-      <c r="G42" s="61">
-        <v>20</v>
-      </c>
+      <c r="G42" s="61"/>
       <c r="H42" s="61">
-        <v>30</v>
+        <v>4.5</v>
       </c>
       <c r="I42" s="61">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J42" s="61">
-        <v>30</v>
+        <v>24.5</v>
       </c>
       <c r="K42" s="61">
-        <v>24</v>
-      </c>
-      <c r="L42" s="61">
-        <v>28</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="L42" s="61"/>
       <c r="M42" s="61"/>
       <c r="N42" s="61"/>
       <c r="O42" s="61"/>
@@ -10831,30 +8110,20 @@
       <c r="D43" s="61"/>
       <c r="E43" s="61"/>
       <c r="F43" s="61"/>
-      <c r="G43" s="61">
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61">
+        <v>34</v>
+      </c>
+      <c r="K43" s="61">
+        <v>30</v>
+      </c>
+      <c r="L43" s="61">
         <v>15</v>
       </c>
-      <c r="H43" s="61">
-        <v>24</v>
-      </c>
-      <c r="I43" s="61">
-        <v>30</v>
-      </c>
-      <c r="J43" s="61">
-        <v>27</v>
-      </c>
-      <c r="K43" s="61">
-        <v>50</v>
-      </c>
-      <c r="L43" s="61">
-        <v>24</v>
-      </c>
-      <c r="M43" s="61">
-        <v>38</v>
-      </c>
-      <c r="N43" s="61">
-        <v>42</v>
-      </c>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
       <c r="O43" s="61"/>
       <c r="P43" s="61"/>
       <c r="Q43" s="61"/>
@@ -10887,7 +8156,9 @@
       <c r="G44" s="61"/>
       <c r="H44" s="61"/>
       <c r="I44" s="61"/>
-      <c r="J44" s="61"/>
+      <c r="J44" s="61">
+        <v>5</v>
+      </c>
       <c r="K44" s="61"/>
       <c r="L44" s="61"/>
       <c r="M44" s="61"/>
@@ -10923,10 +8194,18 @@
       <c r="F45" s="61"/>
       <c r="G45" s="61"/>
       <c r="H45" s="61"/>
-      <c r="I45" s="61"/>
-      <c r="J45" s="61"/>
-      <c r="K45" s="61"/>
-      <c r="L45" s="61"/>
+      <c r="I45" s="61">
+        <v>55.5</v>
+      </c>
+      <c r="J45" s="61">
+        <v>44.5</v>
+      </c>
+      <c r="K45" s="61">
+        <v>61.5</v>
+      </c>
+      <c r="L45" s="61">
+        <v>59</v>
+      </c>
       <c r="M45" s="61"/>
       <c r="N45" s="61"/>
       <c r="O45" s="61"/>
@@ -11414,115 +8693,115 @@
       <c r="A59" s="27"/>
       <c r="B59" s="27"/>
       <c r="C59" s="63">
-        <f>SUM(C9:C58)</f>
-        <v>30.5</v>
+        <f t="shared" ref="C59:AD59" si="2">SUM(C9:C58)</f>
+        <v>20</v>
       </c>
       <c r="D59" s="63">
-        <f>SUM(D9:D58)</f>
-        <v>85.5</v>
+        <f t="shared" si="2"/>
+        <v>36</v>
       </c>
       <c r="E59" s="63">
-        <f>SUM(E9:E58)</f>
-        <v>211</v>
+        <f t="shared" si="2"/>
+        <v>99</v>
       </c>
       <c r="F59" s="63">
-        <f>SUM(F9:F58)</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="G59" s="63">
-        <f>SUM(G9:G58)</f>
-        <v>187</v>
+        <f t="shared" si="2"/>
+        <v>30</v>
       </c>
       <c r="H59" s="63">
-        <f>SUM(H9:H58)</f>
-        <v>197</v>
+        <f t="shared" si="2"/>
+        <v>88</v>
       </c>
       <c r="I59" s="63">
-        <f>SUM(I9:I58)</f>
-        <v>249</v>
+        <f t="shared" si="2"/>
+        <v>131.5</v>
       </c>
       <c r="J59" s="63">
-        <f>SUM(J9:J58)</f>
-        <v>191</v>
+        <f t="shared" si="2"/>
+        <v>108</v>
       </c>
       <c r="K59" s="63">
-        <f>SUM(K9:K58)</f>
-        <v>104</v>
+        <f t="shared" si="2"/>
+        <v>101.5</v>
       </c>
       <c r="L59" s="63">
-        <f>SUM(L9:L58)</f>
-        <v>52</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
       <c r="M59" s="63">
-        <f>SUM(M9:M58)</f>
-        <v>38</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="N59" s="63">
-        <f>SUM(N9:N58)</f>
-        <v>42</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="O59" s="63">
-        <f>SUM(O9:O58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P59" s="63">
-        <f>SUM(P9:P58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q59" s="63">
-        <f>SUM(Q9:Q58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R59" s="63">
-        <f>SUM(R9:R58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S59" s="63">
-        <f>SUM(S9:S58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T59" s="63">
-        <f>SUM(T9:T58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="U59" s="63">
-        <f>SUM(U9:U58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="V59" s="63">
-        <f>SUM(V9:V58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W59" s="63">
-        <f>SUM(W9:W58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="X59" s="63">
-        <f>SUM(X9:X58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y59" s="63">
-        <f>SUM(Y9:Y58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z59" s="63">
-        <f>SUM(Z9:Z58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA59" s="63">
-        <f>SUM(AA9:AA58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB59" s="63">
-        <f>SUM(AB9:AB58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC59" s="63">
-        <f>SUM(AC9:AC58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD59" s="63">
-        <f>SUM(AD9:AD58)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AE59" s="27"/>
@@ -11574,115 +8853,115 @@
       </c>
       <c r="C61" s="65">
         <f>SUM($C59:C59)</f>
-        <v>30.5</v>
+        <v>20</v>
       </c>
       <c r="D61" s="65">
         <f>SUM($C59:D59)</f>
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="E61" s="65">
         <f>SUM($C59:E59)</f>
-        <v>327</v>
+        <v>155</v>
       </c>
       <c r="F61" s="65">
         <f>SUM($C59:F59)</f>
-        <v>374</v>
+        <v>202</v>
       </c>
       <c r="G61" s="65">
         <f>SUM($C59:G59)</f>
-        <v>561</v>
+        <v>232</v>
       </c>
       <c r="H61" s="65">
         <f>SUM($C59:H59)</f>
-        <v>758</v>
+        <v>320</v>
       </c>
       <c r="I61" s="65">
         <f>SUM($C59:I59)</f>
-        <v>1007</v>
+        <v>451.5</v>
       </c>
       <c r="J61" s="65">
         <f>SUM($C59:J59)</f>
-        <v>1198</v>
+        <v>559.5</v>
       </c>
       <c r="K61" s="65">
         <f>SUM($C59:K59)</f>
-        <v>1302</v>
+        <v>661</v>
       </c>
       <c r="L61" s="65">
         <f>SUM($C59:L59)</f>
-        <v>1354</v>
+        <v>735</v>
       </c>
       <c r="M61" s="65">
         <f>SUM($C59:M59)</f>
-        <v>1392</v>
+        <v>735</v>
       </c>
       <c r="N61" s="65">
         <f>SUM($C59:N59)</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="O61" s="65">
         <f>SUM($C59:O59)</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="P61" s="65">
         <f>SUM($C59:P59)</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="Q61" s="65">
         <f>SUM($C59:Q59)</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="R61" s="65">
         <f>SUM($C59:R59)</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="S61" s="65">
         <f>SUM($C59:S59)</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="T61" s="65">
         <f>SUM($C59:T59)</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="U61" s="65">
         <f>SUM($C59:U59)</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="V61" s="65">
         <f>SUM($C59:V59)</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="W61" s="65">
         <f>SUM($C59:W59)</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="X61" s="65">
         <f>SUM($C59:X59)</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="Y61" s="65">
         <f>SUM($C59:Y59)</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="Z61" s="65">
         <f>SUM($C59:Z59)</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="AA61" s="65">
         <f>SUM($C59:AA59)</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="AB61" s="65">
         <f>SUM($C59:AB59)</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="AC61" s="65">
         <f>SUM($C59:AC59)</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
       <c r="AD61" s="65">
         <f>SUM($C59:AD59)</f>
-        <v>1434</v>
+        <v>735</v>
       </c>
     </row>
     <row r="62" spans="1:43" x14ac:dyDescent="0.2">
@@ -11794,6 +9073,2891 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AE63"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="45" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" style="27" customWidth="1"/>
+    <col min="4" max="31" width="8.7109375" style="27" customWidth="1"/>
+    <col min="32" max="16384" width="8.85546875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="112" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="Q3" s="52"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A4" s="30"/>
+      <c r="Q4" s="53"/>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="7" spans="1:31" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="O7" s="28"/>
+    </row>
+    <row r="8" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q8" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="R8" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="S8" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="T8" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="U8" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="V8" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="W8" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="X8" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y8" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z8" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA8" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB8" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC8" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD8" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE8" s="66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="93" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="91">
+        <f>Report!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AD9" s="92"/>
+      <c r="AE9" s="92"/>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A10" s="95" t="str">
+        <f t="shared" ref="A10:A33" si="0">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>1.1</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="91">
+        <f>Report!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92"/>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="92"/>
+      <c r="AB10" s="92"/>
+      <c r="AC10" s="92"/>
+      <c r="AD10" s="92"/>
+      <c r="AE10" s="92"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A11" s="97" t="str">
+        <f t="shared" ref="A11:A18" si="1">IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.1.1</v>
+      </c>
+      <c r="B11" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="67">
+        <f>Report!C24</f>
+        <v>12</v>
+      </c>
+      <c r="D11" s="68">
+        <v>1</v>
+      </c>
+      <c r="E11" s="68">
+        <v>1</v>
+      </c>
+      <c r="F11" s="68">
+        <v>1</v>
+      </c>
+      <c r="G11" s="68">
+        <v>1</v>
+      </c>
+      <c r="H11" s="68">
+        <v>1</v>
+      </c>
+      <c r="I11" s="68">
+        <v>1</v>
+      </c>
+      <c r="J11" s="68">
+        <v>1</v>
+      </c>
+      <c r="K11" s="68">
+        <v>1</v>
+      </c>
+      <c r="L11" s="68">
+        <v>1</v>
+      </c>
+      <c r="M11" s="68">
+        <v>1</v>
+      </c>
+      <c r="N11" s="68">
+        <v>1</v>
+      </c>
+      <c r="O11" s="68">
+        <v>1</v>
+      </c>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="68"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="69"/>
+      <c r="AE11" s="69"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A12" s="97" t="str">
+        <f t="shared" si="1"/>
+        <v>1.1.2</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="67">
+        <f>Report!C25</f>
+        <v>12</v>
+      </c>
+      <c r="D12" s="68">
+        <v>0.9</v>
+      </c>
+      <c r="E12" s="68">
+        <v>1</v>
+      </c>
+      <c r="F12" s="68">
+        <v>1</v>
+      </c>
+      <c r="G12" s="68">
+        <v>1</v>
+      </c>
+      <c r="H12" s="68">
+        <v>1</v>
+      </c>
+      <c r="I12" s="68">
+        <v>1</v>
+      </c>
+      <c r="J12" s="68">
+        <v>1</v>
+      </c>
+      <c r="K12" s="68">
+        <v>1</v>
+      </c>
+      <c r="L12" s="68">
+        <v>1</v>
+      </c>
+      <c r="M12" s="68">
+        <v>1</v>
+      </c>
+      <c r="N12" s="68">
+        <v>1</v>
+      </c>
+      <c r="O12" s="68">
+        <v>1</v>
+      </c>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="68"/>
+      <c r="AD12" s="68"/>
+      <c r="AE12" s="68"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A13" s="97" t="str">
+        <f t="shared" si="1"/>
+        <v>1.1.3</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="67">
+        <f>Report!C26</f>
+        <v>11</v>
+      </c>
+      <c r="D13" s="68">
+        <v>1</v>
+      </c>
+      <c r="E13" s="68">
+        <v>1</v>
+      </c>
+      <c r="F13" s="68">
+        <v>1</v>
+      </c>
+      <c r="G13" s="68">
+        <v>1</v>
+      </c>
+      <c r="H13" s="68">
+        <v>1</v>
+      </c>
+      <c r="I13" s="68">
+        <v>1</v>
+      </c>
+      <c r="J13" s="68">
+        <v>1</v>
+      </c>
+      <c r="K13" s="68">
+        <v>1</v>
+      </c>
+      <c r="L13" s="68">
+        <v>1</v>
+      </c>
+      <c r="M13" s="68">
+        <v>1</v>
+      </c>
+      <c r="N13" s="68">
+        <v>1</v>
+      </c>
+      <c r="O13" s="68">
+        <v>1</v>
+      </c>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A14" s="97" t="str">
+        <f t="shared" si="1"/>
+        <v>1.1.4</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="67">
+        <f>Report!C27</f>
+        <v>11</v>
+      </c>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68">
+        <v>1</v>
+      </c>
+      <c r="F14" s="68">
+        <v>1</v>
+      </c>
+      <c r="G14" s="68">
+        <v>1</v>
+      </c>
+      <c r="H14" s="68">
+        <v>1</v>
+      </c>
+      <c r="I14" s="68">
+        <v>1</v>
+      </c>
+      <c r="J14" s="68">
+        <v>1</v>
+      </c>
+      <c r="K14" s="68">
+        <v>1</v>
+      </c>
+      <c r="L14" s="68">
+        <v>1</v>
+      </c>
+      <c r="M14" s="68">
+        <v>1</v>
+      </c>
+      <c r="N14" s="68">
+        <v>1</v>
+      </c>
+      <c r="O14" s="68">
+        <v>1</v>
+      </c>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A15" s="97" t="str">
+        <f t="shared" si="1"/>
+        <v>1.1.5</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="67">
+        <f>Report!C28</f>
+        <v>12</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68">
+        <v>1</v>
+      </c>
+      <c r="F15" s="68">
+        <v>1</v>
+      </c>
+      <c r="G15" s="68">
+        <v>1</v>
+      </c>
+      <c r="H15" s="68">
+        <v>1</v>
+      </c>
+      <c r="I15" s="68">
+        <v>1</v>
+      </c>
+      <c r="J15" s="68">
+        <v>1</v>
+      </c>
+      <c r="K15" s="68">
+        <v>1</v>
+      </c>
+      <c r="L15" s="68">
+        <v>1</v>
+      </c>
+      <c r="M15" s="68">
+        <v>1</v>
+      </c>
+      <c r="N15" s="68">
+        <v>1</v>
+      </c>
+      <c r="O15" s="68">
+        <v>1</v>
+      </c>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A16" s="97" t="str">
+        <f t="shared" si="1"/>
+        <v>1.1.6</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="67">
+        <f>Report!C29</f>
+        <v>10</v>
+      </c>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68">
+        <v>1</v>
+      </c>
+      <c r="F16" s="68">
+        <v>1</v>
+      </c>
+      <c r="G16" s="68">
+        <v>1</v>
+      </c>
+      <c r="H16" s="68">
+        <v>1</v>
+      </c>
+      <c r="I16" s="68">
+        <v>1</v>
+      </c>
+      <c r="J16" s="68">
+        <v>1</v>
+      </c>
+      <c r="K16" s="68">
+        <v>1</v>
+      </c>
+      <c r="L16" s="68">
+        <v>1</v>
+      </c>
+      <c r="M16" s="68">
+        <v>1</v>
+      </c>
+      <c r="N16" s="68">
+        <v>1</v>
+      </c>
+      <c r="O16" s="68">
+        <v>1</v>
+      </c>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="68"/>
+      <c r="S16" s="68"/>
+      <c r="T16" s="68"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="68"/>
+      <c r="AC16" s="68"/>
+      <c r="AD16" s="68"/>
+      <c r="AE16" s="68"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A17" s="97" t="str">
+        <f t="shared" si="1"/>
+        <v>1.1.7</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="67">
+        <f>Report!C30</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68">
+        <v>1</v>
+      </c>
+      <c r="F17" s="68">
+        <v>1</v>
+      </c>
+      <c r="G17" s="68">
+        <v>1</v>
+      </c>
+      <c r="H17" s="68">
+        <v>1</v>
+      </c>
+      <c r="I17" s="68">
+        <v>1</v>
+      </c>
+      <c r="J17" s="68">
+        <v>1</v>
+      </c>
+      <c r="K17" s="68">
+        <v>1</v>
+      </c>
+      <c r="L17" s="68">
+        <v>1</v>
+      </c>
+      <c r="M17" s="68">
+        <v>1</v>
+      </c>
+      <c r="N17" s="68">
+        <v>1</v>
+      </c>
+      <c r="O17" s="68">
+        <v>1</v>
+      </c>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="68"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A18" s="97" t="str">
+        <f t="shared" si="1"/>
+        <v>1.1.8</v>
+      </c>
+      <c r="B18" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="67">
+        <f>Report!C31</f>
+        <v>10</v>
+      </c>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68">
+        <v>1</v>
+      </c>
+      <c r="G18" s="68">
+        <v>1</v>
+      </c>
+      <c r="H18" s="68">
+        <v>1</v>
+      </c>
+      <c r="I18" s="68">
+        <v>1</v>
+      </c>
+      <c r="J18" s="68">
+        <v>1</v>
+      </c>
+      <c r="K18" s="68">
+        <v>1</v>
+      </c>
+      <c r="L18" s="68">
+        <v>1</v>
+      </c>
+      <c r="M18" s="68">
+        <v>1</v>
+      </c>
+      <c r="N18" s="68">
+        <v>1</v>
+      </c>
+      <c r="O18" s="68">
+        <v>1</v>
+      </c>
+      <c r="P18" s="68"/>
+      <c r="Q18" s="68"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="68"/>
+      <c r="T18" s="68"/>
+      <c r="U18" s="68"/>
+      <c r="V18" s="68"/>
+      <c r="W18" s="68"/>
+      <c r="X18" s="68"/>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="68"/>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="68"/>
+      <c r="AD18" s="68"/>
+      <c r="AE18" s="68"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A19" s="95" t="str">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="B19" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="91">
+        <f>Report!C32</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="92"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="92"/>
+      <c r="X19" s="92"/>
+      <c r="Y19" s="92"/>
+      <c r="Z19" s="92"/>
+      <c r="AA19" s="92"/>
+      <c r="AB19" s="92"/>
+      <c r="AC19" s="92"/>
+      <c r="AD19" s="92"/>
+      <c r="AE19" s="92"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A20" s="97" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.2.1</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="67">
+        <f>Report!C33</f>
+        <v>11</v>
+      </c>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68">
+        <v>1</v>
+      </c>
+      <c r="F20" s="68">
+        <v>1</v>
+      </c>
+      <c r="G20" s="68">
+        <v>1</v>
+      </c>
+      <c r="H20" s="68">
+        <v>1</v>
+      </c>
+      <c r="I20" s="68">
+        <v>1</v>
+      </c>
+      <c r="J20" s="68">
+        <v>1</v>
+      </c>
+      <c r="K20" s="68">
+        <v>1</v>
+      </c>
+      <c r="L20" s="68">
+        <v>1</v>
+      </c>
+      <c r="M20" s="68">
+        <v>1</v>
+      </c>
+      <c r="N20" s="68">
+        <v>1</v>
+      </c>
+      <c r="O20" s="68">
+        <v>1</v>
+      </c>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="68"/>
+      <c r="S20" s="68"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="68"/>
+      <c r="V20" s="68"/>
+      <c r="W20" s="68"/>
+      <c r="X20" s="68"/>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="68"/>
+      <c r="AB20" s="68"/>
+      <c r="AC20" s="68"/>
+      <c r="AD20" s="68"/>
+      <c r="AE20" s="68"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A21" s="97" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.2.2</v>
+      </c>
+      <c r="B21" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="67">
+        <f>Report!C34</f>
+        <v>11</v>
+      </c>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68">
+        <v>1</v>
+      </c>
+      <c r="F21" s="68">
+        <v>1</v>
+      </c>
+      <c r="G21" s="68">
+        <v>1</v>
+      </c>
+      <c r="H21" s="68">
+        <v>1</v>
+      </c>
+      <c r="I21" s="68">
+        <v>1</v>
+      </c>
+      <c r="J21" s="68">
+        <v>1</v>
+      </c>
+      <c r="K21" s="68">
+        <v>1</v>
+      </c>
+      <c r="L21" s="68">
+        <v>1</v>
+      </c>
+      <c r="M21" s="68">
+        <v>1</v>
+      </c>
+      <c r="N21" s="68">
+        <v>1</v>
+      </c>
+      <c r="O21" s="68">
+        <v>1</v>
+      </c>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="68"/>
+      <c r="R21" s="68"/>
+      <c r="S21" s="68"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="68"/>
+      <c r="V21" s="68"/>
+      <c r="W21" s="68"/>
+      <c r="X21" s="68"/>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="68"/>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="68"/>
+      <c r="AD21" s="68"/>
+      <c r="AE21" s="68"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A22" s="95" t="str">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="B22" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="91">
+        <f>Report!C35</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="92"/>
+      <c r="Q22" s="92"/>
+      <c r="R22" s="92"/>
+      <c r="S22" s="92"/>
+      <c r="T22" s="92"/>
+      <c r="U22" s="92"/>
+      <c r="V22" s="92"/>
+      <c r="W22" s="92"/>
+      <c r="X22" s="92"/>
+      <c r="Y22" s="92"/>
+      <c r="Z22" s="92"/>
+      <c r="AA22" s="92"/>
+      <c r="AB22" s="92"/>
+      <c r="AC22" s="92"/>
+      <c r="AD22" s="92"/>
+      <c r="AE22" s="92"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A23" s="97" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.3.1</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="67">
+        <f>Report!C36</f>
+        <v>6</v>
+      </c>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68">
+        <v>1</v>
+      </c>
+      <c r="G23" s="68">
+        <v>1</v>
+      </c>
+      <c r="H23" s="68">
+        <v>1</v>
+      </c>
+      <c r="I23" s="68">
+        <v>1</v>
+      </c>
+      <c r="J23" s="68">
+        <v>1</v>
+      </c>
+      <c r="K23" s="68">
+        <v>1</v>
+      </c>
+      <c r="L23" s="68">
+        <v>1</v>
+      </c>
+      <c r="M23" s="68">
+        <v>1</v>
+      </c>
+      <c r="N23" s="68">
+        <v>1</v>
+      </c>
+      <c r="O23" s="68">
+        <v>1</v>
+      </c>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+      <c r="V23" s="68"/>
+      <c r="W23" s="68"/>
+      <c r="X23" s="68"/>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="68"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="68"/>
+      <c r="AE23" s="68"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A24" s="97" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.3.2</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="67">
+        <f>Report!C37</f>
+        <v>6</v>
+      </c>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68">
+        <v>1</v>
+      </c>
+      <c r="G24" s="68">
+        <v>1</v>
+      </c>
+      <c r="H24" s="68">
+        <v>1</v>
+      </c>
+      <c r="I24" s="68">
+        <v>1</v>
+      </c>
+      <c r="J24" s="68">
+        <v>1</v>
+      </c>
+      <c r="K24" s="68">
+        <v>1</v>
+      </c>
+      <c r="L24" s="68">
+        <v>1</v>
+      </c>
+      <c r="M24" s="68">
+        <v>1</v>
+      </c>
+      <c r="N24" s="68">
+        <v>1</v>
+      </c>
+      <c r="O24" s="68">
+        <v>1</v>
+      </c>
+      <c r="P24" s="68"/>
+      <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
+      <c r="S24" s="68"/>
+      <c r="T24" s="68"/>
+      <c r="U24" s="68"/>
+      <c r="V24" s="68"/>
+      <c r="W24" s="68"/>
+      <c r="X24" s="68"/>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="68"/>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="68"/>
+      <c r="AE24" s="68"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A25" s="95" t="str">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="B25" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="91">
+        <f>Report!C38</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="92"/>
+      <c r="Q25" s="92"/>
+      <c r="R25" s="92"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
+      <c r="V25" s="92"/>
+      <c r="W25" s="92"/>
+      <c r="X25" s="92"/>
+      <c r="Y25" s="92"/>
+      <c r="Z25" s="92"/>
+      <c r="AA25" s="92"/>
+      <c r="AB25" s="92"/>
+      <c r="AC25" s="92"/>
+      <c r="AD25" s="92"/>
+      <c r="AE25" s="92"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A26" s="97" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.4.1</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="67">
+        <f>Report!C39</f>
+        <v>12</v>
+      </c>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68">
+        <v>1</v>
+      </c>
+      <c r="G26" s="68">
+        <v>1</v>
+      </c>
+      <c r="H26" s="68">
+        <v>1</v>
+      </c>
+      <c r="I26" s="68">
+        <v>1</v>
+      </c>
+      <c r="J26" s="68">
+        <v>1</v>
+      </c>
+      <c r="K26" s="68">
+        <v>1</v>
+      </c>
+      <c r="L26" s="68">
+        <v>1</v>
+      </c>
+      <c r="M26" s="68">
+        <v>1</v>
+      </c>
+      <c r="N26" s="68">
+        <v>1</v>
+      </c>
+      <c r="O26" s="68">
+        <v>1</v>
+      </c>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="68"/>
+      <c r="W26" s="68"/>
+      <c r="X26" s="68"/>
+      <c r="Y26" s="68"/>
+      <c r="Z26" s="68"/>
+      <c r="AA26" s="68"/>
+      <c r="AB26" s="68"/>
+      <c r="AC26" s="68"/>
+      <c r="AD26" s="68"/>
+      <c r="AE26" s="68"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A27" s="95" t="str">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="B27" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="91">
+        <f>Report!C40</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="R27" s="92"/>
+      <c r="S27" s="92"/>
+      <c r="T27" s="92"/>
+      <c r="U27" s="92"/>
+      <c r="V27" s="92"/>
+      <c r="W27" s="92"/>
+      <c r="X27" s="92"/>
+      <c r="Y27" s="92"/>
+      <c r="Z27" s="92"/>
+      <c r="AA27" s="92"/>
+      <c r="AB27" s="92"/>
+      <c r="AC27" s="92"/>
+      <c r="AD27" s="92"/>
+      <c r="AE27" s="92"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A28" s="97" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.5.1</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="67">
+        <f>Report!C41</f>
+        <v>6</v>
+      </c>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68">
+        <v>1</v>
+      </c>
+      <c r="H28" s="68">
+        <v>1</v>
+      </c>
+      <c r="I28" s="68">
+        <v>1</v>
+      </c>
+      <c r="J28" s="68">
+        <v>1</v>
+      </c>
+      <c r="K28" s="68">
+        <v>1</v>
+      </c>
+      <c r="L28" s="68">
+        <v>1</v>
+      </c>
+      <c r="M28" s="68">
+        <v>1</v>
+      </c>
+      <c r="N28" s="68">
+        <v>1</v>
+      </c>
+      <c r="O28" s="68">
+        <v>1</v>
+      </c>
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="68"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="68"/>
+      <c r="Y28" s="68"/>
+      <c r="Z28" s="68"/>
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="68"/>
+      <c r="AC28" s="68"/>
+      <c r="AD28" s="68"/>
+      <c r="AE28" s="68"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A29" s="97" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.5.2</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="67">
+        <f>Report!C42</f>
+        <v>6</v>
+      </c>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68">
+        <v>1</v>
+      </c>
+      <c r="H29" s="68">
+        <v>1</v>
+      </c>
+      <c r="I29" s="68">
+        <v>1</v>
+      </c>
+      <c r="J29" s="68">
+        <v>1</v>
+      </c>
+      <c r="K29" s="68">
+        <v>1</v>
+      </c>
+      <c r="L29" s="68">
+        <v>1</v>
+      </c>
+      <c r="M29" s="68">
+        <v>1</v>
+      </c>
+      <c r="N29" s="68">
+        <v>1</v>
+      </c>
+      <c r="O29" s="68">
+        <v>1</v>
+      </c>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="68"/>
+      <c r="X29" s="68"/>
+      <c r="Y29" s="68"/>
+      <c r="Z29" s="68"/>
+      <c r="AA29" s="68"/>
+      <c r="AB29" s="68"/>
+      <c r="AC29" s="68"/>
+      <c r="AD29" s="68"/>
+      <c r="AE29" s="68"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A30" s="95" t="str">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="B30" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="91">
+        <f>Report!C43</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="92"/>
+      <c r="Q30" s="92"/>
+      <c r="R30" s="92"/>
+      <c r="S30" s="92"/>
+      <c r="T30" s="92"/>
+      <c r="U30" s="92"/>
+      <c r="V30" s="92"/>
+      <c r="W30" s="92"/>
+      <c r="X30" s="92"/>
+      <c r="Y30" s="92"/>
+      <c r="Z30" s="92"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="92"/>
+      <c r="AC30" s="92"/>
+      <c r="AD30" s="92"/>
+      <c r="AE30" s="92"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A31" s="97" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.6.1</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="67">
+        <f>Report!C44</f>
+        <v>6</v>
+      </c>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68">
+        <v>1</v>
+      </c>
+      <c r="H31" s="68">
+        <v>1</v>
+      </c>
+      <c r="I31" s="68">
+        <v>1</v>
+      </c>
+      <c r="J31" s="68">
+        <v>1</v>
+      </c>
+      <c r="K31" s="68">
+        <v>1</v>
+      </c>
+      <c r="L31" s="68">
+        <v>1</v>
+      </c>
+      <c r="M31" s="68">
+        <v>1</v>
+      </c>
+      <c r="N31" s="68">
+        <v>1</v>
+      </c>
+      <c r="O31" s="68">
+        <v>1</v>
+      </c>
+      <c r="P31" s="68"/>
+      <c r="Q31" s="68"/>
+      <c r="R31" s="68"/>
+      <c r="S31" s="68"/>
+      <c r="T31" s="68"/>
+      <c r="U31" s="68"/>
+      <c r="V31" s="68"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="68"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="68"/>
+      <c r="AA31" s="68"/>
+      <c r="AB31" s="68"/>
+      <c r="AC31" s="68"/>
+      <c r="AD31" s="68"/>
+      <c r="AE31" s="68"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A32" s="97" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.6.2</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="67">
+        <f>Report!C45</f>
+        <v>6</v>
+      </c>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68">
+        <v>1</v>
+      </c>
+      <c r="H32" s="68">
+        <v>1</v>
+      </c>
+      <c r="I32" s="68">
+        <v>1</v>
+      </c>
+      <c r="J32" s="68">
+        <v>1</v>
+      </c>
+      <c r="K32" s="68">
+        <v>1</v>
+      </c>
+      <c r="L32" s="68">
+        <v>1</v>
+      </c>
+      <c r="M32" s="68">
+        <v>1</v>
+      </c>
+      <c r="N32" s="68">
+        <v>1</v>
+      </c>
+      <c r="O32" s="68">
+        <v>1</v>
+      </c>
+      <c r="P32" s="68"/>
+      <c r="Q32" s="68"/>
+      <c r="R32" s="68"/>
+      <c r="S32" s="68"/>
+      <c r="T32" s="68"/>
+      <c r="U32" s="68"/>
+      <c r="V32" s="68"/>
+      <c r="W32" s="68"/>
+      <c r="X32" s="68"/>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="68"/>
+      <c r="AB32" s="68"/>
+      <c r="AC32" s="68"/>
+      <c r="AD32" s="68"/>
+      <c r="AE32" s="68"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A33" s="95" t="str">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="B33" s="96" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="91">
+        <f>Report!C46</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="92"/>
+      <c r="Q33" s="92"/>
+      <c r="R33" s="92"/>
+      <c r="S33" s="92"/>
+      <c r="T33" s="92"/>
+      <c r="U33" s="92"/>
+      <c r="V33" s="92"/>
+      <c r="W33" s="92"/>
+      <c r="X33" s="92"/>
+      <c r="Y33" s="92"/>
+      <c r="Z33" s="92"/>
+      <c r="AA33" s="92"/>
+      <c r="AB33" s="92"/>
+      <c r="AC33" s="92"/>
+      <c r="AD33" s="92"/>
+      <c r="AE33" s="92"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A34" s="97" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>1.7.1</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="67">
+        <f>Report!C47</f>
+        <v>7</v>
+      </c>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68">
+        <v>1</v>
+      </c>
+      <c r="H34" s="68">
+        <v>1</v>
+      </c>
+      <c r="I34" s="68">
+        <v>1</v>
+      </c>
+      <c r="J34" s="68">
+        <v>1</v>
+      </c>
+      <c r="K34" s="68">
+        <v>1</v>
+      </c>
+      <c r="L34" s="68">
+        <v>1</v>
+      </c>
+      <c r="M34" s="68">
+        <v>1</v>
+      </c>
+      <c r="N34" s="68">
+        <v>1</v>
+      </c>
+      <c r="O34" s="68">
+        <v>1</v>
+      </c>
+      <c r="P34" s="68"/>
+      <c r="Q34" s="68"/>
+      <c r="R34" s="68"/>
+      <c r="S34" s="68"/>
+      <c r="T34" s="68"/>
+      <c r="U34" s="68"/>
+      <c r="V34" s="68"/>
+      <c r="W34" s="68"/>
+      <c r="X34" s="68"/>
+      <c r="Y34" s="68"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="68"/>
+      <c r="AB34" s="68"/>
+      <c r="AC34" s="68"/>
+      <c r="AD34" s="68"/>
+      <c r="AE34" s="68"/>
+    </row>
+    <row r="35" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="93" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>2</v>
+      </c>
+      <c r="B35" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="91">
+        <f>Report!C48</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="92"/>
+      <c r="O35" s="92"/>
+      <c r="P35" s="92"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="92"/>
+      <c r="AB35" s="92"/>
+      <c r="AC35" s="92"/>
+      <c r="AD35" s="92"/>
+      <c r="AE35" s="92"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A36" s="95" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.1</v>
+      </c>
+      <c r="B36" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="91">
+        <f>Report!C49</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="92"/>
+      <c r="V36" s="92"/>
+      <c r="W36" s="92"/>
+      <c r="X36" s="92"/>
+      <c r="Y36" s="92"/>
+      <c r="Z36" s="92"/>
+      <c r="AA36" s="92"/>
+      <c r="AB36" s="92"/>
+      <c r="AC36" s="92"/>
+      <c r="AD36" s="92"/>
+      <c r="AE36" s="92"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A37" s="97" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.1.1</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="67">
+        <f>Report!C50</f>
+        <v>54</v>
+      </c>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="68">
+        <v>1</v>
+      </c>
+      <c r="J37" s="68">
+        <v>1</v>
+      </c>
+      <c r="K37" s="68">
+        <v>1</v>
+      </c>
+      <c r="L37" s="68">
+        <v>1</v>
+      </c>
+      <c r="M37" s="68">
+        <v>1</v>
+      </c>
+      <c r="N37" s="68">
+        <v>1</v>
+      </c>
+      <c r="O37" s="68">
+        <v>1</v>
+      </c>
+      <c r="P37" s="68"/>
+      <c r="Q37" s="68"/>
+      <c r="R37" s="68"/>
+      <c r="S37" s="68"/>
+      <c r="T37" s="68"/>
+      <c r="U37" s="68"/>
+      <c r="V37" s="68"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="68"/>
+      <c r="Y37" s="68"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="68"/>
+      <c r="AB37" s="68"/>
+      <c r="AC37" s="68"/>
+      <c r="AD37" s="68"/>
+      <c r="AE37" s="68"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A38" s="97" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.1.2</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="67">
+        <f>Report!C70</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="68">
+        <v>0.8</v>
+      </c>
+      <c r="I38" s="68">
+        <v>1</v>
+      </c>
+      <c r="J38" s="68">
+        <v>1</v>
+      </c>
+      <c r="K38" s="68">
+        <v>1</v>
+      </c>
+      <c r="L38" s="68">
+        <v>1</v>
+      </c>
+      <c r="M38" s="68">
+        <v>1</v>
+      </c>
+      <c r="N38" s="68">
+        <v>1</v>
+      </c>
+      <c r="O38" s="68">
+        <v>1</v>
+      </c>
+      <c r="P38" s="68"/>
+      <c r="Q38" s="68"/>
+      <c r="R38" s="68"/>
+      <c r="S38" s="68"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="68"/>
+      <c r="X38" s="68"/>
+      <c r="Y38" s="68"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="68"/>
+      <c r="AB38" s="68"/>
+      <c r="AC38" s="68"/>
+      <c r="AD38" s="68"/>
+      <c r="AE38" s="68"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A39" s="97" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.1.3</v>
+      </c>
+      <c r="B39" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="67">
+        <f>Report!C52</f>
+        <v>10</v>
+      </c>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="68">
+        <v>0.8</v>
+      </c>
+      <c r="I39" s="68">
+        <v>1</v>
+      </c>
+      <c r="J39" s="68">
+        <v>1</v>
+      </c>
+      <c r="K39" s="68">
+        <v>1</v>
+      </c>
+      <c r="L39" s="68">
+        <v>1</v>
+      </c>
+      <c r="M39" s="68">
+        <v>1</v>
+      </c>
+      <c r="N39" s="68">
+        <v>1</v>
+      </c>
+      <c r="O39" s="68">
+        <v>1</v>
+      </c>
+      <c r="P39" s="68"/>
+      <c r="Q39" s="68"/>
+      <c r="R39" s="68"/>
+      <c r="S39" s="68"/>
+      <c r="T39" s="68"/>
+      <c r="U39" s="68"/>
+      <c r="V39" s="68"/>
+      <c r="W39" s="68"/>
+      <c r="X39" s="68"/>
+      <c r="Y39" s="68"/>
+      <c r="Z39" s="68"/>
+      <c r="AA39" s="68"/>
+      <c r="AB39" s="68"/>
+      <c r="AC39" s="68"/>
+      <c r="AD39" s="68"/>
+      <c r="AE39" s="68"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A40" s="95" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.2</v>
+      </c>
+      <c r="B40" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="91">
+        <f>Report!C53</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="92"/>
+      <c r="M40" s="92"/>
+      <c r="N40" s="92"/>
+      <c r="O40" s="92"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="92"/>
+      <c r="S40" s="92"/>
+      <c r="T40" s="92"/>
+      <c r="U40" s="92"/>
+      <c r="V40" s="92"/>
+      <c r="W40" s="92"/>
+      <c r="X40" s="92"/>
+      <c r="Y40" s="92"/>
+      <c r="Z40" s="92"/>
+      <c r="AA40" s="92"/>
+      <c r="AB40" s="92"/>
+      <c r="AC40" s="92"/>
+      <c r="AD40" s="92"/>
+      <c r="AE40" s="92"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A41" s="97" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.2.1</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" s="67">
+        <f>Report!C54</f>
+        <v>60</v>
+      </c>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68">
+        <v>0.7</v>
+      </c>
+      <c r="K41" s="68">
+        <v>1</v>
+      </c>
+      <c r="L41" s="68">
+        <v>1</v>
+      </c>
+      <c r="M41" s="68">
+        <v>1</v>
+      </c>
+      <c r="N41" s="68">
+        <v>1</v>
+      </c>
+      <c r="O41" s="68">
+        <v>1</v>
+      </c>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="68"/>
+      <c r="Y41" s="68"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="68"/>
+      <c r="AB41" s="68"/>
+      <c r="AC41" s="68"/>
+      <c r="AD41" s="68"/>
+      <c r="AE41" s="68"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A42" s="97" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.2.2</v>
+      </c>
+      <c r="B42" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="67">
+        <f>Report!C55</f>
+        <v>70</v>
+      </c>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="68">
+        <v>0.1</v>
+      </c>
+      <c r="J42" s="68">
+        <v>0.2</v>
+      </c>
+      <c r="K42" s="68">
+        <v>0.75</v>
+      </c>
+      <c r="L42" s="68">
+        <v>1</v>
+      </c>
+      <c r="M42" s="68">
+        <v>1</v>
+      </c>
+      <c r="N42" s="68">
+        <v>1</v>
+      </c>
+      <c r="O42" s="68">
+        <v>1</v>
+      </c>
+      <c r="P42" s="68"/>
+      <c r="Q42" s="68"/>
+      <c r="R42" s="68"/>
+      <c r="S42" s="68"/>
+      <c r="T42" s="68"/>
+      <c r="U42" s="68"/>
+      <c r="V42" s="68"/>
+      <c r="W42" s="68"/>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="68"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="68"/>
+      <c r="AB42" s="68"/>
+      <c r="AC42" s="68"/>
+      <c r="AD42" s="68"/>
+      <c r="AE42" s="68"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A43" s="97" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>2.2.3</v>
+      </c>
+      <c r="B43" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="67">
+        <f>Report!C56</f>
+        <v>50</v>
+      </c>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="L43" s="68">
+        <v>0.84</v>
+      </c>
+      <c r="M43" s="68">
+        <v>1</v>
+      </c>
+      <c r="N43" s="68">
+        <v>1</v>
+      </c>
+      <c r="O43" s="68">
+        <v>1</v>
+      </c>
+      <c r="P43" s="68"/>
+      <c r="Q43" s="68"/>
+      <c r="R43" s="68"/>
+      <c r="S43" s="68"/>
+      <c r="T43" s="68"/>
+      <c r="U43" s="68"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="68"/>
+      <c r="AB43" s="68"/>
+      <c r="AC43" s="68"/>
+      <c r="AD43" s="68"/>
+      <c r="AE43" s="68"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A44" s="95" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.3</v>
+      </c>
+      <c r="B44" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="91">
+        <f>Report!C57</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="92">
+        <v>1</v>
+      </c>
+      <c r="L44" s="92"/>
+      <c r="M44" s="92"/>
+      <c r="N44" s="92"/>
+      <c r="O44" s="92"/>
+      <c r="P44" s="92"/>
+      <c r="Q44" s="92"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="92"/>
+      <c r="T44" s="92"/>
+      <c r="U44" s="92"/>
+      <c r="V44" s="92"/>
+      <c r="W44" s="92"/>
+      <c r="X44" s="92"/>
+      <c r="Y44" s="92"/>
+      <c r="Z44" s="92"/>
+      <c r="AA44" s="92"/>
+      <c r="AB44" s="92"/>
+      <c r="AC44" s="92"/>
+      <c r="AD44" s="92"/>
+      <c r="AE44" s="92"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A45" s="95" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>2.4</v>
+      </c>
+      <c r="B45" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="91">
+        <f>Report!C58</f>
+        <v>20</v>
+      </c>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92">
+        <v>0.3</v>
+      </c>
+      <c r="K45" s="92">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L45" s="92">
+        <v>0.81</v>
+      </c>
+      <c r="M45" s="92">
+        <v>1</v>
+      </c>
+      <c r="N45" s="92"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="92"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="92"/>
+      <c r="T45" s="92"/>
+      <c r="U45" s="92"/>
+      <c r="V45" s="92"/>
+      <c r="W45" s="92"/>
+      <c r="X45" s="92"/>
+      <c r="Y45" s="92"/>
+      <c r="Z45" s="92"/>
+      <c r="AA45" s="92"/>
+      <c r="AB45" s="92"/>
+      <c r="AC45" s="92"/>
+      <c r="AD45" s="92"/>
+      <c r="AE45" s="92"/>
+    </row>
+    <row r="46" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="93" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),TEXT(VALUE(prevWBS)+1,"#"),TEXT(VALUE(LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1))+1,"#")))</f>
+        <v>3</v>
+      </c>
+      <c r="B46" s="94" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="91">
+        <f>Report!C59</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="92"/>
+      <c r="N46" s="92"/>
+      <c r="O46" s="92"/>
+      <c r="P46" s="92"/>
+      <c r="Q46" s="92"/>
+      <c r="R46" s="92"/>
+      <c r="S46" s="92"/>
+      <c r="T46" s="92"/>
+      <c r="U46" s="92"/>
+      <c r="V46" s="92"/>
+      <c r="W46" s="92"/>
+      <c r="X46" s="92"/>
+      <c r="Y46" s="92"/>
+      <c r="Z46" s="92"/>
+      <c r="AA46" s="92"/>
+      <c r="AB46" s="92"/>
+      <c r="AC46" s="92"/>
+      <c r="AD46" s="92"/>
+      <c r="AE46" s="92"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A47" s="107" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
+        <v>3.1</v>
+      </c>
+      <c r="B47" s="104" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="67">
+        <f>Report!C60</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="92"/>
+      <c r="M47" s="92"/>
+      <c r="N47" s="92"/>
+      <c r="O47" s="92"/>
+      <c r="P47" s="92"/>
+      <c r="Q47" s="92"/>
+      <c r="R47" s="92"/>
+      <c r="S47" s="92"/>
+      <c r="T47" s="92"/>
+      <c r="U47" s="92"/>
+      <c r="V47" s="92"/>
+      <c r="W47" s="92"/>
+      <c r="X47" s="92"/>
+      <c r="Y47" s="92"/>
+      <c r="Z47" s="92"/>
+      <c r="AA47" s="92"/>
+      <c r="AB47" s="92"/>
+      <c r="AC47" s="92"/>
+      <c r="AD47" s="92"/>
+      <c r="AE47" s="92"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A48" s="108" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",2))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",2))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",3))-FIND("`",SUBSTITUTE(prevWBS,".","`",2))-1)))+1)))</f>
+        <v>3.1.1</v>
+      </c>
+      <c r="B48" s="105" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="67">
+        <f>Report!C61</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="92"/>
+      <c r="M48" s="92"/>
+      <c r="N48" s="92"/>
+      <c r="O48" s="92"/>
+      <c r="P48" s="92"/>
+      <c r="Q48" s="92"/>
+      <c r="R48" s="92"/>
+      <c r="S48" s="92"/>
+      <c r="T48" s="92"/>
+      <c r="U48" s="92"/>
+      <c r="V48" s="92"/>
+      <c r="W48" s="92"/>
+      <c r="X48" s="92"/>
+      <c r="Y48" s="92"/>
+      <c r="Z48" s="92"/>
+      <c r="AA48" s="92"/>
+      <c r="AB48" s="92"/>
+      <c r="AC48" s="92"/>
+      <c r="AD48" s="92"/>
+      <c r="AE48" s="92"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A49" s="107" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.1</v>
+      </c>
+      <c r="B49" s="106" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="67">
+        <f>Report!C62</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="68"/>
+      <c r="I49" s="68"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+      <c r="M49" s="68"/>
+      <c r="N49" s="68"/>
+      <c r="O49" s="68"/>
+      <c r="P49" s="68"/>
+      <c r="Q49" s="68"/>
+      <c r="R49" s="68"/>
+      <c r="S49" s="68"/>
+      <c r="T49" s="68"/>
+      <c r="U49" s="68"/>
+      <c r="V49" s="68"/>
+      <c r="W49" s="68"/>
+      <c r="X49" s="68"/>
+      <c r="Y49" s="68"/>
+      <c r="Z49" s="68"/>
+      <c r="AA49" s="68"/>
+      <c r="AB49" s="68"/>
+      <c r="AC49" s="68"/>
+      <c r="AD49" s="68"/>
+      <c r="AE49" s="68"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A50" s="107" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.2</v>
+      </c>
+      <c r="B50" s="106" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="67">
+        <f>Report!C63</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="68"/>
+      <c r="I50" s="68"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="68"/>
+      <c r="L50" s="68"/>
+      <c r="M50" s="68"/>
+      <c r="N50" s="68"/>
+      <c r="O50" s="68"/>
+      <c r="P50" s="68"/>
+      <c r="Q50" s="68"/>
+      <c r="R50" s="68"/>
+      <c r="S50" s="68"/>
+      <c r="T50" s="68"/>
+      <c r="U50" s="68"/>
+      <c r="V50" s="68"/>
+      <c r="W50" s="68"/>
+      <c r="X50" s="68"/>
+      <c r="Y50" s="68"/>
+      <c r="Z50" s="68"/>
+      <c r="AA50" s="68"/>
+      <c r="AB50" s="68"/>
+      <c r="AC50" s="68"/>
+      <c r="AD50" s="68"/>
+      <c r="AE50" s="68"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A51" s="107" t="str">
+        <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.0.0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",3))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",4))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",3))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",3))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",4))-FIND("`",SUBSTITUTE(prevWBS,".","`",3))-1)))+1)))</f>
+        <v>3.1.1.3</v>
+      </c>
+      <c r="B51" s="106" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="67">
+        <f>Report!C64</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="68"/>
+      <c r="I51" s="68"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="68"/>
+      <c r="L51" s="68"/>
+      <c r="M51" s="68"/>
+      <c r="N51" s="68"/>
+      <c r="O51" s="68"/>
+      <c r="P51" s="68"/>
+      <c r="Q51" s="68"/>
+      <c r="R51" s="68"/>
+      <c r="S51" s="68"/>
+      <c r="T51" s="68"/>
+      <c r="U51" s="68"/>
+      <c r="V51" s="68"/>
+      <c r="W51" s="68"/>
+      <c r="X51" s="68"/>
+      <c r="Y51" s="68"/>
+      <c r="Z51" s="68"/>
+      <c r="AA51" s="68"/>
+      <c r="AB51" s="68"/>
+      <c r="AC51" s="68"/>
+      <c r="AD51" s="68"/>
+      <c r="AE51" s="68"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A52" s="98"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="68"/>
+      <c r="I52" s="68"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="68"/>
+      <c r="L52" s="68"/>
+      <c r="M52" s="68"/>
+      <c r="N52" s="68"/>
+      <c r="O52" s="68"/>
+      <c r="P52" s="68"/>
+      <c r="Q52" s="68"/>
+      <c r="R52" s="68"/>
+      <c r="S52" s="68"/>
+      <c r="T52" s="68"/>
+      <c r="U52" s="68"/>
+      <c r="V52" s="68"/>
+      <c r="W52" s="68"/>
+      <c r="X52" s="68"/>
+      <c r="Y52" s="68"/>
+      <c r="Z52" s="68"/>
+      <c r="AA52" s="68"/>
+      <c r="AB52" s="68"/>
+      <c r="AC52" s="68"/>
+      <c r="AD52" s="68"/>
+      <c r="AE52" s="68"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A53" s="98"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="68"/>
+      <c r="I53" s="68"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="68"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="68"/>
+      <c r="O53" s="68"/>
+      <c r="P53" s="68"/>
+      <c r="Q53" s="68"/>
+      <c r="R53" s="68"/>
+      <c r="S53" s="68"/>
+      <c r="T53" s="68"/>
+      <c r="U53" s="68"/>
+      <c r="V53" s="68"/>
+      <c r="W53" s="68"/>
+      <c r="X53" s="68"/>
+      <c r="Y53" s="68"/>
+      <c r="Z53" s="68"/>
+      <c r="AA53" s="68"/>
+      <c r="AB53" s="68"/>
+      <c r="AC53" s="68"/>
+      <c r="AD53" s="68"/>
+      <c r="AE53" s="68"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A54" s="98"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="68"/>
+      <c r="J54" s="68"/>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="68"/>
+      <c r="N54" s="68"/>
+      <c r="O54" s="68"/>
+      <c r="P54" s="68"/>
+      <c r="Q54" s="68"/>
+      <c r="R54" s="68"/>
+      <c r="S54" s="68"/>
+      <c r="T54" s="68"/>
+      <c r="U54" s="68"/>
+      <c r="V54" s="68"/>
+      <c r="W54" s="68"/>
+      <c r="X54" s="68"/>
+      <c r="Y54" s="68"/>
+      <c r="Z54" s="68"/>
+      <c r="AA54" s="68"/>
+      <c r="AB54" s="68"/>
+      <c r="AC54" s="68"/>
+      <c r="AD54" s="68"/>
+      <c r="AE54" s="68"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A55" s="98"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="68"/>
+      <c r="I55" s="68"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
+      <c r="O55" s="68"/>
+      <c r="P55" s="68"/>
+      <c r="Q55" s="68"/>
+      <c r="R55" s="68"/>
+      <c r="S55" s="68"/>
+      <c r="T55" s="68"/>
+      <c r="U55" s="68"/>
+      <c r="V55" s="68"/>
+      <c r="W55" s="68"/>
+      <c r="X55" s="68"/>
+      <c r="Y55" s="68"/>
+      <c r="Z55" s="68"/>
+      <c r="AA55" s="68"/>
+      <c r="AB55" s="68"/>
+      <c r="AC55" s="68"/>
+      <c r="AD55" s="68"/>
+      <c r="AE55" s="68"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A56" s="98"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="68"/>
+      <c r="I56" s="68"/>
+      <c r="J56" s="68"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
+      <c r="O56" s="68"/>
+      <c r="P56" s="68"/>
+      <c r="Q56" s="68"/>
+      <c r="R56" s="68"/>
+      <c r="S56" s="68"/>
+      <c r="T56" s="68"/>
+      <c r="U56" s="68"/>
+      <c r="V56" s="68"/>
+      <c r="W56" s="68"/>
+      <c r="X56" s="68"/>
+      <c r="Y56" s="68"/>
+      <c r="Z56" s="68"/>
+      <c r="AA56" s="68"/>
+      <c r="AB56" s="68"/>
+      <c r="AC56" s="68"/>
+      <c r="AD56" s="68"/>
+      <c r="AE56" s="68"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A57" s="98"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68"/>
+      <c r="G57" s="68"/>
+      <c r="H57" s="68"/>
+      <c r="I57" s="68"/>
+      <c r="J57" s="68"/>
+      <c r="K57" s="68"/>
+      <c r="L57" s="68"/>
+      <c r="M57" s="68"/>
+      <c r="N57" s="68"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
+      <c r="U57" s="68"/>
+      <c r="V57" s="68"/>
+      <c r="W57" s="68"/>
+      <c r="X57" s="68"/>
+      <c r="Y57" s="68"/>
+      <c r="Z57" s="68"/>
+      <c r="AA57" s="68"/>
+      <c r="AB57" s="68"/>
+      <c r="AC57" s="68"/>
+      <c r="AD57" s="68"/>
+      <c r="AE57" s="68"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A58" s="98"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
+      <c r="G58" s="68"/>
+      <c r="H58" s="68"/>
+      <c r="I58" s="68"/>
+      <c r="J58" s="68"/>
+      <c r="K58" s="68"/>
+      <c r="L58" s="68"/>
+      <c r="M58" s="68"/>
+      <c r="N58" s="68"/>
+      <c r="O58" s="68"/>
+      <c r="P58" s="68"/>
+      <c r="Q58" s="68"/>
+      <c r="R58" s="68"/>
+      <c r="S58" s="68"/>
+      <c r="T58" s="68"/>
+      <c r="U58" s="68"/>
+      <c r="V58" s="68"/>
+      <c r="W58" s="68"/>
+      <c r="X58" s="68"/>
+      <c r="Y58" s="68"/>
+      <c r="Z58" s="68"/>
+      <c r="AA58" s="68"/>
+      <c r="AB58" s="68"/>
+      <c r="AC58" s="68"/>
+      <c r="AD58" s="68"/>
+      <c r="AE58" s="68"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A59" s="98"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="68"/>
+      <c r="F59" s="68"/>
+      <c r="G59" s="68"/>
+      <c r="H59" s="68"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
+      <c r="X59" s="68"/>
+      <c r="Y59" s="68"/>
+      <c r="Z59" s="68"/>
+      <c r="AA59" s="68"/>
+      <c r="AB59" s="68"/>
+      <c r="AC59" s="68"/>
+      <c r="AD59" s="68"/>
+      <c r="AE59" s="68"/>
+    </row>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A60" s="98"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="68"/>
+      <c r="F60" s="68"/>
+      <c r="G60" s="68"/>
+      <c r="H60" s="68"/>
+      <c r="I60" s="68"/>
+      <c r="J60" s="68"/>
+      <c r="K60" s="68"/>
+      <c r="L60" s="68"/>
+      <c r="M60" s="68"/>
+      <c r="N60" s="68"/>
+      <c r="O60" s="68"/>
+      <c r="P60" s="68"/>
+      <c r="Q60" s="68"/>
+      <c r="R60" s="68"/>
+      <c r="S60" s="68"/>
+      <c r="T60" s="68"/>
+      <c r="U60" s="68"/>
+      <c r="V60" s="68"/>
+      <c r="W60" s="68"/>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="68"/>
+      <c r="Z60" s="68"/>
+      <c r="AA60" s="68"/>
+      <c r="AB60" s="68"/>
+      <c r="AC60" s="68"/>
+      <c r="AD60" s="68"/>
+      <c r="AE60" s="68"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="68"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="68"/>
+      <c r="J61" s="68"/>
+      <c r="K61" s="68"/>
+      <c r="L61" s="68"/>
+      <c r="M61" s="68"/>
+      <c r="N61" s="68"/>
+      <c r="O61" s="68"/>
+      <c r="P61" s="68"/>
+      <c r="Q61" s="68"/>
+      <c r="R61" s="68"/>
+      <c r="S61" s="68"/>
+      <c r="T61" s="68"/>
+      <c r="U61" s="68"/>
+      <c r="V61" s="68"/>
+      <c r="W61" s="68"/>
+      <c r="X61" s="68"/>
+      <c r="Y61" s="68"/>
+      <c r="Z61" s="68"/>
+      <c r="AA61" s="68"/>
+      <c r="AB61" s="68"/>
+      <c r="AC61" s="68"/>
+      <c r="AD61" s="68"/>
+      <c r="AE61" s="68"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A62" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="56"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="62"/>
+      <c r="O62" s="62"/>
+      <c r="P62" s="62"/>
+      <c r="Q62" s="62"/>
+      <c r="R62" s="62"/>
+      <c r="S62" s="62"/>
+      <c r="T62" s="62"/>
+      <c r="U62" s="62"/>
+      <c r="V62" s="62"/>
+      <c r="W62" s="62"/>
+      <c r="X62" s="62"/>
+      <c r="Y62" s="62"/>
+      <c r="Z62" s="62"/>
+      <c r="AA62" s="62"/>
+      <c r="AB62" s="62"/>
+      <c r="AC62" s="62"/>
+      <c r="AD62" s="62"/>
+      <c r="AE62" s="62"/>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="C63" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="63">
+        <f t="shared" ref="D63:AE63" si="2">SUMPRODUCT(D9:D62,$C$9:$C$62)</f>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E63" s="63">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="F63" s="63">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="G63" s="63">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="H63" s="63">
+        <f t="shared" si="2"/>
+        <v>196</v>
+      </c>
+      <c r="I63" s="63">
+        <f t="shared" si="2"/>
+        <v>232</v>
+      </c>
+      <c r="J63" s="63">
+        <f t="shared" si="2"/>
+        <v>287</v>
+      </c>
+      <c r="K63" s="63">
+        <f t="shared" si="2"/>
+        <v>373.5</v>
+      </c>
+      <c r="L63" s="63">
+        <f t="shared" si="2"/>
+        <v>413.2</v>
+      </c>
+      <c r="M63" s="63">
+        <f t="shared" si="2"/>
+        <v>425</v>
+      </c>
+      <c r="N63" s="63">
+        <f t="shared" si="2"/>
+        <v>405</v>
+      </c>
+      <c r="O63" s="63">
+        <f t="shared" si="2"/>
+        <v>405</v>
+      </c>
+      <c r="P63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE63" s="63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.5" right="0.5" top="0.25" bottom="0.25" header="0.5" footer="0.25"/>
+  <pageSetup scale="93" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D32"/>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_EVM.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/PM_EVM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87AE68EF-FAFE-49BE-A93A-ED1E27EF1918}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7D5443-F7EB-4834-9917-BCBFDC82CED5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1B5A6ABD-0E95-45BD-B30C-68473E7658BC}"/>
   </bookViews>
@@ -32,6 +32,7 @@
     <definedName name="vertex42_title" hidden="1">"Earned Value Management Template"</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2988,7 +2989,7 @@
   </sheetPr>
   <dimension ref="A1:AE83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
